--- a/Akan/Ananse0/Models.xlsx
+++ b/Akan/Ananse0/Models.xlsx
@@ -11,13 +11,17 @@
     <sheet name="gpt-4" sheetId="2" r:id="rId2"/>
     <sheet name="gpt-3.5-turbo" sheetId="3" r:id="rId3"/>
     <sheet name="Metadata" sheetId="4" r:id="rId4"/>
+    <sheet name="gpt-4o" sheetId="5" r:id="rId5"/>
+    <sheet name="gpt-4o-mini" sheetId="6" r:id="rId6"/>
+    <sheet name="o3-mini" sheetId="7" r:id="rId7"/>
+    <sheet name="o1-mini" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="671">
   <si>
     <t>AKAN</t>
   </si>
@@ -1713,6 +1717,5760 @@
   </si>
   <si>
     <t>Detailed translation with expanded footnotes for cultural context and translation clarification.</t>
+  </si>
+  <si>
+    <t>gpt-4o</t>
+  </si>
+  <si>
+    <t>Translation: We don't say it, we don't say it.
+Footnote:
+1. **Literal Translation Mapping**: 
+   - "Ye'" translates to "We"
+   - "nse" translates to "say"
+   - "se" translates to "it"
+   - "o" is an emphatic particle often used for emphasis or to express a tone of finality.
+2. **Cultural Context**: 
+   In Akan culture, certain topics or words are considered taboo or inappropriate to discuss openly. The phrase "Ye' nse se, 'nse se o" is often used to indicate that something is not to be spoken about, either because it is culturally sensitive, considered disrespectful, or simply inappropriate for the context. This reflects the Akan value of discretion and respect for social norms.
+3. **Translation Clarification**: 
+   The phrase is a way of emphasizing that something should not be mentioned or discussed. The repetition of "nse se" (say it) with the addition of "o" at the end serves to reinforce the prohibition or the cultural norm of silence on the matter. The translation captures the essence of the original phrase by maintaining the emphasis on the prohibition of speaking about the subject.</t>
+  </si>
+  <si>
+    <t>Translation: If it is well done, we will call it a proverb; if not, we will call it a spider story.
+Footnote:
+1. Literal Translation Mapping:
+   - "SE 'YOYE A" translates to "If it is well done"
+   - "ANYANKONSEM" translates to "proverb"
+   - "YE BE FRENO" translates to "we will call it"
+   - "ANANSESEM" translates to "spider story"
+2. Cultural Context:
+   - In Akan culture, proverbs ("anyankonsɛm") are highly valued as they convey wisdom and are used to teach moral lessons. They are considered a mark of eloquence and intelligence.
+   - "Anansesem" refers to folktales involving Ananse the spider, a trickster figure in Akan folklore. These stories are often entertaining and carry moral lessons but are not held in the same esteem as proverbs.
+   - The phrase reflects the cultural importance of wisdom and the distinction between respected knowledge and mere storytelling.
+3. Translation Clarification:
+   - The phrase suggests that when something is done well, it is elevated to the status of a proverb, which is respected and valued. If not, it is merely a story, implying a lesser value. This highlights the Akan appreciation for skillful communication and the power of words.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Kwaku Ananse went to the sky god to bring him the stories of the sky.
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "KWAKU ANANSE" - Kwaku Ananse
+   - "na okoo" - went
+   - "Nyankonpon" - sky god
+   - "hose" - to
+   - "omfa" - to bring
+   - "'Nyankonsem" - stories of the sky
+   - "mma no" - to him
+   - "nto" - bring
+2. **Cultural Context:**
+   - Kwaku Ananse is a well-known character in Akan folklore, often depicted as a cunning spider. He is a central figure in many West African stories and is known for his wisdom and trickery.
+   - "Nyankonpon" refers to the supreme god in Akan spirituality, often associated with the sky. In many Akan stories, Nyankonpon is a powerful deity who holds the secrets of the universe.
+   - "Nyankonsem" refers to the stories or wisdom of the sky, which are considered valuable and sacred. These stories often contain moral lessons and cultural teachings.
+3. **Translation Clarification:**
+   - The phrase "Kwaku Ananse na okoo Nyankonpon hose omfa 'Nyankonsem mma no nto" describes a common theme in Akan folklore where Ananse undertakes a journey or task to acquire something of great value, in this case, the stories of the sky. The translation captures the essence of the original text, emphasizing Ananse's quest to obtain these important stories from the sky god.</t>
+  </si>
+  <si>
+    <t>English Translation: God said, "Can you build it?"
+Footnote:
+1. Literal Translation Mapping:
+   - "Nyame" translates to "God."
+   - "see" translates to "said."
+   - "Wo" translates to "you."
+   - "betimi" translates to "can" or "are able to."
+   - "ato" translates to "build it."
+2. Cultural Context:
+   - In Akan culture, "Nyame" is a term used to refer to God, who is considered the supreme being and creator. The Akan people often invoke God's name in conversations, stories, and proverbs to emphasize authority, wisdom, or divine intervention.
+   - The phrase "Wo betimi ato?" is a question that implies a challenge or a test of capability. It reflects a common cultural theme where individuals are encouraged to assess their abilities and take on responsibilities or tasks.
+3. Translation Clarification:
+   - The translation "Can you build it?" captures the essence of the original Akan text, where God is questioning someone's ability to accomplish a task. The use of "build" in this context can be metaphorical, referring to creating or achieving something significant, not necessarily constructing a physical structure.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "Oh! I can do it."
+Footnote:
+1. Literal Translation Mapping:
+   - "Ananse" translates to "Ananse," which is a character in Akan folklore.
+   - "see" translates to "said."
+   - "Ei!" translates to "Oh!"
+   - "metimi" translates to "I can do it."
+2. Cultural Context:
+   - Ananse is a well-known trickster figure in Akan folklore, often depicted as a spider. He is famous for his cleverness and cunning, often using his wit to outsmart others. The stories of Ananse are used to teach moral lessons and are an integral part of Akan oral tradition.
+   - The exclamation "Ei!" is a common expression in Akan, used to convey surprise, realization, or emphasis. It is similar to saying "Oh!" or "Wow!" in English.
+3. Translation Clarification:
+   - The phrase "metimi" is a contraction of "me" (I) and "timi" (can do it), which is a common way to express capability or ability in Akan. The sentence captures Ananse's confidence or realization of his ability to accomplish something, which is typical of his character in stories.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+God said, "If small towns like Kokofu, Bekwai, and Asumengya are here and we couldn't build them, how can you, Kwafwiaban, manage to do it?"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Nyame" = "God"
+   - "see" = "said"
+   - "Akuro akantinka" = "small towns"
+   - "be ye se" = "like"
+   - "Kokofu, Bekwai, Asumengya" = "Kokofu, Bekwai, Asumengya" (names of towns)
+   - "aha" = "are here"
+   - "ye'antimi anto" = "we couldn't build them"
+   - "na wo Kwafwiaban" = "and you, Kwafwiaban"
+   - "na wo betimi" = "how can you manage"
+2. **Cultural Context:**
+   - The towns mentioned, Kokofu, Bekwai, and Asumengya, are real places in Ghana, known for their historical and cultural significance. They are part of the Ashanti Region, which is rich in history and tradition. The mention of these towns in a proverb or saying often implies a reference to well-known places that have established their importance over time.
+   - The name "Kwafwiaban" is likely a metaphorical or symbolic name used in the context of the saying. It could represent an individual or a group that is perceived as less capable or inexperienced compared to the established towns.
+3. **Translation Clarification:**
+   - The phrase is a proverbial expression used to convey skepticism about someone's ability to achieve something significant when others, who are perceived as more capable or established, have not succeeded. It reflects a common theme in Akan proverbs where comparisons are made to highlight the improbability or difficulty of a task. The use of well-known towns adds weight to the argument, suggesting that if these prominent places couldn't achieve something, it is unlikely that someone less known or less capable could do so.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "What should we cook?"
+Footnote:
+1. Literal Translation Mapping:
+   - "Ananse" = "Ananse" (a character in Akan folklore)
+   - "see" = "said"
+   - "Edieben" = "What"
+   - "na" = "should"
+   - "ye" = "we"
+   - "to" = "cook"
+   - "ma" = "for"
+2. Cultural Context:
+   - Ananse, also known as Kweku Ananse, is a central figure in Akan folklore and is often depicted as a cunning spider or a man with spider-like qualities. He is known for his cleverness and trickery. Stories about Ananse are used to teach moral lessons and are an integral part of Akan oral tradition.
+   - The act of cooking together is a communal activity in many African cultures, including the Akan. It signifies unity, cooperation, and the sharing of responsibilities within a community or family.
+3. Translation Clarification:
+   - The phrase "Edieben na ye to ma?" is a common way to ask what meal should be prepared. In this context, Ananse is likely engaging in a conversation about meal preparation, which could be part of a larger story or lesson. The translation captures the essence of the question, focusing on the decision-making aspect of cooking.</t>
+  </si>
+  <si>
+    <t>Translation: God said, "Let us go and catch the python, the leopard, the dwarfs, and the hornets."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Nyame" translates to "God."
+   - "see" translates to "said."
+   - "Ye nto mma fwe gye se" translates to "Let us go and catch."
+   - "Aboa Onini" translates to "the python."
+   - "Osebo" translates to "the leopard."
+   - "Mmoatia" translates to "the dwarfs."
+   - "Mmoboro" translates to "the hornets."
+2. **Cultural Context**:
+   - In Akan mythology and folklore, animals and mythical creatures often play significant roles in stories that convey moral lessons or cultural values. The python ("Aboa Onini") and the leopard ("Osebo") are common symbols of strength and cunning. "Mmoatia" refers to mythical dwarfs, often depicted as magical beings with special powers. "Mmoboro" or hornets are known for their aggressive nature and are often used metaphorically to represent challenges or obstacles.
+   - The phrase "Ye nto mma fwe gye se" suggests a collective effort or mission, which is a common theme in Akan proverbs and stories, emphasizing community and cooperation.
+3. **Translation Clarification**:
+   - The phrase "Let us go and catch" implies a task or challenge that requires teamwork and bravery. In the context of Akan folklore, such a statement might precede a story where characters embark on a quest or adventure, often leading to a moral or lesson. The inclusion of both real and mythical creatures highlights the blend of reality and imagination typical in Akan storytelling.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse said, "I will bring some of the items, along with my old woman, Nsia."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse" - Ananse (a character in Akan folklore)
+   - "see" - said
+   - "Me de nnooma nnyina bi meba" - I will bring some of the items
+   - "me de m'aberewa, Nsia, meka ho" - along with my old woman, Nsia
+2. **Cultural Context:**
+   - Ananse is a well-known trickster figure in Akan folklore, often depicted as a spider. He is a central character in many stories that convey moral lessons or explain natural phenomena.
+   - The term "aberewa" refers to an old woman, which in Akan culture can signify wisdom, experience, or sometimes vulnerability, depending on the context of the story.
+   - "Nsia" is a name that might be used for a character in the story, possibly Ananse's wife or an elderly woman he is associated with. Names in Akan stories often carry meanings or reflect the character's role in the narrative.
+3. **Translation Clarification:**
+   - The phrase "Me de nnooma nnyina bi meba" suggests that Ananse is planning to bring some items, which could imply preparation for a journey or an event. The use of "nnyina" (all) and "bi" (some) indicates a selection from a larger group.
+   - "Me de m'aberewa, Nsia, meka ho" indicates that Ananse is not only bringing items but also accompanying them with an important person, Nsia, who is described as an "aberewa" (old woman). This could imply that Nsia plays a significant role in the story, either as a helper or as someone who adds value to the items being brought.</t>
+  </si>
+  <si>
+    <t>Translation: God said, "Go and bring it."
+Footnote:
+1. Literal Translation Mapping:
+   - "Nyame" translates to "God."
+   - "see" translates to "said."
+   - "Ko" translates to "go."
+   - "fa" translates to "take" or "bring."
+   - "brae" translates to "come" or "bring it."
+2. Cultural Context:
+   In Akan culture, Nyame (God) is often invoked in stories, proverbs, and everyday conversation as a supreme being who guides and instructs. The phrase "Ko fa brae" is a common directive that implies fetching or retrieving something. It reflects the oral tradition where instructions or commands are often given in a straightforward manner. The use of "brae" (come) in this context emphasizes the action of bringing something back to the speaker.
+3. Translation Clarification:
+   The phrase "Ko fa brae" is a command that combines the actions of going and bringing something back. In English, this is often simplified to "Go and bring it." The directive is clear and implies urgency or importance, which is typical in instructions attributed to a higher authority like God in Akan narratives.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse came and told his mother, "I want to tell the stories of the gods, and Nyame said I should bring the python, the leopard, the dwarfs, and the hornets, and I said I would add you to it and take it to Nyankonpon."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse baye" - "Ananse came"
+   - "na oboo oni amanie se" - "and he told his mother that"
+   - "Nyankonsem me pe se me to" - "I want to tell the stories of the gods"
+   - "na Nyame se me mfa Onini, Osebo, Mmoatia, Mmoboro mmera" - "and Nyame said I should bring the python, the leopard, the dwarfs, and the hornets"
+   - "na me see, me de wo be ka ho ma ko ma Nyankonpon" - "and I said I would add you to it and take it to Nyankonpon"
+2. **Cultural Context:**
+   - Ananse is a well-known character in Akan folklore, often depicted as a cunning spider who is involved in various tales and moral stories.
+   - Nyame is the supreme god in Akan mythology, often associated with the sky and creation.
+   - The creatures mentioned (python, leopard, dwarfs, hornets) are symbolic and often appear in Akan stories, each representing different traits or challenges.
+   - The act of telling "Nyankonsem" (stories of the gods) is a revered tradition, as these stories carry moral lessons and cultural values.
+   - The inclusion of his mother in the task signifies respect and the importance of family in Akan culture.
+3. **Translation Clarification:**
+   - The phrase "Nyankonsem me pe se me to" refers to Ananse's desire to narrate divine stories, which is a significant role in Akan storytelling.
+   - "Nyame se me mfa Onini, Osebo, Mmoatia, Mmoboro mmera" indicates a task given by Nyame, which involves capturing or bringing mythical creatures, a common motif in Ananse stories where he must use his wit to succeed.
+   - "me de wo be ka ho ma ko ma Nyankonpon" suggests Ananse's intention to include his mother in the task, highlighting the collaborative nature of storytelling and the passing of knowledge.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse asked his wife, Aso, "How can we catch the python?"
+Footnote:
+1. Literal Translation Mapping:
+   - "Na" translates to "And" or "Then."
+   - "Ananse" is a proper noun, referring to the character Ananse.
+   - "bisaa" translates to "asked."
+   - "ne ye'" translates to "his wife."
+   - "Aso" is a proper noun, referring to Ananse's wife.
+   - "se" translates to "that" or introduces a direct quote.
+   - "Ebeye den" translates to "How can."
+   - "na" in this context is part of the question structure, not the conjunction "and."
+   - "ye'anya" translates to "we catch" or "we get."
+   - "Onini" translates to "the python."
+2. Cultural Context:
+   - Ananse is a well-known character in Akan folklore, often depicted as a cunning spider who uses his wit to overcome challenges. Stories about Ananse are used to teach moral lessons and are a significant part of Akan oral tradition.
+   - Aso, Ananse's wife, is often portrayed as a wise and supportive character in these stories.
+   - The python, or "Onini," is a common character in Ananse stories, often representing a challenge or obstacle that Ananse must overcome.
+3. Translation Clarification:
+   - The phrase "Ebeye den na ye'anya Onini?" is a question about devising a plan or method to catch the python. The word "catch" in this context implies capturing or overcoming a challenge, which is a common theme in Ananse stories where he uses cleverness to solve problems.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Aso told him, "Go and buy plantains and add yams, then bring them."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Na Aso ka kyeree no se" - "And Aso said to him that"
+   - "Worlie ko twa tonton" - "You should go buy plantains"
+   - "na twa demere ka ho" - "and buy yams add to it"
+   - "na fa bra" - "and bring it"
+2. **Cultural Context:**
+   - In Akan culture, plantains and yams are staple foods and are often bought together for preparing meals. Plantains can be cooked in various ways, such as boiling, frying, or roasting, and are a common accompaniment to many dishes. Yams are also versatile and can be boiled, pounded, or fried. The act of buying these items together suggests preparing a substantial meal, possibly for a family or a gathering.
+3. **Translation Clarification:**
+   - The phrase "Worlie ko twa tonton na twa demere ka ho" is an instruction to purchase specific food items. "Tonton" refers to plantains, and "demere" refers to yams. The use of "ka ho" indicates adding one item to another, emphasizing the combination of both plantains and yams. The instruction "na fa bra" means to bring the purchased items back, indicating that the speaker expects the listener to return with the items for a particular purpose, likely meal preparation.</t>
+  </si>
+  <si>
+    <t>Translation: And then Ananse came.
+Footnote:
+1. Literal Translation Mapping:
+   - "Na" translates to "And then" or "So".
+   - "Ananse" is a proper noun, referring to the character Ananse.
+   - "de" translates to "brought" or "came".
+   - "baye" translates to "came".
+2. Cultural Context:
+   - Ananse, also known as Kweku Ananse, is a central figure in Akan folklore and is often depicted as a spider. He is a trickster character known for his cunning and intelligence. Ananse stories are an integral part of Akan oral tradition and are used to teach moral lessons and entertain. The phrase "Na Ananse de baye" is a common narrative device in these stories, indicating the arrival or involvement of Ananse in the tale.
+3. Translation Clarification:
+   - The phrase "Na Ananse de baye" is a typical opening or transitional line in Ananse stories, signaling a shift in the narrative or the introduction of Ananse's actions. While "de" can mean "brought," in this context, it is more accurately translated as "came," indicating Ananse's presence or entry into the story. The translation captures the essence of Ananse's role in the narrative, emphasizing his arrival and the expectation of his clever antics.</t>
+  </si>
+  <si>
+    <t>Translation: And Aso said, "Take it to the river."
+Footnote:
+1. Literal Translation Mapping:
+   - "Na" translates to "And"
+   - "Aso" is a proper noun, a name
+   - "see" translates to "said"
+   - "Fa" translates to "Take"
+   - "ko" translates to "go"
+   - "asuom'" translates to "to the river"
+2. Cultural Context:
+   - In Akan culture, rivers are often seen as sacred places and are associated with spiritual significance. They are sometimes considered abodes of deities or spirits. The act of taking something to the river could imply a ritualistic or spiritual action, such as making an offering or seeking purification.
+   - Names like "Aso" are common in Akan communities and can be used to refer to both males and females. The name might have cultural or familial significance.
+3. Translation Clarification:
+   - The phrase "Fa ko asuom'" is a directive, suggesting an action to be performed. In the context of the Akan language, such directives are often concise and rely on the listener's understanding of the cultural implications.
+   - The translation "Take it to the river" captures the essence of the directive, but it is important to note that the action might carry deeper cultural meanings beyond the literal act of moving something to a river.</t>
+  </si>
+  <si>
+    <t>Translation: And Ananse took the pot and said, "It is not full, it is full; you lie, it is full."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Na" - "And"
+   - "Ananse" - "Ananse" (a character in Akan folklore)
+   - "de" - "took"
+   - "ekoro no" - "the pot"
+   - "osee" - "said"
+   - "Esene no" - "It is not full"
+   - "ensene no" - "it is full"
+   - "woboa" - "you lie"
+   - "esene no" - "it is full"
+2. **Cultural Context**:
+   - Ananse is a well-known character in Akan folklore, often depicted as a cunning spider or man who uses his wit to outsmart others. Stories about Ananse, known as "Anansesem," are used to teach moral lessons and entertain.
+   - The phrase "esene no, ensene no" reflects a common theme in Ananse stories where he uses wordplay or contradictions to confuse or manipulate others. This reflects the oral tradition of storytelling in Akan culture, where language and wit are highly valued.
+3. **Translation Clarification**:
+   - The phrase "Esene no, ensene no" is a play on words, highlighting Ananse's cleverness. It suggests a contradiction, where Ananse is both acknowledging and denying the pot's fullness, likely to deceive or trick someone.
+   - "Woboa" is an expression used to call someone out for lying or being deceitful, which is fitting in the context of Ananse's character, who often engages in trickery.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "He is the one who sleeps a lot."
+Footnote:
+1. Literal Translation Mapping:
+   - "Ananse" = "Ananse" (a character in Akan folklore)
+   - "see" = "said"
+   - "Ono" = "He" or "She" (depending on context, but here it is "He")
+   - "na" = "is the one who"
+   - "oda" = "sleeps"
+   - "doo" = "a lot"
+   - "no" = "the" or "that" (used here for emphasis)
+2. Cultural Context:
+   - Ananse is a well-known trickster figure in Akan folklore, often depicted as a spider. He is a central character in many stories that convey moral lessons or explain natural phenomena. The phrase "Ono na oda doo no" suggests a context where Ananse is identifying someone known for sleeping excessively, which could be part of a larger story where this trait is significant.
+3. Translation Clarification:
+   - The phrase "Ono na oda doo no" is an example of how Akan language often uses emphasis and context to convey meaning. The word "no" at the end of the sentence serves to emphasize the statement, making it clear that the person being referred to is specifically known for this behavior. In English, this is translated as "He is the one who sleeps a lot," capturing both the identification and the emphasis present in the original Akan text.</t>
+  </si>
+  <si>
+    <t>Translation: The snake said, "Why?"
+Footnote:
+1. Literal Translation Mapping:
+   - "Onini" translates to "snake."
+   - "see" translates to "said."
+   - "Aden?" translates to "Why?"
+2. Cultural Context:
+   - In Akan folklore and storytelling, animals are often personified and given the ability to speak. The snake, or "onini," is a common character in these stories and can symbolize various traits such as wisdom, cunning, or danger, depending on the context of the story. The use of dialogue by animals is a typical feature in Akan oral traditions, where moral lessons or cultural values are often conveyed through the interactions of these characters.
+3. Translation Clarification:
+   - The phrase "Onini see, 'Aden?'" is a simple sentence where the snake is questioning something. The word "Aden?" is a direct question meaning "Why?" in English. The context of the question would depend on the surrounding narrative, which is not provided here. The translation captures the essence of the original text, maintaining the directness and simplicity of the question posed by the snake.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse said, "It is not my ears that deceive me, if this short one is taller than you, then I am a fool."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse see" - "Ananse said"
+   - "Nye Aso na ogye me akyinnyie" - "It is not my ears that deceive me"
+   - "se ton­ ton yi kyen wo tenten" - "if this short one is taller than you"
+   - "name se oboa" - "then I am a fool"
+2. **Cultural Context:**
+   - Ananse is a well-known character in Akan folklore, often depicted as a clever spider who uses his wit to outsmart others. His stories are used to teach moral lessons and are a significant part of Akan oral tradition.
+   - The phrase "It is not my ears that deceive me" suggests skepticism or disbelief in what is being heard, a common expression in Akan culture to indicate that something seems unbelievable or contrary to common sense.
+   - The comparison between "short one" and "taller than you" is a metaphorical way to express an absurdity or an impossible situation, highlighting the cleverness or trickery often associated with Ananse.
+3. **Translation Clarification:**
+   - The phrase "It is not my ears that deceive me" is an idiomatic expression indicating disbelief. In English, it might be akin to saying, "I can't believe my ears."
+   - The use of "short one" and "taller than you" is a rhetorical device to emphasize the absurdity of the situation, which is a common storytelling technique in Ananse tales to illustrate a point or moral.
+   - The term "then I am a fool" is a self-deprecating remark that Ananse uses to emphasize the impossibility of the situation, as he is known for his intelligence and cunning.</t>
+  </si>
+  <si>
+    <t>Translation: The python said, "Come closer, measure me."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Onini" translates to "python."
+   - "see" translates to "said."
+   - "Fra" translates to "come closer."
+   - "bra" translates to "come."
+   - "be susu me" translates to "measure me."
+2. **Cultural Context**:
+   - In Akan folklore, animals often speak and interact with humans or other animals, conveying moral lessons or cultural values. The python, or "onini," is a significant creature in many African cultures, often symbolizing wisdom, strength, or danger. The act of measuring a python could be part of a story illustrating themes of curiosity, bravery, or the consequences of underestimating danger.
+3. **Translation Clarification**:
+   - The phrase "Fra bra, be susu me" is an invitation or challenge from the python to come closer and measure its length. This could imply a test of courage or a trap, depending on the context of the story. The repetition of "come" in "Fra bra" emphasizes the invitation or command, making it more compelling or urgent.</t>
+  </si>
+  <si>
+    <t>Translation: He placed the talisman on the python.
+Footnote:
+1. Literal Translation Mapping:
+   - "Ode" translates to "He placed" or "He put."
+   - "tonton" refers to a "talisman" or "charm."
+   - "no" is a definite article meaning "the."
+   - "too" means "placed" or "put."
+   - "Onini" refers to a "python."
+   - "ho" means "on."
+2. Cultural Context:
+   - In Akan culture, talismans or charms, known as "tonton," are often used for protection, spiritual purposes, or to bring good fortune. They are believed to have mystical powers and are sometimes used in traditional rituals or practices.
+   - Pythons, or "Onini," are significant in many African cultures, including the Akan. They are often associated with strength, wisdom, and sometimes spiritual entities. In some contexts, pythons are revered and considered sacred.
+3. Translation Clarification:
+   - The sentence describes an action where a talisman is placed on a python. This could imply a ritualistic or symbolic act, possibly for protection or invoking certain powers associated with the python. The translation maintains the original meaning while considering the cultural significance of both the talisman and the python in Akan culture.</t>
+  </si>
+  <si>
+    <t>Translation: He/She said, "Be patient."
+Footnote:
+1. Literal Translation Mapping:
+   - "Osee" translates to "He/She said."
+   - "Twe" translates to "pull" or "draw."
+   - "wo" translates to "your."
+   - "mu" translates to "inside" or "in."
+2. Cultural Context:
+   - In Akan culture, the phrase "Twe wo mu" is an idiomatic expression that means to exercise patience or to calm down. The literal translation might suggest a physical action, but culturally, it is understood as a metaphorical instruction to control one's emotions or reactions. Patience is a valued trait in many African cultures, including Akan, where it is often associated with wisdom and maturity.
+3. Translation Clarification:
+   - While the literal translation of "Twe wo mu" might suggest a physical action of pulling something inside, the intended meaning in this context is to advise someone to be patient or to calm down. The expression is commonly used in situations where someone might be agitated or anxious, and it serves as a gentle reminder to remain composed.</t>
+  </si>
+  <si>
+    <t>English Translation: The python pulled it, and Ananse placed the yam on it, crackling! crackling! crackling! and it landed on the head.
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Na Onini twe no mu" - "And Python pulled it"
+   - "na Ananse de demere no too no so" - "and Ananse placed the yam on it"
+   - "nwenene! nwenene! nwenene!" - "crackling! crackling! crackling!"
+   - "na esii tire" - "and it landed on the head"
+2. **Cultural Context**:
+   - In Akan folklore, Ananse (the spider) is a well-known trickster character who often uses his wit to outsmart others. The python, or "Onini," is another character that appears in these stories, often representing strength or power. The interaction between Ananse and the python in this text is likely part of a larger story where Ananse uses his cleverness to achieve a goal.
+   - The use of "demere" (yam) is significant as yams are a staple food in many West African cultures, including among the Akan people. They are often associated with sustenance and are a common element in traditional stories.
+   - The sound "nwenene" mimics the crackling noise, adding an auditory element to the narrative, which is a common storytelling technique in oral traditions to engage listeners.
+3. **Translation Clarification**:
+   - The phrase "nwenene! nwenene! nwenene!" is an onomatopoeic expression that captures the sound of something crackling or breaking. In the context of the story, it likely describes the sound of the yam as it is placed on the python, emphasizing the action and its impact.
+   - The phrase "and it landed on the head" suggests a surprising or unexpected outcome, which is typical of Ananse stories where the trickster's actions lead to unforeseen consequences.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "Fool, I will take you to receive the wisdom of the universe."
+Footnote:
+1. Literal Translation Mapping:
+   - "Ananse" = "Ananse" (a character in Akan folklore)
+   - "see" = "said"
+   - "Kwasea" = "Fool"
+   - "me de wo" = "I will take you"
+   - "ko gye" = "to go receive"
+   - "Anyankonsem" = "the wisdom of the universe"
+2. Cultural Context:
+   - Ananse is a well-known character in Akan folklore, often depicted as a cunning spider or a man with spider-like qualities. He is a trickster figure who is both clever and mischievous, often using his wit to outsmart others.
+   - "Kwasea" is a term used in Akan to refer to someone as a fool or an idiot. It is a derogatory term and can be quite offensive if used inappropriately.
+   - "Anyankonsem" refers to profound wisdom or knowledge, often associated with the universe or the divine. In Akan culture, wisdom is highly valued, and stories often emphasize the importance of acquiring knowledge and understanding.
+3. Translation Clarification:
+   - The phrase "me de wo ko gye Anyankonsem" implies a journey or an action of taking someone to acquire something valuable, in this case, wisdom. The use of "Anyankonsem" suggests that the wisdom is not just ordinary knowledge but something of great significance, possibly divine or universal in nature.
+   - The translation captures the essence of Ananse's intention to lead someone (referred to as a fool) to gain significant wisdom, highlighting the contrast between the current state of ignorance and the potential for enlightenment.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse took it to Nyame.
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Ananse" - Ananse (a character in Akan folklore)
+   - "de" - took
+   - "no" - it
+   - "ko" - to
+   - "maa" - for
+   - "Nyame" - Nyame (the Akan name for God or the Supreme Being)
+2. **Cultural Context**:
+   - Ananse, also known as Kweku Ananse, is a central figure in Akan folklore, often depicted as a spider. He is known for his cunning and intelligence and is a character in many stories that convey moral lessons or explain natural phenomena.
+   - Nyame is the supreme deity in Akan spirituality, often associated with the sky and creation. In many Ananse stories, Ananse interacts with Nyame, sometimes trying to outwit him or seeking his favor.
+   - The phrase suggests a narrative where Ananse is involved in a task or mission that involves Nyame, which is a common theme in Akan storytelling.
+3. **Translation Clarification**:
+   - The phrase "Ananse de no ko maa Nyame" is a concise way of saying that Ananse took something to Nyame. The specific object or purpose is not mentioned in this line, which is typical in storytelling where the context is provided by the surrounding narrative.
+   - The use of "maa" (for) implies that the action was done on behalf of or for the benefit of Nyame, which could suggest a gift, offering, or completion of a task.</t>
+  </si>
+  <si>
+    <t>Translation: God said, "My hand has touched, it has touched what it should touch."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Nyame" = "God"
+   - "see" = "said"
+   - "Me nsa aka" = "My hand has touched"
+   - "aka dee aka" = "it has touched what it should touch"
+2. **Cultural Context**:
+   - In Akan culture, the phrase "Me nsa aka" (My hand has touched) often implies that something has been completed or achieved successfully. It can also suggest divine intervention or approval, especially when attributed to God ("Nyame"). The continuation "aka dee aka" (it has touched what it should touch) reinforces the idea that the action was intentional and fulfilled its purpose. This expression is often used to convey satisfaction or the successful completion of a task, sometimes with a sense of destiny or divine will.
+3. **Translation Clarification**:
+   - The phrase "Me nsa aka, aka dee aka" is an idiomatic expression. While the literal translation might suggest a simple physical action, the intended meaning is more about the successful completion or divine approval of an action. In the context of the Akan worldview, attributing such a statement to God emphasizes the belief in divine providence and the idea that certain outcomes are meant to be.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse returned and announced his plan, saying, "It remains Mmoboro."
+Footnote:
+1. Literal Translation Mapping:
+   - "Ananse" - Ananse (a character in Akan folklore)
+   - "san baye" - returned
+   - "be boo" - announced
+   - "ne ye' amanie" - his plan
+   - "se" - saying
+   - "Aka Mmoboro" - It remains Mmoboro
+2. Cultural Context:
+   Ananse is a well-known character in Akan folklore, often depicted as a cunning spider who uses his wit to outsmart others. The stories of Ananse, known as "Anansesem," are an integral part of Akan oral tradition and are used to teach moral lessons. The phrase "Aka Mmoboro" refers to a specific part of a story or plan that is yet to be completed or addressed. "Mmoboro" can refer to a type of insect, often used metaphorically in stories to represent a challenge or task that remains.
+3. Translation Clarification:
+   The phrase "Aka Mmoboro" is an idiomatic expression in Akan, meaning that there is still something left to be done or a final challenge to overcome. In the context of Ananse stories, it often signifies the last hurdle or the final piece of a plan that needs to be executed. The translation captures the essence of the phrase by indicating that something remains to be addressed, which in this case is represented by "Mmoboro."</t>
+  </si>
+  <si>
+    <t>Translation: His wife said, "Fetch the bucket, fill it with water, and take it away."
+Footnote:
+1. Literal Translation Mapping:
+   - "Ne yere" translates to "His wife"
+   - "see" translates to "said"
+   - "Pe towa" translates to "Fetch the bucket"
+   - "fa nsuo gum'" translates to "fill it with water"
+   - "na fa ko" translates to "and take it away"
+2. Cultural Context:
+   - In many Akan-speaking communities, water is often fetched from communal sources such as rivers, wells, or boreholes. The act of fetching water is a common household chore, traditionally done using a bucket or similar container. This task is often shared among family members, and it is not uncommon for instructions like these to be given within the household.
+3. Translation Clarification:
+   - The phrase "Pe towa" is a directive to fetch a bucket, which implies the need to use a container for carrying water. "Fa nsuo gum'" means to fill the bucket with water, indicating the purpose of fetching the bucket. "Na fa ko" suggests taking the filled bucket to a specific location, which might be implied by the context but is not explicitly stated in the sentence. The translation captures the sequence of actions directed by the wife.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse went to the forest and saw that the Hornets had built a nest, so he fetched some water and poured it over the Hornets.
+Footnote:
+1. Literal Translation Mapping:
+   - "Ananse" - Ananse (a character in Akan folklore)
+   - "koo" - went
+   - "wuram'" - to the forest
+   - "obefwe" - he saw
+   - "se" - that
+   - "Mmoboro" - Hornets
+   - "sen ho" - had built a nest
+   - "na" - and/so
+   - "ofwiee" - he fetched
+   - "nsuo no bi" - some water
+   - "na" - and/so
+   - "opete" - he poured
+   - "guu" - over
+   - "Mmoboro no so" - the Hornets
+2. Cultural Context:
+   - Ananse is a well-known trickster figure in Akan folklore, often depicted as a spider. He is famous for his cleverness and cunning, often using his wits to outsmart others. The story of Ananse and the Hornets is a popular tale that illustrates his trickery and resourcefulness.
+   - Hornets, or "Mmoboro," are often seen as aggressive insects, and their nests are typically avoided. In the story, Ananse's interaction with the Hornets is a setup for one of his clever schemes.
+3. Translation Clarification:
+   - The phrase "Mmoboro sen ho" literally means "Hornets have built a nest," but in the context of the story, it implies that Ananse noticed the presence of the Hornets' nest.
+   - The action of fetching water and pouring it over the Hornets is a typical Ananse tactic to create chaos or manipulate a situation to his advantage. This part of the story sets the stage for Ananse's next move, which usually involves tricking the Hornets in some way.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse opened what was left and placed it on himself, then he cut a plantain leaf to cover his head.
+Footnote:
+1. Literal Translation Mapping:
+   - "Ananse" - Ananse (a character in Akan folklore)
+   - "fwiee" - opened
+   - "dee aka" - what was left
+   - "guu ono ara so" - placed it on himself
+   - "na otwaa" - then he cut
+   - "brodee-ahan" - plantain leaf
+   - "de kataa no ti" - to cover his head
+2. Cultural Context:
+   Ananse is a well-known character in Akan folklore, often depicted as a cunning spider or a man with spider-like qualities. He is a trickster figure who uses his wit to overcome challenges. The use of "brodee-ahan" (plantain leaf) is significant in Akan culture, as plantain leaves are commonly used for various purposes, including cooking, wrapping food, and providing shade. The act of covering one's head with a plantain leaf could symbolize protection or resourcefulness, traits often associated with Ananse.
+3. Translation Clarification:
+   The phrase "Ananse fwiee dee aka guu ono ara so" can be understood as Ananse making use of whatever resources he has left, which is a common theme in Ananse stories where he often finds clever solutions to problems. The action of cutting a plantain leaf to cover his head suggests a practical and immediate response to a need, highlighting Ananse's adaptability and ingenuity.</t>
+  </si>
+  <si>
+    <t>English Translation: Then he said to the Mmoboro, "When the rain comes, will you be here to fill my calabash, or do you think I have covered myself with plantain leaves to protect myself from the rain?"
+Footnote:
+1. Literal Translation Mapping:
+   - "Efei na oka kyeree Mmoboro no se" - "Then he said to the Mmoboro"
+   - "Osuo eba yi" - "When the rain comes"
+   - "ankra mo ha na mo be hyee me toa yim'a" - "will you be here to fill my calabash"
+   - "s'ankra osuo yi emmo mo" - "or do you think the rain will not wet you"
+   - "mo nfwe se me de brodee ahahan akata me soo" - "do you think I have covered myself with plantain leaves"
+2. Cultural Context:
+   - In Akan culture, the calabash is often used as a container for liquids, symbolizing sustenance and provision. The mention of filling a calabash with rainwater suggests reliance on natural resources.
+   - Plantain leaves are traditionally used for covering and protection, especially in rural settings. They are known for their large size and water-resistant properties, making them a natural choice for shelter from rain.
+   - The Mmoboro is a term that can refer to a group or community, often used in folktales to represent collective action or responsibility.
+3. Translation Clarification:
+   - The phrase "will you be here to fill my calabash" implies a request or expectation for assistance or support from the Mmoboro when the rain comes.
+   - The rhetorical question about covering oneself with plantain leaves suggests self-reliance or preparation for the rain, contrasting with the expectation of help from others.
+   - The overall message conveys a theme of interdependence and the balance between seeking help and being self-sufficient.</t>
+  </si>
+  <si>
+    <t>Translation: The mosquitoes said, "We thank you, Aku, we thank you, Aku."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Ena Mmoboro no see" translates to "And the mosquitoes said."
+     - "Ena" means "and."
+     - "Mmoboro" means "mosquitoes."
+     - "no" is a definite article, meaning "the."
+     - "see" means "said."
+   - "Ye'da w'ase Aku" translates to "We thank you, Aku."
+     - "Ye'da" means "we thank."
+     - "w'ase" means "you."
+     - "Aku" is a name, likely referring to a person or a character in a story.
+2. **Cultural Context**:
+   - In Akan folklore and storytelling, animals and insects are often personified and used to convey moral lessons or cultural values. Mosquitoes, in particular, might be used in stories to illustrate persistence or annoyance, given their nature.
+   - The repetition of phrases is a common stylistic device in oral traditions, used to emphasize gratitude or other emotions.
+   - "Aku" is a common Akan name, and in this context, it could refer to a character in a story who has done something noteworthy for which the mosquitoes are expressing gratitude.
+3. **Translation Clarification**:
+   - The phrase "We thank you, Aku" is a direct expression of gratitude. The repetition emphasizes the sincerity or importance of the gratitude being expressed.
+   - The context of why the mosquitoes are thanking Aku is not provided in the text, but it suggests a scenario where Aku has done something beneficial or noteworthy for them.</t>
+  </si>
+  <si>
+    <t>Translation: All the mosquitoes drink gunpowder, fall!
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Mmoboro" = "Mosquitoes"
+   - "no nnyina" = "all"
+   - "tuo" = "gun"
+   - "toa" = "powder"
+   - "nom'" = "drink"
+   - "fom" = "fall"
+2. **Cultural Context**:
+   In Akan culture, mosquitoes are often seen as nuisances due to their bites and the diseases they can spread. The phrase "mosquitoes drink gunpowder" is a metaphorical expression. It suggests that the mosquitoes have become unusually aggressive or resilient, as if they have consumed something that makes them more powerful or daring. The use of "gunpowder" implies a sense of danger or explosiveness, which is not literally possible for mosquitoes but serves to emphasize their perceived threat or annoyance.
+3. **Translation Clarification**:
+   The phrase is a figurative expression used to describe a situation where mosquitoes are particularly bothersome or aggressive. The command "fall" at the end is an expression of frustration, wishing for the mosquitoes to be defeated or to stop being a nuisance. The translation captures the essence of the original Akan expression, conveying both the literal and metaphorical meanings.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Father Ananse concluded; He said, "Fools, I have caught you, I will use you to gather the secrets of the universe."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Agya Ananse" translates to "Father Ananse."
+   - "tuaa ano" translates to "concluded" or "ended."
+   - "Osee" translates to "He said."
+   - "Nkwaseafuo" translates to "Fools."
+   - "m'anya mo" translates to "I have caught you."
+   - "me de mo ko gye Anyankonsem" translates to "I will use you to gather the secrets of the universe."
+2. **Cultural Context:**
+   - Ananse is a well-known character in Akan folklore, often depicted as a cunning spider or man who uses his wit to outsmart others. He is a central figure in many West African and Caribbean tales, symbolizing wisdom and trickery.
+   - The phrase "Nkwaseafuo" (Fools) is often used in Ananse stories to describe those who fall for his tricks, highlighting his cleverness and their gullibility.
+   - "Anyankonsem" refers to the secrets or mysteries of the universe, which in Akan culture, are often associated with wisdom and knowledge that are highly valued.
+3. **Translation Clarification:**
+   - The phrase "I have caught you" implies that Ananse has successfully tricked or ensnared the fools, which is a common theme in Ananse stories where he uses his intelligence to achieve his goals.
+   - "I will use you to gather the secrets of the universe" suggests that Ananse intends to exploit the situation to gain greater knowledge or power, a typical motive in his tales. The use of "Anyankonsem" emphasizes the value placed on wisdom and the lengths to which Ananse will go to obtain it.</t>
+  </si>
+  <si>
+    <t>Translation: He/she took the frog to God.
+Footnote:
+1. **Literal Translation Mapping**: 
+   - "Ode" translates to "He/she took"
+   - "Mmoboro" translates to "frog"
+   - "ko" translates to "to"
+   - "maa" translates to "give" or "for"
+   - "Nyame" translates to "God"
+2. **Cultural Context**: 
+   In Akan culture, frogs are often seen as symbols of transformation and change. The act of taking a frog to God could symbolize offering something that represents change or transformation to a higher power. Additionally, in many African traditions, animals are often used in storytelling and proverbs to convey moral lessons or cultural values. The mention of "Nyame," which is the Akan word for God, reflects the deep spiritual beliefs and the importance of a supreme being in Akan cosmology.
+3. **Translation Clarification**: 
+   The phrase "Ode Mmoboro ko maa Nyame" can be understood as a metaphorical or literal action. In a metaphorical sense, it might imply entrusting a problem or a situation (symbolized by the frog) to a higher power for resolution or blessing. In a literal sense, it could describe an actual event where someone physically takes a frog as an offering or a symbolic gesture to God. The translation captures the essence of the action but may require additional context to fully understand the intended meaning in a specific situation.</t>
+  </si>
+  <si>
+    <t>Translation: God said, "What is meant to happen, will happen."
+Footnote:
+1. Literal Translation Mapping:
+   - "Nyame" translates to "God."
+   - "see" translates to "said."
+   - "Mensa aka" literally translates to "what is meant to happen."
+   - "aka dee aka" literally translates to "will happen what will happen."
+2. Cultural Context:
+   - In Akan culture, there is a strong belief in destiny and the idea that certain events are preordained by a higher power, often referred to as "Nyame" or "God." This phrase reflects the cultural acceptance of fate and the understanding that some things are beyond human control. It is often used to express resignation or acceptance of circumstances, trusting that whatever happens is part of a divine plan.
+3. Translation Clarification:
+   - The phrase "Mensa aka, aka dee aka" is an idiomatic expression in Akan. While the literal translation might seem repetitive, it emphasizes the inevitability of events. The English translation captures the essence of the expression by conveying the idea that what is destined to occur will indeed take place, aligning with the cultural belief in fate and divine will.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse came again and told his wife, "Osebo is left."
+Footnote:
+1. Literal Translation Mapping:
+   - "Ananse" = "Ananse" (a character in Akan folklore)
+   - "baa" = "came"
+   - "bio" = "again"
+   - "be ka" = "to say" or "told"
+   - "kyeree" = "to" or "towards"
+   - "ne yere" = "his wife"
+   - "see" = "said"
+   - "Aka" = "is left" or "remains"
+   - "Osebo" = "Osebo" (a character, often depicted as a leopard)
+2. Cultural Context:
+   Ananse is a well-known trickster figure in Akan folklore, often depicted as a spider. He is a central character in many stories that convey moral lessons or explain natural phenomena. Osebo, on the other hand, is typically portrayed as a leopard and is often a character in Ananse stories. The phrase "Aka Osebo" suggests that Osebo is the remaining task or challenge that Ananse needs to address. In many Ananse stories, the trickster uses his wit to overcome challenges or outsmart other characters.
+3. Translation Clarification:
+   The phrase "Aka Osebo" can be understood as "Osebo is left" or "Osebo remains," indicating that Osebo is the next or final challenge Ananse needs to deal with. The context of the story would provide more details on what this challenge entails. The translation captures the essence of the original text, maintaining the cultural significance of the characters involved.</t>
+  </si>
+  <si>
+    <t>Translation: The ear heard, "Go and break the pot."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Aso" translates to "The ear"
+   - "see" translates to "heard"
+   - "Ko" translates to "Go"
+   - "tu" translates to "break"
+   - "amana" translates to "the pot"
+2. **Cultural Context**:
+   - In Akan culture, proverbs and idiomatic expressions are often used to convey deeper meanings or lessons. The phrase "Ko tu amana" can be interpreted as an instruction or a command to take decisive action. Pots, or "amana," are significant in many African cultures, including Akan, as they are used for cooking, storing, and serving food. Breaking a pot could symbolize ending a situation, breaking away from tradition, or disrupting the status quo.
+3. **Translation Clarification**:
+   - The phrase "Go and break the pot" might not be understood literally in English. It is likely an idiomatic expression suggesting taking a bold or disruptive action. The ear "hearing" this command implies that the message or instruction is being received, possibly indicating that it is time to act on something that has been considered or discussed.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "Stop, I have seen it."
+Footnote:
+1. Literal Translation Mapping:
+   - "Ananse" = "Ananse" (a character in Akan folklore)
+   - "see" = "said"
+   - "Gyae" = "Stop"
+   - "na" = "and/then"
+   - "mahu" = "I have seen"
+2. Cultural Context:
+   Ananse is a well-known character in Akan folklore, often depicted as a cunning spider or a man with spider-like qualities. He is a trickster figure, known for his intelligence and craftiness. The phrase "Gyae na mahu" is typical of Ananse's speech, where he often interrupts or halts actions to assert his awareness or understanding of a situation. This reflects the cultural value placed on wisdom and the ability to perceive and understand one's environment.
+3. Translation Clarification:
+   The phrase "Gyae na mahu" can be understood as Ananse asserting control over a situation by indicating that he has perceived something important. The use of "Stop" suggests an immediate need to pause and reassess based on Ananse's newfound insight. The phrase captures the essence of Ananse's character as someone who is always observing and ready to act based on his observations.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+One day, Ananse went to borrow Osebo's drum and tied it on his back, then he came home.
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Enie" - One day
+   - "Ananse" - Ananse (a character in Akan folklore)
+   - "ko pee" - went to borrow
+   - "Osebo" - Osebo (a character, often depicted as a leopard)
+   - "kyeneno" - drum
+   - "na otu amana tententen" - and tied it on his back
+   - "na okataa so" - then he came home
+   - "na obaa 'fie" - and he came home
+2. **Cultural Context:**
+   - Ananse is a well-known trickster figure in Akan folklore, often depicted as a spider. He is known for his cleverness and cunning nature. Stories about Ananse are used to teach moral lessons and are a significant part of oral storytelling traditions in Akan culture.
+   - Osebo, often depicted as a leopard, is another character in Akan folklore. He is usually portrayed as strong and sometimes gullible, often falling victim to Ananse's tricks.
+   - Drums hold cultural significance in Akan society, used in various ceremonies and as a means of communication. Borrowing a drum could imply a need for it in a social or ceremonial context.
+3. **Translation Clarification:**
+   - The phrase "ko pee" is translated as "went to borrow," indicating an action of requesting to use something temporarily.
+   - "Otu amana tententen" literally means "tied it on his back," which is a common way of carrying items in many African cultures, using a cloth or rope to secure the item.
+   - The translation "then he came home" simplifies "na okataa so, na obaa 'fie," which indicates the sequence of actions Ananse took after borrowing the drum.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Early in the morning, Ananse said he was going to visit Osebo, who was lying in wait.
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Adeekyeye" - "Early morning"
+   - "anopa" - "morning"
+   - "Ananse" - "Ananse" (a character in Akan folklore)
+   - "se" - "said"
+   - "oko" - "he is going"
+   - "obekoro" - "he will visit"
+   - "Osebo" - "Osebo" (a character, often depicted as a leopard)
+   - "na" - "who"
+   - "oda" - "is lying"
+   - "amanam'" - "in wait"
+2. **Cultural Context:**
+   - Ananse is a well-known trickster figure in Akan folklore, often depicted as a spider. He is a central character in many stories that convey moral lessons or explain natural phenomena.
+   - Osebo, often represented as a leopard, is another character in Akan tales. He is sometimes portrayed as a rival or adversary to Ananse.
+   - The phrase "lying in wait" suggests a sense of anticipation or a trap, which is a common theme in Ananse stories where cunning and wit are used to overcome challenges.
+3. **Translation Clarification:**
+   - The phrase "Adeekyeye anopa" emphasizes the time of day, indicating that the events are set in the early morning, which can imply the beginning of a new adventure or scheme by Ananse.
+   - "Ananse se oko, obekoro" indicates Ananse's intention to visit, which is often a prelude to a cunning plan or trick.
+   - "Osebo na oda amanam'" suggests that Osebo is in a state of readiness, possibly for a confrontation or an encounter with Ananse. This sets the stage for a typical Ananse story where cleverness and strategy play a crucial role.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse said, "Agyawa's child! Enawa's child! If I have told you not to drink alcohol, and now you have gone and drunk it, that is why you have become a wanderer; if I say I will take you away, tomorrow you will come to see me, but if I am not here, you will go and search for me."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse see" - "Ananse said"
+   - "Agyawa 'ba! Enawa 'ba!" - "Agyawa's child! Enawa's child!"
+   - "se maka akyere wo se nnom nsa" - "if I have told you not to drink alcohol"
+   - "sese wo nokwa wako nom abo" - "and now you have gone and drunk it"
+   - "nti na w'abe to amanam'" - "that is why you have become a wanderer"
+   - "se me kaase me beyi wo a" - "if I say I will take you away"
+   - "addekye wo ko hu me a" - "tomorrow you will come to see me"
+   - "se nso me 'ha biara a" - "but if I am not here"
+   - "na wo ko kye no" - "you will go and search for me"
+2. **Cultural Context:**
+   - Ananse is a well-known character in Akan folklore, often depicted as a cunning spider who is both a trickster and a wise figure. His stories are used to impart moral lessons.
+   - The mention of "Agyawa" and "Enawa" as parents is a way to address someone by their lineage, which is a common practice in Akan culture to show respect and acknowledge family heritage.
+   - The reference to alcohol consumption and its consequences reflects a moral lesson about the dangers of not heeding advice, a common theme in Ananse stories.
+3. **Translation Clarification:**
+   - The phrase "Agyawa's child! Enawa's child!" is a form of address that emphasizes the person's family background, which is significant in Akan culture.
+   - "Wanderer" in this context implies someone who has lost their way or purpose due to not following advice, a metaphor for the consequences of poor decisions.
+   - The dialogue reflects a typical Ananse story structure, where a lesson is imparted through a narrative involving consequences and reflection.</t>
+  </si>
+  <si>
+    <t>Translation: The leopard says, "Oh! I am unable."
+Footnote:
+1. Literal Translation Mapping:
+   - "Osebo" translates to "leopard."
+   - "se" translates to "says."
+   - "0 !" is an exclamation similar to "Oh!"
+   - "me" translates to "I."
+   - "ntimi" translates to "am unable" or "cannot."
+2. Cultural Context:
+   - In Akan folklore, animals often speak and are used to convey moral lessons or cultural values. The leopard, known as "Osebo," is a common character in these stories. It is often portrayed as strong and cunning, so an expression of inability from a leopard might be surprising or used to teach a lesson about humility or the limits of strength.
+3. Translation Clarification:
+   - The phrase "Oh! I am unable" captures the essence of the original Akan text, where the leopard expresses a limitation or inability to do something. The exclamation "Oh!" conveys a sense of surprise or realization, which is consistent with the tone of the original text.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse went to cut two pieces of wood, placed one here, and placed one there.
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Ananse" - Ananse (a character in Akan folklore)
+   - "ko twaa" - went to cut
+   - "nnua mmienu" - two pieces of wood
+   - "de bako too ha" - placed one here
+   - "de bako too ha" - placed one there
+2. **Cultural Context**:
+   - Ananse, also known as Kweku Ananse, is a well-known character in Akan folklore. He is often depicted as a cunning spider and is a central figure in many Akan stories, known for his cleverness and trickery. These stories, known as "Anansesem," are used to teach moral lessons and are an integral part of Akan oral tradition.
+   - The act of cutting wood and placing it in different locations can symbolize preparation or setting the stage for a plan or trick, which is typical of Ananse's character in these stories.
+3. **Translation Clarification**:
+   - The phrase "de bako too ha, de bako too ha" is a repetitive structure that emphasizes the action of placing the wood in two separate locations. This repetition is a common stylistic device in Akan storytelling, used to create rhythm and emphasis. The translation captures this by using "placed one here, and placed one there," maintaining the original's rhythmic and repetitive nature.</t>
+  </si>
+  <si>
+    <t>Translation: He said, "Put one of your hands here, and put the other hand there."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Fa" = "Put"
+   - "wo nsa bako" = "your one hand"
+   - "to ha" = "put here"
+   - "na" = "and"
+   - "fa" = "put"
+   - "wo nsa bako" = "your one hand"
+   - "soso" = "also"
+   - "to ha" = "put there"
+2. **Cultural Context**:
+   - In Akan culture, the use of hands in communication can be symbolic. The phrase "Fa wo nsa bako to ha, na fa wo nsa bako soso to ha" can imply a sense of balance or distribution of effort. It might be used in a context where someone is being advised to manage or handle multiple tasks or responsibilities simultaneously. The hands symbolize the ability to manage or control different aspects of a situation.
+3. **Translation Clarification**:
+   - The phrase is a directive to use both hands, suggesting a need for balance or equal attention to two different areas. In English, the translation captures the literal action of placing hands in two different locations, but the underlying implication is about managing or balancing tasks or responsibilities. The phrase can be metaphorical, advising someone to distribute their efforts or focus evenly.</t>
+  </si>
+  <si>
+    <t>Translation: And Osebo is cunning.
+Footnote:
+1. Literal Translation Mapping:
+   - "Na" translates to "And" in English.
+   - "Osebo" is a name, often used to refer to a leopard in Akan folklore.
+   - "de" is a particle that can mean "is" or "does" depending on the context.
+   - "totoye" translates to "cunning" or "clever."
+2. Cultural Context:
+   - In Akan folklore, "Osebo" is often depicted as a leopard, a character known for its cunning and cleverness. The leopard is a common symbol in many African cultures, representing strength, agility, and intelligence. In stories, Osebo is frequently portrayed as a trickster, using its wits to outsmart other animals or characters. This reflects a broader cultural appreciation for intelligence and strategic thinking.
+3. Translation Clarification:
+   - The phrase "Na Osebo de totoye" is a simple statement highlighting the characteristic of Osebo, emphasizing its cunning nature. The use of "de" in this context serves to link the subject (Osebo) with its attribute (cunning). The translation captures the essence of the original text by focusing on the key trait associated with Osebo in Akan storytelling.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"Ose ofo' na Ananse has sharpened the knife, and he has made it shine, his head is bald!"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ose ofo'" - "Ose ofo'" (a phrase indicating a boast or a claim)
+   - "na Ananse ama sekan so" - "and Ananse has sharpened the knife"
+   - "na wa ma n'anyam" - "and he has made it shine"
+   - "ne tirim' gao!" - "his head is bald!"
+2. **Cultural Context:**
+   - Ananse, or Kweku Ananse, is a well-known character in Akan folklore, often depicted as a cunning spider or a man with spider-like qualities. He is a symbol of wisdom and trickery. The mention of Ananse in the text suggests a story or proverb involving cleverness or deceit.
+   - The act of sharpening a knife and making it shine can symbolize preparation and readiness, often for a task that requires skill or cunning.
+   - The phrase "his head is bald" can be a metaphorical expression, possibly indicating exposure or vulnerability, as baldness can symbolize a lack of cover or protection.
+3. **Translation Clarification:**
+   - The phrase "Ose ofo'" is an idiomatic expression that doesn't have a direct English equivalent. It suggests boasting or making a claim, often without substantial backing.
+   - The text uses metaphorical language typical in Akan storytelling, where physical descriptions (like a bald head) are used to convey deeper meanings or moral lessons.
+   - The translation captures the essence of the original text, focusing on the actions of Ananse and the implications of those actions, while maintaining the cultural nuances of the original Akan expression.</t>
+  </si>
+  <si>
+    <t>Translation: The leopard took the meat from me!
+Footnote:
+1. Literal Translation Mapping:
+   - "Osebo" translates to "leopard."
+   - "gyee" translates to "took" or "seized."
+   - "ama­ nam'" translates to "meat from me."
+   - "fom" is an exclamation indicating surprise or emphasis, similar to "indeed" or "really."
+2. Cultural Context:
+   - In Akan folklore and storytelling, animals like the leopard often play significant roles. The leopard, known as "Osebo," is typically portrayed as a cunning and powerful creature. Stories involving animals are used to convey moral lessons or cultural values.
+   - The act of a leopard taking meat can symbolize a loss or an unexpected event, often used to teach about vigilance or the consequences of carelessness.
+3. Translation Clarification:
+   - The phrase "Osebo gyee ama­ nam' fom!" is an expression of surprise or emphasis on the action of the leopard taking the meat. The exclamation "fom" adds intensity to the statement, highlighting the unexpected nature of the event.
+   - The translation captures the essence of the original text by conveying both the action and the emotional response of the speaker.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse took a ladder and went to the forest to capture Osebo.
+Footnote:
+1. Literal Translation Mapping:
+   - "Ananse" translates to "Ananse," a character in Akan folklore.
+   - "faa" translates to "took."
+   - "atwedee" translates to "ladder."
+   - "de sii" translates to "and went."
+   - "amanam'" is a contraction of "amanmu," which translates to "forest."
+   - "ko" translates to "to."
+   - "yii" translates to "capture."
+   - "Osebo" translates to "Osebo," a character often depicted as a leopard in Akan stories.
+2. Cultural Context:
+   - Ananse is a well-known trickster figure in Akan folklore, often depicted as a spider. He is famous for his cunning and intelligence, frequently outsmarting other characters.
+   - Osebo, the leopard, is another common character in these stories, often portrayed as strong but not as clever as Ananse.
+   - The use of a ladder ("atwedee") in the story is symbolic of Ananse's resourcefulness and ability to use tools or strategies to achieve his goals.
+3. Translation Clarification:
+   - The phrase "de sii amanam'" implies movement towards a destination, in this case, the forest, which is a common setting for many Ananse stories.
+   - "yii" is often used in the context of capturing or seizing something, indicating Ananse's intention to outsmart and capture Osebo.</t>
+  </si>
+  <si>
+    <t>Translation: When Oko captured Osebo, he said, "Fool, I will use you to obtain the Sky God's stories."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Oko" - A name, often used in Akan folklore.
+   - "yii" - Captured or took.
+   - "Osebo" - A name, often representing a leopard in Akan folklore.
+   - "de no baye" - Brought him.
+   - "osee" - He said.
+   - "Kwasea" - Fool.
+   - "me de wo ko gye" - I will use you to go and obtain.
+   - "Anyankonsem" - Sky God's stories.
+2. **Cultural Context**:
+   - In Akan folklore, Osebo is often depicted as a leopard, a symbol of strength and cunning. The character Oko is likely a hero or trickster figure, common in many African tales, who uses wit to achieve his goals.
+   - The "Sky God's stories" refer to a collection of tales or wisdom that are highly valued. In many African cultures, stories are a way of preserving history, teaching morals, and entertaining. The Sky God, often referred to as "Nyame" in Akan culture, is a supreme deity, and his stories would be considered precious and powerful.
+3. **Translation Clarification**:
+   - The phrase "Kwasea me de wo ko gye Anyankonsem" is an expression of disdain and intent. "Kwasea" is a derogatory term, showing Oko's contempt for Osebo. The phrase "me de wo ko gye" indicates Oko's plan to use Osebo as a means to an end, specifically to acquire something of great value, the Sky God's stories. This reflects a common theme in folklore where characters use their adversaries to achieve their goals.</t>
+  </si>
+  <si>
+    <t>Translation: He gave Osebo a ride, and went to God.
+Footnote:
+1. Literal Translation Mapping:
+   - "Omaa" translates to "gave" or "offered."
+   - "Osebo" is a name, often associated with a leopard in Akan folklore.
+   - "so" translates to "on" or "a ride."
+   - "ko" translates to "went."
+   - "maa" translates to "for" or "to."
+   - "Nyame" translates to "God."
+2. Cultural Context:
+   - In Akan folklore, Osebo is often depicted as a leopard, a symbol of strength and cunning. The leopard is a common character in Akan stories, often involved in tales that teach moral lessons or explain natural phenomena.
+   - The phrase "ko maa Nyame" (went to God) can imply a journey to seek divine intervention or approval. In many African cultures, including the Akan, God (Nyame) is seen as the ultimate authority and source of wisdom and justice.
+3. Translation Clarification:
+   - The phrase "Omaa Osebo so" suggests an act of assistance or support, as if someone is helping Osebo by giving him a ride. This can be metaphorical, indicating support or guidance.
+   - "Ko maa Nyame" implies a purposeful journey or action directed towards God, which can be interpreted as seeking guidance, blessings, or resolution to a problem. The translation captures the essence of the journey and the cultural significance of seeking divine help.</t>
+  </si>
+  <si>
+    <t>Translation:
+God said, "What is left of Mensa, is what is left."
+Footnote:
+1. Literal Translation Mapping:
+   - "Nyame" translates to "God."
+   - "see" translates to "said."
+   - "Mensa" is a name, often used in Akan culture.
+   - "aka" translates to "left" or "remains."
+   - "dee" translates to "what."
+   - "aka" again translates to "left" or "remains."
+2. Cultural Context:
+   In Akan culture, names often carry significant meanings and are sometimes used proverbially. "Mensa" is a common Akan name, typically given to the third-born son. The phrase "Mensa aka, aka dee aka" is a proverbial expression that suggests a situation where what remains is all that is left, often implying scarcity or the end of resources. It reflects a cultural understanding of acceptance and making do with what is available.
+3. Translation Clarification:
+   The phrase "Mensa aka, aka dee aka" is a play on words that uses repetition for emphasis. The repetition of "aka" (left/remains) underscores the idea of finality or the end of something. The translation captures the essence of the original Akan expression, conveying the notion of accepting what little is left.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+Ananse came and carved an Akua Ba doll, and he performed rituals to protect the Akua Ba; he took some white clay and smeared it on the Akua Ba, and he placed some of the white clay on the ground; he tied a rope around the Akua Ba's waist and took it to the base of the odum tree where the dwarfs play.
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse baye" - "Ananse came"
+   - "na osenee Akua Ba" - "and carved Akua Ba"
+   - "na oboo amane de tetaree Akua Ba no ho" - "and performed rituals to protect Akua Ba"
+   - "na ofufuu to" - "he took white clay"
+   - "na ode bi hyee Akua Ba no nsam'" - "and smeared some on Akua Ba"
+   - "na ofufuu bi de guu ayowam'" - "and placed some on the ground"
+   - "ode homa soo Akua Ba asen" - "tied a rope around Akua Ba's waist"
+   - "na ode no kosii odum ase babi a mmoatia bedi agoro" - "and took it to the base of the odum tree where the dwarfs play"
+2. **Cultural Context:**
+   - **Ananse:** A well-known character in Akan folklore, often depicted as a cunning spider or man who is a trickster and storyteller.
+   - **Akua Ba:** A traditional fertility doll among the Akan people, often used by women hoping to conceive. It is believed to have protective and spiritual significance.
+   - **White Clay (Ofufuu):** In many African cultures, white clay is used in rituals for protection, purification, and spiritual purposes.
+   - **Odum Tree:** A significant tree in Akan culture, often associated with strength and spiritual presence.
+   - **Dwarfs (Mmoatia):** In Akan folklore, dwarfs are mystical beings believed to inhabit forests and are often associated with magical activities.
+3. **Translation Clarification:**
+   - The translation captures the essence of the original text, focusing on Ananse's actions with the Akua Ba doll. The use of white clay and the location under the odum tree highlight the cultural and spiritual elements of the story. The mention of dwarfs playing under the tree adds a mystical dimension, typical of Akan folklore.</t>
+  </si>
+  <si>
+    <t>Translation: Then a dwarf came.
+Footnote:
+1. Literal Translation Mapping:
+   - "Na" translates to "Then" or "And" in English, often used to indicate a sequence of events.
+   - "mmoatia" translates to "dwarfs" or "little people." In Akan folklore, mmoatia are mythical beings often depicted as small, magical creatures.
+   - "bako" translates to "one" or "a single."
+   - "baye" translates to "came."
+2. Cultural Context:
+   In Akan folklore, mmoatia are considered mystical beings with supernatural powers. They are often portrayed as guardians of the forest and are believed to possess knowledge of herbal medicine. Encounters with mmoatia are common in Akan storytelling, where they may either help or hinder humans depending on the context of the story. The presence of a mmoatia in a narrative often signals the beginning of a magical or significant event.
+3. Translation Clarification:
+   The translation "Then a dwarf came" captures the essence of the original Akan sentence. The word "mmoatia" is specifically translated as "dwarf" here, but it is important to note that in the Akan cultural context, these are not just any dwarfs but mythical creatures with specific attributes and roles in folklore. The translation aims to convey the appearance of a singular, significant character in the narrative.</t>
+  </si>
+  <si>
+    <t>Translation: He said, "Akua, can I have some of this mashed yam?"
+Footnote:
+1. Literal Translation Mapping:
+   - "Osee" translates to "He said."
+   - "Akua" is a personal name, often given to a female born on a Wednesday.
+   - "me nni" translates to "can I have" or "may I eat."
+   - "eto" refers to "mashed yam," a traditional Akan dish.
+   - "yi bi" translates to "some of this."
+2. Cultural Context:
+   - In Akan culture, names are often given based on the day of the week a person is born. "Akua" is a common name for females born on Wednesday.
+   - "Eto" is a popular dish in Akan cuisine, typically made from mashed yam or plantain, often served with eggs or groundnuts. It is a staple in many Akan households and is associated with celebrations and traditional ceremonies.
+   - Sharing food is an important aspect of Akan hospitality and community life. Asking for food, especially in a communal setting, is a common practice and reflects the communal nature of Akan society.
+3. Translation Clarification:
+   - The phrase "me nni eto yi bi?" is a polite request to partake in the food being offered or available. The use of "me nni" indicates a request for permission, reflecting the politeness and respect inherent in Akan communication. The translation captures the essence of the request while maintaining the cultural nuance of asking for food in a respectful manner.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse has pulled the rope, and Akua's child has hit her head against the ground.
+Footnote:
+1. Literal Translation Mapping:
+   - "Na" = "And/Then"
+   - "Ananse" = "Ananse" (a character in Akan folklore)
+   - "atwe" = "has pulled"
+   - "homa no" = "the rope"
+   - "na" = "and"
+   - "Akua Ba no" = "Akua's child"
+   - "abo" = "has hit"
+   - "ne tiri" = "her head"
+   - "nko" = "against the ground"
+2. Cultural Context:
+   - Ananse is a well-known trickster figure in Akan folklore, often depicted as a spider. He is famous for his cleverness and cunning, frequently getting into and out of trouble through his wit.
+   - The phrase "abo ne tiri nko" suggests an accident or mishap, which is a common theme in Ananse stories where characters often find themselves in unexpected situations due to Ananse's actions.
+   - The use of "Akua Ba no" indicates a specific child, likely known to the audience, as "Akua" is a common Akan name for a girl born on Wednesday.
+3. Translation Clarification:
+   - The translation captures the essence of the original text, where Ananse's action of pulling the rope results in an unintended consequence for Akua's child.
+   - The phrase "abo ne tiri nko" is idiomatic, implying a sudden or unfortunate event, which is typical in stories involving Ananse's antics.</t>
+  </si>
+  <si>
+    <t>Translation: The dwarfs told their brother balm, "He says I don't have any."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Mmoatia" = "dwarfs"
+   - "ka" = "say" or "told"
+   - "kyeree" = "to" or "told"
+   - "onua" = "brother"
+   - "balm" = "balm" (a type of ointment or salve)
+   - "se" = "that" or "says"
+   - "Ose" = "He says"
+   - "me nni bi" = "I don't have any"
+2. **Cultural Context**:
+   - In Akan folklore, "mmoatia" (dwarfs) are mythical creatures often depicted as small, magical beings with special powers. They are sometimes involved in stories that convey moral lessons or cultural values.
+   - The concept of "onua" (brother) in Akan culture extends beyond biological siblings to include close friends or community members, emphasizing the importance of kinship and communal relationships.
+   - "Balm" in this context could refer to a healing ointment, which might be significant in a story involving healing or remedy, reflecting the traditional use of natural remedies in Akan culture.
+3. **Translation Clarification**:
+   - The sentence involves a dialogue where the dwarfs are communicating a message from their "brother" balm. The use of "brother" here is metaphorical, indicating a close relationship or personification of the balm.
+   - The phrase "He says I don't have any" suggests that the balm is being personified to express a lack of availability or presence, which could be part of a larger narrative or moral lesson in the story.</t>
+  </si>
+  <si>
+    <t>Translation: He/She said, "Eat some."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Osee" translates to "He/She said."
+   - "Di" translates to "Eat."
+   - "bi" translates to "some."
+   - "e" is an exclamation or emphasis, often used to encourage or prompt action.
+2. **Cultural Context**:
+   - In Akan culture, sharing food is a common practice and a sign of hospitality and community. When someone offers you food, it is often considered polite to accept, even if just a small portion. The phrase "Di bi e" is a casual way to invite someone to partake in a meal or snack, reflecting the communal nature of eating in Akan society.
+3. **Translation Clarification**:
+   - The phrase "Di bi e" is an informal and friendly invitation to eat. The use of "e" at the end adds a sense of encouragement or insistence, similar to saying "Go ahead, eat some" in English. It is not a command but rather a warm invitation, often used among friends and family.</t>
+  </si>
+  <si>
+    <t>English Translation: After he finished eating the food, he thanked them.
+Footnote:
+1. Literal Translation Mapping:
+   - "Na" = "And/Then"
+   - "odii" = "he ate"
+   - "aduane no" = "the food"
+   - "wieye" = "finished"
+   - "na" = "and/then"
+   - "odaa" = "he laid"
+   - "n'ase" = "his thanks"
+2. Cultural Context:
+   - In Akan culture, expressing gratitude after a meal is a common practice. It is a way to show appreciation to the person who prepared the meal. This act of thanking is not just a formality but a genuine expression of gratitude, reflecting the communal and respectful nature of Akan society.
+3. Translation Clarification:
+   - The phrase "odaa n'ase" literally translates to "he laid his thanks," which is an idiomatic expression in Akan. In English, this is more naturally expressed as "he thanked them." The use of "laid" in the literal translation reflects the Akan way of expressing gratitude as something that is given or placed before someone, similar to offering a gift.</t>
+  </si>
+  <si>
+    <t>Translation: He/she is grateful but does not respond.
+Footnote:
+1. Literal Translation Mapping:
+   - "Oda" translates to "he/she lies down" or "he/she is grateful" depending on context.
+   - "n'ase" translates to "his/her bottom" or "thanks" depending on context.
+   - "ommua" translates to "does not respond" or "does not answer."
+2. Cultural Context:
+   - In Akan culture, expressing gratitude is an important social norm. The phrase "Oda n'ase" is often used to convey gratitude, with "oda" implying a humble or respectful posture, akin to bowing or lying down in thanks.
+   - The phrase "ommua" suggests a lack of verbal response, which can imply either a respectful silence or a lack of acknowledgment, depending on the situation.
+3. Translation Clarification:
+   - The phrase "Oda n'ase ommua" is used to describe someone who is grateful but chooses not to verbally express it. This can occur in situations where actions speak louder than words, or where cultural norms dictate that silence is more appropriate than verbal acknowledgment. The translation captures the essence of gratitude without verbal response, which is understood within the cultural context.</t>
+  </si>
+  <si>
+    <t>English Translation: The dwarfs told their brother, "When I thank him, he doesn't respond."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Na" = "And/Then"
+   - "Mmoatia" = "Dwarfs"
+   - "no" = "the"
+   - "ka" = "say/tell"
+   - "kyeree" = "to"
+   - "onua" = "brother"
+   - "se" = "that"
+   - "Meda n'ase" = "I thank him"
+   - "a" = "when"
+   - "ommua" = "he doesn't respond"
+2. **Cultural Context**:
+   - In Akan folklore, "mmoatia" or dwarfs are mythical beings often depicted as small, magical creatures that live in the forest. They are known for their wisdom and sometimes mischievous behavior. The concept of thanking someone and expecting a response is deeply rooted in Akan culture, where gratitude and acknowledgment are important social norms. The act of thanking someone and not receiving a response can be seen as a breach of etiquette or a sign of disrespect.
+3. **Translation Clarification**:
+   - The phrase "Meda n'ase a, ommua" is an expression of frustration or disappointment. In the context of the story, it suggests that the dwarfs feel ignored or unappreciated by their brother, as their expressions of gratitude are not reciprocated. The translation captures the essence of this sentiment by conveying the lack of response to their thanks.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+The dwarf's sibling said to him, "Hit the darkness."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Mmoatia" translates to "dwarfs" or "little people."
+   - "no" is a definite article, translating to "the."
+   - "nua" means "sibling" or "brother/sister."
+   - "ka" means "said."
+   - "kyeree" translates to "to him/her."
+   - "nose" is a conjunction meaning "that" or "to."
+   - "Bo" means "hit" or "strike."
+   - "no" is a definite article, translating to "the."
+   - "sum" means "darkness."
+2. **Cultural Context:**
+   In Akan folklore, "mmoatia" or dwarfs are mythical beings often associated with the forest and possessing magical powers. They are considered wise and sometimes mischievous. The phrase "Bo no sum" (hit the darkness) can be interpreted as an idiomatic expression. In many African cultures, darkness can symbolize the unknown or challenges. The act of "hitting" the darkness might imply confronting or overcoming these challenges.
+3. **Translation Clarification:**
+   The phrase "Bo no sum" is not meant to be taken literally. Instead, it suggests taking action against something that is not easily seen or understood, akin to facing one's fears or uncertainties. The translation captures the essence of the original text by conveying the idea of confronting the unknown, which is a common theme in many cultural narratives.</t>
+  </si>
+  <si>
+    <t>Translation: And you have played, well done!
+Footnote:
+1. Literal Translation Mapping:
+   - "Na" translates to "And" or "Then" in English.
+   - "wabo" translates to "you have played."
+   - "pa" is an expression of approval or commendation, similar to "well done" or "good job."
+2. Cultural Context:
+   - In Akan culture, expressions of approval or commendation are often used to encourage and acknowledge effort or skill. The word "pa" is commonly used to express satisfaction or praise for someone's actions or performance. It is a versatile term that can be applied in various contexts, such as sports, music, or any activity where effort and skill are demonstrated.
+3. Translation Clarification:
+   - The phrase "Na wabo, pa!" is an informal way of acknowledging someone's good performance or effort. The use of "pa" at the end of the sentence emphasizes the speaker's approval and satisfaction with what has been done. In English, this would be akin to saying "Well done!" or "Good job!" after someone has completed a task or performed well.</t>
+  </si>
+  <si>
+    <t>Translation: And he/she has become involved.
+Footnote:
+1. Literal Translation Mapping:
+   - "Na" translates to "And" or "Then."
+   - "ne" translates to "his/her."
+   - "nsa" translates to "hand."
+   - "aka" translates to "has touched" or "has reached."
+   - "ho" translates to "there" or "it."
+2. Cultural Context:
+   In Akan culture, the phrase "ne nsa aka ho" is an idiomatic expression. It is often used to indicate that someone has become involved in a situation or has taken part in an activity. The phrase metaphorically uses the idea of one's hand reaching or touching something to signify involvement or participation. This reflects the cultural importance of physical actions as representations of engagement or commitment.
+3. Translation Clarification:
+   While the literal translation of "ne nsa aka ho" would be "his/her hand has touched there," the idiomatic meaning is more accurately conveyed as "he/she has become involved." The translation captures the essence of the expression, which is about involvement rather than the physical act of touching.</t>
+  </si>
+  <si>
+    <t>Translation: He told his brother, "I have reached there."
+Footnote:
+1. Literal Translation Mapping:
+   - "Oka" translates to "He/she says" or "He/she told."
+   - "kyeree" translates to "told" or "said to."
+   - "onua" translates to "brother" or "sibling."
+   - "se" translates to "that" or introduces a quotation.
+   - "Me nsa" translates to "My hand."
+   - "aka" translates to "has touched" or "has reached."
+   - "ho" translates to "there" or "it."
+2. Cultural Context:
+   - In Akan culture, the phrase "Me nsa aka ho" is an idiomatic expression. It is often used to indicate that someone has achieved a goal or reached a destination. The literal meaning of "my hand has touched there" conveys the idea of physically reaching or accomplishing something, but it is understood more broadly as achieving success or completion in a task or journey.
+3. Translation Clarification:
+   - While the literal translation might suggest a physical action of touching, the expression is metaphorical. In this context, it means that the speaker has successfully reached a goal or completed a task. The translation "I have reached there" captures the intended meaning in English, conveying the sense of accomplishment or arrival at a destination.</t>
+  </si>
+  <si>
+    <t>Translation: He said, "Take the remaining one and pound it again."
+Footnote:
+1. Literal Translation Mapping:
+   - "Osee" translates to "He said."
+   - "Fa" translates to "Take."
+   - "bako a aka" translates to "the one that is left" or "the remaining one."
+   - "bo no" translates to "pound it."
+   - "sum bio" translates to "again."
+2. Cultural Context:
+   - In Akan culture, pounding is often associated with the preparation of traditional foods like fufu, which involves pounding boiled cassava and plantains or yams in a mortar with a pestle. The phrase "bo no sum bio" suggests that the process should be repeated to achieve the desired consistency or texture. This reflects the importance of diligence and thoroughness in food preparation, which is a valued trait in many Ghanaian households.
+3. Translation Clarification:
+   - The phrase "Fa bako a aka, bo no sum bio" is an instruction to repeat a process with the remaining item. In this context, it implies ensuring that the task is completed properly by giving it another round of effort. The translation captures the essence of the original instruction, emphasizing the need to revisit and refine the task at hand.</t>
+  </si>
+  <si>
+    <t>Translation: And he praised him well! and added more to it.
+Footnote:
+1. Literal Translation Mapping:
+   - "Na" translates to "And" or "Then."
+   - "ode" translates to "he/she/it took" or "he/she/it used."
+   - "boo" translates to "praised" or "commended."
+   - "no" translates to "him/her/it."
+   - "pa" translates to "well" or "truly."
+   - "na" translates to "and" or "then."
+   - "'yi" translates to "this" or "it."
+   - "no" translates to "it" or "him/her."
+   - "so" translates to "on" or "also."
+   - "aka" translates to "added" or "remained."
+   - "ho" translates to "there" or "to it."
+2. Cultural Context:
+   - In Akan culture, praise and commendation are important aspects of social interaction. When someone does something commendable, it is customary to acknowledge their efforts with praise. The phrase "ode boo no pa" suggests that the person was praised sincerely and thoroughly.
+   - The expression "yi no so aka ho" implies that additional praise or commendation was given, indicating an emphasis on the person's achievements or qualities. This reflects the Akan cultural value of recognizing and celebrating individual contributions and successes.
+3. Translation Clarification:
+   - The phrase "ode boo no pa" is an idiomatic expression in Akan, meaning that someone was praised or commended thoroughly. The word "pa" emphasizes the sincerity and completeness of the praise.
+   - The phrase "yi no so aka ho" suggests that more was added to the praise, indicating that the person was not only praised but also received additional commendation or recognition. This can be understood as going above and beyond in acknowledging someone's efforts or achievements.</t>
+  </si>
+  <si>
+    <t>Translation: The dwarfs said to their sibling, "My two hands have touched it."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Na" = "And" or "Then"
+   - "Mmoatia" = "Dwarfs"
+   - "ka" = "said"
+   - "kyeree" = "to"
+   - "onua" = "sibling" or "brother/sister"
+   - "se," = "that,"
+   - "Me" = "My"
+   - "nsa" = "hands"
+   - "mmienu" = "two"
+   - "aka" = "have touched"
+   - "ho." = "it."
+2. **Cultural Context**:
+   - In Akan folklore, "Mmoatia" (dwarfs) are mythical creatures often depicted as small, magical beings with special powers. They are considered to be part of the spiritual world and are sometimes believed to interact with humans, offering guidance or mischief.
+   - The phrase "Me nsa mmienu aka ho" is an expression that can imply possession or involvement. In many African cultures, including Akan, touching something with both hands can symbolize a complete or significant engagement with the object or situation.
+3. **Translation Clarification**:
+   - The phrase "My two hands have touched it" suggests a sense of ownership or involvement. In the context of the story, it could mean that the dwarfs have claimed something or have been involved in an action or event. The use of "sibling" for "onua" indicates a close relationship, which is common in Akan storytelling, where familial bonds are emphasized.</t>
+  </si>
+  <si>
+    <t>Translation: He said, "Keep your anger in the dark."
+Footnote:
+1. Literal Translation Mapping:
+   - "Osee" translates to "He said."
+   - "Fa" translates to "Take" or "Keep."
+   - "w'afu" translates to "your anger."
+   - "sum no" translates to "the dark."
+2. Cultural Context:
+   In Akan culture, emotions such as anger are often advised to be controlled or hidden to maintain harmony and peace within the community. The phrase "fa w'afu sum no" suggests that one should not let anger be visible or affect their actions. It is a metaphorical way of saying that anger should be kept out of sight, much like how things are hidden in the dark.
+3. Translation Clarification:
+   The phrase "Keep your anger in the dark" is a metaphorical expression advising someone to control or suppress their anger. It implies that anger should not be allowed to manifest openly or disruptively. The use of "the dark" symbolizes a place where things are not visible or prominent, suggesting that anger should be kept subdued and not allowed to influence one's behavior negatively.</t>
+  </si>
+  <si>
+    <t>Translation: He has taken the darkness, and his farm is attached to it.
+Footnote:
+1. **Literal Translation Mapping**: 
+   - "Ode" translates to "He has taken"
+   - "sum" translates to "darkness"
+   - "no" is a definite article, translating to "the"
+   - "na" translates to "and"
+   - "n'afu" translates to "his farm"
+   - "aka" translates to "is attached"
+   - "ho" translates to "to it"
+2. **Cultural Context**: 
+   - In Akan culture, farming is a significant part of life and is often used metaphorically in language. The phrase "Ode sum no, na n'afu aka ho" uses the concept of darkness and farming to convey a deeper meaning. Darkness can symbolize ignorance, mystery, or challenges, while a farm represents one's livelihood or efforts. The expression suggests that someone has embraced or is dealing with a challenging or uncertain situation, and their efforts or responsibilities are closely tied to it.
+3. **Translation Clarification**: 
+   - The phrase is metaphorical and implies that someone is facing or has accepted a difficult or uncertain situation, and their responsibilities or efforts are directly connected to this challenge. It is not about literal darkness or a physical farm but rather about the intertwining of challenges and responsibilities in one's life.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Then Ananse came and captured him; he said, "Fool, I have caught you, I will take you to collect the Sky God's stories."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Na Ananse baye" - "Then Ananse came"
+   - "na obe kyekyeree no" - "and he captured him"
+   - "osee" - "he said"
+   - "Kwasea m'anya wo" - "Fool, I have caught you"
+   - "me de wo ko gye Anyankonsem" - "I will take you to collect the Sky God's stories"
+2. **Cultural Context:**
+   - Ananse, often referred to as Kweku Ananse, is a central character in Akan folklore. He is a spider and a trickster figure known for his cunning and intelligence. Ananse stories are a significant part of West African oral tradition and are used to impart moral lessons.
+   - The term "Anyankonsem" refers to the stories or wisdom of the Sky God, Nyame. In many Ananse tales, Ananse seeks to acquire these stories, which are considered valuable and powerful.
+   - The use of "Kwasea" (fool) is a common expression in Akan storytelling, often used by characters to express disdain or to highlight the cleverness of the speaker over the other character.
+3. **Translation Clarification:**
+   - The phrase "Kwasea m'anya wo" is a direct insult, emphasizing Ananse's triumph over the other character. It reflects Ananse's boastful nature.
+   - "me de wo ko gye Anyankonsem" indicates Ananse's intention to use the captured character as a means to achieve his goal of obtaining the Sky God's stories. This reflects the common theme in Ananse stories where he uses others to achieve his ends.</t>
+  </si>
+  <si>
+    <t>Translation: And he/she took it home.
+Footnote:
+1. Literal Translation Mapping:
+   - "Na" translates to "And" in English.
+   - "ode" translates to "he/she took" or "he/she carried."
+   - "koo" is a form of the verb "kɔ," which means "go" or "went."
+   - "'fie" translates to "home."
+2. Cultural Context:
+   - In Akan culture, the concept of "home" ('fie) is significant and often represents not just a physical place but also a sense of belonging and family. Taking something home can imply bringing it into one's personal or family space, which can be a gesture of acceptance or ownership.
+   - The use of "Na" at the beginning of the sentence is common in Akan storytelling or narrative to indicate a continuation of events or actions.
+3. Translation Clarification:
+   - The phrase "ode koo 'fie" is a concise way to express the action of taking something to one's home. In English, the phrase is expanded to "And he/she took it home" to convey the complete action and destination.
+   - The pronoun "he/she" is used because Akan does not differentiate gender in pronouns, so the subject could be either male or female.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said to his wife, Ya Nsia, "Get up, let us go, so I can take you to these dwarfs to collect the wisdom of the world."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Na Ananse ka kyeree oni" - "And Ananse said to his wife"
+   - "Ya Nsia se" - "Ya Nsia said"
+   - "Sore, ma yen ko" - "Get up, let us go"
+   - "me mfa wo nka Mmoatia yi ho" - "I take you to these dwarfs"
+   - "nko gye Anyankonsem" - "to collect the wisdom of the world"
+2. **Cultural Context**:
+   - Ananse, often referred to as Kweku Ananse, is a well-known character in Akan folklore. He is a spider and a trickster figure, often involved in stories that convey moral lessons or explain natural phenomena.
+   - "Mmoatia" refers to mythical dwarfs in Akan folklore. They are believed to possess special knowledge or powers and are often associated with the forest.
+   - "Anyankonsem" translates to "wisdom of the world" or "universal knowledge." In Akan culture, wisdom is highly valued, and stories often revolve around the quest for knowledge and understanding.
+3. **Translation Clarification**:
+   - The phrase "me mfa wo nka Mmoatia yi ho nko gye Anyankonsem" is a request or plan to take someone to a place or beings (in this case, the dwarfs) to acquire something valuable (the wisdom of the world). The translation captures the intent of embarking on a journey to gain knowledge, which is a common theme in Ananse stories.</t>
+  </si>
+  <si>
+    <t>Translation: He/she left us and went to be with God.
+Footnote:
+1. Literal Translation Mapping:
+   - "Omaa" translates to "left" or "departed."
+   - "yen" translates to "us."
+   - "so" translates to "on" or "over."
+   - "koo" translates to "went."
+   - "Nyame" translates to "God."
+   - "ho" translates to "to" or "at."
+2. Cultural Context:
+   - In Akan culture, the phrase "koo Nyame ho" is a euphemistic way of saying someone has passed away. It reflects the belief in an afterlife where the deceased goes to be with God. This expression is often used to convey respect and reverence for the deceased, emphasizing the spiritual journey rather than the physical departure.
+3. Translation Clarification:
+   - The phrase "Omaa yen so, koo Nyame ho" is a respectful way to announce someone's death. The translation "He/she left us and went to be with God" captures the intended meaning, focusing on the transition to a spiritual existence rather than the finality of death. The use of "left us" implies a departure from the living, while "went to be with God" suggests a continuation of existence in a divine realm.</t>
+  </si>
+  <si>
+    <t>Translation: He said, "God, here is the dwarf, and here is the old woman I mentioned."
+Footnote:
+1. Literal Translation Mapping:
+   - "Osee" translates to "He said."
+   - "Nyame" translates to "God."
+   - "Mmoatia ni" translates to "here is the dwarf."
+   - "m'aberewa a me kaye no" translates to "the old woman I mentioned."
+   - "nso ni" translates to "and here is."
+2. Cultural Context:
+   - In Akan culture, dwarfs (mmoatia) are often considered mystical beings with supernatural powers. They are sometimes depicted in folklore as tricksters or helpers, depending on the story.
+   - The mention of an "old woman" (aberewa) can also have cultural significance. In many African cultures, elders, especially women, are respected for their wisdom and experience. They often play crucial roles in storytelling and moral lessons.
+   - The phrase suggests a scenario where the speaker is presenting or pointing out these two figures, possibly in a narrative or a situation where their presence is significant.
+3. Translation Clarification:
+   - The translation maintains the structure and meaning of the original Akan sentence. The phrase "here is" is used to indicate the presence of the dwarf and the old woman, as if the speaker is physically pointing them out to God.
+   - The use of "God" in the translation reflects the direct address to a higher power, which is common in many Akan expressions, indicating a plea or a significant moment.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+God created the Ko'ntire and Akwamu, the Adonten, the Gyase, the Oyoko, the Ankobea, and the Kyidom.
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Nyame" translates to "God."
+   - "so free" translates to "created."
+   - "Ko'ntire ne Akwam'" refers to "Ko'ntire and Akwamu."
+   - "ne" means "and."
+   - "Adonten" is a specific group or division.
+   - "Gyase" is another group or division.
+   - "Oyoko" is a clan or family group.
+   - "Ankobea" is another group or division.
+   - "Kyidom" is another group or division.
+2. **Cultural Context:**
+   - The text refers to the traditional Akan chieftaincy structure, which is organized into various divisions or groups, each with specific roles and responsibilities. These divisions are part of the Akan social and political system, which is deeply rooted in their culture and history.
+   - "Ko'ntire" and "Akwamu" are typically senior divisions within the Akan chieftaincy, often involved in decision-making and governance.
+   - "Adonten" refers to the division responsible for the vanguard or frontline in times of war.
+   - "Gyase" is the division responsible for the palace and its administration.
+   - "Oyoko" is one of the major Akan clans, known for its historical significance and leadership roles.
+   - "Ankobea" refers to those who stay at home, often responsible for internal affairs.
+   - "Kyidom" is the rear guard division, responsible for protection from behind.
+3. **Translation Clarification:**
+   - The translation maintains the structure and names of the divisions as they are specific to the Akan culture and do not have direct English equivalents. The roles and significance of these divisions are understood within the context of Akan society, and the translation aims to preserve these cultural nuances.</t>
+  </si>
+  <si>
+    <t>English Translation: And he said before us, "Great kings are here, yet we could not accomplish the task of capturing the stories of the sky, but Kwaku Ananse has managed to do it; he has captured the Hornets; he has captured the Dwarfs; he has captured the Leopard; he has captured the Python; it is Ananse alone who has accomplished this; all these things are now available."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Na ode too ye'anim se" - "And he put before us that"
+   - "Ahene akesie akesie aha" - "Great kings are here"
+   - "ye'antimi anto Anyankonsem" - "we could not accomplish the task of capturing the stories of the sky"
+   - "Kwaku Ananse dee watimi ato" - "Kwaku Ananse has managed to do it"
+   - "m'agye no Mmoboro" - "he has captured the Hornets"
+   - "m'agye no Mmoatia" - "he has captured the Dwarfs"
+   - "m'agye no Osebo" - "he has captured the Leopard"
+   - "m'agye no Onini" - "he has captured the Python"
+   - "ono ara Ananse de oni ato so" - "it is Ananse alone who has accomplished this"
+   - "nnooma no nnyina na egu ho yi" - "all these things are now available"
+2. **Cultural Context**:
+   - The text refers to a popular Akan folktale about Kwaku Ananse, a cunning spider character known for his intelligence and trickery. In Akan folklore, Ananse is often depicted as a trickster who uses his wit to outsmart others and achieve seemingly impossible tasks. The "stories of the sky" or "Anyankonsem" are a collection of tales that were believed to be owned by the sky god, Nyame. Ananse's quest to capture these stories is a metaphor for acquiring wisdom and knowledge.
+   - The characters mentioned (Hornets, Dwarfs, Leopard, Python) are symbolic challenges Ananse had to overcome to achieve his goal. Each represents a different aspect of the trials he faced, showcasing his cleverness and resourcefulness.
+3. **Translation Clarification**:
+   - The phrase "ye'antimi anto Anyankonsem" is translated as "we could not accomplish the task of capturing the stories of the sky." This reflects the idea that despite the presence of great kings, they were unable to achieve what Ananse did, highlighting his unique abilities.
+   - "m'agye no" is translated as "he has captured," which implies not just physical capture but also overcoming or mastering these challenges.
+   - The phrase "ono ara Ananse de oni ato so" emphasizes that Ananse alone was able to accomplish this feat, underscoring his exceptional nature in the folklore.</t>
+  </si>
+  <si>
+    <t>Translation: He/She said, "Do not agree to it."
+Footnote:
+1. Literal Translation Mapping:
+   - "Osee" translates to "He/She said."
+   - "Mo" translates to "You" (plural).
+   - "Mpene" translates to "do not agree."
+   - "No" translates to "it."
+2. Cultural Context:
+   - In Akan culture, communication often involves indirect expressions and the use of proverbs or sayings. The phrase "Mo mpene no" is a direct instruction or advice given to a group, indicating a collective decision or action. It reflects the communal nature of Akan society, where decisions are often made collectively rather than individually.
+3. Translation Clarification:
+   - The phrase "Mo mpene no" is an imperative statement directed at a group, advising them not to consent or agree to something. The use of "mo" indicates that the speaker is addressing more than one person, which is important in understanding the context and the intended audience of the statement.</t>
+  </si>
+  <si>
+    <t>Translation: They said, "Eee!"
+Footnote:
+1. Literal Translation Mapping:
+   - "Ye" translates to "They"
+   - "see" translates to "said"
+   - "Eee!" is an exclamation that does not have a direct translation but is used to express surprise or emphasis.
+2. Cultural Context:
+   - In Akan culture, exclamations like "Eee!" are commonly used in conversation to express a range of emotions such as surprise, disbelief, or emphasis. It is similar to saying "Wow!" or "Oh!" in English. Such expressions are often used to convey the speaker's emotional reaction to a situation or statement.
+3. Translation Clarification:
+   - The phrase "Ye see, 'Eee!'" is a simple sentence where "Ye" is the subject meaning "They," and "see" is the verb meaning "said." The exclamation "Eee!" is retained in the translation as it captures the emotional tone of the original text. The translation aims to convey the sense of surprise or emphasis that the original Akan expression would evoke in a listener.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+God said, "Kwaku Ananse, from this day forward, I give you the wisdom of the world, congratulations! congratulations! congratulations!"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Nyankonpon" translates to "God."
+   - "see" translates to "said."
+   - "Kwaku Ananse" is a proper noun, referring to the character Ananse.
+   - "efiri nne ekoro yi" translates to "from this day forward."
+   - "me de Anyankonsem me kye wo" translates to "I give you the wisdom of the world."
+   - "kose! kose! kose!" translates to "congratulations! congratulations! congratulations!"
+2. **Cultural Context:**
+   - In Akan folklore, "Kwaku Ananse" is a well-known trickster spider character who is often associated with wisdom and storytelling. Ananse stories are a significant part of Akan oral tradition and are used to impart moral lessons and cultural values.
+   - "Nyankonpon" is a name for God in Akan culture, often depicted as the supreme being who is omnipotent and omniscient.
+   - The phrase "Anyankonsem" refers to the wisdom or knowledge of the world, which is highly valued in Akan culture. It implies a deep understanding of life and the universe.
+3. **Translation Clarification:**
+   - The phrase "me de Anyankonsem me kye wo" is an expression of bestowing a significant gift or responsibility. In this context, it means that God is granting Ananse the wisdom of the world, which is a great honor.
+   - The repetition of "kose!" is a form of emphasis, showing the importance and celebratory nature of the event. It is akin to saying "congratulations" multiple times to express joy and recognition of an achievement.</t>
+  </si>
+  <si>
+    <t>Translation: "They no longer call it 'Tales of the Sky,' but rather 'Ananse Stories.'"
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Yammered" - "They no longer call"
+   - "no" - "it"
+   - "Anyankonsem" - "Tales of the Sky"
+   - "bio" - "anymore"
+   - "na" - "but"
+   - "ye'mfre" - "they call"
+   - "no" - "it"
+   - "Anansesem" - "Ananse Stories"
+2. **Cultural Context**:
+   - In Akan culture, storytelling is a significant tradition, often involving tales that impart moral lessons or cultural values. "Anyankonsem" refers to stories that are considered to be of divine or celestial origin, often involving gods or mythical beings. "Anansesem," on the other hand, refers specifically to stories about Ananse, the trickster spider, who is a central figure in Akan folklore. Ananse stories are known for their wit and moral lessons, and they are a staple of Akan oral literature.
+3. **Translation Clarification**:
+   - The translation reflects a shift in the type of stories being told or the way they are categorized. The phrase suggests a transition from stories that are perceived as divine or celestial ("Tales of the Sky") to those that are more grounded in the cultural folklore of the Akan people, specifically focusing on Ananse, the spider. This shift could indicate a change in storytelling preferences or cultural emphasis within the community.</t>
+  </si>
+  <si>
+    <t>English Translation: Whether my story is good or not, take some with you and bring some back.
+Footnote:
+1. Literal Translation Mapping:
+   - "M'anansesem a metooye yi" - "My story that I have told"
+   - "se eye de o" - "if it is good"
+   - "se ennye de o" - "if it is not good"
+   - "momfa bi nko" - "take some with you"
+   - "na momfa bi mmera" - "and bring some back"
+2. Cultural Context:
+   - Anansesem refers to traditional Akan folktales often involving the character Ananse, a cunning spider. These stories are a significant part of Akan oral literature and are used to impart moral lessons, wisdom, and cultural values.
+   - The phrase reflects the communal and participatory nature of storytelling in Akan culture, where stories are shared, discussed, and passed on, allowing listeners to take away lessons and contribute their interpretations or versions.
+3. Translation Clarification:
+   - The phrase "take some with you and bring some back" suggests that listeners should not only absorb the story's lessons but also share their insights and experiences, creating a continuous cycle of learning and storytelling. It emphasizes the dynamic and interactive nature of oral traditions in Akan culture.</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini</t>
+  </si>
+  <si>
+    <t>Translation: "We say that, we say that."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Ye'" translates to "We" 
+   - "'nse" translates to "say" 
+   - "se" translates to "that" 
+   - The repetition of "'nse se" emphasizes the act of saying or declaring something.
+2. **Cultural Context**: 
+   - In Akan culture, repetition is often used for emphasis and to convey importance. This phrase could be part of a larger conversation or proverb, where the speaker is stressing a point or a belief that is widely accepted within the community. It reflects the communal nature of communication in Akan society, where collective understanding and agreement are valued.
+3. **Translation Clarification**: 
+   - The phrase "We say that, we say that" may not convey the full weight of the original Akan expression in English. It suggests a communal affirmation or a shared belief, which might be better expressed in context. Depending on the surrounding dialogue, it could imply a call to attention or a reminder of a commonly held truth or principle within the community.</t>
+  </si>
+  <si>
+    <t>Translation: "If it is good, we will call it a fable."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "SE" = If
+   - "'YOYE" = it is good
+   - "A" = that
+   - "ANYANKONSEM" = a fable (literally "God's story" or "divine tale")
+   - "YE" = we
+   - "BE" = will
+   - "FRENO" = call it
+   - "ANANSESEM" = fable (specifically referring to stories about Ananse, the spider, who is a trickster figure in Akan folklore)
+2. **Cultural Context:**
+   - In Akan culture, storytelling is a vital part of social life and education. Fables, particularly those involving Ananse, serve to impart moral lessons and cultural values. The phrase suggests that if something is deemed good or valuable, it will be recognized and celebrated as part of the rich tradition of storytelling. Ananse stories often reflect human experiences and societal norms, making them a significant aspect of Akan heritage.
+3. **Translation Clarification:**
+   - The term "ANYANKONSEM" can be understood as a narrative that conveys deeper meanings or morals, often associated with divine wisdom. The phrase implies that the quality of a story or lesson is acknowledged and honored within the community. The use of "fable" in English captures the essence of these stories, although it may not fully encompass the spiritual and cultural significance they hold in Akan society.</t>
+  </si>
+  <si>
+    <t>Translation: Kwaku Ananse went to Nyankonpon to ask him to give him the 'Nyankonsem' stories.
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "KWAKU ANANSE" - Kwaku Ananse (a character in Akan folklore, often depicted as a spider and known for his cleverness)
+   - "na" - and
+   - "okoo" - he went
+   - "Nyankonpon" - Nyankonpon (a term for God in Akan culture)
+   - "hose" - to ask
+   - "omfa" - him to give
+   - "'Nyankonsem" - 'Nyankonsem (literally translates to 'God's stories' or 'divine tales')
+   - "mma no" - to him
+   - "nto" - to give
+2. **Cultural Context:**
+   Kwaku Ananse is a significant figure in Akan folklore, often embodying the traits of a trickster. He is known for his intelligence and cunning, frequently engaging in adventures that teach moral lessons. Nyankonpon represents the supreme deity in Akan belief, and the 'Nyankonsem' stories are traditional tales that convey wisdom, cultural values, and the relationship between humans and the divine. The act of asking for these stories symbolizes a quest for knowledge and understanding of one's culture and spirituality.
+3. **Translation Clarification:**
+   The phrase 'Nyankonsem' can be understood as more than just stories; it encompasses teachings, parables, and lessons that are integral to the Akan worldview. The translation captures the essence of Kwaku Ananse's character as a seeker of wisdom, highlighting the importance of storytelling in Akan culture as a means of preserving history and imparting moral lessons.</t>
+  </si>
+  <si>
+    <t>Translation: God said, "Can you do it?"
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Nyame" translates to "God."
+   - "see" translates to "said."
+   - "Wo" translates to "you."
+   - "betimi" translates to "can" or "be able to."
+   - "ato" translates to "do it" or "perform it."
+2. **Cultural Context**: 
+   - In Akan culture, the concept of God (Nyame) is central to many aspects of life, including decision-making and personal capability. The phrase reflects a dialogue that may occur in a spiritual or motivational context, where God is seen as a source of encouragement or challenge. The question "Can you do it?" implies a test of faith or ability, which is a common theme in many religious teachings.
+3. **Translation Clarification**: 
+   - The phrase "Wo betimi ato?" can be interpreted in various ways depending on the context. It could be a literal inquiry about someone's ability to accomplish a task or a metaphorical challenge to one's faith or potential. The use of "God said" suggests that this is not just a casual question but rather a significant prompt that encourages self-reflection and determination.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "Oh! I can do it."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Ananse" - Ananse (a character from Akan folklore, often depicted as a spider and known for his cleverness)
+   - "see" - said
+   - "Ei!" - Oh!
+   - "metimi" - I can do it
+2. **Cultural Context**: 
+   Ananse is a significant figure in Akan folklore, representing wisdom, storytelling, and the complexities of human nature. The phrase reflects Ananse's characteristic confidence and cleverness, often found in tales where he outsmarts others or faces challenges. The exclamation "Ei!" conveys surprise or realization, which is common in conversational Akan, emphasizing the emotional tone of the statement.
+3. **Translation Clarification**: 
+   The phrase captures a moment of self-affirmation or determination. In the context of a story, it may indicate that Ananse is about to undertake a challenge or task, showcasing his resourcefulness. The translation aims to maintain the essence of Ananse's character, which is often about overcoming obstacles through wit and intelligence.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+God said, "The towns of Akantinka will be called Kokofu, Bekwai, Asumengya here, we cannot sing, and you Kwafwiaban, will you be able to?"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Nyame see" - "God said"
+   - "Akuro akantinka" - "The towns of Akantinka"
+   - "be ye se" - "will be called"
+   - "Kokofu, Bekwai, Asumengya" - "Kokofu, Bekwai, Asumengya" (proper nouns, names of towns)
+   - "aha" - "here"
+   - "ye'antimi anto" - "we cannot sing"
+   - "na" - "and"
+   - "wo Kwafwiaban" - "you Kwafwiaban" (referring to a group or person)
+   - "na wo betimi?" - "will you be able to?"
+2. **Cultural Context:**
+   The phrase reflects a significant moment in Akan culture, where the naming of towns and places often carries deep historical and spiritual meanings. The mention of "God" indicates a divine authority in the naming process, suggesting that these towns are not just geographical locations but also hold cultural and spiritual significance. The reference to "singing" may imply a communal or celebratory aspect that is often associated with the establishment or recognition of a place.
+3. **Translation Clarification:**
+   The translation captures the essence of the original Akan text, emphasizing the divine proclamation regarding the naming of towns. The phrase "we cannot sing" may imply a sense of loss or inability to celebrate, which could reflect a historical context where the community faced challenges. The term "Kwafwiaban" could refer to a specific group or lineage within the Akan community, suggesting a call to action or reflection on their role in this context. The overall message conveys a blend of spiritual authority, community identity, and the importance of cultural heritage.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "What do we use to buy food?"
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Ananse" - Ananse (a character often depicted as a spider in Akan folklore)
+   - "see" - said
+   - "Edieben" - food
+   - "na" - that/which
+   - "ye" - we
+   - "to" - buy
+   - "ma" - for
+2. **Cultural Context**: 
+   Ananse is a well-known figure in Akan folklore, often representing wisdom, storytelling, and trickery. The phrase reflects a common concern in many cultures about the means of acquiring sustenance. In the Akan context, food is not just a necessity but also a central part of social gatherings and cultural identity. The question posed by Ananse may imply a deeper inquiry into the resources or means available to the community, highlighting themes of survival and resourcefulness.
+3. **Translation Clarification**: 
+   The phrase "What do we use to buy food?" captures the essence of the original Akan text, which is a rhetorical question that may imply a discussion about resources or the means of sustenance. The use of "buy" in English may not fully encompass the communal aspects of food acquisition in Akan culture, where sharing and collective effort are often emphasized. Thus, the translation aims to convey both the literal meaning and the underlying cultural significance of the inquiry.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+God said, "Let us not allow the children to be deceived, the Snake, the Leopard, the Spirit, the Insect."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Nyame" = God
+   - "see" = said
+   - "Ye" = we
+   - "nto" = do not allow
+   - "mma" = children
+   - "fwe" = to be deceived
+   - "gye se" = believe that
+   - "Aboa" = Animal
+   - "Onini" = Snake
+   - "Osebo" = Leopard
+   - "Mmoatia" = Spirit
+   - "Mmoboro" = Insect
+2. **Cultural Context:**
+   In Akan culture, animals often symbolize various traits and moral lessons. The mention of the Snake (Onini), Leopard (Osebo), Spirit (Mmoatia), and Insect (Mmoboro) suggests a warning against deceit and the dangers posed by these creatures, which may represent negative influences or temptations in life. The phrase emphasizes the importance of protecting the youth from harmful influences and ensuring they are not misled by deceptive appearances or behaviors.
+3. **Translation Clarification:**
+   The phrase "Ye nto mma fwe gye se" can be interpreted as a protective admonition, urging the community to safeguard children from being misled or tricked. The animals listed are not just literal creatures but also metaphorical representations of deceitful forces in society. The translation captures the essence of a communal responsibility to educate and protect the younger generation from various forms of deception, whether they be physical, moral, or spiritual.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse said, "I will bring all the things, I will bring my mother, Nsia, I am talking about."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse see" - "Ananse said"
+   - "Me de nnooma nnyina bi meba" - "I will bring all the things"
+   - "me de m'aberewa" - "I will bring my mother"
+   - "Nsia" - "Nsia" (a name)
+   - "meka ho" - "I am talking about"
+2. **Cultural Context:**
+   Ananse is a well-known character in Akan folklore, often depicted as a spider and a trickster. He is associated with wisdom, storytelling, and the ability to outsmart others. The mention of "Nsia" as his mother indicates a familial connection that may be significant in the context of the story. In many Akan tales, family relationships and the roles of mothers are revered, and they often play crucial roles in the narratives.
+3. **Translation Clarification:**
+   The phrase "I will bring all the things" suggests that Ananse is preparing to gather resources or items for a specific purpose, which is common in stories where he embarks on a quest or a plan. The reference to his mother, Nsia, implies that she may be an important figure in his endeavors, possibly providing wisdom or support. The phrase "I am talking about" indicates that Ananse is clarifying or emphasizing his intention to include his mother in whatever he is planning, which may reflect the importance of maternal figures in Akan culture.</t>
+  </si>
+  <si>
+    <t>Translation: God said, "Go and take it."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Nyame" = God
+   - "see" = said
+   - "Ko" = Go
+   - "fa" = take
+   - "brae" = it (referring to something specific, often understood in context)
+2. **Cultural Context**: 
+   - In Akan culture, the phrase reflects a belief in divine guidance and instruction. The use of "Nyame" (God) signifies the importance of spirituality and the acknowledgment of a higher power in everyday decisions. The phrase may be used in various contexts, such as encouraging someone to pursue their goals or to take action in a situation where they feel uncertain.
+3. **Translation Clarification**: 
+   - The phrase "Ko fa brae" can imply a sense of urgency or necessity in taking action. The word "brae" can refer to something that is already known or understood in the context of the conversation, which may not be explicitly stated in the translation. The command to "go and take it" suggests not just a physical action but also an encouragement to seize opportunities or blessings that are perceived as divinely ordained.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse came, and he said to the people, "I want to tell a story, and God said I should include Onini, Osebo, Mmoatia, Mmoboro, and I will make sure to involve you in the tale for the sake of the Creator."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse baye" - "Ananse came"
+   - "na oboo oni amanie se" - "and he said to the people"
+   - "Nyankonsem me pe se me to" - "I want to tell a story"
+   - "na Nyame se me mfa" - "and God said I should include"
+   - "Onini, Osebo, Mmoatia, Mmoboro" - (names of characters)
+   - "mmera" - "and I will make sure"
+   - "me de wo be ka ho ma ko ma Nyankonpon" - "to involve you in the tale for the sake of the Creator"
+2. **Cultural Context:**
+   Ananse is a well-known character in Akan folklore, often depicted as a spider and a trickster. He is a symbol of wisdom, creativity, and storytelling. The mention of "Nyankonsem" (God's story) reflects the importance of spirituality and the divine in Akan culture. The characters listed (Onini, Osebo, Mmoatia, Mmoboro) are likely figures from traditional tales, each representing different moral lessons or attributes. The act of storytelling is a communal activity in many African cultures, serving to educate, entertain, and preserve history.
+3. **Translation Clarification:**
+   The phrase "I want to tell a story" indicates Ananse's role as a storyteller, which is central to his character. The inclusion of divine instruction ("God said I should include") emphasizes the belief that storytelling is not just a human endeavor but also a spiritual one, guided by higher powers. The names mentioned are significant in the context of the story, as they likely represent various challenges or lessons that Ananse will address in his narrative. The phrase "for the sake of the Creator" underscores the reverence for God in the storytelling process, suggesting that the tales are meant to honor divine wisdom.</t>
+  </si>
+  <si>
+    <t>Translation: "And Ananse asked his mother, 'How difficult will it be for us to get Onini?'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Na" = "And"
+   - "Ananse" = "Ananse" (a character in Akan folklore, often depicted as a spider)
+   - "bisaa" = "asked"
+   - "ne" = "his"
+   - "ye'" = "mother"
+   - "Aso" = "Aso" (a term of endearment or respect for mother)
+   - "se" = "that"
+   - "Ebeye" = "It will be"
+   - "den" = "difficult"
+   - "na" = "for us"
+   - "ye'" = "to get"
+   - "Onini" = "Onini" (a mythical python in Akan folklore)
+2. **Cultural Context:**
+   - Ananse is a significant figure in Akan folklore, often representing wisdom, cunning, and the complexities of human nature. The stories involving Ananse often convey moral lessons and reflect the values of the Akan people. The mention of "Onini," a mythical python, suggests a quest or challenge that Ananse and his mother are contemplating, which is common in folklore narratives where characters seek to overcome obstacles or achieve goals.
+3. **Translation Clarification:**
+   - The phrase "How difficult will it be for us to get Onini?" implies a sense of inquiry about the challenges ahead in their quest. The use of "ye'" indicates a collective effort or involvement, suggesting that Ananse is not alone in this endeavor. The question reflects both curiosity and concern, typical of the storytelling style in Akan culture, where characters often engage in dialogue that reveals their thoughts and feelings about their circumstances.</t>
+  </si>
+  <si>
+    <t>Translation: "And the ear told him, 'You will go and cut the tonton and add it to the demere, and then come home.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Na" = "And"
+   - "Aso" = "ear"
+   - "ka" = "told"
+   - "kyeree" = "him"
+   - "se" = "that"
+   - "Worlie" = "You will go"
+   - "ko" = "go"
+   - "twa" = "cut"
+   - "tonton" = "tonton" (a type of food, often a dough-like substance)
+   - "na" = "and"
+   - "twa" = "add"
+   - "demere" = "demere" (a type of food, often a stew or sauce)
+   - "ka" = "to"
+   - "ho" = "it"
+   - "na" = "and"
+   - "fa" = "take"
+   - "bra" = "come home"
+2. **Cultural Context:**
+   - In Akan culture, food preparation and sharing are significant aspects of social life. The mention of "tonton" and "demere" refers to traditional foods that are commonly enjoyed in Ghana. Tonton is often made from cassava or plantain, while demere is a sauce or stew that accompanies various dishes. The phrase suggests a communal or familial context where one is instructed to prepare food for sharing or for a family meal.
+3. **Translation Clarification:**
+   - The phrase "the ear told him" is a metaphorical expression in Akan, implying that someone overheard information or received advice indirectly. It is not meant to be taken literally. The instruction to "cut the tonton and add it to the demere" indicates a cooking process that is typical in preparing meals in Ghanaian households. The overall message conveys a sense of duty or responsibility to prepare food for the family, highlighting the importance of nourishment and togetherness in the community.</t>
+  </si>
+  <si>
+    <t>Translation: And Ananse brought the news.
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Na" = And
+   - "Ananse" = Ananse (a character from Akan folklore, often depicted as a spider)
+   - "de" = brought
+   - "baye" = the news
+2. **Cultural Context**: 
+   Ananse is a significant figure in Akan folklore, often representing wisdom, storytelling, and the complexities of human nature. He is known for his cleverness and ability to outsmart others, often using his wit to navigate challenges. The phrase "Ananse de baye" suggests that Ananse is a messenger or a bearer of important information, which aligns with his role in many stories where he imparts lessons or moral teachings.
+3. **Translation Clarification**: 
+   The phrase "baye" can be understood as "the news" or "the message," indicating that Ananse is not just bringing any information, but something noteworthy or significant. The use of "Na" at the beginning of the sentence serves to connect this action to a previous context, suggesting that this event is part of a larger narrative or story.</t>
+  </si>
+  <si>
+    <t>Translation: And Aso said, "Go and fetch water."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Na" = And
+   - "Aso" = Aso (a name)
+   - "see" = said
+   - "Fa" = Go
+   - "ko" = and
+   - "asuom'" = fetch water (with "asuom" meaning water and the apostrophe indicating a contraction or elision in spoken Akan).
+2. **Cultural Context**: 
+   - In many Akan communities, fetching water is a common task often assigned to children or young adults. It reflects the communal lifestyle where responsibilities are shared among family members. The act of fetching water can also symbolize the importance of water in daily life, as it is essential for cooking, cleaning, and other household activities. The phrase may also imply a sense of duty or responsibility within the family or community.
+3. **Translation Clarification**: 
+   - The phrase "Fa ko asuom'" is a directive, indicating that Aso is instructing someone to go and get water. The use of "Fa" (go) suggests an immediate action, while "asuom'" (water) is a common term in Akan. The context of the conversation may imply that fetching water is a necessary task at that moment, highlighting the practical aspects of daily life in Akan culture.</t>
+  </si>
+  <si>
+    <t>Translation: "And Ananse took the drum and said, 'The sound is not the same; if you help, it will not be the same.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Na" = "And"
+   - "Ananse" = "Ananse" (a character in Akan folklore, often depicted as a spider)
+   - "de" = "took"
+   - "ekoro no" = "the drum"
+   - "osee" = "said"
+   - "Esene no" = "The sound"
+   - "ensene no" = "is not the same"
+   - "woboa" = "if you help"
+   - "esene no" = "it will not be the same"
+2. **Cultural Context:**
+   - Ananse is a significant figure in Akan folklore, often representing wisdom, storytelling, and the complexities of human nature. The drum (ekoro) is a vital instrument in many African cultures, used in communication, celebration, and rituals. The phrase suggests a theme of collaboration and the idea that contributions from different people can lead to unique outcomes, emphasizing the importance of community and teamwork.
+3. **Translation Clarification:**
+   - The phrase "The sound is not the same" implies that different contributions or efforts yield different results. The use of "if you help" suggests that collaboration is necessary for achieving a desired outcome, reinforcing the idea that individual efforts can lead to varied results when combined. The overall message reflects the value of unity and the diverse impacts of collective action in the Akan culture.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "He is the one who is sleeping with her."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Ananse" = Ananse (a character in Akan folklore, often depicted as a spider and a trickster)
+   - "see" = said
+   - "Ono" = He/She (referring to a person)
+   - "na" = is/that (a linking word)
+   - "oda" = sleeping
+   - "doo" = with her (the word "doo" can imply intimacy or closeness)
+   - "no" = her (referring to a female)
+2. **Cultural Context**: 
+   Ananse is a significant figure in Akan folklore, representing wisdom, storytelling, and the complexities of human nature. The phrase reflects themes of relationships and social dynamics within the community. In many Akan stories, Ananse often finds himself in situations involving love, betrayal, or moral lessons, making this line indicative of the broader narrative style where personal relationships are intertwined with moral teachings.
+3. **Translation Clarification**: 
+   The phrase "Ono na oda doo no" can be interpreted in various ways depending on the context. While it literally translates to "He is the one who is sleeping with her," it can also imply a deeper narrative about trust, betrayal, or social standing. The use of "sleeping" in this context often carries connotations of romantic or intimate relationships, which may not be explicitly stated in the original text but is understood within the cultural framework of Akan storytelling.</t>
+  </si>
+  <si>
+    <t>Translation: "The person asked, 'Why?'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Onini" translates to "the person" or "someone."
+   - "see" translates to "asked" or "said."
+   - "Aden?" translates to "Why?"
+2. **Cultural Context:**
+   - In Akan culture, asking "Why?" can indicate curiosity, confusion, or a desire for clarification. It reflects a common conversational practice where individuals seek to understand the reasoning behind actions or statements. This interaction is often seen in both formal and informal settings, highlighting the importance of dialogue and understanding in social relationships.
+3. **Translation Clarification:**
+   - The phrase captures a moment of inquiry, where "Onini" (the person) is engaging in a dialogue by questioning something that has been said or done. The use of "Aden?" is a straightforward way to express confusion or seek further explanation, which is a fundamental aspect of communication in many cultures, including Akan. The translation maintains the essence of the original question while ensuring clarity in English.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse said, "It is not the ears that receive my advice, but rather this short one is better than your long one, and I say it helps."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse see" - "Ananse said"
+   - "Nye Aso" - "It is not the ears"
+   - "na ogye me akyinnyie" - "that receive my advice"
+   - "se ton­ ton yi kyen wo tenten" - "but rather this short one is better than your long one"
+   - "name se oboa" - "and I say it helps"
+2. **Cultural Context:**
+   Ananse is a well-known character in Akan folklore, often depicted as a spider and a trickster. He embodies wisdom and cunning, frequently using his intelligence to outsmart others. The phrase reflects a common theme in Akan proverbs and stories, where the value of wisdom and concise advice is emphasized over lengthy or complex explanations. The reference to "ears" symbolizes the act of listening and understanding, while the comparison between "short" and "long" signifies the preference for straightforwardness and practicality in communication.
+3. **Translation Clarification:**
+   The phrase "Nye Aso" literally translates to "It is not the ears," which metaphorically suggests that it is not merely about hearing advice but understanding and applying it. The comparison of "this short one" to "your long one" implies that sometimes, simpler and more direct advice is more effective than elaborate or lengthy counsel. The concluding part, "name se oboa," reinforces the idea that the advice given is beneficial, highlighting the importance of practical wisdom in decision-making.</t>
+  </si>
+  <si>
+    <t>Translation: "The snake said, 'Come, let’s count together.'"
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Onini" = "The snake"
+   - "see" = "said"
+   - "Fra" = "Come"
+   - "bra" = "let’s come" (or "let’s go")
+   - "be" = "let’s"
+   - "susu" = "count"
+   - "me" = "together" (or "with me")
+2. **Cultural Context**: 
+   In Akan folklore, animals often speak and possess human-like qualities, which serves to convey moral lessons or cultural values. The snake, in particular, can symbolize cunning or wisdom, and its invitation to "count together" may imply a call for collaboration or unity in a task. Counting is a common activity in many cultures, often associated with learning, sharing knowledge, or working together towards a common goal.
+3. **Translation Clarification**: 
+The phrase "Come, let’s count together" is not just a literal invitation to count numbers; it can also imply a deeper meaning of coming together to share experiences or knowledge. In this context, it suggests a cooperative effort, which is a valued principle in many African cultures, including the Akan. The use of "together" emphasizes the importance of community and collaboration in achieving goals.</t>
+  </si>
+  <si>
+    <t>Translation: "The big drum was placed beside Onini."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ode" = "drum"
+   - "tonton" = "big" or "large"
+   - "no" = "the" (definite article)
+   - "too" = "placed" or "put"
+   - "Onini" = "Onini" (a proper noun, likely a name)
+   - "ho" = "beside" or "next to"
+2. **Cultural Context:**
+   - In Akan culture, drums play a significant role in various ceremonies, celebrations, and storytelling. The "big drum" often refers to a traditional drum used in communal gatherings, rituals, or during performances. The mention of "Onini" could refer to a person of importance or a character in a story, indicating that the drum is placed in proximity to them for a specific purpose, such as to accompany a performance or to honor them.
+3. **Translation Clarification:**
+   - The phrase suggests a physical action where a large drum is intentionally positioned next to a person or entity named Onini. The context may imply a ceremonial or celebratory setting, where the presence of the drum signifies festivity or respect. The use of "Onini" as a proper noun indicates that this is likely a specific individual, possibly a chief or a notable figure within the community, enhancing the significance of the drum's placement.</t>
+  </si>
+  <si>
+    <t>Translation: He said, "Pull yourself together."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Osee" translates to "He said."
+   - "Twe" translates to "pull."
+   - "wo" translates to "your."
+   - "mu" translates to "inside" or "self."
+2. **Cultural Context**: 
+   - The phrase "Twe wo mu" is often used in Akan culture to encourage someone to regain composure or to gather their thoughts, especially in moments of distress or emotional turmoil. It reflects a communal approach to emotional support, where individuals are reminded to look inward for strength and resilience.
+3. **Translation Clarification**: 
+   - The phrase "Pull yourself together" is an idiomatic expression in English that conveys a similar meaning of encouraging someone to regain control over their emotions or situation. While the literal translation focuses on the physical act of pulling, the idiomatic expression captures the intended emotional and psychological support inherent in the original Akan phrase.</t>
+  </si>
+  <si>
+    <t>Translation: "And Onini pulled it out, and Ananse placed the trap on it, nwenene! nwenene! nwenene! and it happened."
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Na" = "And"
+   - "Onini" = "Onini" (a character, often a snake in Akan folklore)
+   - "twe" = "pulled"
+   - "no" = "it"
+   - "mu" = "out"
+   - "na" = "and"
+   - "Ananse" = "Ananse" (a character, often a spider in Akan folklore)
+   - "de" = "placed"
+   - "demere" = "trap"
+   - "no" = "on it"
+   - "so" = "it"
+   - "nwenene" = "nwenene!" (an exclamation, possibly a sound or call)
+   - "na" = "and"
+   - "esii" = "it happened"
+   - "tire" = "happened" (contextually, it can mean "to occur" or "to take place")
+2. **Cultural Context**:
+   - The characters Onini and Ananse are significant figures in Akan folklore. Onini is often depicted as a snake, while Ananse is a clever spider known for his trickster qualities. This narrative likely involves themes of cunning, deception, and the interplay between different characters in traditional stories. The phrase "nwenene" could be an onomatopoeic expression or a chant that adds rhythm and emphasis to the storytelling, common in oral traditions.
+3. **Translation Clarification**:
+   - The phrase "nwenene! nwenene! nwenene!" serves as an expressive element that may not have a direct translation but conveys excitement or urgency in the narrative. It reflects the oral storytelling style where sounds and repetitions enhance the engagement of the audience. The overall sentence describes a moment of action where Onini is being caught or trapped by Ananse, highlighting the cleverness of Ananse in outsmarting Onini.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "Fool, I will take you to receive divine messages."
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Ananse" - Ananse (a character often depicted as a spider in Akan folklore)
+   - "see" - said
+   - "Kwasea" - Fool (a term used to refer to someone who is foolish or lacks wisdom)
+   - "me de" - I will take
+   - "wo" - you
+   - "ko" - to go
+   - "gye" - receive
+   - "Anyankonsem" - divine messages (referring to messages from the gods or spiritual insights)
+2. **Cultural Context**:
+   Ananse is a well-known figure in Akan folklore, often embodying the traits of a trickster. He is associated with wisdom, storytelling, and the complexities of human nature. The term "Kwasea" is a colloquial expression that can be used humorously or derogatorily, depending on the context. In this instance, it reflects Ananse's playful yet critical attitude towards the character he is addressing. The phrase "Anyankonsem" refers to messages or wisdom believed to come from the divine, highlighting the importance of spirituality and the quest for knowledge in Akan culture.
+3. **Translation Clarification**:
+   The translation captures the essence of Ananse's character as a trickster who often engages in witty banter. The use of "Fool" in the translation is not meant to be harsh but rather reflects the playful nature of Ananse's dialogue. The phrase "to receive divine messages" suggests a journey or quest for wisdom, which is a common theme in many of Ananse's stories, where he often seeks knowledge or enlightenment, sometimes through unconventional means.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse took it to God.
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Ananse" refers to the spider, a central character in many Akan folktales, often depicted as a trickster or a wise figure.
+   - "de" translates to "took" or "brought."
+   - "no" means "it" or "that."
+   - "ko" translates to "to go" or "to take."
+   - "maa" means "gave" or "offered."
+   - "Nyame" refers to "God" in the Akan language.
+2. **Cultural Context**: 
+   - Ananse is a significant figure in Akan folklore, symbolizing intelligence, cunning, and the complexities of human nature. Stories about Ananse often convey moral lessons and reflect the values and beliefs of the Akan people. The act of taking something to God can signify seeking divine intervention or guidance, which is a common theme in many African cultures where spirituality plays a crucial role in daily life.
+3. **Translation Clarification**: 
+   - The phrase "Ananse de no ko maa Nyame" can imply that Ananse is not just taking something to God, but is also engaging in a deeper interaction, possibly seeking approval, wisdom, or assistance. The context of the story would provide more insight into what "it" refers to and the significance of this action in the narrative.</t>
+  </si>
+  <si>
+    <t>Translation: God said, "My hand has touched, touched what has been touched."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Nyame" = God
+   - "see" = said
+   - "Me" = My
+   - "nsa" = hand
+   - "aka" = has touched
+   - "aka dee aka" = touched what has been touched
+2. **Cultural Context**: 
+   In Akan culture, the phrase reflects a deep spiritual belief in the power of divine intervention and the significance of God's presence in everyday life. The repetition of "aka" emphasizes the importance of the action and can signify a cycle of blessing or the idea that once something is touched by God, it is transformed or marked in a significant way. This can relate to various aspects of life, including health, prosperity, and protection.
+3. **Translation Clarification**: 
+   The phrase "My hand has touched, touched what has been touched" suggests a profound connection between the divine and the material world. It implies that God's influence is pervasive and transformative. The repetition of "touched" serves to reinforce the idea of God's active role in the world, indicating that once something is touched by God, it carries a lasting significance. This translation captures both the literal meaning and the deeper spiritual implications inherent in the original Akan text.</t>
+  </si>
+  <si>
+    <t>Translation: "Ananse has come back to tell us that, 'It is the time of the Mmoboro.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse" - Ananse (a spider, often a trickster figure in Akan folklore)
+   - "san" - has come back
+   - "baye" - to tell
+   - "be boo" - us that
+   - "ne" - his
+   - "ye'" - we
+   - "amanie" - time
+   - "se" - that
+   - "Aka Mmoboro" - It is the time of the Mmoboro (Mmoboro refers to a specific season or event)
+2. **Cultural Context:**
+   Ananse is a central character in many West African folktales, particularly among the Akan people of Ghana. He is often depicted as a clever spider who uses his wit to outsmart others. The phrase "Aka Mmoboro" likely refers to a specific time or event in the Akan calendar, which may be associated with agricultural practices, festivals, or significant cultural happenings. The mention of Ananse returning to share this information suggests the importance of storytelling and oral tradition in conveying knowledge and cultural values.
+3. **Translation Clarification:**
+   The phrase "It is the time of the Mmoboro" may not have a direct equivalent in English, as it refers to a culturally specific time or event. The term "Mmoboro" could denote a season of harvest, a festival, or a time of communal gathering, depending on the context. The translation aims to capture the essence of the original message while acknowledging that some cultural nuances may not be fully conveyed in English.</t>
+  </si>
+  <si>
+    <t>Translation: His wife said, "Go and fetch water, and then come back."
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Ne yere" - "His wife"
+   - "see" - "said"
+   - "Pe towa" - "Go and fetch water"
+   - "fa nsuo gum'" - "and then come back" (literally "and take water")
+   - "na fa ko" - "and then go"
+2. **Cultural Context**: 
+   In many Akan communities, fetching water is a common daily task, often assigned to women and children. This reflects the traditional division of labor where women are typically responsible for household chores, including gathering water for cooking and cleaning. The phrase captures a moment of domestic life and the responsibilities that come with it.
+3. **Translation Clarification**: 
+   The phrase "Pe towa" is an imperative form, indicating a command or request. The use of "gum'" in "fa nsuo gum'" suggests a sense of urgency or importance in returning quickly after fetching water. The translation aims to maintain the conversational tone of the original Akan while conveying the practical nature of the task being discussed.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse went to the sky to fetch some rain, and when he finished, he poured some of the water on Mmoboro.
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse" - Ananse (a spider, often a trickster figure in Akan folklore)
+   - "koo" - went
+   - "wuram'" - to the sky
+   - "obefwe" - to fetch
+   - "se" - some
+   - "Mmoboro" - Mmoboro (a term that can refer to a type of rain or a specific entity in the story)
+   - "sen" - than
+   - "ho" - it (referring to something previously mentioned)
+   - "na" - and
+   - "ofwiee" - he finished
+   - "nsuo" - water
+   - "no" - the
+   - "bi" - some
+   - "na" - and
+   - "opete" - he poured
+   - "guu" - on
+   - "Mmoboro" - Mmoboro (repeated for emphasis)
+2. **Cultural Context:**
+   Ananse is a central character in many Akan folktales, often depicted as a clever and cunning spider who uses his wits to navigate challenges. The act of fetching rain symbolizes seeking resources or help from higher powers, which is a common theme in African folklore. Mmoboro may refer to a specific type of rain or a metaphorical representation of abundance or blessings. The pouring of water can signify sharing blessings or resources with others.
+3. **Translation Clarification:**
+   The phrase "to fetch some rain" implies not just the physical act of collecting rainwater but also the idea of bringing forth blessings or sustenance. The term "Mmoboro" may have specific cultural significance that could vary based on local interpretations, and it is essential to understand the context in which it is used. The translation captures the essence of the story while maintaining the cultural nuances associated with Ananse's character and the significance of rain in agricultural societies.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse finished what was left and took a cloth to cover his head.
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse" - Ananse (a character from Akan folklore, often depicted as a spider or a clever trickster)
+   - "fwiee" - finished
+   - "dee" - what
+   - "aka" - was left
+   - "guu" - and
+   - "ono ara" - he himself
+   - "so" - on
+   - "na" - and
+   - "otwaa" - took
+   - "brodee-ahan" - cloth (or a piece of cloth)
+   - "de" - to
+   - "kataa" - cover
+   - "no" - his
+   - "ti" - head
+2. **Cultural Context:**
+   Ananse is a significant figure in Akan folklore, often embodying wisdom, cunning, and the complexities of human nature. Stories about Ananse frequently convey moral lessons and reflect the values of the Akan people. The act of covering one's head can symbolize humility, respect, or a form of protection, which may be culturally significant in various contexts, such as during a ceremony or in times of trouble.
+3. **Translation Clarification:**
+   The phrase "Ananse fwiee dee aka guu ono ara so" suggests that Ananse has completed a task or dealt with a situation that was left unresolved. The subsequent action of taking a cloth to cover his head may imply that he is preparing for a new challenge or is in a state of contemplation. The translation captures the essence of Ananse's character as someone who is resourceful and adaptive, reflecting the broader themes of resilience and cleverness found in many Ananse stories.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"Now you are telling the Mmoboro that, 'This rain is coming, if you do not come here to help me, how will I be able to carry my load if this rain does not stop?'" 
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Efei" - Now
+   - "na" - and/that
+   - "oka" - you are telling
+   - "kyeree" - (to) the Mmoboro
+   - "no" - (the)
+   - "se" - that
+   - "Osuo" - Rain
+   - "eba" - is coming
+   - "yi" - this
+   - "ankra" - if not
+   - "mo" - you (plural)
+   - "ha" - here
+   - "na" - and
+   - "mo" - you (plural)
+   - "be" - will
+   - "hyee" - help
+   - "me" - me
+   - "toa" - carry/load
+   - "yim'a" - my load
+   - "s'ankra" - if it does not stop
+   - "osuo" - rain
+   - "yi" - this
+   - "emmo" - does not stop
+   - "mo" - you (plural)
+   - "nfwe" - how will you
+   - "se" - that
+   - "me" - I
+   - "de" - (to) carry
+   - "brodee" - load
+   - "ahahan" - (to) carry
+   - "akata" - (to) me
+   - "soo" - (to) help
+2. **Cultural Context:**
+   The Mmoboro refers to a group or community, possibly a family or neighbors, who are expected to assist one another in times of need. In many Akan communities, communal support is vital, especially during agricultural activities or when facing adverse weather conditions. The mention of rain signifies a critical moment where the weather can either aid or hinder daily tasks, such as farming or transporting goods. The urgency in the speaker's plea reflects the communal values of cooperation and mutual assistance that are deeply rooted in Akan culture.
+3. **Translation Clarification:**
+   The phrase "if you do not come here to help me" emphasizes the expectation of communal support, which is a significant aspect of Akan social life. The speaker is expressing a sense of urgency and reliance on the Mmoboro to assist in carrying a load, which could symbolize not just physical burdens but also emotional or social responsibilities. The repetition of "this rain" highlights the immediacy of the situation, indicating that the rain is a pressing concern that could affect the speaker's ability to manage their tasks. The translation aims to capture both the literal meaning and the underlying cultural significance of the plea for help.</t>
+  </si>
+  <si>
+    <t>Translation: "Then the birds said, 'We thank you, we thank you.'"
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Ena" = Then
+   - "Mmoboro no" = the birds
+   - "see" = said
+   - "Ye'da" = We thank
+   - "w'ase" = you (for your kindness)
+   - "Aku" = (a form of emphasis, often used in repetition for gratitude)
+2. **Cultural Context**: 
+   In Akan culture, expressions of gratitude are significant and often repeated for emphasis. The phrase "Ye'da w'ase" reflects a deep appreciation, which is a common practice in many African cultures. Birds are often seen as messengers or symbols of freedom and joy, and their expression of thanks can symbolize harmony with nature and the importance of gratitude in daily life.
+3. **Translation Clarification**: 
+   The phrase "Ye'da w'ase Aku" literally translates to "We thank you, we thank you," where "Aku" serves to intensify the gratitude being expressed. The repetition is a stylistic choice that emphasizes sincerity and depth of feeling, which is a common feature in oral traditions and storytelling in Akan culture.</t>
+  </si>
+  <si>
+    <t>Translation: "The mosquitoes are all biting you, run away!"
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Mmoboro no" = "The mosquitoes"
+   - "nnyina" = "are all"
+   - "tuo" = "biting"
+   - "toa" = "run away"
+   - "nom', fom!" = "from them, quickly!"
+2. **Cultural Context**:
+   - Mosquitoes are a common nuisance in many tropical regions, including Ghana, where Akan is predominantly spoken. They are often associated with the transmission of diseases such as malaria. The phrase reflects a common warning or advice given to someone who is being bitten, emphasizing the urgency to escape the situation. In many communities, there are traditional practices and remedies to deal with mosquito bites, and this phrase may be used in a light-hearted or serious context depending on the situation.
+3. **Translation Clarification**:
+   - The phrase captures both the immediacy of the action (to run away) and the collective nature of the problem (the mosquitoes are all biting). The use of "nom', fom!" adds an element of urgency, suggesting that the person should act quickly to avoid further bites. The translation aims to convey not just the literal meaning but also the urgency and cultural significance of the advice given in the context of dealing with mosquitoes.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"Father Ananse opened his mouth; he said, 'Fools, I have found you, I will take you to receive the words of the gods.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Agya Ananse" = "Father Ananse"
+   - "tuaa ano" = "opened his mouth"
+   - "Osee" = "he said"
+   - "Nkwaseafuo" = "Fools"
+   - "m'anya mo" = "I have found you"
+   - "me de mo ko" = "I will take you"
+   - "gye Anyankonsem" = "to receive the words of the gods"
+2. **Cultural Context:**
+   Ananse is a well-known character in Akan folklore, often depicted as a spider or a clever trickster. He embodies wisdom, storytelling, and the complexities of human nature. The phrase "Nkwaseafuo" (fools) reflects a common theme in Ananse stories where he often interacts with characters who are less wise or naive. The mention of "Anyankonsem" (words of the gods) signifies the importance of divine knowledge and wisdom in Akan culture, where stories often convey moral lessons and cultural values.
+3. **Translation Clarification:**
+   The phrase "I have found you" suggests a moment of realization or recognition, indicating that Ananse has identified the foolishness of the characters he is addressing. The term "gye Anyankonsem" can be interpreted as a metaphor for enlightenment or gaining wisdom, which is a central theme in many Ananse tales. The translation captures the essence of Ananse's character as a guide who leads others towards understanding, often through cleverness or trickery.</t>
+  </si>
+  <si>
+    <t>Translation: "He/She offers prayers to God."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Ode" translates to "He/She offers."
+   - "Mmoboro" translates to "prayers."
+   - "ko" translates to "to."
+   - "maa" translates to "give" or "offer."
+   - "Nyame" translates to "God."
+2. **Cultural Context**: 
+   In Akan culture, prayer is a significant aspect of spiritual life. It is common for individuals to offer prayers to God (Nyame) for guidance, protection, and blessings. The act of praying is often seen as a way to communicate with the divine and seek support in various aspects of life, including health, family, and prosperity. The phrase reflects a deep-rooted belief in the power of prayer and the importance of maintaining a relationship with God.
+3. **Translation Clarification**: 
+   The phrase "Ode Mmoboro ko maa Nyame" can be understood as a general expression of devotion. The use of "Ode" indicates that the subject is actively engaging in the act of prayer, which is a personal and communal practice in many Akan communities. The translation "He/She offers prayers to God" captures the essence of the original phrase while maintaining its spiritual significance.</t>
+  </si>
+  <si>
+    <t>Translation: God said, "I have added, added what has been added."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Nyame" = God
+   - "see" = said
+   - "Mensa" = I have added
+   - "aka" = added
+   - "dee" = what
+   - "aka" = has been added
+2. **Cultural Context**: 
+   - In Akan culture, the phrase reflects a belief in divine providence and abundance. The repetition of "aka" emphasizes the idea of continuous addition or blessings. It can be interpreted as a statement of gratitude or acknowledgment of God's generosity in providing more than what is necessary. This phrase may be used in various contexts, such as during prayers or discussions about prosperity and blessings.
+3. **Translation Clarification**: 
+   - The phrase "Mensa aka, aka dee aka" can be understood as a poetic expression of God's ongoing blessings. The repetition serves to reinforce the message of abundance and the idea that God continually provides for His people. In English, the translation captures the essence of the original phrase, though it may lose some of the rhythmic and emphatic qualities present in the Akan language.</t>
+  </si>
+  <si>
+    <t>Translation: "Ananse came again, and he told his wife, 'It is Osebo.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse" - Ananse (the spider, a common character in Akan folklore)
+   - "baa" - came
+   - "bio" - again
+   - "be ka" - he will say/tell
+   - "kyeree" - show/explain
+   - "ne" - his
+   - "yere" - wife
+   - "see" - said
+   - "Aka" - It is
+   - "Osebo" - Osebo (the name of a leopard, often used in stories)
+2. **Cultural Context:**
+   Ananse is a well-known trickster figure in Akan folklore, often depicted as a spider. He embodies wisdom, cunning, and the ability to outsmart others. The mention of "Osebo" refers to a leopard, which is often portrayed as a powerful and cunning animal in African stories. The interaction between Ananse and his wife reflects the dynamics of storytelling in Akan culture, where moral lessons are often conveyed through the adventures of these characters.
+3. **Translation Clarification:**
+   The phrase "Aka Osebo" can be interpreted as Ananse referring to a specific situation or character (the leopard) that is significant in the context of the story. The use of "came again" suggests that Ananse is returning to his wife after a previous encounter or adventure, indicating a recurring theme in his tales. The phrase may imply that Ananse is about to share a lesson or a story involving Osebo, which is a common narrative technique in folklore to engage the audience and impart wisdom.</t>
+  </si>
+  <si>
+    <t>Translation: "Listen well, 'Go and break the pot.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Aso see" translates to "Listen well" or "Pay attention."
+   - "Ko" means "Go."
+   - "tu" translates to "break."
+   - "amana" refers to "the pot."
+2. **Cultural Context:**
+   - In Akan culture, proverbs and sayings often carry deeper meanings and are used to convey wisdom or advice. The phrase "Ko tu amana" can be interpreted as a metaphor for taking action or making a significant change in one's life. Breaking a pot may symbolize breaking away from old habits or traditions to embrace new opportunities. Additionally, pots are often associated with cooking and nourishment, so breaking a pot could also imply a disruption in the usual way of doing things, which can lead to growth or transformation.
+3. **Translation Clarification:**
+   - The phrase "Listen well" serves as a preface to emphasize the importance of the following command. It suggests that the listener should pay close attention to the advice being given. The command "Go and break the pot" is not meant to be taken literally in all contexts; rather, it encourages the listener to take bold steps or make necessary changes in their life. The use of "pot" in this context is symbolic and reflects the idea of breaking free from constraints or limitations.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "Stop so I can see."
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Ananse" - Ananse (a character from Akan folklore, often depicted as a spider and known for his wisdom and trickery)
+   - "see" - said
+   - "Gyae" - stop
+   - "na" - so/that
+   - "mahu" - I can see
+2. **Cultural Context**:
+   Ananse is a significant figure in Akan folklore, representing intelligence, cunning, and the ability to outsmart others. Stories about Ananse often convey moral lessons and reflect the values of the Akan people. The phrase "Gyae na mahu" can be interpreted as a request for attention or a pause in action, which is common in storytelling to emphasize a point or to allow for reflection.
+3. **Translation Clarification**:
+   The phrase "Gyae na mahu" can be understood as Ananse asking someone to stop what they are doing so that he can observe or understand a situation better. This reflects a common narrative technique in Akan stories where characters often seek clarity or insight before proceeding, highlighting the importance of wisdom and observation in decision-making.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"One day, Ananse went to catch Osebo, the leopard, and he set a long trap, and he hid himself, and he went home."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Enie" - One day
+   - "Ananse" - Ananse (a spider, often a trickster figure in Akan folklore)
+   - "ko pee" - went to catch
+   - "Osebo" - Osebo (the leopard)
+   - "kyeneno" - the leopard (a specific term for the leopard)
+   - "na" - and
+   - "otu" - he set
+   - "amana" - trap
+   - "tenten" - long
+   - "na" - and
+   - "okataa" - he hid
+   - "so" - himself
+   - "na" - and
+   - "obaa" - he went
+   - "'fie" - home
+2. **Cultural Context:**
+   Ananse is a central character in many West African folktales, particularly among the Akan people of Ghana. He is often depicted as a clever and cunning figure who uses his wits to outsmart others, including animals and humans. The story of Ananse and Osebo reflects themes of intelligence, strategy, and the classic battle between predator and prey. The act of setting a trap is a common motif in folklore, symbolizing preparation and cunning.
+3. **Translation Clarification:**
+   The phrase "Enie Ananse ko pee Osebo" introduces a narrative typical of folktales, where Ananse's adventures often involve interactions with other animals. The term "Osebo" specifically refers to the leopard, which is significant in many African cultures as a symbol of strength and agility. The phrase "na otu amana tenten" indicates Ananse's cleverness in setting a long trap, emphasizing his strategic thinking. The final part, "na obaa 'fie," signifies a return to safety, which is a common conclusion in tales where the protagonist must outsmart a dangerous foe.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"On a beautiful morning, Ananse said he is going, he will catch Osebo who is lying in wait."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Adeekyeye anopa" - "On a beautiful morning"
+   - "Ananse se" - "Ananse said"
+   - "oko" - "he is going"
+   - "obekoro" - "he will catch"
+   - "Osebo" - "Osebo" (a character, often a leopard in folklore)
+   - "na" - "who"
+   - "oda" - "is lying"
+   - "amanam" - "in wait"
+2. **Cultural Context:**
+   - Ananse is a well-known character in Akan folklore, often depicted as a spider and a trickster. He embodies wisdom and cunning, frequently outsmarting others. Osebo, often represented as a leopard, is another character in these tales, symbolizing strength and danger. The interaction between Ananse and Osebo reflects themes of intelligence versus brute strength, a common motif in many African folktales.
+3. **Translation Clarification:**
+   - The phrase "Adeekyeye anopa" captures the essence of a pleasant morning, which sets a positive tone for the story. The use of "se" indicates reported speech, showing that Ananse is expressing his intentions. The phrase "obekoro" implies a sense of determination and purpose in Ananse's quest to catch Osebo, highlighting the adventurous spirit typical of folktales. The term "amanam" suggests a sense of stealth or ambush, indicating that Osebo is not just lying down but is also a potential threat, adding tension to the narrative.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse said, "Agyawa's child! Enawa's child! If I tell you that the drinks are ready, you will not be able to drink them, so you will have to go and fetch them; if I say I will take you, you will not see me, and if I am here at all, you will not be able to find me."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse see" - "Ananse said"
+   - "Agyawa 'ba! Enawa 'ba!" - "Agyawa's child! Enawa's child!"
+   - "se maka akyere wo se nnom nsa" - "if I tell you that the drinks are ready"
+   - "sese wo nokwa wako nom abo" - "you will not be able to drink them"
+   - "nti na w'abe to amanam'" - "so you will have to go and fetch them"
+   - "se me kaase me beyi wo a" - "if I say I will take you"
+   - "addekye wo ko hu me a" - "you will not see me"
+   - "se nso me 'ha biara a" - "and if I am here at all"
+   - "na wo ko kye no" - "you will not be able to find me"
+2. **Cultural Context:**
+   - Ananse is a well-known character in Akan folklore, often depicted as a spider and a trickster. He embodies wisdom, cunning, and the complexities of human nature. The references to "Agyawa" and "Enawa" suggest a familial or community connection, as these names may represent individuals or archetypes within the community. The dialogue reflects a common theme in Akan stories where characters engage in clever wordplay and moral lessons, often highlighting the importance of awareness and the consequences of one's actions.
+3. **Translation Clarification:**
+   - The phrase "Agyawa's child! Enawa's child!" serves as a form of address that emphasizes kinship or community ties, which is significant in Akan culture. The expression about drinks being ready and the subsequent inability to drink them can be interpreted as a metaphor for opportunities that may seem available but are not easily accessible. Ananse's statements about not being seen or found suggest themes of elusiveness and the idea that wisdom or truth may be difficult to grasp. This reflects the complexity of understanding one's circumstances and the need for vigilance in navigating life's challenges.</t>
+  </si>
+  <si>
+    <t>Translation: Osebo said, "Oh! I cannot."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Osebo" - a name, likely referring to a person.
+   - "se" - means "that" or "said."
+   - "0" - an exclamation, often used to express surprise or realization, similar to "Oh!" in English.
+   - "me" - means "I."
+   - "ntimi" - means "cannot" or "am unable to."
+2. **Cultural Context**: 
+   - The name "Osebo" is common in Akan culture and can refer to a character in a story or a real person. The phrase reflects a moment of vulnerability or limitation, which is a common theme in Akan storytelling, where characters often face challenges that reveal their human weaknesses. The use of "Oh!" indicates a moment of realization or frustration, which is a common expression in many cultures when one acknowledges their limitations.
+3. **Translation Clarification**: 
+   - The phrase captures a moment of self-awareness or admission of inability. In many contexts, this could be a response to a challenge or a request that the speaker feels they cannot meet. The emotional weight of "Oh!" adds depth to the statement, indicating that the speaker is not just stating a fact but is also expressing a feeling of disappointment or resignation.</t>
+  </si>
+  <si>
+    <t>**Translation:** Ananse went and cut down two trees, one placed here, and the other placed here.
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse" - Ananse (a character from Akan folklore, often depicted as a spider and known for his wisdom and trickery)
+   - "ko" - went
+   - "twaa" - cut down
+   - "nnua" - trees
+   - "mmienu" - two
+   - "de" - one (used to indicate the action of placing)
+   - "bako" - one
+   - "too" - placed
+   - "ha" - here (repeated for emphasis on location)
+2. **Cultural Context:**
+   Ananse is a significant figure in Akan folklore, representing intelligence, cunning, and the complexities of human nature. Stories about Ananse often convey moral lessons and reflect the values of the Akan people. The act of cutting down trees can symbolize resourcefulness or the beginning of a new venture, while the placement of the trees may indicate the importance of setting foundations or making choices in life.
+3. **Translation Clarification:**
+   The phrase "de bako too ha, de bako too ha" emphasizes the action of placing each tree in a specific location, which may suggest a deliberate choice or strategy. The repetition of "ha" (here) reinforces the significance of the locations chosen for the trees, possibly indicating that these places hold particular meaning or importance in the context of the story.</t>
+  </si>
+  <si>
+    <t>Translation: He said, "Put one hand here, and put the other hand here."
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Osee" translates to "He said."
+   - "Fa" means "put" or "take."
+   - "wo nsa bako" translates to "your one hand."
+   - "to" means "put" or "place."
+   - "ha" means "here."
+   - "na" means "and."
+   - "fa wo nsa bako soso" translates to "put your other hand."
+   - "to ha" means "put here."
+2. **Cultural Context**:
+   - This phrase may be used in various contexts, such as teaching, demonstrating a physical action, or guiding someone in a task. In Akan culture, physical gestures often accompany verbal instructions, emphasizing the importance of hands-on learning and participation. The act of placing hands in specific locations can symbolize focus or attention to a particular task or area.
+3. **Translation Clarification**:
+   - The phrase is straightforward and instructive, indicating a physical action that requires the listener to engage with their body. The repetition of "put" emphasizes the action's importance and may suggest a need for balance or symmetry, which can be significant in certain cultural practices or teachings. The use of "one hand" and "the other hand" implies a duality or a need for coordination, which can be relevant in various contexts, such as dance, rituals, or cooperative tasks.</t>
+  </si>
+  <si>
+    <t>Translation: "And Osebo is a leopard."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Na" = "And"
+   - "Osebo" = "Osebo" (a proper noun, referring to a specific leopard)
+   - "de" = "is" (in this context, it indicates a state of being)
+   - "totoye" = "a leopard" (the word "totoye" specifically refers to the animal known as a leopard)
+2. **Cultural Context**: 
+   - In Akan culture, animals often hold significant symbolic meanings. The leopard (Osebo) is a powerful and respected creature, often associated with strength, agility, and cunning. It may also appear in folklore and stories, representing various moral lessons or characteristics. The mention of Osebo could evoke a sense of respect or fear, depending on the context in which it is used.
+3. **Translation Clarification**: 
+   - The phrase "Na Osebo de totoye" is straightforward in its structure, but the significance of Osebo as a leopard may carry deeper implications in a narrative or conversation. It could be used to describe a character's traits, a situation's danger, or even a metaphorical reference to someone who is fierce or cunning. Understanding the context in which this phrase is used is crucial for grasping its full meaning.</t>
+  </si>
+  <si>
+    <t>Translation: "It is a new year, and Ananse has brought a new story, so do not be lazy, your mind must be sharp!"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ose ofo'" translates to "It is a new year."
+   - "na Ananse ama sekan so" translates to "and Ananse has brought a new story."
+   - "na wa ma n'anyam" translates to "so do not be lazy."
+   - "ne tirim' gao!" translates to "your mind must be sharp!"
+2. **Cultural Context:**
+   - The phrase "Ose ofo'" signifies the beginning of a new year, which is a time for reflection, renewal, and setting intentions in many cultures, including Akan. Ananse is a well-known character in Akan folklore, often depicted as a spider and a trickster who embodies wisdom and cunning. The mention of Ananse bringing a new story suggests that storytelling is an important tradition, especially at the start of a new year, as it serves to educate and entertain the community. The call to not be lazy and to keep one's mind sharp emphasizes the value placed on mental agility and readiness to embrace new challenges and opportunities in the coming year.
+3. **Translation Clarification:**
+   - The phrase encourages individuals to be proactive and engaged as they enter the new year. It implies that just as Ananse brings new stories, individuals should also be prepared to learn and adapt. The exhortation against laziness serves as a reminder that success and growth require effort and mental alertness. The use of "ne tirim' gao!" (your mind must be sharp) is a common expression in Akan culture, highlighting the importance of being mentally prepared and alert in various aspects of life.</t>
+  </si>
+  <si>
+    <t>Translation: "The leopard caught the goat!"
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Osebo" translates to "leopard."
+   - "gyee" translates to "caught."
+   - "ama­" translates to "the."
+   - "nam'" translates to "goat."
+   - "fom" translates to "in the midst" or "among."
+   Therefore, the literal translation would be "The leopard caught the goat in the midst."
+2. **Cultural Context**: 
+   In Akan culture, animals like leopards and goats hold significant symbolic meanings. The leopard is often seen as a powerful and cunning predator, representing strength and agility. Goats, on the other hand, are commonly associated with domestic life and are often used in traditional rituals and sacrifices. This phrase could reflect a common scenario in rural life where wild animals pose a threat to livestock, highlighting the relationship between humans, their domesticated animals, and the wild.
+3. **Translation Clarification**: 
+   The phrase "Osebo gyee ama­ nam' fom!" is a straightforward statement about a leopard catching a goat. It may also imply a lesson or moral about the dangers of the wild or the inevitability of nature's cycle, where predators hunt prey. In storytelling or proverbs, such expressions are often used to convey deeper meanings about survival, vigilance, and the balance of life in the natural world.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse took a stick and went to catch Osebo.
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Ananse" - Ananse (the spider, a trickster figure in Akan folklore)
+   - "faa" - took
+   - "atwedee" - a stick (or rod)
+   - "de" - and (used to indicate the action of taking something to do another action)
+   - "sii" - went to (or went and)
+   - "amanam'" - catch (or capture)
+   - "ko" - to (indicating direction or purpose)
+   - "yii" - catch (or capture)
+   - "Osebo" - Osebo (the leopard, another character in the folklore)
+2. **Cultural Context**:
+   Ananse is a central character in many Akan folktales, often depicted as a clever and cunning spider who uses his wits to outsmart others. Osebo, the leopard, is typically portrayed as a fierce and powerful animal. The interaction between Ananse and Osebo often symbolizes the struggle between intelligence and brute strength. This story reflects the values of cleverness and resourcefulness in Akan culture, where outsmarting a stronger opponent is celebrated.
+3. **Translation Clarification**:
+   The phrase "Ananse faa atwedee de sii amanam' ko yii Osebo" captures a moment of action where Ananse is preparing to confront or capture Osebo using a stick. The use of "sii" suggests a purposeful journey or action, indicating that Ananse is not just wandering but is on a mission. The translation maintains the essence of the original text while making it accessible to English speakers unfamiliar with the cultural nuances of the characters involved.</t>
+  </si>
+  <si>
+    <t>Translation: "He went to the river to fetch water, and he said, 'Fool, I will take you to receive divine messages.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Oko yii" - "He went"
+   - "Osebo" - "to the river"
+   - "de no baye" - "to fetch water"
+   - "osee" - "and he said"
+   - "Kwasea" - "Fool"
+   - "me de wo ko" - "I will take you"
+   - "gye Anyankonsem" - "to receive divine messages"
+2. **Cultural Context:**
+   - In Akan culture, rivers are often seen as places of spiritual significance, where one can connect with the divine or seek guidance. The term "Kwasea" (fool) is often used in a playful or teasing manner, indicating a close relationship between the speaker and the listener. The phrase "gye Anyankonsem" refers to receiving messages or guidance from the gods or ancestors, which is an important aspect of Akan spirituality.
+3. **Translation Clarification:**
+   - The phrase "Fool, I will take you to receive divine messages" suggests a humorous or light-hearted interaction, possibly indicating that the speaker is about to impart wisdom or knowledge to the listener, who may not be aware of the deeper meanings behind their actions. The use of "fool" here does not carry a harsh connotation but rather reflects a familiar banter that can exist in close relationships.</t>
+  </si>
+  <si>
+    <t>Translation: "He/She gave Osebo, go and give to God."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Omaa" translates to "He/She gave."
+   - "Osebo" is a proper noun, likely referring to a person or a specific entity.
+   - "so" translates to "to" or "for."
+   - "ko" means "go."
+   - "maa" translates to "give."
+   - "Nyame" means "God."
+2. **Cultural Context**: 
+   - In Akan culture, the act of giving is often associated with respect and reverence, especially when it involves offerings to God (Nyame). The phrase suggests a communal or familial duty to honor God through acts of giving. Osebo may refer to a person who is being entrusted with a task or a message, indicating a relationship of responsibility.
+3. **Translation Clarification**: 
+   - The phrase implies a directive or encouragement to Osebo to perform an act of giving to God. It reflects a common practice in many cultures where individuals are encouraged to contribute to spiritual or religious causes. The use of "Osebo" as a proper noun suggests that this is a specific individual known within the context, and the phrase may carry additional significance depending on the relationship between the speaker, Osebo, and the divine.</t>
+  </si>
+  <si>
+    <t>Translation: "God said, I have added, added what has been added."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Nyame" = God
+   - "see" = said
+   - "Mensa" = I have added
+   - "aka" = added
+   - "dee" = what
+   - "aka" = has been added
+2. **Cultural Context**: 
+   This phrase reflects a common expression in Akan culture that emphasizes the belief in divine providence and the idea of abundance. In many Akan communities, it is customary to acknowledge God's role in one's achievements and blessings. The repetition of "aka" (added) signifies not just the act of addition but also the idea of continuous blessings or growth in one's life. It can be used in various contexts, such as during celebrations or when expressing gratitude for what one has received.
+3. **Translation Clarification**: 
+   The phrase can be interpreted as a declaration of gratitude and recognition of God's influence in one's life. The repetition of "aka" serves to emphasize the ongoing nature of blessings, suggesting that what has been added is not just a one-time event but a continuous process. This reflects a worldview where individuals see their successes and fortunes as interconnected with divine intervention.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse came and met Akua Ba, and he told stories that entertained Akua Ba; and he blew a whistle, and he gave something to Akua Ba's hand, and he blew another one into the air; he brought gifts to Akua Ba, and he took them to a place under a tree where children would play.
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse baye" - "Ananse came"
+   - "na osenee Akua Ba" - "and met Akua Ba"
+   - "na oboo amane de tetaree Akua Ba no ho" - "and he told stories that entertained Akua Ba"
+   - "na ofufuu to" - "and he blew a whistle"
+   - "na ode bi hyee Akua Ba no nsam'" - "and he gave something to Akua Ba's hand"
+   - "na ofufuu bi de guu ayowam'" - "and he blew another one into the air"
+   - "ode homa soo Akua Ba asen" - "he brought gifts to Akua Ba"
+   - "na ode no kosii odum ase babi a mmoatia bedi agoro" - "and he took them to a place under a tree where children would play"
+2. **Cultural Context:**
+   - Ananse is a well-known character in Akan folklore, often depicted as a spider or a clever trickster. He is associated with wisdom, storytelling, and the ability to outsmart others. The act of storytelling is a significant cultural practice in many African societies, serving as a means of entertainment, education, and the transmission of cultural values. Akua Ba is a traditional doll representing fertility and motherhood in Akan culture, often used in rituals and as a symbol of beauty and grace.
+3. **Translation Clarification:**
+   - The phrase "told stories that entertained" captures the essence of Ananse's role as a storyteller, emphasizing the joy and engagement he brings to his audience. The act of blowing a whistle and giving gifts signifies a playful and festive atmosphere, common in gatherings where stories are shared. The mention of taking gifts to a place under a tree where children play highlights the communal aspect of storytelling and the importance of nature in Akan culture, as trees often serve as gathering spots for social activities.</t>
+  </si>
+  <si>
+    <t>Translation: "And a single girl has come."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Na" = "And"
+   - "mmoatia" = "girl" (plural form, but can refer to a single girl in context)
+   - "bako" = "single" or "one"
+   - "baye" = "has come"
+2. **Cultural Context**: 
+   In Akan culture, the term "mmoatia" is often used to refer to young girls or maidens, and it can carry connotations of youthfulness and innocence. The phrase may be used in various contexts, such as welcoming a girl into a community or family setting, indicating her arrival for a specific purpose, such as a celebration or a gathering.
+3. **Translation Clarification**: 
+   The phrase "Na mmoatia bako baye" can imply not just the physical arrival of a girl but also the significance of her presence. In many Akan communities, the arrival of a girl can be associated with various social or familial events, such as a rite of passage, a celebration, or a gathering. The use of "bako" emphasizes that it is one girl, which may highlight her importance in that particular context.</t>
+  </si>
+  <si>
+    <t>Translation: He said, "Akua; do I not have a share in this?"
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Osee" translates to "He said."
+   - "Akua" is a proper name, often used in Akan culture, typically referring to a female born on a Wednesday.
+   - "me nni" translates to "I do not have."
+   - "eto" means "share" or "portion."
+   - "yi" translates to "this."
+   - "bi" means "a bit" or "any."
+2. **Cultural Context**:
+   - In Akan culture, names often carry significant meanings and are associated with the day of the week a person is born. "Akua" is a name given to females born on Wednesdays, which may imply certain cultural traits or expectations. The phrase reflects a common social dynamic where individuals express concern about their involvement or entitlement in a situation, which can be related to communal sharing practices prevalent in many African societies.
+3. **Translation Clarification**:
+   - The phrase indicates a sense of exclusion or questioning of one's rights or participation in a communal or shared resource. The speaker is addressing Akua directly, possibly in a context where there is a distribution of resources or responsibilities, and is expressing a feeling of being left out or not recognized as part of the group. This reflects broader themes of community and belonging in Akan society.</t>
+  </si>
+  <si>
+    <t>Translation: "And Ananse has taken the thread, and Akua Ba has only hit her head."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Na" = "And"
+   - "Ananse" = "Ananse" (a character from Akan folklore, often depicted as a spider)
+   - "atwe" = "has taken"
+   - "homa no" = "the thread"
+   - "na" = "and"
+   - "Akua Ba no" = "Akua Ba" (a name, often referring to a girl or woman)
+   - "abo" = "has hit"
+   - "ne" = "her"
+   - "tiri" = "head"
+   - "nko" = "only"
+2. **Cultural Context:**
+   Ananse is a well-known figure in Akan folklore, often symbolizing wisdom, storytelling, and trickery. The phrase "Ananse atwe homa no" suggests a scenario where Ananse has taken something valuable or significant (the thread), which could symbolize a connection or a means of storytelling. The mention of "Akua Ba" refers to a character who may be experiencing a misfortune or a moment of realization, as indicated by "abo ne tiri nko," which implies that she has only hit her head, possibly in frustration or confusion. This reflects the themes of mischief and the consequences of one's actions that are prevalent in Ananse stories.
+3. **Translation Clarification:**
+   The phrase captures a moment of action and consequence, typical in folktales where characters face the repercussions of their choices. The use of "only" in "abo ne tiri nko" emphasizes the simplicity or the singularity of the action, suggesting that while Ananse may have taken something significant, Akua Ba's response is limited to a physical reaction (hitting her head), which could symbolize a moment of realization or frustration. The translation aims to convey both the literal meaning and the underlying narrative significance of the characters' actions.</t>
+  </si>
+  <si>
+    <t>Translation: "The little girl tells her brother, 'I don't have any.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Mmoatia" - little girl (plural form, often used affectionately)
+   - "ka" - tells/says
+   - "kyeree" - to her brother (the word "kyeree" can imply direction or addressing someone)
+   - "onua" - brother/sibling
+   - "balm" - a term of endearment or reference to a close relationship (in this context, it can be interpreted as "dear" or "beloved")
+   - "se" - that
+   - "Ose" - she says
+   - "me" - I
+   - "nni" - do not have
+   - "bi" - any
+2. **Cultural Context:**
+   In Akan culture, familial relationships are highly valued, and terms of endearment are commonly used to express affection among siblings. The use of "Mmoatia" (little girl) reflects a nurturing and protective attitude towards younger siblings. The phrase indicates a moment of communication that is typical in family settings, where siblings often share their possessions or feelings with one another.
+3. **Translation Clarification:**
+   The phrase "I don't have any" refers to the little girl indicating that she lacks something, which could be anything from physical items to emotional support. The context of the conversation is not specified, but it suggests a moment of sharing or inquiry between siblings. The use of "balm" emphasizes the closeness of their relationship, making the interaction more intimate.</t>
+  </si>
+  <si>
+    <t>Translation: He said, "Eat something."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Osee" translates to "He said."
+   - "Di" translates to "Eat."
+   - "bi" translates to "something."
+   - "e" is a particle that can imply a command or suggestion, often used for emphasis.
+2. **Cultural Context**: 
+   - In Akan culture, sharing food is a significant social activity. The phrase "Di bi e" can be used in various contexts, such as inviting someone to eat, offering food to a guest, or encouraging someone to take care of themselves. It reflects the communal nature of dining and hospitality in many West African cultures.
+3. **Translation Clarification**: 
+   - The phrase "Di bi e" is an informal command or suggestion, indicating a friendly or caring tone. It is not just a directive but also an expression of hospitality, suggesting that the speaker is concerned about the well-being of the listener. The use of "bi" (something) implies that the specific food item may not be important, but the act of eating is what matters.</t>
+  </si>
+  <si>
+    <t>Translation: "After he finished eating the food, he lay down."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Na" - "And/After"
+   - "odii" - "he finished eating"
+   - "aduane" - "the food"
+   - "no" - "the"
+   - "wieye" - "finished"
+   - "na" - "and"
+   - "odaa" - "he lay down"
+   - "n'ase" - "down"
+2. **Cultural Context:**
+   In Akan culture, sharing a meal is a significant social activity, often associated with hospitality and community bonding. After a meal, it is common for individuals to relax or take a rest, which reflects the importance of rest and leisure in daily life. The act of lying down after eating can also signify contentment and satisfaction with the meal.
+3. **Translation Clarification:**
+   The phrase "Na odii aduane no wieye" indicates the completion of a meal, emphasizing the action of finishing the food. The subsequent action "na odaa n'ase" suggests a natural progression to rest, which is culturally understood as a typical behavior after eating. The translation captures both the sequence of actions and the cultural significance of resting after a meal.</t>
+  </si>
+  <si>
+    <t>Translation: "He/she does not help when it is time to sleep."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Oda" = "He/she sleeps"
+   - "n'ase" = "his/her head" (or "at his/her head")
+   - "ommua" = "does not help" or "does not assist"
+2. **Cultural Context**: 
+   In Akan culture, the phrase can imply a lack of support or assistance during a critical or vulnerable time, such as sleep. Sleep is often associated with rest and safety, and the absence of help during this time can signify neglect or abandonment. This expression may be used in various contexts, including family dynamics, friendships, or community relationships, to highlight the importance of being there for one another during times of need.
+3. **Translation Clarification**: 
+   The phrase "Oda n'ase ommua" can be interpreted more broadly to mean that someone is not supportive or reliable when it matters most. While the literal translation focuses on the act of sleeping, the underlying message conveys a deeper meaning about trust and dependability in relationships. The phrase can also reflect a sense of disappointment or betrayal when someone fails to provide help during crucial moments.</t>
+  </si>
+  <si>
+    <t>Translation: "And the little girl tells her brother, 'If I bow down, she does not help me.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Na" = And
+   - "Mmoatia no" = The little girl
+   - "ka" = tells
+   - "kyeree" = her
+   - "onua" = brother
+   - "se" = that
+   - "Meda" = I bow down
+   - "n'ase" = down (to her)
+   - "a" = if
+   - "ommua" = she does not help me
+2. **Cultural Context:**
+   In many Akan communities, familial relationships are highly valued, and children often communicate their needs and feelings to one another. The phrase reflects a common scenario where a younger sibling expresses a sense of disappointment or frustration regarding the lack of support from an elder sibling or a peer. Bowing down can symbolize humility or a plea for assistance, which is culturally significant in showing respect and seeking help.
+3. **Translation Clarification:**
+   The phrase "If I bow down, she does not help me" suggests a situation where the speaker feels that despite showing humility or making an effort to seek help, they are not receiving the support they expect. The use of "bow down" metaphorically indicates a request for assistance or acknowledgment, which is a common theme in sibling dynamics. The translation captures the essence of the original Akan text while maintaining its emotional weight and cultural significance.</t>
+  </si>
+  <si>
+    <t>Translation: The girl’s sister said to her, "Your price is high."
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Mmoatia" - girl (or girls)
+   - "no" - the (definite article)
+   - "nua" - sister
+   - "ka" - said
+   - "kyeree" - to her
+   - "nose" - your
+   - "Bo" - price
+   - "no" - the (definite article)
+   - "sum" - high
+2. **Cultural Context**: 
+   In Akan culture, the concept of "price" can refer to a person's worth or value, especially in the context of relationships and marriage. The phrase "Your price is high" can imply that the girl is of great value or that she has high standards, which is often a compliment in the context of courtship. It reflects the importance placed on respect and the value of individuals within the community.
+3. **Translation Clarification**: 
+   The phrase "Your price is high" does not literally refer to a monetary price but rather signifies that the girl is esteemed or has qualities that make her desirable. It can also suggest that she should be treated with respect and care, as her worth is recognized. The use of "sister" indicates a close relationship, suggesting that the speaker is offering advice or encouragement to the girl.</t>
+  </si>
+  <si>
+    <t>Translation: "You have done well!"
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Na" translates to "and" or "then."
+   - "wabo" translates to "you have done" (from the verb "yɛ" meaning "to do").
+   - "pa" translates to "well" or "good."
+2. **Cultural Context**: 
+   - In Akan culture, expressing appreciation or commendation is an important aspect of social interaction. Saying "Na wabo, pa!" is a way to acknowledge someone's effort or success, reinforcing positive behavior and encouraging them to continue their good work. This phrase can be used in various contexts, such as after someone completes a task, achieves a goal, or helps others.
+3. **Translation Clarification**: 
+   - The phrase "You have done well!" is a direct expression of praise. It can be used in both formal and informal settings. The use of "pa" emphasizes the quality of the action, indicating that it was not just done, but done well. This phrase can also serve to motivate the person being addressed, as it recognizes their effort and encourages them to maintain or improve their performance.</t>
+  </si>
+  <si>
+    <t>Translation: "And his/her hand has touched it."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Na" = "And"
+   - "ne" = "his/her"
+   - "nsa" = "hand"
+   - "aka" = "has touched"
+   - "ho" = "it"
+2. **Cultural Context**: 
+   In Akan culture, the act of touching or reaching out with one's hand can signify a variety of meanings, including connection, involvement, or even a blessing. The phrase may be used in contexts where someone has engaged with an object or person, indicating a level of intimacy or personal interaction. It can also imply consent or acceptance, depending on the situation.
+3. **Translation Clarification**: 
+The phrase "Na ne nsa aka ho" can be understood in different contexts. It may refer to a physical action, such as someone literally touching an object, or it could be metaphorical, indicating that someone has become involved in a situation or has taken responsibility for something. The translation captures the essence of the action without specifying the object being touched, which may be clear from the surrounding context in a conversation.</t>
+  </si>
+  <si>
+    <t>Translation: "He/she told his/her sibling that, 'I have touched it.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Oka" - He/she told
+   - "kyeree" - (to) show
+   - "onua" - sibling/brother/sister
+   - "se" - that
+   - "Me" - I
+   - "nsa" - hand
+   - "aka" - have touched
+   - "ho" - it
+2. **Cultural Context:**
+   In Akan culture, the concept of family is very important, and the term "onua" (sibling) can refer to both biological siblings and close friends who are considered family. The phrase "Me nsa aka ho" can imply a sense of possession or involvement with something, which may carry emotional weight depending on the context. Touching something can symbolize a connection or a claim to it, which is significant in many social interactions.
+3. **Translation Clarification:**
+   The phrase "Me nsa aka ho" literally translates to "My hand has touched it," but in context, it can imply that the speaker has engaged with or has a claim to whatever is being discussed. The use of "onua" emphasizes the relationship between the speaker and the listener, indicating a level of intimacy or trust in the communication.</t>
+  </si>
+  <si>
+    <t>Translation: He said, "Take the remaining one and weigh it again."
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Osee" = "He said"
+   - "Fa" = "Take"
+   - "bako" = "one"
+   - "a" = "that" (relative pronoun)
+   - "aka" = "remaining" or "left"
+   - "bo" = "weigh"
+   - "no" = "it"
+   - "sum" = "again"
+   - "bio" = "again" or "once more"
+2. **Cultural Context**:
+   The phrase reflects a common practice in trade and commerce within Akan culture, where weighing goods accurately is crucial for fair transactions. The act of weighing something again suggests a need for verification, which is important in maintaining trust and integrity in business dealings. This saying may also imply a lesson about diligence and ensuring that one is not shortchanged.
+3. **Translation Clarification**:
+   The phrase emphasizes the importance of double-checking or reassessing something that is left over, particularly in contexts where accuracy is vital. The use of "weigh it again" can be interpreted both literally, in terms of measuring goods, and metaphorically, as a reminder to reconsider decisions or actions before finalizing them. The phrase encourages carefulness and thoroughness in one's dealings.</t>
+  </si>
+  <si>
+    <t>Translation: "And you have done well! And it is also good to take it."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Na" = "And"
+   - "ode" = "you have done"
+   - "boo" = "well"
+   - "no" = "it"
+   - "pa" = "good"
+   - "na" = "and"
+   - "'yi" = "to take"
+   - "no" = "it"
+   - "so" = "also"
+   - "aka" = "good"
+   - "ho" = "to"
+2. **Cultural Context:**
+   - In Akan culture, expressions of appreciation and encouragement are common in social interactions. The phrase "Na ode boo no pa!" is a way of acknowledging someone's good actions or efforts, often used in communal settings to foster a sense of belonging and support. The second part, "na 'yi no so aka ho," suggests that it is also important to take or accept something good, which can refer to accepting praise, help, or opportunities.
+3. **Translation Clarification:**
+   - The phrase "Na ode boo no pa!" can be understood as a commendation, similar to saying "You have done well!" in English. The follow-up "na 'yi no so aka ho" emphasizes the importance of recognizing and embracing good things in life, which may not directly translate to a specific English idiom but conveys a positive sentiment about acceptance and appreciation. The overall message encourages both acknowledgment of good deeds and the importance of accepting positive experiences.</t>
+  </si>
+  <si>
+    <t>Translation: "And the little girl told her brother, 'I have two hands on it.'"
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Na" = And
+   - "Mmoatia" = little girl (or girls)
+   - "ka" = told
+   - "kyeree" = her brother
+   - "onua" = brother/sibling
+   - "se" = that
+   - "Me" = I
+   - "nsa" = hands
+   - "mmienu" = two
+   - "aka" = have (or on)
+   - "ho" = it
+2. **Cultural Context**: 
+   In Akan culture, siblings often have a close relationship, and it is common for younger siblings to express their feelings or thoughts openly to their older siblings. The phrase "Me nsa mmienu aka ho" can imply a sense of pride or accomplishment, as the little girl is indicating that she has something to contribute or is involved in an activity. The mention of "two hands" can symbolize capability or readiness to help.
+3. **Translation Clarification**: 
+   The phrase "I have two hands on it" may not be a direct idiomatic expression in English. It suggests that the little girl is indicating her involvement or ability to assist with something, possibly referring to a task or activity they are engaged in. The translation captures the essence of the original Akan phrase while adapting it to be more understandable in English.</t>
+  </si>
+  <si>
+    <t>Translation: He said, "Take your shadow away."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Osee" translates to "He said."
+   - "Fa" translates to "Take."
+   - "w'afu" translates to "your shadow."
+   - "sum no" translates to "away."
+2. **Cultural Context**: 
+   In Akan culture, the concept of a "shadow" can symbolize various things, including one's presence, identity, or even burdens. The phrase "take your shadow away" may imply a request to remove something that is burdensome or to let go of a negative influence. It can also be interpreted in a more literal sense, as shadows are often associated with the idea of following or being closely tied to someone or something.
+3. **Translation Clarification**: 
+   The phrase may not be commonly used in everyday conversation and could be metaphorical, depending on the context in which it was said. It could suggest a need for personal space or a desire for someone to detach from a situation or influence that is perceived as negative. The translation captures the literal meaning but may not fully convey the deeper implications without additional context.</t>
+  </si>
+  <si>
+    <t>Translation: "He/she is in darkness, and his/her shadow is still there."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Ode" = "He/she is"
+   - "sum" = "in darkness"
+   - "no" = "the"
+   - "na" = "and"
+   - "n'afu" = "his/her shadow"
+   - "aka" = "is still"
+   - "ho" = "there"
+2. **Cultural Context**: 
+   In Akan culture, the concept of "darkness" can symbolize ignorance, confusion, or a lack of understanding. It may also refer to a state of being lost or in despair. The mention of a "shadow" can imply that even in difficult times, there is still a presence or essence of the person, suggesting that they are not entirely lost or without hope.
+3. **Translation Clarification**: 
+   The phrase captures a metaphorical state rather than a literal one. It suggests that while someone may be experiencing a difficult or unclear situation ("in darkness"), there is still a part of them that remains ("his/her shadow is still there"). This can be interpreted as a reminder of resilience or the enduring nature of one's identity, even in challenging circumstances.</t>
+  </si>
+  <si>
+    <t>Translation: "And Ananse came and he began to weave it; he said, 'Fool, I have caught you, I will take you to receive the divine message.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Na" = "And"
+   - "Ananse" = "Ananse" (a character in Akan folklore, often depicted as a spider)
+   - "baye" = "came"
+   - "na" = "and"
+   - "obe" = "he"
+   - "kyekyeree" = "began to weave"
+   - "no" = "it"
+   - "osee" = "he said"
+   - "Kwasea" = "Fool"
+   - "m'anya" = "I have caught"
+   - "wo" = "you"
+   - "me de" = "I will take"
+   - "wo" = "you"
+   - "ko" = "to go"
+   - "gye" = "receive"
+   - "Anyankonsem" = "the divine message"
+2. **Cultural Context:**
+   Ananse is a significant figure in Akan folklore, often representing wisdom, cunning, and the complexities of human nature. He is frequently portrayed as a trickster who uses his intelligence to outsmart others. The phrase "Kwasea m'anya wo" (Fool, I have caught you) reflects the playful yet serious nature of Ananse's interactions, where he often teaches moral lessons through his adventures. The mention of "Anyankonsem" (divine message) indicates a connection to spirituality and the importance of receiving wisdom or guidance from a higher power.
+3. **Translation Clarification:**
+   The translation captures the essence of the original Akan text, emphasizing Ananse's cunning nature and the act of weaving, which symbolizes the creation of stories or lessons. The term "fool" is not merely an insult but serves to highlight the folly of those who underestimate Ananse's cleverness. The phrase "to receive the divine message" suggests that Ananse's actions are not just for personal gain but also serve a greater purpose in imparting wisdom to others.</t>
+  </si>
+  <si>
+    <t>Translation: "And he/she went home."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Na" = "And"
+   - "ode" = "he/she went"
+   - "koo" = "went"
+   - "'fie" = "home"
+2. **Cultural Context**: 
+   - In Akan culture, the concept of "home" ('fie) is significant as it represents not just a physical space but also a place of belonging, family, and community. The act of going home can symbolize returning to one's roots or seeking comfort and safety. It is often associated with family gatherings, cultural rituals, and a sense of identity.
+3. **Translation Clarification**: 
+   - The phrase "Na ode koo 'fie" is a simple statement indicating that someone has returned to their home. The use of "Na" at the beginning often serves to connect this action to a previous statement or context, suggesting a narrative flow. In English, the phrase is straightforward, but the cultural implications of "home" may carry deeper meanings in Akan society, reflecting values of kinship and community ties.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+And Ananse said to Oni, "Get up, let’s go; I will not take you to this Mmoatia unless it is for Anyankonsem."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Na" = And
+   - "Ananse" = Ananse (a character, often a spider, in Akan folklore)
+   - "ka" = said
+   - "kyeree" = to (someone)
+   - "oni" = Oni (a person’s name)
+   - "Ya" = Let’s
+   - "Nsia" = go
+   - "se" = that
+   - "Sore" = Get up
+   - "ma" = let
+   - "yen" = us
+   - "ko" = go
+   - "me" = I
+   - "mfa" = will not take
+   - "wo" = you
+   - "nka" = to (or about)
+   - "Mmoatia" = Mmoatia (a term often referring to spirits or supernatural beings)
+   - "yi" = this
+   - "ho" = to
+   - "nko" = unless
+   - "gye" = for
+   - "Anyankonsem" = Anyankonsem (a term referring to divine matters or the divine)
+2. **Cultural Context:**
+   Ananse is a well-known figure in Akan folklore, often depicted as a trickster and a wise character who uses his intelligence to navigate challenges. The term "Mmoatia" refers to spirits or supernatural beings in Akan culture, which are often associated with various aspects of life and the afterlife. "Anyankonsem" translates to divine matters, indicating a connection to the spiritual or religious beliefs of the Akan people. The dialogue reflects a common theme in folklore where characters engage in discussions about the supernatural and the moral implications of their actions.
+3. **Translation Clarification:**
+   The phrase "I will not take you to this Mmoatia unless it is for Anyankonsem" suggests that Ananse is cautious about involving Oni with the Mmoatia, implying that such encounters should only be for serious or divine purposes. This reflects a cultural belief in the importance of respecting spiritual entities and the gravity of engaging with them. The use of "Get up, let’s go" indicates a sense of urgency or importance in the task at hand, typical of storytelling where characters are often called to action.</t>
+  </si>
+  <si>
+    <t>Translation: "He has given us, to go to God."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Omaa" translates to "He has given."
+   - "yen" means "us."
+   - "so" can be interpreted as "to" or "for."
+   - "koo" translates to "go."
+   - "Nyame" means "God."
+   - "ho" can be understood as "to" or "about."
+2. **Cultural Context:**
+   - In Akan culture, the phrase reflects a deep spiritual connection and reliance on God. The act of being given the opportunity to go to God signifies a call to worship, prayer, or seeking divine guidance. It emphasizes the importance of community and collective faith, as "yen" (us) indicates a shared experience among the people.
+3. **Translation Clarification:**
+   - The phrase can be interpreted in various ways depending on the context. It may refer to a literal journey to a place of worship or a metaphorical journey of faith and spiritual growth. The use of "Omaa" suggests a divine provision or blessing, indicating that the ability to approach God is seen as a gift. The translation captures the essence of communal faith and the importance of seeking a relationship with the divine in Akan spirituality.</t>
+  </si>
+  <si>
+    <t>Translation: He said, "God, the spirits, my mother whom I have called, and this one too."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Osee" - He said
+   - "Nyame" - God
+   - "Mmoatia" - the spirits (or deities)
+   - "ni" - and
+   - "m'aberewa" - my mother
+   - "a me kaye no" - whom I have called
+   - "nso" - and (also)
+   - "ni" - this one (too)
+2. **Cultural Context:**
+   In Akan culture, the invocation of God (Nyame) and spirits (Mmoatia) reflects a deep spiritual belief system where both the divine and ancestral spirits play significant roles in daily life and decision-making. The mention of "m'aberewa" (my mother) indicates a strong connection to maternal lineage and respect for one's ancestors. Calling upon these entities signifies seeking guidance, support, or acknowledgment in a particular situation.
+3. **Translation Clarification:**
+   The phrase captures a moment of supplication or reflection, where the speaker is addressing both divine and ancestral figures. The use of "nso" (also) emphasizes the inclusion of the mother figure in this invocation, suggesting that she holds an important place in the speaker's life and spiritual practice. The structure of the sentence reflects a common way of expressing reverence and connection to both the spiritual and familial realms in Akan tradition.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"God also frees Ko'ntire, Akwam', Adonten, Gyase, Oyoko, Ankobea, and Kyidom."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Nyame" = God
+   - "so" = also
+   - "free" = frees
+   - "Ko'ntire" = Ko'ntire (a name)
+   - "ne" = and
+   - "Akwam'" = Akwam' (a name)
+   - "ne" = and
+   - "Adonten" = Adonten (a name)
+   - "ne" = and
+   - "Gyase" = Gyase (a name)
+   - "ne" = and
+   - "Oyoko" = Oyoko (a name)
+   - "ne" = and
+   - "Ankobea" = Ankobea (a name)
+   - "ne" = and
+   - "Kyidom" = Kyidom (a name)
+2. **Cultural Context:**
+   The names mentioned in the text—Ko'ntire, Akwam', Adonten, Gyase, Oyoko, Ankobea, and Kyidom—are likely to refer to specific towns, clans, or groups within the Akan cultural context. The phrase suggests a divine intervention or blessing upon these entities, which is a common theme in Akan spirituality where God is seen as a protector and liberator of communities.
+3. **Translation Clarification:**
+   The phrase "God also frees" implies that the act of liberation is not limited to one group but extends to multiple entities, indicating a broader divine influence. The repetition of "ne" (and) emphasizes the collective nature of the subjects being freed, which may reflect the interconnectedness of these communities in Akan society. The use of "free" in this context can denote both physical liberation and spiritual or social emancipation, highlighting the importance of divine support in the lives of the people.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"And he said to us, 'The kings are here, we cannot sing praises to God, Kwaku Ananse has been able to place; I have accepted the Mmoboro; I have accepted the Mmoatia; I have accepted the Osebo; I have accepted the Onini; it is Ananse himself who has placed them; all these things are what they are.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Na ode too ye'anim se" - "And he said to us"
+   - "Ahene akesie akesie aha" - "The kings are here"
+   - "ye'antimi anto Anyankonsem" - "we cannot sing praises to God"
+   - "Kwaku Ananse dee watimi ato" - "Kwaku Ananse has been able to place"
+   - "m'agye no Mmoboro" - "I have accepted the Mmoboro"
+   - "m'agye no Mmoatia" - "I have accepted the Mmoatia"
+   - "m'agye no Osebo" - "I have accepted the Osebo"
+   - "m'agye no Onini" - "I have accepted the Onini"
+   - "ono ara Ananse de oni ato so" - "it is Ananse himself who has placed them"
+   - "nnooma no nnyina na egu ho yi" - "all these things are what they are"
+2. **Cultural Context:**
+   - The text references Kwaku Ananse, a well-known character in Akan folklore, often depicted as a spider and a trickster. Ananse stories are rich in moral lessons and often highlight themes of wisdom, cunning, and the complexities of human nature. The mention of "kings" and "praises to God" suggests a context of reverence and the importance of leadership and spirituality in Akan culture. The specific items mentioned (Mmoboro, Mmoatia, Osebo, Onini) are likely symbolic or represent different aspects of life or challenges that Ananse has managed to navigate or control.
+3. **Translation Clarification:**
+   - The phrase "we cannot sing praises to God" indicates a moment of reverence or a recognition of the divine, suggesting that the presence of the kings or the situation at hand is significant enough to warrant such a statement. The acceptance of the various entities (Mmoboro, Mmoatia, Osebo, Onini) implies a recognition of their importance or power, possibly in the context of storytelling or moral lessons. The concluding remark about Ananse placing them emphasizes his role as a central figure in the narrative, showcasing his influence and the interconnectedness of the elements mentioned.</t>
+  </si>
+  <si>
+    <t>Translation: He said, "You all should not be stubborn."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Osee" translates to "He said."
+   - "Mo" translates to "You all" (plural form of 'you').
+   - "mpene" translates to "should not be stubborn" (where "mpene" means "stubborn" or "hard-hearted").
+   - "no" is a particle that can emphasize the negation in the context.
+2. **Cultural Context**: 
+   In Akan culture, communication often involves indirect expressions and proverbs. The phrase "mpene no" reflects a common admonition against stubbornness, which is viewed negatively in many social interactions. Being stubborn can lead to conflict or misunderstanding, and elders or leaders often remind younger individuals or groups to remain open-minded and flexible.
+3. **Translation Clarification**: 
+   The phrase is a directive, suggesting that the speaker is addressing a group and urging them to reconsider their obstinacy. The use of "you all" indicates a collective responsibility, emphasizing that the behavior in question is not just an individual issue but one that affects the group as a whole. The translation captures the essence of the original Akan phrase while making it accessible to English speakers.</t>
+  </si>
+  <si>
+    <t>Translation: "Oh!"
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Ye" translates to "We" or "You" depending on context, but in this case, it serves as an exclamatory expression.
+   - "see" is an expression of realization or acknowledgment, often used to draw attention.
+   - "Eee!" is an exclamation that conveys surprise, excitement, or emphasis.
+2. **Cultural Context**: 
+   - In Akan culture, expressions like "Eee!" are commonly used in conversations to express a range of emotions, from surprise to joy. It reflects the expressive nature of the language and the importance of vocal intonation in communication. Such exclamations can also serve to engage listeners and create a sense of shared experience.
+3. **Translation Clarification**: 
+   - The translation "Oh!" captures the essence of the exclamation but may not fully convey the emotional weight or context in which it is used. In a conversation, it could indicate surprise, excitement, or a call for attention, depending on the preceding dialogue. The use of "Eee!" is often accompanied by body language or facial expressions that further enhance its meaning.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+God said, "Kwaku Ananse, from this day forth, I will give you my divine message, kose! kose! kose!"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Nyankonpon" = God
+   - "see" = said
+   - "Kwaku Ananse" = Kwaku Ananse (a character in Akan folklore)
+   - "efiri" = from
+   - "nne" = this
+   - "ekoro" = day
+   - "yi" = this
+   - "me de" = I will give
+   - "Anyankonsem" = divine message
+   - "me kye" = I will give you
+   - "kose! kose! kose!" = (an expression, often used in storytelling)
+2. **Cultural Context:**
+   Kwaku Ananse is a well-known trickster figure in Akan folklore, often depicted as a spider. He embodies wisdom, cunning, and the complexities of human nature. The phrase "kose! kose! kose!" is an exclamatory expression that can signify excitement or emphasis, often used in storytelling to engage the audience. The context of God speaking to Kwaku Ananse suggests a significant moment of imparting wisdom or knowledge, which is a common theme in many folktales.
+3. **Translation Clarification:**
+   The phrase "Anyankonsem" translates to "divine message" or "God's word," indicating that the message being given is of great importance. The repetition of "kose!" serves to heighten the drama and importance of the moment, similar to how one might use exclamations in English to emphasize a point. The overall tone of the translation captures the essence of a narrative moment where a character is being entrusted with important knowledge or a mission.</t>
+  </si>
+  <si>
+    <t>Translation: "It has been said again that it is a tale of the spider, and we call it Anansesem."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Yammered no" translates to "It has been said."
+   - "Anyankonsem" translates to "the words of God" or "divine stories."
+   - "bio" translates to "again."
+   - "na" translates to "and."
+   - "ye'mfre no" translates to "we call it."
+   - "Anansesem" translates to "the tale of the spider" or "spider stories."
+2. **Cultural Context:**
+   - In Akan culture, Anansesem refers to traditional stories that often feature Ananse, the spider, as a central character. These stories are not just entertainment; they carry moral lessons and cultural values. Ananse is a trickster figure, and his tales are used to teach children about wisdom, cleverness, and the consequences of one's actions. The phrase "Anyankonsem" suggests a connection to divine or significant narratives, indicating that these stories are not merely fictional but hold deeper meanings and truths within the culture.
+3. **Translation Clarification:**
+   - The phrase "It has been said again" implies a reiteration of a well-known story or lesson, emphasizing the importance of oral tradition in Akan society. The use of "Anansesem" specifically highlights the genre of storytelling that is rich in cultural significance. The translation captures both the literal meaning and the cultural resonance of the original Akan text, reflecting the importance of storytelling in preserving and conveying cultural heritage.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"My story that I am telling, whether it is good or not, just take some of it, and do not take all of it."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "M'anansesem" = "My story"
+   - "a metooye yi" = "that I am telling"
+   - "se eye de o" = "whether it is good"
+   - "se ennye de o" = "or not good"
+   - "momfa bi nko" = "just take some of it"
+   - "na" = "and"
+   - "mommfa bi mmera" = "do not take all of it"
+2. **Cultural Context:**
+   In Akan culture, storytelling is a significant tradition that serves various purposes, including entertainment, education, and the transmission of moral values. The phrase reflects a common practice where listeners are encouraged to discern and take away what is relevant or useful from a story, rather than accepting everything at face value. This approach promotes critical thinking and personal interpretation, which are valued in many African oral traditions.
+3. **Translation Clarification:**
+   The phrase "whether it is good or not" indicates that the speaker acknowledges the subjective nature of storytelling; not every story will resonate with every listener. The instruction to "just take some of it" suggests that the audience should extract lessons or insights that are personally meaningful, rather than feeling obligated to accept the entire narrative. This reflects a broader philosophical view in many cultures that emphasizes individual interpretation and the importance of personal relevance in communication.</t>
+  </si>
+  <si>
+    <t>o3-mini</t>
+  </si>
+  <si>
+    <t>Translation:
+"We say that, we say that indeed!"
+Footnote:
+1. Literal Translation Mapping:
+ • "Yɛ" translates literally as "we."
+ • "nse" is rendered from the Akan verb for "say" (a variant or contraction in colloquial usage).
+ • "se" means "that."
+ • The repetition ("nse se, nse se") emphasizes the act of saying or affirming.
+ • "o" is an exclamatory particle added for emphasis and a friendly, conversational tone.
+2. Cultural Context:
+ In Akan discourse, repetition is often employed to reinforce or underscore a statement, making it clear that the speaker not only states a fact but affirms it with confidence. The use of "o" at the end of a sentence is common and serves to engage the listener, adding warmth and immediacy to the speech. Such phrasing might appear in conversations where a point is being solidified as shared wisdom or a commonly accepted truth.
+3. Translation Clarification:
+ While “nse” may be understood in various ways depending on dialect or context, here it is best rendered as “say,” making the full sentence an emphatic declaration. The translation strives to retain the original emphasis and conversational feel—as though the speakers are collectively affirming or reiterating something they firmly believe.</t>
+  </si>
+  <si>
+    <t>Translation:
+“If you are an Ananse tale, you will be called an Ananse tale.”
+Footnote:
+1. Literal Translation Mapping:
+ • SE – “If”
+ • 'YOYE – a contraction of “woyɛ,” meaning “you are”
+ • A – “then”
+ • ANYANKONSEM – “Ananse tale” (with “Ananse” referring to the legendary spider and “-sem” meaning “story” or “tale”)
+ • YE – “is” or “will be”
+ • BE FRENO – “be called” (from “bɛfrɛ no,” meaning “will call him/her/it”)
+ • ANANSESEM – “Ananse tale” (again, the compound of “Ananse” and “-sem,” meaning “story”)
+2. Cultural Context:
+In Akan folklore, Ananse the spider is a central figure renowned for his cleverness, wit, and sometimes trickery. Ananse tales (anansesɛm) are traditional folk stories passed down through generations, often containing moral lessons or cautionary advice. The proverb uses the framework of these tales to comment on one’s character or behavior—that if a person comes across as nothing more than a story full of trickery or empty words, then that is how they will be remembered or labeled. It serves as a caution to be genuine and mindful of one’s actions and reputation.
+3. Translation Clarification:
+The translation preserves the wordplay inherent in the original Akan. Notice the repetition and near-identical structure in “anyankosem” and “anansesem.” Although the two terms are almost the same, their use in different parts of the sentence emphasizes the idea that a person’s nature (if they are “just a tale”) will become their identity, as recounted by the community. The rendering “If you are an Ananse tale, you will be called an Ananse tale” captures both the literal meaning and the layered cultural implication that one’s character is ultimately defined by one’s actions and the stories told about them.</t>
+  </si>
+  <si>
+    <t>Translation:
+“Kwaku Ananse did not take Nyankonpon’s words to string them together.”
+Footnote:
+1. Literal Translation Mapping:
+ • “KWAKU ANANSE” – This is the proper name “Kwaku Ananse,” the well‐known trickster and folk hero in Akan tales.
+ • “na” – A conjunction meaning “and” or “but,” linking ideas.
+ • “okoo” – Derived from “ko,” meaning “went” or “tried to go.”
+ • “Nyankonpon” – Refers to the Supreme Being or Creator God in Akan cosmology.
+ • “hose” – A term indicating the realm or the domain (here understood contextually as “to” or “at” Nyankonpon’s place or attribute).
+ • “omfa” – Means “did not take” or “did not appropriate.”
+ • “‘Nyankonsem” – Literally “the words (or sayings) of Nyankonpon,” implying divine utterances or wisdom.
+ • “mma no nto” – Translates as “to string them together” (i.e., to connect, compile, or organize the words).
+2. Cultural Context:
+ In Akan folklore, Kwaku Ananse is a central character known for his cunning and trickery in obtaining or misusing knowledge and wisdom. Nyankonpon (or Nyankopon) is revered as the Supreme Being whose words or utterances (Nyankonsem) carry divine authority and wisdom. The proverbical tone of the line serves as both a reminder of the sacredness of divine speech and a caution against trying to control or domesticate what is meant to remain freely given by the divine.
+3. Translation Clarification:
+ The translation renders the idea that Kwaku Ananse, despite his notorious resourcefulness, did not—or perhaps could not—appropriate the sacred words of Nyankonpon for his own scheme (i.e., “to string them together” for personal use or manipulation). It underscores a common cultural theme where the divine utterances are too holy or powerful to be manipulated by human (even trickster) efforts, reinforcing respect for divine wisdom in Akan tradition.</t>
+  </si>
+  <si>
+    <t>Translation: God said, “Are you able to do it?”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Nyame” – Literally “God”; the divine being in Akan spirituality.
+ • “see” – Literally “said”; recounting spoken words.
+ • “Wo” – Literally “you.”
+ • “betimi” – Derived from “betumi,” which means “can” or “be able to.”
+ • “ato” – Literally rendered here as “do it”; this word is understood in context as referring to accomplishing or carrying out an action.
+2. Cultural Context:
+ In Akan language and culture, references to “Nyame” (God) often underscore situations of divine authority or instruction. The quoted question—posed by God—echoes a traditional style of communication where the divine challenges or invites the listener to rise to an occasion. This style can be found in proverbial expressions, folklore, and moral teachings within Akan communities. The phrasing implies a test of ability or readiness, in tune with familiar spiritual or ethical challenges encountered in Akan storytelling and belief systems.
+3. Translation Clarification:
+ The phrase “betimi ato” is rendered as “are you able to do it?” to clearly invite the listener to consider whether they have the capability or resolve to carry out a particular action. Although “ato” may have additional nuances in Akan depending on context (such as connotations of accomplishing or executing an act), “do it” is chosen here as a concise, modern equivalent that retains the command’s challenging tone. Variations might occur in translation based on dialect or context, but this rendering captures the intended spirit of the original text.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "Hey! I can do it."
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • "Ananse" – Refers to the well-known spider character in Akan folklore.
+ • "see" – Translates directly as "said."
+ • "Ei!" – An exclamation similar to "Hey!" or "Wow!" expressing surprise or emphasis.
+ • "metimi" – Comes from "me tumi," which literally means "I have power" or "I am able," rendered in natural English as "I can do it."
+2. Cultural Context:
+ • Ananse is a celebrated trickster figure in Akan storytelling, known for his wit and clever schemes. His speech often conveys confidence and asserts his abilities.
+ • The exclamation "Ei!" is commonly used in Akan expressions to add emotional emphasis, much like saying "Hey!" in English.
+ • The phrase captures the essence of self-assurance typical of Ananse’s character in the folklore, underlining his readiness and capability to handle challenges.
+3. Translation Clarification:
+ • While a word-for-word translation of "metimi" is "I have power," the phrase "I can do it" more naturally conveys the intended meaning in English.
+ • The translation aims to preserve both the literal meaning and the vibrant, confident tone inherent in the original Akan expression.
+ • Therefore, "Hey! I can do it." reflects both the spirit of Ananse’s declaration and the cultural nuance behind the original words.</t>
+  </si>
+  <si>
+    <t>Translation:
+God said, “The small villages have declared: ‘Kokofu, Bekwai, and Asumengya are here; we have not even begun to speak—so will you be able in Kwafwiaban?’”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Nyame see” – “God said”
+ • “Akuro akantinka” – Literally “the villages [akuro] of little worth/significance” (here understood as “the small villages” or “minor communities”)
+ • “be ye se” – “have declared” or “say”
+ • “Kokofu, Bekwai, Asumengya aha” – “Kokofu, Bekwai, and Asumengya are here/present” (these are names of towns/communities)
+ • “ye'antimi anto” – Literally “we are not able to begin/speak” (indicating a hesitation or inability to respond)
+ • “na wo Kwafwiaban na wo betimi?” – “and in Kwafwiaban, will you be able?” (questioning whether the listener will manage what the others have not)
+2. Cultural Context:
+ This saying employs the names of actual communities in Ghana—Kokofu, Bekwai, Asumengya, and Kwafwiaban—to evoke a familiar local setting. Invoking “Nyame” (God) gives the statement a weight of divine authority. The proverb contrasts the silent hesitance of some communities with a challenge posed to another, questioning whether they have the capacity or resolve to act when called upon. Such sayings are typical in Akan oral traditions, where proverbs and riddles use local references to comment on social responsibility and leadership.
+3. Translation Clarification:
+ The phrase “Akuro akantinka” is rendered as “the small villages” to capture the idea of less prominent or minor communities speaking up. “Ye'antimi anto” is understood as an admission of incapacity or reluctance to begin speaking or taking action, setting up a challenge implied by the question “na wo Kwafwiaban na wo betimi?” The translator interprets the overall message as a divine declaration that while some communities admit their inability to act, the addressee is challenged to perform or speak when it matters in their own locale (Kwafwiaban). This translation aims to preserve both the literal meaning and the cultural nuance of the original Akan text.</t>
+  </si>
+  <si>
+    <t>Translation: 
+Ananse said, “Who are we going to sell it to?”
+Footnote:
+1. Literal Translation Mapping:
+ • “Ananse” – The proper name of the famous spider trickster in Akan folklore.
+ • “see” – Translates as “said.”
+ • “Edieben” – A contraction of “ɛdi bɛn,” where “bɛn” means “to whom” or “who.” It poses the question “who” or “to whom.”
+ • “na” – A conjunction that connects the parts of the sentence (akin to “that” or “is”).
+ • “yɛ to” – A contraction of “yɛtɔn,” where “yɛ” means “we” and “tɔn” means “sell.”
+ • “ma” – A dative marker meaning “to” (indicating the recipient).
+2. Cultural Context:
+ • Ananse is a central character in Akan oral tradition and folklore, known for his cunning and humorous nature. His dialogues often involve clever wordplay and are set in everyday trading or social scenarios.
+ • In this instance, the line reflects a moment where Ananse is negotiating or questioning the usefulness of an item by asking who will be the buyer—a common situational theme in many folk narratives where wit is used to navigate social and economic interactions.
+ • The phrasing and style are typical of oral storytelling in Akan culture, where language is rich in contractions and idiomatic expressions.
+3. Translation Clarification:
+ • The translation “Who are we going to sell it to?” interprets “Edieben” as asking “to whom” the item should be sold. Although the literal words break down into components that mean “who” and “sell,” the intended meaning in the folk narrative context is best captured by asking about the buyer.
+ • The use of “we” aligns with “yɛ” (a collective “we” form in Akan), indicating that the decision involves a group or partnership.
+ • The rendering maintains the conversational and rhetorical tone typical of Ananse’s dialogue, ensuring that the cultural flavor and the implied negotiation in the original are preserved.</t>
+  </si>
+  <si>
+    <t>Translation:
+God said, “We do not beget offspring lightly—only those like Aboa Onini, Osebo, Mmoatia, and Mmoboro.”
+Footnote:
+1. Literal Translation Mapping:
+ • Nyame – “God”
+ • see – “said”
+ • Ye – “we”
+ • nto – “do not beget” or “produce” 
+ • mma – “children” or “offspring”
+ • fwe – (here understood as “lightly” or “without proper regard”)
+ • gye se – “except that” or “only if”
+ • Aboa Onini, Osebo, Mmoatia, Mmoboro – these proper names refer to particular archetypal creatures or characters noted in Akan oral tradition
+2. Cultural Context:
+ In Akan thought, statements beginning with “Nyame see” (“God said”) often set a divine standard or moral guideline. The mention of specific names—Aboa Onini, Osebo, Mmoatia, and Mmoboro—reflects the tradition of embedding moral, social, or spiritual values into everyday expressions and proverbs. Such names are not merely literal but are imbued with cultural symbolism, representing qualities or types of beings that are esteemed; they may indicate that only offspring manifesting certain admirable or significant traits are truly valuable. The saying underscores a caution against indiscriminate procreation, urging quality and thoughtful selection of one’s lineage.
+3. Translation Clarification:
+ The rendered English sentence preserves the structure and weight of the original Akan declaration. “Ye nto mma fwe” is translated to “We do not beget offspring lightly” to capture the idea that children are not raised or brought forth without due consideration. The list of names, retained in their original form, is understood to serve as emblematic references to types of desirable or significant beings in Akan lore. Because such names carry layered meanings in the cultural context, the translation notes them as proper names rather than attempting a literal interpretation that might lose their symbolic import.
+This expanded footnote is intended to shed light on the word‐for‐word mapping, as well as the deeper cultural and idiomatic nuances behind this Akan proverb.</t>
+  </si>
+  <si>
+    <t>Translation:
+Ananse said, “I’ll come with a variety of birds, my old woman, and six more.”
+Footnote:
+1. Literal Translation Mapping
+ • “Me de” – “I will bring” or “I will come with”
+ • “nnooma” – “birds” (referring to birds in general)
+ • “nnyina bi” – “a variety/some assortment” (implying various kinds)
+ • “meba” – “I will come”
+ • “m’aberewa” – “my old woman” (a term referring to his wife or an older female companion)
+ • “Nsia” – “six”
+ • “meka ho” – “I include/add (them)”
+2. Cultural Context
+ Ananse is a renowned folktale character in Akan tradition, famous for his cleverness and trickery. In many stories, he often uses lists or boasts about the items or characters he will bring along, sometimes to mislead, entertain, or emphasize his cunning. References like “my old woman” are typical in such oral narratives, carrying cultural nuances about relationships and social roles, while enumerating items (like “six”) can serve a symbolic or numeric function in the storytelling tradition.
+3. Translation Clarification
+ The translator has rendered the Akan expression into natural English while preserving the order and emphasis of the original. “A variety of birds” captures the sense of “nnyina bi” (an assorted group), and “my old woman” is maintained as a direct reference, reflecting the informal and colloquial tone of the narrative. “And six more” is a concise way to mirror “Nsia, meka ho,” keeping the original’s rhythm and list-like structure intact.</t>
+  </si>
+  <si>
+    <t>Translation:
+God said, "Go, take, come!"
+Footnote:
+1. Literal Translation Mapping:
+ • Nyame – God
+ • see – said
+ • ko – go
+ • fa – take
+ • brae – come  
+Each word is rendered as a direct command, preserving the order and imperative form of the original Akan.
+2. Cultural Context:
+In Akan culture, direct commands like this are used in storytelling and oral tradition to call heroes or characters into action. The phrasing reflects a common narrative style where divine instruction prompts a journey or task. The combination of “go, take, come!” suggests an active process where one is sent out, gathers what is needed, and then returns, echoing themes of quest and responsibility.
+3. Translation Clarification:
+Although the English translation may seem terse, it mirrors the original Akan’s concise imperative style. The sequence of commands implies a step-by-step action rather than a single instruction. “Go” initiates movement; “take” indicates the need to procure or collect something; “come” directs a return or completion of the task. This layered command structure is typical in Akan oral literature and carries both literal and metaphorical significance.</t>
+  </si>
+  <si>
+    <t>Translation:
+“Ananse said, and he declared: ‘I wish to sing the divine narrative, but God said, “I shall not have Onini, Osebo, Mmoatia, or Mmoboro come; and I say, I will include you to join in for the Almighty.”’”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Ananse” – The name of the famous trickster figure in Akan folklore.
+ • “baye” – Translates as “said.”
+ • “na” – A conjunction meaning “and” or “then.”
+ • “oboo oni amanie se” – Literally “he declared/proclaimed, saying,” introducing a quoted statement.
+ • “Nyankonsem” – A compound word referring to “divine discourse” or “the narrative of the Supreme,” drawing on the sacred words associated with the divine.
+ • “me pe se me to” – Literally “I desire that I should sing/compose,” with “pe” meaning “want” or “desire” and “to” referring to the act of singing or telling a story.
+ • “na Nyame se me mfa” – “But God said I should not take/include,” where “Nyame” means “God.”
+ • “Onini, Osebo, Mmoatia, Mmoboro” – These are proper names of beings or spirits within the cultural context; they are kept in their original form.
+ • “mmera” – Means “come” or “appear.”
+ • “na me see” – Translates as “and I say/decree.”
+ • “me de wo be ka ho” – Literally “I will add/include you.”
+ • “ma ko ma Nyankonpon” – “To go for the Almighty” or “to join in on behalf of the Supreme,” where “Nyankonpon” is an epithet for the supreme divine being.
+2. Cultural Context:
+ • Ananse is a central character in Akan folklore renowned for his cunning, wisdom, and role in teaching moral lessons through his adventures.
+ • The invocation of “Nyankonsem” and “Nyame” reflects the traditional reverence for the divine in Akan culture, where oral traditions and praise songs are used to honor the supreme deity.
+ • The names “Onini, Osebo, Mmoatia, Mmoboro” suggest culturally significant entities—possibly spirits or symbolic characters—whose presence (or exclusion) in a sacred narrative carries specific ritual or mythological implications.
+ • This excerpt appears to be part of a traditional narrative or incantation where cosmic order and divine permissions play a key role, illustrating the deep interplay between storytelling, spirituality, and cultural values in Akan tradition.
+3. Translation Clarification:
+ • The translation aims to preserve the poetic and formal tone of the original text while conveying its layered meaning.
+ • Terms like “Nyankonsem” and “Nyankonpon” are rendered in ways that emphasize their divine and awe-inspiring aspects, even though they are uniquely rooted in Akan language and spirituality.
+ • Proper names (Onini, Osebo, Mmoatia, Mmoboro) are left untranslated to retain their identity and cultural significance, acknowledging that they carry specific connotations in the Akan mythos.
+ • The word “to” in “me to” is understood contextually as the act of singing or telling the sacred narrative, a choice meant to best capture the intended meaning in English.</t>
+  </si>
+  <si>
+    <t>Translation:
+"And Ananse asked his friend Aso, 'How will we get Onini?'"
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • Na = “And”
+ • Ananse = (the well-known folktale figure, Ananse)
+ • bisaa = “asked”
+ • ne = “his”
+ • ye' Aso = “friend Aso” (Aso is used here as a proper name)
+ • se = “saying”
+ • Ebeye = “will be”
+ • den = “how” (or “in what way”)
+ • na = (a conjunction linking the clauses)
+ • ye'anya = “we obtain/get” 
+ • Onini = (a proper name; likely a character or significant entity in the story)
+2. Cultural Context:
+ Ananse is a central figure in Akan folklore, often portrayed as a clever and resourceful trickster who uses his wit to solve problems and achieve his goals. The dialogue reflects a common narrative style in Akan stories, where Ananse consults with his companion (here, his friend Aso) on how to accomplish a challenging task—namely, obtaining “Onini.” The names Aso and Onini are preserved as part of the cultural fabric of the tale, representing characters or elements that carry local significance and meaning.
+3. Translation Clarification:
+ The phrase “Ebeye den na ye'anya Onini?” is idiomatic. Literally, it breaks down to “How will it be so that we obtain Onini?” but is more naturally rendered in English as “How will we get Onini?” The question implies not only inquiry into the method of acquisition but also hints at anticipated difficulties, a common theme in Ananse tales where seemingly simple tasks are complicated by challenges that must be cleverly overcome.</t>
+  </si>
+  <si>
+    <t>Translation:
+Aso said to Kyeree, “Worlie, go cut the tonton and also cut the demere that’s attached to it, and bring it.”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • Aso – A proper name; the speaker.
+ • ka – “said.”
+ • kyeree no – “to Kyeree” (the person being addressed).
+ • se – “that.”
+ • Worlie – A proper name or nickname of the addressee.
+ • ko – “go.”
+ • twa – “cut.”
+ • tonton – A specific item (object/plant or material) identified by that local name.
+ • na – “and.”
+ • twa demere ka ho – “cut the demere attached to it” (here “demere” refers to another locally known item that is connected with the tonton).
+ • na fa bra – “and bring it.”
+2. Cultural Context:
+ In Akan speech, commands or instructions are often delivered in a direct and pragmatic style. The names (Aso, Kyeree, Worlie) are likely those of community members, and the instruction to “cut” certain items (tonton and demere) suggests a customary task—possibly related to gathering materials for building, preparing for a ritual, or another communal activity. The terms “tonton” and “demere” are culturally specific and would be immediately understood by speakers familiar with the local environment and practices.
+3. Translation Clarification:
+ • The word-for-word mapping helps maintain the structure of the original instruction while adapting the phrasing to natural-sounding English.
+ • “Cut” is the translation of “twa,” which appears twice; the repetition emphasizes the separate actions: one for the tonton and one for the demere.
+ • “Ka ho” is rendered as “attached to it” to clarify that the demere is not separate but part of the same entity or associated with it.
+ • “Fa bra” is translated as “bring it,” reflecting a common instruction in Akan that combines movement with the idea of carrying something back. 
+This expanded footnote aims to shed light on both the linguistic structure of the original Akan and the cultural nuance behind the task described.</t>
+  </si>
+  <si>
+    <t>Translation:
+"And Ananse used his cunning."
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • Na = "And" or "Then" (a conjunction linking narrative parts)  
+ • Ananse = The folkloric spider character known for his cleverness  
+ • de = "used" (a versatile verb marker in Akan indicating action or possession)  
+ • baye = A term associated with cunning, trickery, or resourcefulness (the exact word carries nuances that evoke Ananse’s characteristic behavior)
+2. Cultural Context:
+ Ananse is a central figure in Akan folklore, often depicted as a trickster whose cleverness enables him to overcome challenges and outwit adversaries. In Akan storytelling, references to Ananse and his actions (such as “using his cunning”) serve both to entertain and to impart moral lessons about the use (or misuse) of wit. This line, in particular, encapsulates the culturally significant image of Ananse as a master of craftiness, whose actions are emblematic of a broader cultural narrative celebrating ingenuity—even when it defies conventional wisdom.
+3. Translation Clarification:
+ The translator chose "used his cunning" for "de baye" to best capture the idea of Ananse’s signature resourceful trickery. The word "baye" does not have a one-to-one equivalent in English; it is imbued with cultural connotations hinting at clever, sometimes mischievous, tactics. The translation therefore aims to reflect the spirit of the original while making it accessible to an English-speaking audience familiar with the Ananse stories.</t>
+  </si>
+  <si>
+    <t>Translation:
+"And Aso said, 'Take it and go to the river.'"
+Footnote:
+1. Literal Translation Mapping:
+ • Na   = "And" or "Then"
+ • Aso  = (a proper name; the speaker’s name)
+ • see  = "said"
+ • Fa   = "take" (an imperative command)
+ • ko   = "go"
+ • asuom = "the river" (with “asuo” meaning “river” in Akan; the final “m” can mark the object or direction)
+2. Cultural Context:
+ In Akan narratives, rivers often hold symbolic meaning as places of cleansing, transition, or meeting points between the human and spiritual worlds. Directives to go to the river can signal the beginning of a ritual, a journey toward purification, or a crucial moment in the unfolding of an event. The command given by Aso might thus be part of a larger story where the river plays an important role in resolving conflict or initiating change.
+3. Translation Clarification:
+ The translated phrase is rendered in a way that preserves the imperative tone found in the original Akan. The command “Fa ko asuom” combines two actions—“take it” and “go”—implying that whatever is being taken should be carried to the river. Although the object of “take” is not explicitly mentioned in the text, the translation maintains this ambiguity to reflect the original usage.</t>
+  </si>
+  <si>
+    <t>Translation:
+Then Ananse, with his ekoro, said, “It ought to be, it ought not to be; if you help, it ought to be.”
+Footnote:
+1. Literal Translation Mapping:
+ • “Na” – “Then” or “And so”
+ • “Ananse” – The famed spider trickster from Akan folklore
+ • “de ekoro no” – “with his ekoro” (the term “ekoro” is retained as is because it refers to a culturally specific item or symbol associated with Ananse)
+ • “osee” – “said”
+ • “Esene no” – “It ought to be” (from “ɛsɛ,” indicating what is proper or expected)
+ • “ensene no” – “It ought not to be” (the negated form “ɛn-sɛ,” indicating what is not proper)
+ • “woboa” – “if you help/assist”
+2. Cultural Context:
+ Ananse is a central figure in Akan folklore, renowned for his cleverness and memorable proverbs. His use of objects like the “ekoro” in storytelling enriches the narrative by linking abstract moral lessons with tangible symbols. The juxtaposition in the expression—as in “it ought to be” versus “it ought not to be”—mirrors traditional Akan oral performances, where repetition and contrast are used to stress the importance of social cooperation, proper conduct, and communal responsibility.
+3. Translation Clarification:
+ The translation adheres closely to the original structure while conveying its layered meaning. The repeated phrases (“it ought to be” and “it ought not to be”) serve as a rhetorical device common in Akan storytelling, underlining the idea that things are expected to follow a proper order—an order maintained through communal help (“if you help”). The word “ekoro” is retained in the translation, as it carries specific cultural connotations that may not have an exact equivalent in English, thus preserving the original's richness.</t>
+  </si>
+  <si>
+    <t>Translation:
+Ananse said, “He is the one who loves very much.”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Ananse” – This is the proper name of the legendary spider-trickster found in Akan folklore.
+ • “see” – Translates as “said.”
+ • “Ono” – A pronoun meaning “he (or that person).”
+ • “na” – A linking word that can be understood as “who” or “that,” connecting the subject to the description.
+ • “oda” – Derived from the verb “dɔ” meaning “to love” (in the third person singular form, it appears as “oda”).
+ • “doo” – An intensifier meaning “very much” or “a lot.”
+ • “no” – A definite marker adding emphasis, roughly equivalent to “the” in a descriptive sense.
+2. Cultural Context:
+ Akan folktales frequently feature Ananse, the spider, who is a clever and sometimes mischievous character known for his witty proverbs and moral lessons. The style of using repetition and intensifiers (such as “doo”) is characteristic of the Akan language and serves to emphasize qualities—in this case, the depth or intensity of love. Such expressions are not only linguistic devices but also reflective of cultural values where love and relationships are greatly esteemed and discussed with both humor and gravity.
+3. Translation Clarification:
+ The phrase “oda doo” was rendered as “loves very much” to preserve both the literal meaning and the emphatic tone of the original Akan. The structure “Ono na oda doo no” directly emphasizes that the subject (he) is notably characterized by his deep or abundant love. The choice to translate “doo” as “very much” ensures that the intensity conveyed in the Akan expression is maintained in English, while “no” reinforces the definitiveness of the description.</t>
+  </si>
+  <si>
+    <t>Translated Text: Onini said, "Why?"
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • Onini – This is a proper name left unchanged in translation.
+ • see – A past tense form of “to say,” equivalent to “said.”
+ • Aden? – An interrogative term that literally translates to “Why?” in this context.
+2. Cultural Context:
+ In Akan conversation, brief questions such as “Aden?” are common and serve as a direct prompt for an explanation or clarification. Such succinct interrogatives reflect the cultural preference for straightforward and efficient communication. The use of “Aden?” not only solicits a reason but also can convey surprise, prompting the listener to expound further on the matter at hand.
+3. Translation Clarification:
+ While Akan has various interrogative expressions, “Aden?” in this instance is interpreted as “Why?” rather than “What?” or another query. The decision was made based on the conversational context implied by the text. The translation stays close to the original phrasing while ensuring the intended inquiry is clearly communicated in English.</t>
+  </si>
+  <si>
+    <t>Translation:
+Ananse said, “I don’t rely on my ears to support my back. If this heavy load outweighs your stature, then it is, in fact, a helper.”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Ananse” – the name of the famous spider trickster.
+ • “see” – said.
+ • “Nye Aso” – “nye” means “is not”; “aso” means “ear(s).” (Literally: “not ear”)
+ • “na ogye me akyinnyie” – “ogye” means “support or carry,” “me” means “my,” and “akyinnyie” literally refers to “the back” or “behind.” (Literally: “that supports my back”)
+ • “se” – “if.”
+ • “ton­ ton yi” – “ton-ton” is a repetitive term suggesting heaviness, and “yi” means “this.” (Literally: “this heavy [thing]”)
+ • “kyen wo tenten” – “kyen” means “exceeds” or “is heavier than,” “wo” means “your,” and “tenten” means “height” or “stature.” (Literally: “exceeds your height”)
+ • “name se oboa” – “name” means “then,” “se” here acts as a linking word (“it is”), and “boa” means “helper.” (Literally: “then it is a helper”)
+2. Cultural Context:
+ In Akan folklore, Ananse is a renowned trickster whose sayings are rich with metaphor and double meanings. The proverb contrasts parts of the body—ears and back—to symbolize the proper way to support oneself. Here, the ears (often associated with hearing or receiving) are contrasted with the back (which bears burdens). The “heavy load” (ton-ton) metaphorically represents challenges or responsibilities. By suggesting that when a burden is too great for one’s own ‘stature’ it becomes a helper, the proverb encourages understanding the limits of one’s natural capacities and the timely acceptance of assistance. This layered imagery is typical of Ananse’s clever teachings in Akan oral tradition.
+3. Translation Clarification:
+ The translator had to interpret the figurative language: “ears” and “back” are not literal but represent unsuitable versus proper means of support. “Ton-ton” emphasizes the idea of an overwhelming burden—so heavy that it “exceeds” one’s natural measure (“your height”). Thus, rather than relying on what is inherently unsuited (“ears”) to bear weight, one should recognize when an external force (the “heavy load” acting as a “helper”) must be accepted. The translation aims to preserve the proverb’s playful, thought-provoking quality while conveying the underlying lesson about knowing one’s limits and the wisdom of seeking help when necessary.</t>
+  </si>
+  <si>
+    <t>Translation:
+Onini said, “Come on in, count me in.”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • Onini – A proper name left untranslated.
+ • see – Directly translated as “said.”
+ • Fra bra – Each word encourages arrival; “fra” can be understood as an invitation to come, while “bra” reinforces the call to join.
+ • be susu me – Literally “count me,” where “susu” means “to count” and “me” means “me.”
+2. Cultural Context:
+ In Akan expressions, invitations and inclusive language are common in community and social settings. When someone says “be susu me,” they are asserting their willingness to participate or be considered part of a group or activity. The phrasing carries a warm, inviting tone, reflecting the communal spirit often emphasized in Akan societies.
+3. Translation Clarification:
+ The expression “Come on in, count me in” captures both the literal commands and the underlying sentiment of inclusion. While “fra bra” urges someone to arrive or join, “be susu me” idiomatically corresponds to the English “count me in,” which means “include me” or “I’m ready to participate.”</t>
+  </si>
+  <si>
+    <t>Translation: “The formidable Tonton struck Onini.”
+Footnote:
+1. Literal Translation Mapping:
+ • “Ode” – A term referring to a man often in a context of strength or capability.
+ • “tonton” – An epithet meaning “formidable” or “big” that describes the man.
+ • “no” – A definite article marking the subject (“the”).
+ • “too” – The past tense of “to hit” or “strike.”
+ • “Onini” – A proper name.
+ • “ho” – A locative marker indicating “against” or “at” someone.
+2. Cultural Context:
+ In Akan storytelling and everyday speech, it is common to use descriptive epithets when referring to individuals. Such epithets (like “tonton”) express respect for one’s strength or prowess. Names and descriptors carry cultural significance and may indicate a person’s reputation or physical attributes. The sentence, set in a narrative or proverbs context, likely recounts a notable event involving a confrontation, where the subject’s celebrated might is emphasized through his descriptive nickname.
+3. Translation Clarification:
+ The translation has rendered “Ode tonton no” as “the formidable Tonton” to capture both the definitive nature (marked by “no”) and the culturally loaded epithet “tonton.” “Too” is translated as “struck” to reflect a physical impact or decisive action, and “Onini ho” is rendered simply as “Onini,” with the locative “ho” implying the target of the action. The overall sentence describes a moment of confrontation where a man known by his epithet Tonton delivers a striking blow to Onini.</t>
+  </si>
+  <si>
+    <t>Translation:
+Osee said, “Pull yourself in.”
+Footnote:
+1. Literal Translation Mapping:
+ • Osee – A proper name, indicating the speaker.
+ • Twe – Imperative form of “to pull” or “draw.”
+ • Wo – Possessive “your.”
+ • Mu – “Inside” or “within.”
+Thus, word‐for‐word the phrase is “Pull your inside,” rendered idiomatically as “Pull yourself in.”
+2. Cultural Context:
+In Akan, instructing someone to “twe wo mu” can serve as a call for introspection or composure. While the literal words describe a physical action of drawing inward, culturally it is often used to advise someone to gather themselves, control their emotions, or refocus—similar in spirit to the English idiom “pull yourself together.” The phrase evokes the idea of drawing one’s inner resources closer to face a situation with calmness and determination.
+3. Translation Clarification:
+Though a literal translation might seem awkward in English, the intended meaning is a directive for self-regulation. “Pull yourself in” has been chosen to retain the literal imagery of drawing inward while conveying the cultural nuance of self-composure and introspection inherent in the original Akan instruction.</t>
+  </si>
+  <si>
+    <t>Translation:
+“And Onini pulled him in, and Ananse put the rope on him—swish, swish, swish—until it reached his head.”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Na Onini twe no mu” – “And Onini pulls him inside.” Here, “Na” functions as “and”, “Onini” is a proper name, “twe” means “pull”, “no” is “him”, and “mu” means “in” or “inside.”
+ • “na Ananse de demere no too no so” – “and Ananse used the rope and placed it on him.” In this phrase, “Ananse” is another proper name, “de” means “with” or “using”, “demere” is understood to mean “rope” (a cord used in the trick), “no” again refers to “him”, “too” means “put” or “placed”, and “so” means “on him.”
+ • “nwenene ! nwenene ! nwenene !” – An onomatopoeic representation capturing the sound of the rope moving or twisting rapidly.
+ • “na esii tire” – “and it reached his head.” Here, “esii” means “it reached” or “it came to rest” and “tire” means “head.”
+2. Cultural Context:
+ • The characters Onini and Ananse are figures from Akan folklore. Ananse, often depicted as a witty and cunning spider, is a well-known trickster who features in many traditional tales, while Onini is another character whose interactions with Ananse highlight themes of cleverness versus strength.
+ • The use of “demere” (interpreted as “rope”) and the sound effects “nwenene” recreate the oral storytelling style typical in Akan culture, where rhythm, repetition, and onomatopoeia serve to engage listeners and convey the physicality of the actions.
+ • Such narratives are rich in cultural symbolism, where the interplay between characters often teaches lessons about wit, perseverance, and the art of trickery.
+3. Translation Clarification:
+ • The translation makes the implicit clear by explaining “demere” as “rope,” since in context Ananse is seen using it as a tool in the unfolding action.
+ • The repeated “nwenene” has been rendered as mimetic sound effects (“swish, swish, swish”) to preserve the oral performance aspect of the original.
+ • “Esii tire” is translated as “until it reached his head,” capturing the finality of the action. While “tire” literally means “head,” the phrasing has been smoothed to convey that the rope (or the action involving it) proceeded until it came to rest on or around his head, an image typical in folkloric tales.
+This translation and footnote aim to remain faithful both to the literal wording of the original Akan text and to its deeper cultural and narrative context.</t>
+  </si>
+  <si>
+    <t>Translation:
+Ananse said, “Fool, I’m taking you to fetch a spider tale.”
+Footnote:
+1. Literal Translation Mapping:
+ • Ananse – A proper name referring to the legendary spider trickster in Akan folklore.
+ • see – Translates as “said.”
+ • Kwasea – A pejorative term meaning “fool” or “idiot.”
+ • me – Means “I.”
+ • de – Functions as a connector indicating the use of or accompanying action.
+ • wo – Means “you.”
+ • ko – Means “go.”
+ • gye – Means “fetch” or “retrieve.”
+ • Anyankonsem – A compound word alluding to “Anansesɛm,” the term for “spider tale” or “folktale,” referring to the traditional stories associated with Ananse.
+2. Cultural Context:
+ In Akan folklore, Ananse is a well-known trickster character, often depicted as a clever spider who uses his wit to outsmart others. The term “Anansesɛm” (here rendered as “Anyankonsem”) is deeply embedded in the cultural tradition as it denotes the collection of folktales that feature Ananse’s adventures and lessons. The use of the insult “Kwasea” and the directive “I’m taking you” reflects the oral, playful, and sometimes blunt narrative style common in these stories.
+3. Translation Clarification:
+ The translation preserves both the direct, literal meaning and the cultural nuances of the original Akan text. “Kwasea” is rendered as “fool” to maintain its insulting tone, while “gye Anyankonsem” is translated as “fetch a spider tale,” aiming to capture the pun and cultural reference inherent in the original. This approach respects the informal, oral storytelling tradition and the role of Ananse as a pivotal figure in conveying wisdom through humor and narrative.</t>
+  </si>
+  <si>
+    <t>Translation:
+"Ananse took it and went to Nyame."
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • "Ananse" – Refers to the famous spider character in Akan folklore.
+ • "de" – Literally translates as "took" or "carried."
+ • "no" – Functions as a pronoun meaning "it."
+ • "ko" – Literally means "went" (from the verb "kɔ" which means "to go").
+ • "maa" – Indicates the action of giving, delivering, or proceeding towards someone.
+ • "Nyame" – Refers to God, the Supreme Being in Akan cosmology.
+2. Cultural Context:
+ In Akan folklore, Ananse is a central trickster figure whose adventures are full of wit and cunning. Many stories feature him interacting with Nyame, the supreme deity, often in narratives that explain the origins of wisdom, storytelling, or natural phenomena. This line echoes the traditional storytelling style and highlights the interaction between a clever cultural hero (Ananse) and the divine (Nyame), reflecting moral lessons and social values embedded in Akan oral literature.
+3. Translation Clarification:
+ The sentence structure in Akan places the object ("no" meaning "it") immediately after the verb "de," then continues with the verb "ko" (went), and finally the indirect object "maa Nyame" (to Nyame). The English translation ensures that the sequence of actions is maintained: first, Ananse takes the object; then, he proceeds (goes) to Nyame. Although "ko" might initially appear ambiguous, understanding that it is the simple past action “went” resolves the sentence clearly into its intended meaning.</t>
+  </si>
+  <si>
+    <t>Translation:
+God said, "My hand has touched it; what is touched remains touched."
+Footnote:
+1. Literal Translation Mapping:
+ • “Nyame” – God
+ • “see” – said
+ • “Me nsa” – my hand
+ • “aka” – has touched (or reached)
+ • “dee aka” – that which is touched is touched  
+ The phrase repeats the word “aka” for emphasis, marking both the action and its resultant state.
+2. Cultural Context:
+ In Akan expression, using the hand as a metaphor highlights personal involvement or decisive action. This proverb emphasizes that once an action is taken—especially by a powerful authority—it sets an irreversible course. In a broader cultural sense, it underscores inevitability and the permanence of divine (or authoritative) intervention. The repetition of “aka” mirrors a rhythmic and emphatic style found in many Akan proverbs, reinforcing certainty and finality.
+3. Translation Clarification:
+ The translation maintains both the literal meaning and the figurative impact of the original. The first “aka” indicates the action (“has touched”), while the repeated “aka” solidifies that the consequence is definitive (“remains touched”). In English, this is rendered as “My hand has touched it; what is touched remains touched” to convey that once something is set in motion or influenced by divine intervention, its state is unalterable.</t>
+  </si>
+  <si>
+    <t>Translation:
+  Ananse once again began telling his story to his people, saying, “Aka Mmoboro.”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Ananse” – This is the name of the legendary spider-trickster featured in many Akan folktales.
+ • “san” – Translates literally as “again” or “once again.”
+ • “baye” – Derived from the Akan verb “bɔ” (to tell or narrate), conveying the act of recounting a story.
+ • “be boo ne ye’ amanie” – Literally breaks down as “to his people” (with “amanie” referring to the community or nation) and indicates that he addressed or narrated to them.
+ • “se” – Means “saying” or “declaring.”
+ • “‘Aka Mmoboro’” – This is a phrase rendered in Akan whose cultural meaning is retained without alteration; it might be a proverbial expression or a signature phrase within the narrative.
+2. Cultural Context:
+ In Akan folklore, Ananse is a celebrated trickster who often uses his wit to overcome challenges. His stories are told to entertain, instruct, and preserve cultural values. Addressing “his people” reflects the communal tradition of storytelling in Akan society. The quoted phrase “Aka Mmoboro” functions as a culturally significant expression that could encapsulate a moral, a concluding remark, or a call to attention within the context of the tale.
+3. Translation Clarification:
+ The translation aims to be faithful to both the literal meaning and the storytelling atmosphere of the original Akan text. Certain words like “Ananse” and “Aka Mmoboro” are left in their original form due to their unique cultural and narrative significance. The phrase “baye” is interpreted in the sense of beginning a narrative, and “amanie” is understood as referring to the community or audience, thus preserving the communal dimension of the storytelling tradition.</t>
+  </si>
+  <si>
+    <t>Translation:
+His wife said, “Sweep up, fetch some water in the container, and go.”
+Footnote:
+1. Literal Translation Mapping:
+ • “Ne yere” – “His wife”
+ • “see” – “said”
+ • “Pe towa” – A command where “pe” is an imperative prompting action and “towa” is understood as “sweep up” (i.e. clear or clean the area)
+ • “fa nsuo gum” – “fa” means “take” or “fetch”; “nsuo” means “water”; “gum” refers to the container (or tool) used for holding or carrying water
+ • “na fa ko” – “na” means “and then”; “fa” again means “take” or “get”; “ko” means “go”
+2. Cultural Context:
+In many Akan households, everyday speech uses concise, imperative expressions to direct routine domestic tasks. Fetching water and sweeping or cleaning are common chores, and such commands reflect a practical, no-nonsense approach to managing the household. The wife’s instruction here, though brief, exemplifies the cultural expectation of prompt action in everyday tasks.
+3. Translation Clarification:
+This translation aims to capture both the literal words and the pragmatic tone of the original Akan. Certain words like “gum” may carry a specific local meaning (indicating a container or tool for water) that does not have a direct one‐to‐one English equivalent. The rendering “sweep up” for “pe towa” conveys the imperative for cleaning, while “fetch some water in the container” clarifies the means implied by “nsuo gum.” The overall structure maintains the brevity and directness characteristic of everyday Akan instructions.</t>
+  </si>
+  <si>
+    <t>Translation:
+“Ananse went into the bush declaring that Mmoboro is superior, and he drew some water and splashed it over Mmoboro.”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Ananse” – The well‐known spider character in Akan folklore.
+ • “koo” – “went.”
+ • “wuram’” – A contracted form referring to “into the bush/forest.”
+ • “obefwe se” – Literally “he would say that” or “declaring that.”
+ • “Mmoboro” – A proper name (or title) in the tale.
+ • “sen ho” – “is superior” or “better than” (with “ho” referring back to the subject).
+ • “na” – “and.”
+ • “ofwiee nsuo no bi” – “he finished (i.e., drew or fetched) some of the water” (“nsuo” means water, “bi” means some).
+ • “opete guu Mmoboro no so” – “he splashed (or poured) it on Mmoboro” (“opete” indicating the act of splashing/pouring, “guu … so” meaning “onto him/it”).
+2. Cultural Context:
+ Ananse is a central figure in Akan folklore, known for his cunning and trickery. In many traditional tales, his actions—even when seemingly mischievous—serve to reveal lessons about pride, hubris, or the use of wit to correct a wrong or make a point. Here, Ananse’s declaration that “Mmoboro is superior” followed by the act of splashing water on Mmoboro may be understood as a dramatic, symbolic gesture. It echoes the oral storytelling style of the Akan, where physical actions (like splashing water) are used to underscore abstract ideas such as honor, challenge, or even a subtle mocking of an adversary.
+3. Translation Clarification:
+ The translator has rendered “obefwe se” as “declaring that,” capturing the assertive tone of Ananse’s statement. The word “wuram’” is understood in context as “into the bush,” a common setting in Akan folktales that suggests a journey away from everyday society into a realm where the extraordinary takes place. Similarly, “ofwiee nsuo no bi” is interpreted as “drew some water,” assuming the narrative implies gathering water rather than simply finishing it. Finally, “opete guu Mmoboro no so” is translated as “splashed it on Mmoboro,” directly conveying the physical act described while remaining true to the folklore’s vivid imagery.
+This translation thus aims to faithfully preserve both the literal meaning and the cultural nuances embedded in the original Akan text.</t>
+  </si>
+  <si>
+    <t>Translation:
+“Ananse spat out what was left, which fell right on his own head, and then he struck his head with his brodee-ahan.”
+Footnote:
+1. Literal Translation Mapping:
+ • Ananse – The well‐known trickster figure (literally “Ananse,” the spider).
+ • fwiee – “spat out” or “threw out” (past action).
+ • dee – “that which” or “what.”
+ • aka – “remained” (what was left over).
+ • guu – “fell” or “landed.”
+ • ono ara so – “on his very own” (with “ono” referring to himself and “ara” emphasizing “only” or “just”).
+ • na – “and then.”
+ • otwaa – “he struck” or “hit.”
+ • brodee-ahan – a compound term referring to a specific instrument or object (whose exact identity is embedded in local usage) that Ananse used.
+ • de – “with.”
+ • kataa no ti – “struck his head” (with “ti” meaning “head”).
+2. Cultural Context:
+ In Akan folklore, Ananse is a famous trickster and cunning character who often finds himself entangled by his own schemes. This line is typical of Ananse narratives, where even his crafty plans sometimes backfire in humorous or ironic ways. The mention of “brodee-ahan” is culturally nuanced—while it names a particular object known to local audiences, its precise nature exemplifies the everyday items woven into the fabric of folklore. The incident of the spilled remnant falling on his head and the subsequent self-striking portrays a moral about the unintended consequences of one’s actions, a common theme in traditional Akan stories.
+3. Translation Clarification:
+ The translation aims to capture both the literal actions and the irony inherent in the original Akan text. “Spat out what was left” reflects a literal rendering of Ananse discarding what remained (possibly a remnant of a plan or substance) which then lands “right on his own head,” emphasizing the self-inflicted mishap. The phrase “struck his head with his brodee-ahan” preserves the original’s culturally specific detail. Although “brodee-ahan” may not have a direct English equivalent, it is left transliterated to indicate its special status in the narrative—an object whose significance would resonate with an Akan audience as part of the humor and moral lesson in Ananse’s adventures.</t>
+  </si>
+  <si>
+    <t>Translated Text:
+“Then he said to Mmoboro, ‘This river is coming; if you hadn’t been here, would you go ahead and wrap my tail with it? Are you really claiming that I have covered myself with a hundredfold cloth to hide my body?’”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • Efei – “Then” or “At this point”
+ • na – “and” (linking the clause)
+ • oka kyeree – “he said to” or “addressed”
+ • Mmoboro no – “the Mmoboro” (a proper noun or title)
+ • se – “saying” or “that”
+ • "Osuo eba yi" – literally “this river is coming” (osuo = river, eba = is coming, yi = this)
+ • ankra mo ha – “if you were not here” (“ankra” meaning “if not” and “mo ha” meaning “you all are here”)
+ • na mo be hyee me toa yim'a – “would you then wrap my tail?” (with “hyee” suggesting the act of draping or covering, “me toa” literally “my tail”, and “yim’a” connecting the action)
+ • s'ankra osuo yi – “if not for this river” (reiterating the condition with the river)
+ • emmo mo, mo nfwe se – “aren’t you saying that” (a rhetorical challenge; “nfwe” here carries the sense of “assert” or “claim”)
+ • me de brodee ahahan akata me soo – “I have covered myself with a hundredfold cloth to hide my body” (with “me de” meaning “I have”, “brodee” referring to cloth, “ahahan” evoking the idea of “many” or “a hundredfold”, “akata” meaning “wrapped around” or “clothed”, and “me soo” meaning “my body”)
+2. Cultural Context:
+ In Akan storytelling, natural elements like a river (osuo) are often used symbolically. Rivers can represent change, unforeseen forces, or challenges. The speaker’s rhetorical question—linking the river’s arrival with the act of covering one’s self—draws on familiar imagery in Akan folk wisdom, where exaggeration (using “a hundredfold cloth”) emphasizes one’s preparedness or the absurdity of certain expectations. The metaphor of “wrapping my tail” may indicate an act of self-protection or a humorous allusion to one’s status, underscoring that natural events or external forces should not lead others to make false assumptions about one’s own state or preparations.
+3. Translation Clarification:
+ This translation aims to capture both the literal and idiomatic nuances of the original Akan. Some phrases (such as “wrap my tail” and “a hundredfold cloth”) are rendered as literal imagery to preserve the vivid metaphors used by the speaker. The translator has chosen wording that retains the rhetorical quality and playful challenge embedded in the original line, even though these images might seem unusual when rendered directly into English. In contexts like this, maintaining the original’s evocative style is vital to preserving its cultural flavor and meaning.</t>
+  </si>
+  <si>
+    <t>Translation:
+"And the children said, 'We thank you, Aku, we thank you, Aku.'"
+Expanded Footnote:
+1. Literal Translation Mapping:
+   • "Ena" – Translates as "and" or "and then," introducing the next action.
+   • "Mmoboro" – Refers to "the children" (or youth/young ones) in the context.
+   • "no" – A definite article marker, indicating "the" children.
+   • "see" – Literally means "said."
+   • "Ye'da" – Translates as "we give" or "we express."
+   • "w'ase" – Literally means "thank you" (literally "your gratitude").
+   • "Aku" – A proper noun, a name that likely designates a person of respect.
+2. Cultural Context:
+   • In Akan communities, expressing thanks is often done collectively, especially to someone of significance. The repetition ("ye'da w'ase Aku, ye'da w'ase Aku") emphasizes sincerity and reverence.
+   • The informal yet respectful tone is typical in communal and oral traditions where group acknowledgment reinforces social bonds and respect.
+   • Such expressions are common in traditional storytelling, ceremonies, or public speeches, reflecting the value placed on gratitude and recognition toward leaders or elders.
+3. Translation Clarification:
+   • While the literal translation is "We give your thanks Aku," the idiomatic equivalent in English is "We thank you, Aku." The translator has opted for natural phrasing to convey the intended appreciation.
+   • The repetition is maintained in the English version to preserve the emphasis and ceremonial tone inherent in the original Akan expression.
+   • The translator chose to render "Mmoboro" as "the children" to reflect the likely communal and familial setting implied in the original text.</t>
+  </si>
+  <si>
+    <t>Translation:
+“All you ‘Mmoboro’, all of you, get in line and keep on drinking—cheers!”
+Footnote:
+1. Literal Translation Mapping:
+ • Mmoboro – A term of address referring to a specific group; it functions as a proper noun here and has no exact English equivalent.
+ • no – “the” (definite article identifying “Mmoboro”).
+ • nnyina – “all” (indicating everyone in the addressed group).
+ • tuo – Suggests “line up” or “get ready” (an invitation to gather or prepare).
+ • toa – “continue” (an exhortation to persist in the action).
+ • nom’ – “drink” (the imperative form urging consumption).
+ • fom – An exclamatory call, akin to “cheers!” or “bottoms up!”
+2. Cultural Context:
+ In many Akan social settings—especially during celebratory events or communal gatherings—drinking is accompanied by lively exhortations encouraging everyone to join in and keep the merriment going. Phrases like “toa nom” are commonly used to rally company and foster a sense of unity and joy. The term “Mmoboro” appears to be a specific, possibly colloquial, identifier for a group and carries the informal, convivial tone that underpins such communal expressions.
+3. Translation Clarification:
+ Some words (such as “Mmoboro”) are culturally specific and do not have direct English counterparts; thus, the term is retained in transliteration to preserve its identity. The translation interprets “tuo” as a call for everyone to gather or “line up,” while “toa nom, fom!” is rendered as “keep on drinking—cheers!” to capture both the literal meaning and the animated, culturally rich invitation found in the original Akan phrase.</t>
+  </si>
+  <si>
+    <t>Translation:
+“Father Ananse answered, saying, ‘You fools, I’ve got you—I’m taking you to fetch some Ananse tales.’”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • Agya – “Father”
+ • Ananse – The well-known trickster spider figure in Akan folklore
+ • tuaa ano – “answered him,” or “responded”
+ • Osee – “he said”
+ • Nkwaseafuo – “fools” or “foolish people”
+ • m’anya mo – “I have caught you” or “I’ve got you”
+ • me de mo ko – “I’m taking you along” or “I’m taking you”
+ • gye – “to fetch” or “to collect”
+ • Anyankonsem – “Ananse tales” (literally, the sayings or discourses of Ananse)
+2. Cultural Context:
+ In Akan folklore, Ananse is a revered and cunning trickster figure whose adventures teach moral lessons through humorous and ironic twists. The phrase “Anyankonsem” refers not only to his tales but also to the wisdom and cultural values embedded in those stories. Calling someone “nkwaseafuo” (fools) is a pointed criticism, often used in traditional narratives to highlight the folly of certain behaviors. The statement reflects the oral tradition of using clever, biting language to transform misfortune or error into a teachable moment, a common motif in Ananse stories.
+3. Translation Clarification:
+ The translation seeks to convey both the literal meaning and the playful, ironic tone of the original Akan expression. “I’ve got you” communicates the idea of having caught or ensnared someone, while “I’m taking you to fetch some Ananse tales” implies that the fools will now be subjected to the clever wisdom (or perhaps the lessons) that come from Ananse’s stories. This rendering preserves the flavor of the oral tradition, maintaining the cultural resonance and the implicit critique embedded in the Akan text.</t>
+  </si>
+  <si>
+    <t>Translation:
+"The one who brings Mmoboro goes to God."
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • Ode – This is the subject phrase meaning “the one who brings” or “the bearer.”
+ • Mmoboro – A term that appears as a proper name or culturally significant item; it is retained in the translation because its specific meaning or symbolic value is not altered.
+ • ko – Translates as “goes.”
+ • maa – Means “to” or “for.”
+ • Nyame – Clearly means “God.”
+2. Cultural Context:
+ In Akan expressions, actions performed in relation to Nyame (God) reflect a deep spiritual commitment. The phrase as a whole suggests that the bearer of “Mmoboro” carries something of significance or sacred value on a journey or offering directed toward the divine. The term “Mmoboro” might represent an object, a concept, or an emblem that holds cultural or religious symbolism, and thus is left untranslated to preserve its contextual and indigenous meaning.
+3. Translation Clarification:
+ The English version maintains the subject–verb structure of the original Akan text while preserving key culturally loaded terms. “Ode” is understood in context as the one who actively carries or brings something, and “ko” is rendered in the simple present “goes” to show habitual or destined action. Retaining “Mmoboro” respects its possibly unique cultural connotation rather than attempting to force an imprecise English equivalent. The overall translation thus conveys the idea of an individual who, by bearing or delivering “Mmoboro,” is set on a path toward or in devotion to God.</t>
+  </si>
+  <si>
+    <t>Translation:
+God said, “Mensa has spoken; what has been spoken remains as spoken.”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Nyame” – literally “God.”
+ • “see” – translates as “said.”
+ • “Mensa” – used here as a proper noun (possibly referring to a wise or authoritative figure).
+ • “aka” – stems from the verb “ka” (“to speak”) in its completed form, meaning “has spoken.”
+ • “dee aka” – translates as “that which has been spoken.”
+ Together, the literal rendering is: “God said, ‘Mensa has spoken, (and) that which has been spoken.’”
+2. Cultural Context:
+ In Akan culture, spoken words—especially those uttered by leaders or wise figures—carry a weight of finality and authority. Attributing the statement to God (“Nyame”) emphasizes its divine backing and the unchangeable nature of the word. The repetition of “aka” serves to stress that once something is declared, it is binding and cannot be undone. This reflects the oral tradition’s respect for powerful declarations and the culturally ingrained notion that words, once spoken by an authoritative figure, set matters in stone.
+3. Translation Clarification:
+ The translation seeks to retain the emphatic repetition found in the original phrase, highlighting the finality and irreversibility of the spoken word. “Mensa has spoken; what has been spoken remains as spoken” implies that, regardless of further debate or discussion, the statement is conclusive. The interpretation carefully balances literal meaning with cultural nuance, ensuring that both the authority imbued by the mention of “Nyame” and the weight of “Mensa’s” utterance are preserved in the English rendering.</t>
+  </si>
+  <si>
+    <t>Translation:
+“Ananse came back again and called his wife, saying, ‘Aka Osebo.’”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Ananse” – Refers to the well-known character from Akan folklore, often depicted as a clever spider.
+ • “baa” – Literally means “came” (past tense of coming).
+ • “bio” – Means “again.”
+ • “be ka” – Translates as “said” or “spoke.”
+ • “kyeree” – Means “called” or “summoned.”
+ • “ne yere” – Means “his wife.”
+ • “see” – Is a narrative marker equivalent to “saying.”
+ • “Aka Osebo” – Remains in the original form; “aka” can mean “adds” or “says,” while “Osebo” is likely a name or honorific term embedded with cultural nuance.
+2. Cultural Context:
+ • Ananse is a central figure in Akan and West African storytelling traditions, known as a trickster whose adventures are both entertaining and didactic. His encounters often include humorous, ironic twists.
+ • The phrase “Aka Osebo” appears as a specific utterance that may carry local idiomatic or symbolic significance. Such expressions preserve cultural flavor and are sometimes left untranslated to keep their metaphorical or punning character intact.
+ • The interaction between Ananse and his wife in the text reflects common narrative techniques in Akan folklore where dialogue initiates a moral or humorous episode.
+3. Translation Clarification:
+ • The translation maintains the original structure and meaning as much as possible. “Ananse came back again and called his wife, saying, ‘Aka Osebo.’” reflects both the sequence of actions and the direct speech.
+ • The quoted phrase “Aka Osebo” is retained in its original form because its specific meaning, tone, or cultural pun might be lost if translated directly. Instead, readers familiar with Akan idioms may appreciate its cultural resonance.
+ • Overall, the translation aims to preserve both the literal wording and the cultural context embodied in the original Akan text.</t>
+  </si>
+  <si>
+    <t>Translation:
+  Aso said, “Go, run away.”
+Footnote:
+1. Literal Translation Mapping:
+ • Aso – This term can mean “eyes” in Akan, but in this context it is treated as the name or persona of the speaker (“Aso”).
+ • see – A rendition of “said” (from the Akan verb “se” meaning “to say”).
+ • Ko – “Go.”
+ • tu – “run” (an imperative urging swift movement).
+ • amana – Interpreted here as “away.” (The term can be context‐dependent; it may also be seen as a proper noun, but here the flow of the sentence supports its reading as an adverbial instruction to “run away.”)
+2. Cultural Context:
+ In Akan oral tradition, using body parts or names as speakers is a common stylistic device to give proverbs and sayings a vivid, memorable character. The imperative “Go, run away” echoes advice to swiftly escape from danger or an unfavorable situation. Whether addressing a literal situation or implying a moral lesson about evading trouble, the phrase employs direct, action‐oriented language that is common in folk wisdom and storytelling.
+3. Translation Clarification:
+ The translation renders the original Akan as a direct command delivered by “Aso.” Although “Aso” literally means “eyes” in some contexts, here it is understood as the speaker’s identifier. The verb “tu” is rendered as “run” to capture the immediacy of the action, and “amana” is treated as “away,” following the flow of the command. This interpretation was chosen based on the idiomatic structure and typical usage in Akan proverbs, while noting that alternative interpretations—such as reading “Aso” as the “eyes” speaking—are possible but less consistent with the intended imperative tone.</t>
+  </si>
+  <si>
+    <t>Translation: 
+Ananse said, “Stop, let me see.”
+Footnote:
+1. Literal Translation Mapping:
+ • Ananse – The name of the spider trickster character featured in many Akan folktales.
+ • see – Translates as “said” (used to introduce direct speech).
+ • Gyae – Imperative form meaning “stop.”
+ • na – A conjunction often rendered as “and” or functioning as a connector between clauses.
+ • mahu – A first-person form of the verb “see,” meaning “I see” or “let me see” in context.
+2. Cultural Context:
+ In Akan folklore, Ananse is a well-known trickster figure whose clever and sometimes mischievous behavior is central to many traditional stories. The line “Gyae na mahu” is presented as a remark made by Ananse; it captures his characteristic urge to pause and observe the situation—either to understand what is happening, to seize an opportunity, or to execute another clever plan. Such phrases are often imbued with layers of meaning in storytelling, reflecting the interplay between caution, curiosity, and wit in Akan cultural narratives.
+3. Translation Clarification:
+ The phrase “Gyae na mahu” can be understood both literally and idiomatically. Literally, Ananse is commanding an immediate halt (“stop”) so that he can “see” or assess the situation. Idiomatically, it may imply that one should pause and evaluate before proceeding—a sentiment that resonates with Ananse’s cunning nature in fables. The translation thus captures the direct command while also hinting at the underlying cultural nuance associated with Ananse’s role as a perceptive, if mischievous, observer in Akan storytelling.</t>
+  </si>
+  <si>
+    <t>Translation:
+“Behold, Ananse went in search of the great Osebo, and he took a long rope, fastened it, and went home.”
+Footnote:
+1. Literal Translation Mapping:
+ • “Enie” – rendered as “Behold,” serving to call attention.
+ • “Ananse” – the name of the famous spider-trickster from Akan folklore.
+ • “ko pee” – literally “went to look for” or “searched for.”
+ • “Osebo kyeneno” – “Osebo” is a proper name (or title) with “kyeneno” meaning “the great” or “the big,” indicating a formidable or important figure.
+ • “na otu amana tenten” – “na otu” means “and he took,” “amana” is understood here as “rope,” while “tenten” means “long.”
+ • “na okataa so” – literally “and [he] tied it on” (i.e. fastened the rope).
+ • “na obaa 'fie” – “and went home” (with “fie” meaning “home/house”).
+2. Cultural Context:
+ Ananse is a key figure in Akan folklore, celebrated for his cunning and resourcefulness. In many traditional tales, the objects he chooses (such as a long rope in this instance) are laden with symbolic meaning. The act of taking and tying a long rope before going home when seeking out a notable character like “the great Osebo” likely suggests a theme of preparedness and strategic planning when confronting challenging tasks or adversaries. This proverb‐like narrative reflects the value placed on wit and proper measure in addressing difficult situations within Akan culture.
+3. Translation Clarification:
+ The translation aims to remain as faithful as possible to the original structure and phrasing while conveying the narrative’s metaphorical depth. “Kyeneno” is interpreted as “the great” to highlight the stature of Osebo, and “amana” is rendered as “rope” due to its clear association with “okataa so” (the act of tying). The step-by-step actions—searching, taking the rope, fastening it, and then returning home—are preserved to retain the literal and implied meaning of measured, careful action, which is central to the proverb’s moral.</t>
+  </si>
+  <si>
+    <t>Translation:
+  “On a bright morning, Ananse says, ‘I’m leaving; I will go.’ Only a scoundrel sleeps among the people.”
+Footnote:
+1. Literal Translation Mapping:
+  • Adeekyeye – A compound describing the morning as “bright” or “radiant.” (Literally “adeɛ” means “thing” and “ekyeye” implies brilliance or splendor.)
+  • anopa – “Morning.”
+  • Ananse – The spider, a central folktale character in Akan lore known for his wit and cunning.
+  • se – “says.”
+  • oko – Derived from “kɔ,” meaning “go” or “is going.”
+  • obekoro – “He will go,” with the future marker “ɔbɛ–” attached to “koro” (indicating the act of departing decisively).
+  • Osebo – “Scoundrel” or “evil-doer.”
+  • na – “Only” or “but.”
+  • oda – “sleeps.”
+  • amanam’ – “Among the people” (from “aman,” meaning “nations” or “communities,” with a contracted ending implying “among them”).
+2. Cultural Context:
+  Ananse is a legendary figure in Akan and wider West African folklore—a trickster whose cleverness and occasional moral ambiguity are frequently spotlighted in proverbs and stories. The proverb juxtaposes decisive action (as shown by Ananse’s intent to go) with sloth or wicked indolence (the scoundrel who remains asleep among the people). In Akan culture, such proverbs serve as moral lessons encouraging vigilance, initiative, and the timely seizing of opportunities, while warning against laziness and dishonesty.
+3. Translation Clarification:
+  The English rendering aims to preserve the proverb’s rhythm and ethical message. “On a bright morning” sets the scene of a new day full of promise. Ananse’s declaration “I’m leaving; I will go” implies a readiness to act without delay. In contrast, “only a scoundrel sleeps among the people” conveys disapproval of idleness or concealed wickedness. The translation smooths over literal structures to provide a clear, culturally informed interpretation that remains faithful to the original proverb’s intent.</t>
+  </si>
+  <si>
+    <t>Below is the translation of the Akan text to English followed by an expanded footnote.
+────────────────────────────── Translation
+Ananse said, “Child of Agyawa! Child of Enawa! If I were to tell you, ‘Go and drink alcohol’—if you had indeed taken to drinking it—then you would have brought disgrace upon your name; and if I began to chide you, you would, later in the day, come to see me—yet wherever I may be, you always go off to join him.”
+────────────────────────────── Footnote
+1. Literal Translation Mapping:
+ • “Ananse see” → “Ananse said”  
+ • “Agyawa 'ba! Enawa 'ba!” → “Child of Agyawa! Child of Enawa!”  
+  – Here ‘ba’ means “child” and the names Agyawa and Enawa serve as epithetical insults, calling out an unruly or disobedient identity.  
+ • “se maka akyere wo se nnom nsa,”  
+  – “se” = “if”  
+  – “maka” = “I had told/instructed”  
+  – “akyere wo” = “you”  
+  – “se nnom nsa” = “‘go and drink alcohol’” (with “nsa” signifying alcohol)  
+ • “sese wo nokwa wako nom abo,”  
+  – “sese” = “if” or “in the event that”  
+  – “wo nokwa” = a phrase referring to your way of behaving (or “your nature”)  
+  – “wako nom abo” = “you have taken to drinking (or partaking in) another kind of drink” (abo here contrasts with nsa, reinforcing the theme of intemperate behavior)  
+ • “nti na w'abe to amanam’”  
+  – “nti” = “therefore” or “thus”  
+  – “w'abe to” = “you would have incurred” or “brought upon”  
+  – “amanam’” = “disgrace among the people” (your reputation in the community would be tarnished)  
+ • “se me kaase me beyi wo a, addekye wo ko hu me a,”  
+  – “se” = “if”  
+  – “me kaase” = “I were to begin to chide/rebuke you”  
+  – “me beyi wo” = “or reprimand you”  
+  – “addekye” = “later, in due course (often implying the next day)”  
+  – “wo ko hu me” = “you would come to see me”  
+ • “se nso me 'ha biara a, na wo ko kye no.”  
+  – “se nso” = “but even if/whenever”  
+  – “me ‘ha biara” = “I am anywhere” or “wherever I may be”  
+  – “na wo ko kye no” = “you always go off to join him/greet him” (indicating a habitual action of turning to another person regardless of my location)
+2. Cultural Context:
+ • Ananse is a famous folkloric figure in Akan storytelling—known as the spider trickster—who often uses witty, paradoxical sayings to offer moral lessons or social commentary.  
+ • The insults “Child of Agyawa! Child of Enawa!” are not literal names but serve as traditional epithets that denote a wayward, disobedient, or unreliable nature in one who does not heed wise counsel.  
+ • References to “nsa” (alcohol) and “abo” (another type or instance of a drink) carry cultural weight. In Akan proverb and everyday life, the misuse of alcohol is understood to lead to loss of dignity, shame, and disruption of communal reputation.  
+ • The structure of the proverb underscores a theme common in Akan wisdom literature: warning against behavior that leads to personal and communal dishonor, and critiquing one who, despite admonition, consistently turns away for comfort or approval from others.
+3. Translation Clarification:
+ • Some phrases, though rendered literally, carry idiomatic meanings that do not have direct English equivalents. For example, “nnom nsa” and “wako nom abo” use the act of drinking as a metaphor for adopting unruly behavior.  
+ • The reference to “amanam’” is best understood as the tarnishing of one’s public reputation rather than a physical action.  
+ • The final part contrasts the speaker’s warnings with the listener’s habitual actions, emphasizing that no matter where or how the warning is given, the addressee will always choose to follow another course (“join him”), implying a persistent disregard for wise counsel.  
+ • In rendering the proverb into English, care was taken to preserve both its literal imagery and its underlying moral criticism.
+This translation and footnote aim to capture the spirit and layered meaning of the original Akan text.</t>
+  </si>
+  <si>
+    <t>Translation: 
+Osebo said, "Oh! I can’t."
+Footnote:
+1. Literal Translation Mapping:
+ • Osebo – A proper noun referring to the character speaking (often a figure known for mischief or cunning in Akan narratives).
+ • se – Translates as “said.”
+ • “0” – Represents the exclamation “Oh!” (using the Akan character ɔ pronounced “oh”).
+ • me ntimi – Literally means “I can’t” or “I am unable.”
+2. Cultural Context:
+ In Akan storytelling, figures like Osebo often appear as tricksters or wise fools whose statements might carry irony or double meanings. This phrase, though simple, can reflect a moment of humorous self-denial or be used proverbially to comment on human limitations. The exclamation emphasizes a spontaneous reaction, common in informal speech and expressive narrative traditions in Akan culture.
+3. Translation Clarification:
+ The translation retains the conversational tone of the original, with “Oh!” capturing the unexpected or emphatic nature of the exclamation. “I can’t” is a straightforward rendering of “me ntimi,” effectively conveying the speaker’s inability or lack of capacity at that moment. While the literal meaning is clear, the cultural nuance—where such utterances might serve a dual purpose in humor or self-deprecation—is highlighted in the footnote.</t>
+  </si>
+  <si>
+    <t>Translated Text:
+Ananse went and cut two trees; he placed one here and one there.
+Footnote:
+1. Literal Translation Mapping:
+ • “Ananse” – Refers to the famous spider trickster from Akan folklore.
+ • “ko” – Means “went.”
+ • “twaa” – Means “cut” (often used in the context of cutting down trees).
+ • “nnua” – Means “trees.”
+ • “mmienu” – Means “two.”
+ • “de” – Functions as “took” or “used.”
+ • “bako” – Means “one” (indicating one of the two).
+ • “too” – Means “placed” or “put.”
+ • “ha” – Means “here”; in the repeated phrasing it naturally suggests different, albeit unspecified, locations (i.e., “here” and by implication “there”).
+2. Cultural Context:
+ Ananse is a central figure in Akan folklore, depicted as a clever and sometimes mischievous character. Stories featuring Ananse often include puzzles, riddles, and lessons about resourcefulness and strategy. In many tales, his actions—such as dividing objects or resources—carry symbolic meaning about fairness, cleverness, or subversion of expectations. The act of cutting trees and distributing them (one here and one there) may be part of a larger narrative illustrating how Ananse apportions or manipulates resources according to his own cunning plan. This line reflects traditional storytelling techniques, including repetition for emphasis and rhythm, which helps the narrative resonate in oral traditions.
+3. Translation Clarification:
+ The literal translation “he placed one here and one there” may seem straightforward but carries additional nuance. Although “ha” literally translates as “here,” the repetition implies a deliberate distribution into distinct spots, which in the context of the story may symbolize balance, division, or strategic placement. In oral traditions, such exact phrasing contributes to the rhythmic storytelling style and may hold deeper symbolic significance, urging listeners to consider the underlying moral or trickery in Ananse’s actions.</t>
+  </si>
+  <si>
+    <t>Translation:
+He said, "Place one of your hands here, and place your other hand here."
+Footnote:
+1. Literal Translation Mapping:
+ • Fa – "Place" or "put"
+ • wo – "your"
+ • nsa – "hand"
+ • bako – "one"
+ • to – "put"
+ • ha – "here"
+ • na – "and"
+ • nsa bako soso – "one hand" with "soso" adding emphasis that it’s the other or additional one  
+ Overall, the phrase literally instructs: “Place your one hand here, and place your one hand (the other) here.”
+2. Cultural Context:
+ • In Akan discourse, instructing someone to place their hands in specific positions can be part of a ritualistic or instructional process, often emphasizing balance, participation, or symbolically marking an initiation or agreement.
+ • The repetition of the similar structure highlights the dual action (using both hands) which may carry cultural significance in demonstrating completeness or unity.
+ • Such expressions are typically used in communal settings, ceremonies, or traditional storytelling where precise physical gestures are important.
+3. Translation Clarification:
+ • Although “nsa bako” literally means “one hand,” the use of “bako soso” in the second clause implies the other hand, ensuring that both hands are involved.
+ • The verb “fa” can mean “take” or “place” depending on context; here “place” fits the instructional tone.
+ • The translation has been adjusted for clarity in English while retaining the directive, step-by-step instruction conveyed in the original Akan text.</t>
+  </si>
+  <si>
+    <t>Translation: “And the fool does foolish things.”
+Footnote:
+1. Literal Translation Mapping:
+ • “Na” – Translated as “and,” serving as a conjunction that introduces the statement.
+ • “Osebo” – Literally means “fool.”
+ • “de” – Functions as “does” or “uses,” linking the subject to the action.
+ • “totoye” – A verb form conveying the idea of engaging in actions typical of a fool; here rendered as “foolish things.”
+2. Cultural Context:
+ In Akan culture, proverbs are a common way to express moral lessons and observations about human behavior. The proverb “Na Osebo de totoye” emphasizes that a fool naturally and consistently behaves in a foolish manner. It reflects the cultural belief that a person’s inherent nature is difficult to change, and those who act foolishly will continue to do so regardless of circumstances.
+3. Translation Clarification:
+ The English translation “And the fool does foolish things” captures both the literal meaning and the essence of the proverb. While “totoye” might be broken down into its verbal components in a word-for-word analysis, the chosen rendering communicates the idea that a fool inevitably engages in behaviors characteristic of his nature. The translation is less about a specific action and more about the persistent nature of foolish behavior.</t>
+  </si>
+  <si>
+    <t>Translation:
+"It is said that Ananse has set the axe on the chopping block, thereby earning his renown—and his head is now swollen with pride!"
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • "Ose ofo'" – Literally rendered as “it is said,” introducing a traditional proverb.
+ • "na Ananse ama sekan so" – Translated word‐for‐word as “and Ananse has placed the axe on the chopping block” (“sekan” meaning “axe” and “so” implying “on” or “upon”).
+ • "na wa ma n'anyam" – Literally “and has given him honor/renown” (“n’anyam” indicating glory or personal prestige).
+ • "ne tirim' gao!" – Translated literally as “and his head is swollen (or puffed up)”, a figurative expression pointing to excessive pride.
+2. Cultural Context:
+ In Akan folklore, Ananse the Spider is a well-known trickster whose cleverness and mischief are legendary. The imagery of placing an axe on a chopping block evokes the idea of wielding power or taking decisive action. Meanwhile, the expression about one’s head being “gao” (swollen or puffed up) is a common local idiom used to describe burgeoning self-importance or arrogance. Together, the proverb reflects a cautionary note: cunning deeds (or acts that garner undeserved honor) may inflate one’s pride, a trait that is often frowned upon in the culture.
+3. Translation Clarification:
+ The English version captures not only the literal meanings of the words but also their idiomatic flavor. “Swollen with pride” is chosen to mirror the Akan notion of a head “gao,” emphasizing arrogance or conceit. The proverb, while seemingly praising Ananse’s clever act of “setting the axe on the chopping block,” subtly warns of the dangers of letting one’s accomplishments lead to hubris—a nuanced moral lesson embedded in many Akan sayings.</t>
+  </si>
+  <si>
+    <t>Translation: “The scoundrel took the meat meant for the community!”
+─────────────────────────────  
+Footnote:
+1. Literal Translation Mapping  
+ • “Osebo” – A compound term roughly referring to a “scoundrel” or “rogue.” In Akan usage, it carries a negative moral tone, indicating someone untrustworthy or dishonorable.  
+ • “gyee” – The past tense of “gye,” meaning “took” or “accepted.”  
+ • “ama nam’ fom” – The phrase breaks down as “ama” (for) + “nam' ” (a contraction of “nam no,” meaning “the meat”) + “fom.” In this context “fom” refers to that which is set aside or reserved (implying communal property or a collective share).
+2. Cultural Context  
+ In Akan society, meat is more than a food item; it symbolizes wealth, honor, and communal sharing. Offering meat at a gathering or festival is a sign of generosity and social cohesion. When someone “takes the meat meant for the community,” it reflects an act of selfishness or dishonor. This proverb serves as a moral admonition against exploiting communal resources or betraying trust for personal gain.
+3. Translation Clarification  
+ The translation “The scoundrel took the meat meant for the community!” was chosen to capture not only the literal meaning of each term but also the proverb’s underlying social critique. “Scoundrel” conveys the negative character judgment implied by “Osebo.” The word “took” (for “gyee”) emphasizes an act of seizing what was not rightfully his, while “the meat meant for the community” reflects the idea that the item in question (meat) was reserved for shared benefit—a symbol of communal wealth or honor.</t>
+  </si>
+  <si>
+    <t>Translation:
+"Ananse took his net, set it up in the community, and went off to catch Osebo."
+Footnote:
+1. Literal Translation Mapping:
+ • "Ananse" – The spider, a key figure in Akan folklore known for his wit.
+ • "faa" – Took.
+ • "atwedee" – Literally rendered as “net,” referring to a tool used for catching.
+ • "de sii" – And set up (with the nuance of “placing” the net in position).
+ • "amanam'" – A contraction referring to “in the community” or “among the people.”
+ • "ko" – Went off or proceeded to.
+ • "yii" – Caught or captured.
+ • "Osebo" – A proper name which, in oral tradition, might denote a character associated with mischief or challenge.
+2. Cultural Context:
+ In Akan folklore, Ananse the Spider is a celebrated trickster and clever character who often uses ingenious methods to achieve his ends. The “net” (atwedee) is not just a physical tool but symbolizes ingenuity and the setting of traps—both literal and metaphorical. Placing the net “in the community” (amanam') suggests that his actions affect or involve the broader society, a common motif in Akan stories where communal life and morality intertwine. Osebo, as a named character, carries cultural weight; such names often hint at traits (like mischief or trouble) that drive the narrative conflict in these traditional tales.
+3. Translation Clarification:
+ Certain words like “atwedee” and “amanam'” carry rich cultural overtones that go beyond their literal meanings. “Atwedee,” while directly translated as “net,” evokes the idea of a clever scheme or trap—a common element in Ananse stories. “Amanam'” is a contracted form alluding to the community or public arena, emphasizing the social context of the deed. The phrase “ko yii Osebo” is rendered as “went off to catch Osebo” to capture both the literal action and the underlying narrative of pursuit and cunning inherent in the folklore.</t>
+  </si>
+  <si>
+    <t>Below is the English translation followed by an expanded footnote with the requested details.
+─────────────────────────────  
+English Translation:
+  “Oko took Osebo away and mistreated him, and said, ‘Fool, I’m taking you to fetch Anyankonsem!’”
+─────────────────────────────  
+Footnote:
+1. Literal Translation Mapping:
+  • “Oko” – A proper name or appellation that can mean “warrior” (and in some contexts “war” itself), here used as the subject.
+  • “yii” – “took” or “removed.”
+  • “Osebo” – A proper name; the text contrasts this character with Oko.
+  • “de no” – “with him” or “away with him.”
+  • “baye” – A term implying “mistreated” or “did him wrong.”
+  • “osee” – “he said.”
+  • “Kwasea” – “Fool,” an insult directed at the other character.
+  • “me de” – “I am taking.”
+  • “wo” – “you.”
+  • “ko gye” – “to go fetch” or “to retrieve.”
+  • “Anyankonsem” – A compound term that appears to be a proper noun; it may refer to a symbolic or mythological element within the oral tradition.
+2. Cultural Context:
+  In Akan oral and literary traditions, exchanges peppered with insults (such as “kwasea” for “fool”) often occur in proverbs or narratives that convey moral lessons or social commentary. The personification found in a character named “Oko” (which can connote war or conflict) interacting with another figure (Osebo) may be drawing on traditional allegories. Moreover, the term “Anyankonsem,” while not everyday vocabulary, hints at a culturally loaded reference—possibly linked to a myth, proverb, or folkloric narrative known in Akan circles—inviting the listener to recall familiar tales or symbolic struggles.
+3. Translation Clarification:
+  The translation renders the literal wording while attempting to capture the idiomatic nature of the exchange. “Took away and mistreated” reflects both an act of removal and an abuse that the term “baye” conveys. The command “I’m taking you to fetch Anyankonsem!” is maintained in a direct style so that the interplay of insult and threat is evident. Because “Anyankonsem” is treated as a proper noun (likely a culturally significant figure or concept), it is not translated further, thus preserving its traditional and symbolic value.
+─────────────────────────────  
+This translation and explanation aim to respect both the literal meaning and the cultural nuance embedded in the Akan original.</t>
+  </si>
+  <si>
+    <t>Translation: "She triumphed over the enemy; the battle belongs to God."
+──────────────────────────────
+Footnote:
+1. Literal Translation Mapping:
+ • "Omaa" – Derived from the verb "ma" (to give) with a past marking, here understood as “triumphed” or “defeated.”
+ • "Osebo" – Means “enemy.”
+ • "so" – A locative or directional marker that can be rendered as “over” or “upon.”
+ • "ko" – Means “fight” or “battle.”
+ • "maa" – Translates as “belongs to” or “is given to.”
+ • "Nyame" – Refers to “God.”
+2. Cultural Context:
+ In Akan culture, phrases like this often carry a proverbial sense. The idea expressed is that although one may overcome an adversary, the ultimate power and victory in any conflict are attributed to the divine. Similar to the biblical sentiment found in “The battle is the Lord’s,” this proverb reminds believers to trust in God’s sovereignty over human struggles and conflicts.
+3. Translation Clarification:
+ The translation isn’t a word-for-word rendition but an interpretation that conveys the underlying message. “She triumphed over the enemy” captures the notion of having overcome opposition, while “the battle belongs to God” emphasizes that the final outcome and control of battles—even after human effort—rest with God. This rendering preserves both the literal components and the cultural wisdom embedded in the original Akan expression.</t>
+  </si>
+  <si>
+    <t>English Translation:
+"God has spoken; Mensa has spoken; indeed, it is spoken."
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • Nyame – "God"
+ • see – "has spoken" or "said"
+ • Mensa – a proper name (often referring to a wise or respected figure)
+ • aka – "has spoken" or "said" (repeated for emphasis)
+ • dee – "that which"
+ • aka (repeated) – reinforces the act of speaking
+2. Cultural Context:
+ In Akan proverbial expressions, repetition is a common rhetorical device used to stress certainty, authority, and the immutable nature of truth. By attributing the same statement first to God (Nyame) and then to a revered person (Mensa), the proverb underscores that the message carries both divine authority and local wisdom. This layering of voices is meant to compel acceptance and respect for what has been affirmed.
+3. Translation Clarification:
+ The translation aims to preserve both the literal meaning and the emphatic style of the original Akan text. “God has spoken; Mensa has spoken; indeed, it is spoken” reflects not just the word-by-word message but also the cultural significance of repetition as a way of affirming truth. The final clause “indeed, it is spoken” reaffirms that the spoken words carry an undeniable, established authority.</t>
+  </si>
+  <si>
+    <t>Translation:
+“Ananse was cunning and deceived Akua Ba, and he brought her much suffering; then he struck her, and with another blow, he seized Akua Ba’s hand, and with yet another blow, he inflicted deep anguish; he abused her with a heavy hand and carried her away to a place under a tree where little monkeys were playing.”
+──────────────────────────────
+Footnote:
+1. Literal Translation Mapping:
+ • “Ananse baye na osenee Akua Ba”  
+  – “Ananse” remains the name of the well‐known trickster.  
+  – “baye” literally implies “was cunning/tricky.”  
+  – “osenee” translates as “deceived/tricked.”  
+  – “Akua Ba” is the name of the other character.
+ • “na oboo amane de tetaree Akua Ba no ho”  
+  – “oboo amane” means “brought suffering” or “inflicted hardship.”  
+  – “tetaree” can be read as “tore into” or “battered,” indicating physical or emotional harm inflicted upon “Akua Ba no ho” (Akua Ba’s body or person).
+ • “na ofufuu to”  
+  – “ofufuu” implies “hit/struck,” and “to” reinforces the action.
+ • “na ode bi hyee Akua Ba no nsam'”  
+  – “ode bi” means “with another blow” (or instrumentally, “he used one”)  
+  – “hyee” translates literally as “seized or grabbed.”  
+  – “Akua Ba no nsam'” refers to “Akua Ba’s hand” (nsam typically denotes hand or grasp).
+ • “na ofufuu bi de guu ayowam'”  
+  – Again “ofufuu bi” suggests “another strike,”  
+  – “guu ayowam'” denotes “inflicting pain or deep anguish” (ayowa relating to suffering).
+ • “ode homa soo Akua Ba asen”  
+  – “ode homa” hints at “used a heavy/forceful hand” (homa evoking a sense of pounding or weight),  
+  – “soo Akua Ba asen” implies “assailing or overwhelming Akua Ba.”
+ • “na ode no kosii odum ase babi a mmoatia bedi agoro”  
+  – “kosii” means “carried her until he reached,”  
+  – “odum ase” can be interpreted as “beneath a tree or in the shade” (odum suggesting a large tree or significant place),  
+  – “babi a mmoatia bedi agoro” literally states “a place where little monkeys were playing.”
+2. Cultural Context:
+ • The characters, Ananse and Akua Ba, derive from Akan folklore, where Ananse—the spider—is a celebrated trickster figure whose cunning and mischief serve as parables for social and moral teachings.  
+ • The vivid imagery (striking, seizing, and carrying Akua Ba) underscores traditional storytelling methods used to dramatize conflict, convey lessons about hubris or the consequences of deceit, and entertain listeners.  
+ • The mention of “little monkeys playing” adds a culturally resonant detail, evoking everyday scenes in a communal setting, as animals in these tales often symbolize various human traits and natural forces in the folklore.
+3. Translation Clarification:
+ • Ambiguities exist for words like “tetaree” and “ofufuu,” which can denote both physical and metaphorical violence. In context, they were rendered as “brought suffering,” “struck,” and “inflicted deep anguish” to convey the severity of Akua Ba’s ordeals.  
+ • Terms such as “homa” and “odum” were interpreted through their contextual use: “homa” suggesting the force of a blow and “odum” indicating a setting beneath a significant tree or in a secluded spot, common in Akan narrative locales.  
+ • The translation strives to maintain the dramatic and rhythmic quality of the original language, reflecting the style of oral storytelling while providing clarity for an English-speaking audience.
+This translation and footnote aim to capture both the literal meaning and the rich cultural layers of the original Akan text.</t>
+  </si>
+  <si>
+    <t>Translation: “And one dwarf came.”
+Footnote:
+1. Literal Translation Mapping:
+ • “Na” – A conjunction meaning “and” or “then.”
+ • “mmoatia” – A term that refers to small, mystical beings (often translated as “dwarf” in the context of Akan folklore).
+ • “bako” – Means “one” or “only one.”
+ • “baye” – Indicates “came” or “appeared.”
+2. Cultural Context:
+ In Akan folklore, mmoatia are believed to be small, supernatural beings with magical qualities. They often appear in traditional stories as mysterious figures who might help, challenge, or impart wisdom to characters. The presence of a mmoatia in a narrative signals the entrance of an extraordinary element into the tale.
+3. Translation Clarification:
+ While “mmoatia” might literally mean “small beings,” it is commonly understood within Akan culture to refer specifically to the dwarf-like, enchanted characters of local legends. The translation “And one dwarf came” captures both the literal elements of “one” (bako) and the culturally significant presence of a mythical figure (mmoatia) arriving (baye).</t>
+  </si>
+  <si>
+    <t>Translation:
+Osee said, “Akua, don’t I have any of this?”
+Footnote:
+1. Literal Translation Mapping:
+ • “Osee” – This is a personal name; here it functions as the speaker’s identifier.
+ • “Akua” – Another personal name used to directly address the listener.
+ • “me nni” – Literally “I do not have.”
+ • “eto yi” – “eto” refers to “this” or “this thing,” with “yi” serving as a demonstrative marker (“this”).
+ • “bi” – Means “any” or “a bit,” suggesting a quantity or part of something.
+ Overall, the literal mapping renders: “Osee, Akua; I do not have this any?”
+2. Cultural Context:
+ In Akan conversation, names are often used directly to capture attention and show respect. The phrasing “me nni eto yi bi?” reflects a familiar, informal style of speech where the speaker (Osee) questions his possession or involvement with something in a direct manner. This style is common in everyday discussions and storytelling in Akan culture, where subtle inquiries might be made about responsibility, ownership, or participation using simple, direct language.
+3. Translation Clarification:
+ The translated sentence maintains the conversational tone of the original. “Osee said” introduces the spoken remark, and the question “don’t I have any of this?” is a faithful interpretation that captures both the literal meaning and the implied nuance of surprise or inquiry. The translation avoids overly literal word-for-word rendering in favor of a natural, idiomatic English expression that clearly conveys the original intent.</t>
+  </si>
+  <si>
+    <t>Translation:
+"And Ananse pulled out the rope, and Akua’s daughter chopped off her head in one swift stroke."
+Footnote:
+1. Literal Translation Mapping:
+ • “Na” – "And" (a connector indicating sequence or simultaneity)
+ • “Ananse” – "Ananse" (the well-known spider trickster figure in Akan folklore)
+ • “atwe” – "pulled out" (derived from the verb for drawing or extracting)
+ • “homa no” – "the rope" (with “homa” interpreted here as “rope” and “no” as the definite article “the”)
+ • “na” – "and" (again linking the two actions)
+ • “Akua Ba no” – "Akua’s daughter" (literally “Akua’s child,” commonly understood as a girl)
+ • “abo” – "chopped off" (from a verb meaning to cut or strike sharply)
+ • “ne tiri” – "her head" (“tiri” meaning “head” with “ne” indicating possession, “her”)
+ • “nko” – "in one swift stroke" (an intensifier suggesting the action was done singularly, completely)
+2. Cultural Context:
+ Ananse is a central character in Akan and wider West African folklore, known for his cunning and trickery. His actions often carry both literal and symbolic meanings. The mention of Akua’s daughter invokes familiar naming conventions and relationships in Akan storytelling. Such lines are sometimes embedded in proverbs or folktale summaries that emphasize clever, decisive actions or ironic twists in fate. The description of a rapid, singular action (“nko”) reflects cultural values of decisiveness and the clear-cut resolution of a conflict or problem.
+3. Translation Clarification:
+ The translation aims to capture the narrative punch of the original Akan line. “Pulled out the rope” is a direct rendering of “atwe homa no,” suggesting the initiation of a significant action, while “chopped off her head in one swift stroke” conveys both the literal act and its metaphorical sharpness. The phrasing “in one swift stroke” is used to retain the emphasis of “nko,” indicating that the act was done cleanly and decisively. This rendering strives to maintain both the imagery and the rhythmic balance typical in Akan oral tradition.</t>
+  </si>
+  <si>
+    <t>Translation:
+“The dwarfs called their sibling Balm and said, ‘I have none.’”
+Footnote:
+1. Literal Translation Mapping:
+ • Mmoatia – “dwarfs” or “little ones” (mythical beings in Akan folklore)  
+ • ka – “said”  
+ • kyeree – “called” or “addressed”  
+ • onua – “sibling” (a term of close kinship or endearment)  
+ • Balm – a proper name used in the narrative  
+ • se – “saying” or “that”  
+ • Ose – “he/she said,” with the pronoun “me” following indicating the speaker  
+ • me – “I”  
+ • nni – “do not have”  
+ • bi – “any”  
+2. Cultural Context:
+ In Akan folklore, “mmoatia” refers to mythical dwarfs or small supernatural beings, often depicted as playful or wise. Their use in storytelling is common in conveying moral lessons, mysteries of nature, or humorous situations. The term “onua” not only means sibling but can also express a deep sense of community and kinship, highlighting familial bonds. The name “Balm” appears to be used as a specific identifier, though its origin in the text may blend traditional storytelling with modern influences. The phrase “me nni bi” is a succinct way of expressing a lack or absence, fitting within many narrative contexts where characters confront shortages or missing elements, often symbolizing broader themes in the story.
+3. Translation Clarification:
+ The English translation maintains the conversational and folkloric tone of the original Akan text. The structure “The dwarfs called their sibling Balm and said…” preserves the direct address inherent in the Akan language, and the reported speech “I have none” corresponds directly with “Ose me nni bi.” Each element of the sentence has been mapped carefully to ensure that both the literal meaning and the cultural significance are conveyed accurately, while also providing clarity for readers who may not be familiar with Akan linguistic or cultural nuances.</t>
+  </si>
+  <si>
+    <t>Translation: Osee said, "Eat some."
+Footnote:
+1. Literal Translation Mapping:
+   - "Osee" remains the name of the speaker.
+   - "Di" directly translates as "eat."
+   - "bi" translates literally as "some."
+   - "e" is a particle that adds emphasis or a soft imperative tone, common in Akan commands.
+2. Cultural Context:
+   - In Akan culture, offering food and inviting others to eat is a gesture of hospitality and communal sharing. The phrase reflects the importance of community, generosity, and caring for one another. Using such direct yet polite imperatives mirrors everyday social interactions where elders or hosts kindly encourage guests to partake.
+3. Translation Clarification:
+   - The sentence is a straightforward invitation to eat, rendered in a way that is both commanding and courteous. While the literal translation is "Eat some," the added particle "e" softens the command, aligning with the friendly, inclusive tone typical in Akan social settings.</t>
+  </si>
+  <si>
+    <t>Translation:
+After he finished the meal, he lay down.
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Na” – Translated as “After” or “And then,” indicating a sequence of events.
+ • “odii” – Means “he ate” (past tense of “to eat”).
+ • “aduane” – Means “food” or “meal.”
+ • “no” – The definite article “the.”
+ • “wieye” – Derived from “wie,” meaning “finish,” with “-ye” emphasizing the completion; hence “finished completely.”
+ • The second “na” – Again indicates a connected sequence, “and then.”
+ • “odaa” – Means “he lay down” (past tense of “to lie”).
+ • “n’ase” – Literally “on his stomach” or “in his place,” specifying the position in which he lay down.
+2. Cultural Context:
+ In Akan culture, meals are often enjoyed slowly and are followed by rest. The act of lying down after eating can signify satisfaction, relaxation, or even a customary practice of resting to aid digestion. This narrative reflects a natural shift from the act of eating to a moments’ pause, capturing a common rhythm of daily life in Akan communities.
+3. Translation Clarification:
+ • “Finished the meal” is used to capture the completed action described by “odii aduane no wieye,” emphasizing that the meal was not only eaten but entirely finished.
+ • “Lay down” translates “odaa n’ase” to clarify that he assumed a reclined, resting position after his meal. Although “n’ase” can have nuances relating to body position (often “on his stomach”), the translated phrase is intended to convey the general sense of resting that follows a meal.
+ • The overall structure ties the sequence of events smoothly, preserving both the literal meaning and the cultural sentiment expressed in the original Akan text.</t>
+  </si>
+  <si>
+    <t>Translated Text:
+“No need to reply to thanks.”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Oda” – The subject here refers to the person or entity being thanked.
+ • “n’ase” – Literally means “of thanks” or “gratitude.”
+ • “ommua” – Means “does not answer” or “does not respond.”
+ When combined, the literal mapping reads as “The one of thanks does not answer,” indicating that the recipient of thanks is not expected to respond further.
+2. Cultural Context:
+ In Akan culture, expressions of gratitude are given with sincerity and are understood to be complete in themselves. It is culturally expected that when someone says “thank you,” the recipient simply acknowledges it without feeling the need to reciprocate verbally with additional thanks. This reflects values of humility and natural courtesy where gratitude is seen as an intrinsic and self-contained exchange rather than a call for a response.
+3. Translation Clarification:
+ The English translation “No need to reply to thanks” captures the proverb’s underlying social norm—that when thanks are offered, a further reply is unnecessary. Instead of engaging in a reciprocal verbal exchange, the acknowledgment of gratitude is sufficient. This is similar in spirit to the common English response “Don’t mention it,” emphasizing that the act of thanking is its own reward and does not require a return gesture.</t>
+  </si>
+  <si>
+    <t>Translation:
+“And the little sprites said to their sibling, ‘When I give thanks, there is no reply.’”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • Na – “And” or “Then”; introduces the next statement.
+ • Mmoatia – “the little sprites” or “little ones,” referring to small, fairy-like beings in Akan folklore.
+ • no – A definite marker here, emphasizing the group.
+ • ka – “said.”
+ • kyeree – “called out to” or “addressed,” indicating an act of speaking directly.
+ • onua – “sibling” or “kin,” implying a close familial or communal bond.
+ • se – “saying,” used to introduce the quoted speech.
+ • “Meda n'ase a, ommua.” – “Meda n'ase” literally means “I give thanks” (a common expression of gratitude), and “ommua” means “he does not reply” or “there is no response.”
+2. Cultural Context:
+ The line comes from Akan folklore in which small, supernatural beings (mmoatia) often interact with one another or with human characters in stories that carry moral and societal lessons. The mention of gratitude (“Meda n'ase”) is a culturally significant polite expression, highlighting the value placed on courtesy and reciprocal communication. However, the unexpected response (“ommua”)—or lack thereof—serves as a narrative device to illustrate themes such as unreciprocated courtesy or to provoke thought about social interactions and expectations within the community.
+3. Translation Clarification:
+ The phrase “Meda n'ase a, ommua” is rendered as “When I give thanks, there is no reply” to clearly convey that, despite the act of showing gratitude, the expected reciprocal acknowledgment is missing. This translation captures both the literal meaning and the implied irony or caution embedded in the original folklore message. It emphasizes that in some interactions, even polite gestures like giving thanks may go unreturned—a common thematic element used to reflect on social values and behaviors.</t>
+  </si>
+  <si>
+    <t>Translation:
+"The little people’s sibling said, 'The stone is dark.'"
+Footnote:
+1. Literal Translation Mapping:
+ • Mmoatia – Refers to “little people” or “fairy-like beings” found in Akan folklore.
+ • no – A definite article linking “mmoatia” to what follows (“the”).
+ • nua – Means “sibling.”
+ • ka – Translates as “said.”
+ • kyeree – Can be understood as “called out” or “revealed” in speech.
+ • nose – Functions as an interjection or a connector in the sentence (rendered idiomatically in English without a direct one-word equivalent).
+ • Bo – Means “stone.”
+ • no – Again, the definite article “the.”
+ • sum – Means “dark.”
+2. Cultural Context:
+In Akan folklore, mmoatia (little people) are often seen as magical or mystical beings with powers or wisdom beyond the ordinary. Invoking a “sibling” of these creatures gives the phrase a familial and intimate quality, suggesting insider knowledge or a hidden message among the supernatural. The reference to a “stone” and its darkness could be metaphorical, hinting at mystery, hidden dangers, or qualities that are not immediately apparent. Such imagery is common in Akan oral traditions and proverbs, where everyday objects (like a stone) are imbued with symbolic meaning.
+3. Translation Clarification:
+The translation strives to maintain the original structure while adapting culturally specific terms. “Mmoatia” is rendered as “little people” to evoke the folklore tradition, and “nua” as “sibling” preserves the familial nuance. The phrase “kyeree nose” is interpreted as a way of calling attention or emphasizing what is being stated, and thus is seamlessly incorporated into the dialogue in English. Finally, “Bo no sum” is directly translated to “the stone is dark,” keeping the literal meaning intact while also allowing for potential symbolic interpretations that resonate with Akan cultural expressions.</t>
+  </si>
+  <si>
+    <t>Translation: "Well done!"
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • Na – A particle often used to link or emphasize a concluding remark.
+ • wabo – Derived from the verb “bɔ” (to hit or do); with the perfect tense prefix “wa-,” it means “you have hit/done.”
+ • pa – An adjective meaning “good” or “well.”
+2. Cultural Context:
+ In Akan expressions, physical actions like “hitting” are commonly used as metaphors. Saying someone “has hit well” figuratively praises their performance or success at a task. It is a friendly, informal way to commend someone, conveying both encouragement and acknowledgment of effort, much like saying “great job” or “well done” in English.
+3. Translation Clarification:
+ While a word-for-word translation might read “And you have hit well,” the idiomatic meaning is one of praise. The English equivalent “Well done!” best captures the intended congratulatory tone in everyday Akan conversation.</t>
+  </si>
+  <si>
+    <t>English Translation:
+"And his hand has touched it."
+Footnote:
+1. Literal Translation Mapping:
+ • Na    = "And" (serving as a conjunction, linking the statement with previous context)
+ • ne nsa  = "his hand" ("ne" denotes possession, and "nsa" means hand)
+ • aka   = "has touched" (derived from the verb "ka" which in this context conveys the action of touching or reaching)
+ • ho    = "it" (referring to the object or matter at hand)
+2. Cultural Context:
+ In Akan language and culture, references to the "hand" often carry symbolic significance. The hand is a metaphor for action, involvement, or influence. Saying someone’s hand has touched something implies not just physical contact but also a form of intervention or connection. This phrase can be used in storytelling or proverbs to indicate that a person has had a direct or meaningful impact on a situation.
+3. Translation Clarification:
+ The translation "And his hand has touched it" is rendered in a way that preserves its metaphorical nuance. Although it literally describes physical contact, in many Akan expressions the phrase may imply influence, interference, or the asserting of control over a matter. Depending on the broader context, the phrase might not refer to an actual touch but rather to the act of being involved or leaving one’s mark.</t>
+  </si>
+  <si>
+    <t>Translation: He told his sibling, "I had a hand in it."
+Footnote:
+1. Literal Translation Mapping:
+   - "Oka" translates as "he/she said."
+   - "Kyeree" implies that he addressed or spoke to someone.
+   - "Onua" means "sibling" or a close kinsman.
+   - "Se" functions as "that" or "saying."
+   - "Me nsa aka ho" breaks down into "me" (my), "nsa" (hand), "aka" (has touched/has been involved with), and "ho" (it/that), literally rendering as "My hand has touched it."
+2. Cultural Context:
+   - In Akan expressions, references to one's hand often symbolize involvement or participation. Saying one’s “hand has touched” something implies that the speaker had a direct role or influence in the matter. This is a common idiomatic way to acknowledge responsibility or to hint at involvement in what might usually be a discreet or sensitive issue.
+   - The use of "onua" refers to a family member or a person of close relational ties, emphasizing the trust or shared understanding in the conversation.
+3. Translation Clarification:
+   - Although the direct rendering is "My hand has touched it," the idiomatic meaning in Akan is better captured by "I had a hand in it." This translation conveys not just the literal physical reference to the hand, but also the implied involvement or participation.
+   - The sentence overall indicates that the speaker is confirming their active participation or involvement in whatever matter is being referenced, using a culturally rich, metaphorical expression.</t>
+  </si>
+  <si>
+    <t>Translation:
+Osee said, “Take the one that remains and add it to the sum again.”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • Osee – A speaker’s name or a way to indicate “he said.”
+ • Fa – “Take” (an imperative instruction).
+ • bako – A shortened form of “baako,” meaning “one.”
+ • a aka – “that remains” or “the remaining one.”
+ • bo – “add” (the command here is to combine or count with).
+ • no – “it.”
+ • sum – Refers to “the sum” (the total in an arithmetic sense).
+ • bio – “again.”
+Literal word‐by‐word this renders as “Take the one that remains, add it to the sum again.”
+2. Cultural Context:
+ In Akan expression, proverbs and sayings frequently use numerical imagery and arithmetic terminology to impart wisdom. This phrase is an example of how everyday activities—like counting or summing—serve as metaphors for thoroughness in life. The instruction underlines the importance of not neglecting even the smallest part; in both numerical accounts and life’s affairs, every little element matters. This reflects the Akan cultural value of careful attention to detail and completeness, whether in practical matters or moral lessons.
+3. Translation Clarification:
+ Although the text features arithmetic terms (like “one,” “sum,” “add”) that might seem strictly mathematical, they serve a broader metaphorical purpose. “Take the one that remains” emphasizes inclusion of every remnant, while “add it to the sum again” reinforces the idea that nothing should be omitted when coming to a final total. In translating, “bo” was interpreted as “add” to maintain this dual literal and figurative sense—both commanding a simple arithmetic action and symbolically encouraging the careful accumulation of all parts in life’s endeavors.</t>
+  </si>
+  <si>
+    <t>Translation:
+“He hit the nail on the head! And he even added something extra to it.”
+Footnote:
+1. Literal Translation Mapping:
+ • Na – “And”
+ • ode – “he does” (literally, “he uses” or “with it”)
+ • boo – “hit” (the act of striking)
+ • no – “the” (referring to the object)
+ • pa – “well” or “properly”
+ • na – “and”
+ • 'yi – “added” (derived from the verb meaning “to add” or “to bring forth”)
+ • no so – “to it” (with the pronoun referring back to the object)
+ • aka ho – “something extra” (literally, “attached to it” or “added on to it”)
+2. Cultural Context:
+ In Akan rhetoric, the idea of “hitting” something correctly reflects not just a successful action but an adept or precise execution. The expression echoes common Akan proverbs where getting something “right” is celebrated. Furthermore, the added element in the second sentence underscores the value of not only doing something well but enhancing it—an admired trait in many Akan cultural narratives that prize both competence and embellishment.
+3. Translation Clarification:
+ The idiom “hit the nail on the head” is used to convey that someone has done something exactly right—a rendering of “Na ode boo no pa!” into a familiar English expression. The continuation “And he even added something extra to it” translates “na 'yi no so aka ho,” capturing the nuance of going beyond mere adequacy by adding an extra, valuable touch.</t>
+  </si>
+  <si>
+    <t>Translation:
+"And the fairies said to their kin, 'My two hands have joined in.'"
+Footnote:
+1. Literal Translation Mapping:
+ • Na – "And"
+ • Mmoatia – "fairies" or "little ones" (referring to mythic, fairy-like beings)
+ • ka – "said"
+ • kyeree – "called" or "summoned"
+ • onua – "kin" or "relative" (a term expressing familial closeness)
+ • se – "that" or used to introduce direct speech
+ • Me – "my"
+ • nsa – "hands"
+ • mmienu – "two"
+ • aka ho – "have joined in" or "are attached to it"
+ The literal word-for-word translation would read: "And the fairies called to their kin, 'My two hands have joined in.'"
+2. Cultural Context:
+ Akan folktales and proverbs often feature figures like the mmoatia—mythical, fairy-like beings—who embody traits of magic, resourcefulness, or communal support. In this context, "onua" (kin/relative) reinforces the spirit of togetherness and solidarity prevalent in Akan culture. The reference to "two hands" symbolizes the ability to contribute and work together, a common metaphor in many African cultures that extols communal effort and active participation.
+3. Translation Clarification:
+ While the direct translation is quite literal, the phrase carries idiomatic and symbolic meaning. "My two hands have joined in" implies not only physical participation but also a wholehearted commitment to help or be involved. The translation thus preserves both the literal content and the idiomatic expression of participation and unity inherent in the original Akan text.</t>
+  </si>
+  <si>
+    <t>Translation: Osee said, “Take your dead body away.”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Osee” – This is the speaker’s name (or an appellation) and is rendered directly as “Osee.”
+ • “Fa” – Literally means “take” (an imperative command).
+ • “w’afu” – A contraction of “wo afu,” where “wo” means “your” and “afu” is understood to refer to a corpse or what remains after death. Thus, “w’afu” literally becomes “your corpse” or “your dead body.”
+ • “sum” – Here the term completes the command. While “sum” can carry additional connotations in Akan, in this context it functions to direct the removal or taking away of the corpse.
+ • “no” – A definite article equivalent to “the,” pointing specifically to the corpse in question.
+2. Cultural Context:
+ In Akan expression, using death imagery is not uncommon and often serves as a powerful metaphor. Commands such as this one can be idiomatic, indicating finality or calling attention to the state of something (or someone) that is, metaphorically speaking, “dead.” Saying “Take your dead body away” might be used to urge someone to remove evidence of failure, leave behind what is no longer useful, or even to dismiss a person whose actions are considered lifeless or unproductive. The stark language reflects a cultural affinity for vivid imagery in moral or admonitory speech.
+3. Translation Clarification:
+ The translator has chosen “dead body” for “w’afu” to capture both the literal reference to a corpse and the metaphorical weight it carries in Akan proverb-like expressions. “Take” preserves the imperative tone of the original command. Although “sum” can have layered meanings, in this rendering it is understood contextually to mean “remove” or “carry away,” aligning with the overall command. This rendering aims to balance a literal word-for-word translation with the need to convey the cultural connotation behind the original Akan phrasing.</t>
+  </si>
+  <si>
+    <t>Translation: "He who harbors darkness, his hand will eventually show itself."
+Footnote:
+1. Literal Translation Mapping:
+ • “Ode” – Literally signifies “the one who possesses” or “one who carries.”
+ • “sum” – Translates directly as “darkness.”
+ • “no” – The definite article, “the.”
+ • “na” – A conjunction meaning “and.”
+ • “n'afu” – Literally “his hand” (where “afu” denotes “hand”).
+ • “aka ho” – Means “has attached itself to” or “has become evident at.”
+2. Cultural Context:
+ In Akan proverbs, darkness often symbolizes secretive or morally dubious actions, while the hand represents deeds or actions. The proverb cautions that no matter how much one may try to conceal wrongful behavior (symbolized by darkness), one’s actions (the hand) will eventually betray or reveal the truth. This reflects a common theme in Akan moral teachings: the inevitability of accountability for one’s deeds.
+3. Translation Clarification:
+ The translation “He who harbors darkness, his hand will eventually show itself” is an interpretative rendering that captures the proverb’s warning that unethical or secret actions cannot remain hidden forever. The “hand” metaphorically stands for the actions one takes, implying that these actions will ultimately expose one’s inner nature, regardless of attempts to conceal it.</t>
+  </si>
+  <si>
+    <t>Translation:
+"And Ananse was about to tie him up; he said, 'Fool, I've got you—I’m taking you to fetch Anyankonsem.'"
+Footnote:
+1. Literal Translation Mapping:
+ • Na – “And”
+ • Ananse – The name of the legendary spider-trickster in Akan folklore
+ • baye – A form of “bayɛ,” meaning “was about to do” or “did enact” (indicating his deliberate action)
+ • na – “and”
+ • obe kyekyeree no – “he would tie him up” (with “kyekyeree” meaning “to bind”)
+ • osee – “he said”
+ • Kwasea – “Fool” or “Idiot”
+ • m'anya wo – Literally “I have caught you” (from “anya” meaning “to catch/get” and “wo” meaning “you”)
+ • me de wo ko gye – “I’m taking you to fetch” or “I will use you to claim” (with “gye” implying the act of fetching or obtaining)
+ • Anyankonsem – A proper noun that carries cultural significance (it can refer to a particular prized object, wisdom, or even a storytelling motif within the Ananse narratives)
+2. Cultural Context:
+ Ananse is one of the most celebrated figures in Akan folklore, renowned for his cleverness and trickery. His actions—often involving elaborate schemes like binding or outsmarting others—serve as both entertainment and moral lessons about wit, mischief, and the consequences of foolish behavior. The term “Anyankonsem” in the oral tradition may not have a direct equivalent in English; it is steeped in cultural nuance and might refer to something emblematic, such as a form of wisdom, treasure, or even a euphemistic expression linked to Ananse’s exploits in various folk tales.
+3. Translation Clarification:
+ Some expressions in the original Akan text, such as “baye” and “obe kyekyeree no,” are idiomatic and indicate imminent action rather than a literal present action. Similarly, “Anyankonsem” is treated as a proper noun, retaining its cultural essence without an exact English counterpart. The translation balances a literal word-for-word rendering with the need to respect and preserve the mythological and folkloric significance embedded in the original language.</t>
+  </si>
+  <si>
+    <t>Translation: And he/she went home.
+Footnote:
+1. Literal Translation Mapping:
+   - Na: Translates as “And then” or “So”, serving as a narrative connector.
+   - ode: A form of the verb indicating action; here it functions to imply “went” or “took” in context.
+   - koo: A variant of “kɔ,” which means “to go” or “went.”
+   - 'fie: Means “home” or “house.”
+2. Cultural Context:
+   - The use of “Na” in Akan storytelling is common for continuing a narrative sequence, linking events together. It sets the tone for a transition, much like phrases in English that indicate a change in time or action. In Akan culture, references to “fie” (home) carry deep connotations of belonging, safety, and identity, emphasizing the importance of home in one’s life.
+3. Translation Clarification:
+   - While the pronoun is not explicitly stated in the original text, contextually it implies “he” or “she,” so “And he/she went home” is used. The combination “ode koo” is an idiomatic expression in Akan that succinctly communicates the action of going, so the translation opts for “went” rather than a more literal word-for-word translation that might mislead the reader.</t>
+  </si>
+  <si>
+    <t>Translation:
+“Then, when Ananse called out to him, Ya Nsia said, ‘Get up, let us go; I won’t have you join these little ones—go instead and collect (or enjoy) Anyankom’s tales!’”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • Na – “Then” or “And”
+ • Ananse – The well-known spider trickster from Akan folklore
+ • ka – “said” or “spoke”
+ • kyeree oni – “called (or summoned) you”—with “kyerɛ” meaning “to show/invite” and “oni” addressing the person
+ • Ya Nsia se – “Ya Nsia said” (Ya Nsia being another character)
+ • Sore – “Get up” or “Rise”
+ • ma yen ko – “let us go”
+ • me mfa wo nka – “I will not have you join (or be counted among)”
+ • Mmoatia yi ho – “with these little ones” (referring to small, sprite-like beings)
+ • nko gye – “but instead go get/collect” (or “go enjoy”)
+ • Anyankonsem – “Anyankom’s tales” (with “sem” indicating talk or narrative; Anyankom likely refers to a mythic or revered figure’s stories)
+2. Cultural Context:
+ The passage draws on familiar figures from Akan folklore. Ananse, the trickster spider, is one of the most iconic characters known for his cunning and wisdom. Ya Nsia is another persona within the folklore tradition who interacts with Ananse. The reference to “Mmoatia” evokes images of diminutive, fairy-like beings common in many African folk narratives. By instructing someone not to join these “little ones” and instead pursue “Anyankom’s tales,” the text reflects themes of proper company, the value of tradition and storytelling, and possibly a moral or humorous lesson about associating with the right kind of people or narratives.
+3. Translation Clarification:
+ Some phrases in Akan carry layered meanings. For instance, “me mfa wo nka Mmoatia yi ho” literally means “I will not have you count/include with these little ones,” where “little ones” can imply beings of lesser status or distractions from one’s purpose. “Anyankonsem” is rendered as “Anyankom’s tales” since “sem” denotes talk or narrative; it suggests that one should instead value and engage with the esteemed or meaningful stories of Anyankom. The rearrangement in English preserves the intent and natural flow of the original while conveying the cultural nuances of Akan storytelling.</t>
+  </si>
+  <si>
+    <t>Translation:
+“He has raised us; go into God’s presence.”
+Footnote:
+1. Literal Translation Mapping:
+ • Omaa – “He/she gave” or “has given”
+ • yen – “us”
+ • so – “on top” or “above”
+ • koo – imperative “go”
+ • Nyame – “God”
+ • ho – “to/into the presence of”
+Combined literally, the line reads: “He has given us on top; go into God’s presence.”
+2. Cultural Context:
+In Akan culture, success and elevation are often seen as blessings from the divine. Acknowledging that one’s elevated status comes from God is common. The phrase implies that the same divine power that has raised or honored the people should continue to be the focus of their reverence and guidance. It reflects a worldview where personal or communal advancement is deeply intertwined with spiritual favor and the importance of maintaining a close relationship with God.
+3. Translation Clarification:
+While a word-for-word rendering might sound awkward in English, the intended meaning is a celebratory acknowledgment of divine favor followed by an exhortation to remain connected to that same divine source. Thus, “He has raised us; go into God’s presence” captures both the gratitude for the elevation and the call to actively seek and dwell in the light of God’s guidance.</t>
+  </si>
+  <si>
+    <t>Translation:
+He said, "God, here are the fairies—and there is my old woman that I remember too."
+Footnote:
+1. Literal Translation Mapping:
+ • Osee – “He said”
+ • Nyame – “God”
+ • Mmoatia – “fairies” (referring to supernatural or diminutive beings in folklore)
+ • ni – a presentative marker roughly meaning “here are”
+ • m'aberewa – “my old woman” (literally “my elderly woman”)
+ • a – a relative clause marker (“who/that”)
+ • me kaye – “I remember”
+ • no – a definiteness marker (“the” or “that”)
+ • nso ni – “also here” or “too”
+2. Cultural Context:
+In Akan culture, invoking “Nyame” (God) situates the statement within a spiritual framework, while “mmoatia” often refers to fairy-like, supernatural beings found in oral traditions and folklore. The term “aberewa” can denote an elderly woman who, in many narratives, carries wisdom or plays a significant role in family and community memory. The combination of these terms reflects an intermingling of the divine, the mythic, and the personal—a common feature in Akan storytelling that enlivens the cultural values and beliefs passed down through generations.
+3. Translation Clarification:
+The translator chose “fairies” for “mmoatia” to capture the imaginative, mysterious qualities of these beings as understood in Akan folklore, rather than a literal “small people.” The phrase “my old woman” is a direct rendering of “m'aberewa”; while it may seem unusual in English, it preserves the original’s personal and familiar tone, hinting at a cherished or significant elder within the narrative. The overall translation strives to remain both faithful to the literal structure of the Akan text and clear in its meaning for an English-speaking audience.</t>
+  </si>
+  <si>
+    <t>Translation:
+“God calls Ko’ntire, Akwam’, Adonten, Gyase, Oyoko, Ankobea, and Kyidom.”
+––––––––––––––––––––––––––––––––––––––––––––––––––––––––––––––
+Footnote:
+1. Literal Translation Mapping:
+ • Nyame – “God”
+ • so – a preposition often rendered as “on” or “by” but here it helps form the verbal phrase “so frɛ” meaning “calls.”
+ • free – coming from the Akan verb “frɛ” (“to call/invite”); rendered here as “calls”
+ • Ko’ntire, Akwam’, Adonten, Gyase, Oyoko, Ankobea, Kyidom – these are proper names or appellations. Each term is rendered as is because it designates a symbolic object or emblem in Akan thought.
+ • ne – “and” (used to join items in a list)
+2. Cultural Context:
+ This line enumerates a series of symbolic names that hold cultural and possibly ritual significance among the Akan. Such lists are common in expressions of authority or spiritual invocation, where each term may represent an aspect of royal regalia, ancestral symbols, or clan emblems. For example, “Oyoko” is not only a name but also identifies one of the major Akan royal lineages, and terms like “Adonten” may refer to regalia elements used in ceremonial contexts. The listing of these names under the calling of “God” emphasizes the divine sanction or spiritual empowerment that underpins the authority of the symbols.
+3. Translation Clarification:
+ A challenge in this translation is that several terms (Ko’ntire, Akwam’, etc.) have deep cultural connotations and historical significance that do not have exact English counterparts. The translator has chosen to retain these terms in their original form while providing a literal translation of the connecting words. “Free” is rendered as “calls” because it derives from the Akan verb “frɛ.” In the cultural context, the phrase is not merely a statement about communication but a ritual invocation where the divine (Nyame) summons these symbolic emblems, each imbued with traditional meaning.
+This careful mapping preserves both the literal wording and the rich cultural layers of the original Akan expression.</t>
+  </si>
+  <si>
+    <t>Below is the English translation followed by an expanded footnote.
+──────────────────────────────
+English Translation:
+Then he stepped forward and proclaimed, “Oh kings, kings in abundance! Let us no longer recite mere fables. For it is Kwaku Ananse—who has so cleverly fixed things in their place! I have claimed him as Mmoboro; I have claimed him as Mmoatia; I have claimed him as Osebo; I have claimed him as Onini; indeed, it is Ananse himself who has set these on display—every one of these qualities now belonging to him.”
+──────────────────────────────
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Na ode too ye'anim se,” – “Then he stepped forward (or addressed the assembly) and said,”
+ • “Ahene akesie akesie aha,” – “Oh kings, kings in abundance!” 
+  – “Ahene” literally means “kings” while “akesie akesie” is a repetitive phrase emphasizing multitude or abundance; “aha” serves as an exclamatory call.
+ • “ye'antimi anto Anyankonsem,” – “Let us no longer recite (or engage in) mere fables.”
+  – “Anyankonsem” refers to fables or traditional tales.
+ • “Kwaku Ananse dee watimi ato;” – “For it is Kwaku Ananse who has so cleverly fixed (or arranged) things in their place!”
+  – “watimi ato” literally means “has been able to set/affix,” suggesting cunning application.
+ • “m'agye no Mmoboro; m'agye no Mmoatia; m'agye no Osebo; m'agye no Onini;” –
+  – “m'agye no” means “I have claimed him” or “I have embraced him as,” with each following name (Mmoboro, Mmoatia, Osebo, Onini) used as an epithet or title.
+ • “ono ara Ananse de oni ato so;” – “indeed, it is Ananse himself who has set these on display (or arranged them).”
+ • “nnooma no nnyina na egu ho yi.” – “Every one of these qualities/things now belongs to him.”
+  – “nnooma” refers to the articles, attributes, or qualities, while “egu ho yi” indicates that they are attached to or inseparable from him.
+2. Cultural Context:
+ • Kwaku Ananse is a central figure in Akan folklore—a cunning spider often celebrated in proverbs and stories for his wit and trickery. 
+ • The names Mmoboro, Mmoatia, Osebo, and Onini are used here as part of a traditional poetic formula. They may represent different facets of Ananse’s character, powers, or legendary exploits. In oral tradition, repeating epithets and listing multiple “claims” serves both as a mark of authority and as a way of reinforcing cultural lore.
+ • The call to “no longer recite mere fables” contrasts traditional storytelling with the claim of a final, definitive version of Ananse’s many aspects. This reflects a performative and authoritative stance common in oral poetry and rituals.
+3. Translation Clarification:
+ • Phrases like “akesie akesie” are rendered as “kings in abundance” to capture both the literal repetition and the emphasis intended in the original Akan. 
+ • “Anyankonsem” was translated as “mere fables” to convey the idea of traditional tales that, while valued, are now being set aside in favor of a definitive narration.
+ • The repeated “m’agye no” (“I have claimed him”) is rendered consistently to emphasize both possession and acknowledgment of the different aspects of Ananse.
+ • Overall, the translation aims to maintain the rhythmic and emphatic quality of the original oral performance while communicating the layered meanings of cultural pride, authority, and the enduring influence of Ananse in Akan tradition.</t>
+  </si>
+  <si>
+    <t>Translation: He said, "You do not approve of him."
+Footnote:
+1. Literal Translation Mapping:
+ • "Osee" – Literally, “he said.”
+ • "Mo" – The plural form of “you,” addressing a group.
+ • "mpene" – Derived from "pene" (to approve or like) with the negation prefix, meaning “do not approve/like.”
+ • "no" – A pronoun referring to “him” (or “it”), usually pointing to a person or object mentioned earlier.
+2. Cultural Context:
+ In Akan communication, concise commands or directives are common, especially during storytelling or communal decision-making. Addressing a group with “Mo” emphasizes that the approval or disapproval is a shared responsibility among the listeners. The use of such direct language reflects cultural norms that value clear guidance in social interactions.
+3. Translation Clarification:
+ The sentence conveys a directive given by someone (an elder, narrator, or leader) instructing the group not to approve of a specific individual or item referenced in the conversation. The imperative form “mpene” explicitly frames the command as a prohibition against showing approval or favor, aligning with the cultural emphasis on community judgment and behavioral expectations.</t>
+  </si>
+  <si>
+    <t>Translation: We say, "Eee!"
+Footnote:
+1. Literal Translation Mapping:
+ • "Ye" – Corresponds to the Akan pronoun for “we.”
+ • "see" – Directly maps to the verb “say” (from "yɛ se" in Akan).
+ • "Eee!" – A phonetic exclamation preserved in the translation, used to express an immediate emotional reaction.
+2. Cultural Context:
+ In Akan speech, expressions like "Eee!" are often used to punctuate a statement or convey feelings such as surprise, dismay, or emphasis. The introductory phrase "We say" can be part of a proverb or a common remark that sets the tone for what follows. This style is typical in oral traditions, where short exclamations carry layers of meaning understood within the cultural context of the language.
+3. Translation Clarification:
+ The translation “We say, 'Eee!'” aims to remain faithful to both the structure and the emotional nuance of the original text. The exclamation "Eee!" is retained as is, because it encapsulates a spontaneous reaction that does not have a direct English equivalent. The rendering of "Ye see" as "We say" captures the introductory function of the phrase in Akan storytelling or conversational expressions.</t>
+  </si>
+  <si>
+    <t>Translation:
+Nyankonpon said, “Kwaku Ananse, because of these few things, I now appoint you with my Divine Proclamation—kose! kose! kose!”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Nyankonpon” – A title for the Supreme God, literally meaning “Great God.”
+ • “see” – Translates simply as “said.”
+ • “Kwaku Ananse” – “Kwaku” is a male day-name (for someone born on Wednesday), and “Ananse” is the legendary spider-trickster featured extensively in Akan folklore.
+ • “efiri nne ekoro yi” – Literally “from these few things”; “efiri” means “because of” or “out of,” “nne” indicates “things” or “words,” “ekoro” signifies something small or few, and “yi” means “these.”
+ • “me de Anyankonsem me kye wo” – Literally “I use my ‘Anyankonsem’ to appoint you;” “me de” means “I use” or “by means of,” “Anyankonsem” is a compound term suggesting “divine words” or “my proclamation” endowed with sacred authority, and “me kye wo” means “I name you” or “I appoint you.”
+ • “kose! kose! kose!” – A repetition functioning as an emphatic incantatory exclamation, its precise meaning is tied to ritual emphasis and is retained to preserve its original force.
+2. Cultural Context:
+ In Akan oral tradition, Ananse is a central folkloric figure renowned for his cunning and wisdom. The use of “Kwaku” not only identifies the day of birth but also culturally situates the character in the Akan naming system, where the day on which one is born carries significant meaning. The statement is framed as a divine pronouncement by Nyankonpon (the Supreme God), reflecting the blend of spirituality and folklore in Akan culture. The term “Anyankonsem” encapsulates the power of sacred, authoritative speech often used in traditional ceremonies. Meanwhile, the repeated “kose!” mimics the rhythmic, magical incantations found in ritual speech, emphasizing the solemnity and binding nature of the command.
+3. Translation Clarification:
+ Certain terms in the original Akan—such as “Anyankonsem” and “kose!”—carry nuanced cultural and ritualistic meanings that resist direct translation. “Anyankonsem” is interpreted as “Divine Proclamation” to convey its authoritative and sacred character, while “kose! kose! kose!” is maintained in its original form to preserve its incantatory impact. The translation aims to retain both the literal meaning and the cultural resonance embedded in the original text.</t>
+  </si>
+  <si>
+    <t>Translation:
+“We have recited it as ‘Anyankonsem’ once again, and we call it ‘Anansesem.’”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • Yammered – Rendered as “have recited”; this term implies the act of telling or recounting.
+ • no – A pronoun meaning “it.”
+ • Anyankonsem – A compound term (from “Anan” meaning “spider” and “konsem” meaning “story/tale”), here used as a name for a traditional folktale.
+ • bio – Translates literally as “again” or “once more.”
+ • na – Means “and.”
+ • ye'mfre – Means “we call” (with “ye” as “we” and “mfre” meaning “call/name”).
+ • no – Again, “it.”
+ • Anansesem – Another compound term, essentially “Ananse’s tale” (Ananse being the famous spider character in Akan folklore).
+2. Cultural Context:
+ In Akan culture, folktales are a vital medium for preserving wisdom, morals, and humor. The character Ananse, the spider, is central to many of these stories, embodying both cleverness and trickery. The terms “Anyankonsem” and “Anansesem” highlight this tradition. By alternating names or reinforcing the title with a slight variation, the storyteller reflects the oral transmission method where tales evolve and adapt over time while maintaining their cultural significance.
+3. Translation Clarification:
+ The translator rendered “Yammered no” as “have recited it” to capture the essence of oral recitation intrinsic to Akan storytelling. Although “Anyankonsem” and “Anansesem” are very similar in meaning, the slight variation in names is preserved to honor the original nuance. The translation aims to be both faithful to the original structure and accessible to an English-speaking audience, ensuring that the layered meaning and cultural resonance of the terms remain evident.</t>
+  </si>
+  <si>
+    <t>Translation:
+“This is my Ananse story that I’ve shared: if it is good, then take it; if it isn’t good, then leave it—don’t just take a little or hold back a little.”
+Footnote:
+1. Literal Translation Mapping:
+ • “M'anansesem” – “My Ananse story”: Refers to a tale told in the Ananse tradition, where “Ananse” is a well-known spider character in Akan folklore.
+ • “a metooye yi” – “that I’ve shared/narrated”: Indicates that the story has been told or recited.
+ • “se eye de o” – “if it is good”: Literally suggesting “if it is useful/beneficial.”
+ • “se ennye de o” – “if it isn’t good”: The contrasting condition implying worthlessness.
+ • “momfa bi nko” – “don’t just take a little”: An instruction not to accept only part of the wisdom.
+ • “na momfa bi mmera” – “nor hold back a little”: Advises against retaining or leaving behind any portion unnecessarily.
+2. Cultural Context:
+ Akan storytelling is rich with proverbs and allegories, and Ananse stories in particular serve as vehicles for moral and practical wisdom. The speaker uses this familiar narrative form to advise the listener on how to receive wisdom—embrace what is truly valuable and discard what is not. The instruction “don’t just take a little or hold back a little” reinforces the cultural expectation that one should apply wisdom wholeheartedly rather than cherry-picking bits of advice for convenience.
+3. Translation Clarification:
+ The Akan expression uses repetition to emphasize complete acceptance or rejection of the advice, rather than only partially applying it. In translating “momfa bi nko, na momfa bi mmera,” care was taken to capture the nuance: it isn’t merely about deciding whether to take something, but rather about doing so fully and not in halves. This reflects a broader value in Akan culture of wholehearted engagement with good counsel and avoiding half measures.</t>
+  </si>
+  <si>
+    <t>o1-mini</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"We didn't see, oh."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ye'** = We
+   - **nse se** = didn't see
+   - **o** = oh
+2. **Cultural Context:**
+   In Akan-speaking communities, the phrase "Ye' nse se, 'nse se o" is often used in conversational settings to express surprise, realization, or acknowledgment of something that was previously unnoticed. The interjection "o" at the end serves to emphasize the speaker's reaction, similar to saying "oh" in English.
+3. **Translation Clarification:**
+   The phrase translates directly to "We didn't see, oh," conveying that the speakers were unaware of or missed something. The addition of "oh" adds an emotional or emphatic layer, indicating a reaction to the realization of not having seen or noticed whatever is being referred to. Depending on the context, it can range from a simple statement of fact to an expression of surprise or mild regret.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"If it pleases the Almighty, they will criticize Ananse's stories."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **SE** = "if"
+   - **'YOYE** = "it pleases" or "it is agreeable"
+   - **A** = "is"
+   - **ANYANKONSEM** = "the Almighty" or "the Supreme Being" (a reference to the supreme deity in Akan spirituality)
+   - **YE** = "they will"
+   - **BE** = "be" or "make"
+   - **FRENO** = "criticize" or "speak against"
+   - **ANANSESEM** = "Ananse's stories" (Ananse being a traditional spider figure in Akan folklore known for his wisdom and trickery)
+2. **Cultural Context:**
+   In Akan culture, **Ananse** is a central figure in folklore, often depicted as a spider and regarded as a symbol of wisdom, storytelling, and cunning. **Ananse stories** (Anansesem) are traditional tales that convey moral lessons, cultural values, and communal wisdom. **Anyankonsem** refers to the supreme deity, embodying ultimate authority and moral standards in Akan spirituality. The phrase underscores the relationship between traditional narratives and divine approval, suggesting that even revered stories are subject to scrutiny within the moral framework established by the Almighty.
+3. **Translation Clarification:**
+   The translated sentence conveys that with the approval or blessing of the supreme deity, criticisms or evaluations of traditional Ananse stories can occur. It reflects the dynamic nature of cultural narratives, where stories are not only preserved but also examined and interpreted in light of spiritual or moral guidelines. This emphasizes the interplay between tradition and religious belief in Akan society, highlighting that cultural expressions are aligned with or accountable to higher spiritual authorities.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+*Kwaku Ananse went on an adventure, but Nyankopon did not allow His children to accompany him.*
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **KWAKU ANANSE**: Kwaku Ananse (a prominent character in Akan folklore, often depicted as a spider and known for his wisdom and trickery).
+   - **na**: and/is
+   - **okoo**: went on/go on an adventure
+   - **Nyankonpon**: Nyankopon (a reverent name for God in Akan culture)
+   - **hose**: did not allow
+   - **omfa**: His children
+   - **'Nyankonsem mma no nto**: "Nyankonsem" refers to "Nyankopon's children," and "nto" means "accompany" or "go along."
+2. **Cultural Context:**
+   - **Kwaku Ananse** is a central figure in Akan mythology, representing wisdom, creativity, and sometimes deceit. His stories are used to convey moral lessons and cultural values.
+   - **Nyankopon** is a supreme deity in Akan belief, embodying ultimate authority and benevolence. The mention of Nyankopon reflects the deep spiritual and religious beliefs within Akan culture.
+   - The interaction between Ananse and Nyankopon in the sentence highlights themes of divine permission and the limits of individual endeavors within the cultural narrative framework.
+3. **Translation Clarification:**
+   - The phrase captures a narrative moment where Kwaku Ananse embarks on an adventure, but Divine providence, represented by Nyankopon, restricts the accompaniment of His children. This implies that while Ananse acts with initiative, there are overarching divine rules or protections in place.
+   - The original Akan sentence uses poetic and culturally specific terminology that references well-known figures and concepts within the Akan tradition. The translation aims to maintain the integrity and intended meaning while making it accessible to English readers unfamiliar with these cultural elements.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+God says, "Can you handle it?"
+**Footnote:**
+1. **Literal Translation Mapping**
+   - **Nyame**: God
+   - **see**: says
+   - **"Wo**: you
+   - **betimi**: can/are able to
+   - **ato**: handle it/do it
+2. **Cultural Context**
+   In Akan culture, invoking "Nyame" (God) signifies invoking ultimate authority and wisdom. Phrases that attribute statements to God often carry weight and are used to provoke reflection or challenge individuals on their capabilities and responsibilities within the community or spiritual life.
+3. **Translation Clarification**
+   While the literal translation is "God says, 'You can handle it?'", it is rendered in natural English as "God says, 'Can you handle it?'" to better capture the interrogative and challenging tone intended in the original Akan. This phrasing emphasizes a direct question about one's ability, aligning with the cultural nuances of accountability and personal responsibility.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse said, "Oh! I can't."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ananse**: Refers to the spider character from Akan folklore, renowned for his wisdom and cunning.
+   - **see**: Translates to "said" in English.
+   - **"Ei!"**: An interjection equivalent to "Oh!" or "Ah!" expressing surprise or frustration.
+   - **metimi**: Means "I can't" or "I am unable."
+   *Combined Translation:* "Ananse said, 'Oh! I can't.'"
+2. **Cultural Context:**
+   Ananse is a pivotal figure in Akan and West African mythology, often depicted as a trickster and a symbol of intelligence and resourcefulness. Stories featuring Ananse are used to impart moral lessons and cultural values, illustrating themes such as cleverness, problem-solving, and the consequences of one's actions. The expression captured in the translation reflects a moment where Ananse expresses a limitation or challenge, which is a common motif in his tales to set the stage for overcoming obstacles through wit.
+3. **Translation Clarification:**
+   While "metimi" directly translates to "I can't," in the context of Ananse's stories, it may imply a deeper sense of challenge or an obstacle that requires a creative solution. The interjection "Ei!" conveys Ananse's immediate emotional response, highlighting his frustration or surprise at the situation. Therefore, the translation not only captures the literal meaning but also the emotional nuance present in the original Akan expression.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+God said, "Akuro and Akantinka, if you are like Kokofu, Bekwai, and Asumengya here, you will not be defeated, and in Kwafwiaban you will triumph."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Nyame**: God
+   - **see**: said
+   - **Akuro akantinka**: Akuro and Akantinka (place names or entities)
+   - **be ye se**: if you are like
+   - **Kokofu, Bekwai, Asumengya aha**: Kokofu, Bekwai, and Asumengya here
+   - **ye'antimi anto**: you will not be defeated
+   - **na wo Kwafwiaban na wo betimi?**: and in Kwafwiaban you will triumph?
+2. **Cultural Context:**
+   - **Akuro, Akantinka, Kokofu, Bekwai, Asumengya, Kwafwiaban**: These are names of towns or regions in Ghana, each with its unique history and significance. Bekwai, for instance, is known for its historical importance in the Ashanti region. Mentioning these places may evoke a sense of pride, unity, or collective resilience among the Akan people.
+   - **Divine Assurance**: The statement reflects a common theme in Akan proverbs and sayings where divine or ancestral guidance provides strength and assurance to communities facing challenges.
+3. **Translation Clarification:**
+   - The sentence conveys a message of encouragement and solidarity. God is assuring the communities of Akuro and Akantinka that by emulating the resilience and strengths of Kokofu, Bekwai, and Asumengya, they will overcome adversity and achieve victory in Kwafwiaban. The translation maintains the original intent, emphasizing unity, persistence, and divine support.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse sees, "What do we owe Ediben?"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ananse**: Refers to the spider, a central figure in Akan folklore known for his wisdom and trickery.
+   - **see**: Translates directly to "sees."
+   - **Ediben**: A proper noun, likely referring to a person, deity, or significant entity within the cultural context.
+   - **na ye to ma?**: Literally means "what do we owe/give to?"
+2. **Cultural Context:**
+   Ananse is a prominent character in Akan stories, symbolizing intelligence and resourcefulness. The mention of "Ediben" suggests a relationship of obligation or respect, possibly towards a deity, elder, or community leader. In Akan culture, acknowledging and fulfilling one's duties to such figures is an important aspect of social harmony and tradition.
+3. **Translation Clarification:**
+   The sentence captures a moment where Ananse is contemplating or questioning the obligations owed to Ediben. While the literal translation aligns closely with the original text, the cultural undertones emphasize themes of duty and respect inherent in Akan societal norms.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+God said, "We do not take children from the Crocodile, the Elephant, the Spirits, or the Mmoboro."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Nyame see,** – "God said,"
+   - **"Ye nto mma fwe gye se,** – "We do not take children from,"
+   - **Aboa Onini,** – "the Crocodile,"
+   - **Osebo,** – "the Elephant,"
+   - **Mmoatia,** – "the Spirits,"
+   - **Mmoboro."** – "the Mmoboro."
+2. **Cultural Context:**
+   In Akan culture, animals and spiritual entities often symbolize various traits, roles, or moral lessons. The **Aboa Onini** (Crocodile) and **Osebo** (Elephant) represent powerful and respected animals within the community, while **Mmoatia** refers to spirits or supernatural beings, and **Mmoboro** could denote specific mythical entities or deities. This statement reflects the Akan worldview that distinguishes humans from both the animal kingdom and the spiritual realm, emphasizing a unique human identity and role in the cosmos.
+3. **Translation Clarification:**
+   The phrase communicates that divine beings (God) reserve the act of adopting or "taking" children exclusively for humans, excluding animals like crocodiles and elephants, as well as spiritual entities such as spirits and Mmoboro. This underscores the belief in human uniqueness and the special relationship between humans and the divine, separate from other creatures and supernatural beings in Akan belief systems.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse said, "I am bringing some baskets with me, my old woman, Nsia, I will include her."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **"Ananse see"** – "Ananse said"
+   - **"Me de"** – "I am bringing"
+   - **"nnooma"** – "baskets" or "sacks"
+   - **"nnyina bi meba"** – "some with me" or "a certain number"
+   - **"m'aberewa"** – "my old woman" (referring to his wife)
+   - **"Nsia"** – A personal name
+   - **"meka ho"** – "I will include her" or "I involve her"
+2. **Cultural Context:**
+   Ananse is a central figure in Akan folklore, often depicted as a spider and renowned for his cleverness and trickery. The mention of "nnooma" (baskets) typically symbolizes carrying provisions or essential items needed for a journey or task. Referring to "m'aberewa" highlights the importance of family or close companions in Akan storytelling. "Nsia" is a common Akan female name, representing a specific individual within the narrative.
+3. **Translation Clarification:**
+   - **"nnooma"**: While it literally means "baskets," in this context, it implies bringing necessary resources or tools.
+   - **"m'aberewa"**: Translated as "my old woman," it refers to Ananse's wife, emphasizing his reliance on her.
+   - **"meka ho"**: Literally translates to "I will include her," indicating Ananse's intention to involve Nsia in his plans.
+   The translation aims to maintain the original meaning while adapting to natural English phrasing, ensuring that cultural nuances are appropriately conveyed.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+God said, "Go and take brae."¹
+---
+¹ **Footnote**
+**1. Literal Translation Mapping**
+- **Nyame**: God
+- **see**: said
+- **Ko**: Go
+- **fa**: take
+- **brae**: *brae* (the exact meaning is context-dependent and may refer to a specific concept or object within Akan culture)
+**2. Cultural Context**
+In Akan belief systems, **Nyame** represents the supreme deity, embodying the ultimate authority and divine will. Commands or statements attributed to Nyame are often foundational to proverbs, moral teachings, and guidance within the community. The phrase "Ko fa brae" may be part of a larger narrative or instructive saying that imparts wisdom or direction.
+**3. Translation Clarification**
+The term **brae** does not have a direct translation in English and may carry specific cultural significance or denote a particular object, concept, or action within the Akan language. Without additional context, "brae" remains ambiguous. It is essential to understand the surrounding conversation or text to accurately interpret its intended meaning.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+"Ananse acted, and he jokingly said, 'Nyankonsem, I want to please you by sacrificing myself, but God says I should not involve Onini, Osebo, Mmoatia, or Mmoboro mmera. When I see, I will use you to communicate with Nyankonpon.'"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ananse baye:** "Ananse acted" or "Ananse did something."
+   - **na oboo oni amanie se:** "and he jokingly said" or "and he spoke in jest."
+   - **'Nyankonsem me pe se me to:** "'Nyankonsem, I want to please you by sacrificing myself."
+   - **na Nyame se me mfa Onini, Osebo, Mmoatia, Mmoboro mmera:** "but God says I should not involve Onini, Osebo, Mmoatia, or Mmoboro mmera."
+   - **na me see, me de wo be ka ho ma ko ma Nyankonpon:** "When I see, I will use you to communicate with Nyankonpon.'"
+2. **Cultural Context:**
+   - **Ananse:** A central figure in Akan folklore, Ananse is often depicted as a spider and serves as a trickster and storyteller. He embodies wisdom, creativity, and cunning, frequently using these traits to overcome challenges or teach lessons.
+   - **Nyankonsem:** Refers to a spirit or deity within the Akan belief system. The term combines "Nyanko," which can denote something related to the Supreme Being, and "sem," meaning spirit or entity.
+   - **Onini and Osebo:** Mythological creatures in Akan folklore. Onini is the python, symbolizing wisdom and patience, while Osebo is the leopard, representing strength and stealth.
+   - **Mmoatia:** These are dwarf-like beings or spirits in Akan mythology, often associated with the wilderness and possessing magical attributes.
+   - **Mmoboro mmera:** Likely refers to specific mythical entities or perhaps sacred places/items within the cultural context, though exact definitions may vary.
+   - **Nyankonpon:** The supreme deity in Akan cosmology, embodying the ultimate power and creator of the universe.
+3. **Translation Clarification:**
+   - **"Sacrificing myself":** The term "me to" can imply a form of self-sacrifice or offering, which aligns with cultural practices of appeasing deities or spirits.
+   - **Entities like Onini, Osebo, Mmoatia, and Mmoboro mmera:** These terms are deeply rooted in Akan mythology and may not have direct English equivalents. They represent specific beings that play unique roles in folklore and religious practices.
+   - **Communication with Nyankonpon:** Indicates a spiritual or divine interaction, suggesting that the speaker intends to engage with the highest deity through the mentioned spirit, Nyankonsem.
+   - **Tone of the Statement:** The use of "jokingly" reflects Ananse's characteristic trickster nature, possibly masking a deeper intention or lesson within his statement.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"Then Ananse asked his wife Aso, 'How difficult will it be for us to obtain a goat?'"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na Ananse**: "Then Ananse"
+   - **bisaa ne ye' Aso se**: "asked his wife Aso that"
+     - **bisaa**: "asked"
+     - **ne ye'**: "his wife"
+     - **Aso**: Proper name of Ananse's wife
+     - **se**: Subordinating conjunction "that"
+   - **"Ebeye den na ye'anya Onini?"**: "'How difficult will it be for us to obtain a goat?'"
+     - **Ebeye den**: "How difficult"
+     - **na ye'anya**: "it will be that we obtain"
+     - **Onini**: "a goat"
+2. **Cultural Context:**
+   - **Ananse**: A central figure in Akan folklore, Ananse is often portrayed as a cunning spider who uses his wit to overcome challenges. Stories of Ananse are used to teach moral lessons and convey cultural values.
+   - **Aso**: As Ananse's wife, Aso represents the domestic and supportive partner in the narrative, often involved in Ananse's schemes and plans.
+   - **Onini (Goat)**: In Akan culture, goats are valuable livestock used for various purposes, including as a source of food, in traditional ceremonies, and as offerings. Obtaining a goat can signify wealth, status, or a means to achieve a particular goal within the story.
+3. **Translation Clarification:**
+   - The phrase **"Onini"** is interpreted as "a goat" based on contextual cues within the sentence. While Akan is a tonal language and certain words can have multiple meanings depending on pronunciation, the context of Ananse discussing obtaining something valuable aligns with the interpretation of "goat."
+   - The structure **"Ebeye den na ye'anya Onini?"** is a direct question posed by Ananse to his wife, reflecting a common conversational pattern in Akan storytelling where characters deliberate on how to achieve their objectives.
+   - Ensuring the proper names and cultural references are accurately represented maintains the authenticity of the translation and preserves the narrative's original intent.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"Then Aso told his teacher, 'Mother is going to go cut the tonton and the demere on it, and take it home.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na** = "Then"
+   - **Aso ka kyeree no se** = "Aso told his teacher that"
+   - **Worlie ko** = "Mother is going"
+   - **twa tonton** = "to cut the tonton"
+   - **na twa demere ka ho** = "and cut the demere on it"
+   - **na fa bra** = "and take it home."
+2. **Cultural Context:**
+   - In Akan culture, tasks such as cutting "tonton" and "demere" are often related to agricultural or household activities. "Tonton" may refer to a type of plant or material used in traditional crafts, while "demere" could denote another plant or tool essential for daily tasks. These activities highlight the roles and responsibilities within the family structure, emphasizing cooperation and contribution to household duties.
+3. **Translation Clarification:**
+   - **"Worlie"** is a term used to refer to "mother," reflecting familial titles in Akan.
+   - **"Tonton"** and **"demere"** are specific terms that may not have direct equivalents in English but are understood within the cultural and contextual framework of the Akan language. They likely refer to particular plants, materials, or tools relevant to the tasks being described.
+   - The sentence conveys a scenario where Aso is informing his teacher about his mother's plans to undertake certain tasks, emphasizing the importance of these activities in their daily life.</t>
+  </si>
+  <si>
+    <t>**Translation:**  
+"And Ananse has left."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na** → "And"
+   - **Ananse** → "Ananse" (a name, referring to the spider deity in Akan folklore)
+   - **de** → "has" (auxiliary verb indicating possession or action)
+   - **baye** → "left"
+2. **Cultural Context:**
+   - **Ananse** is a central figure in Akan folklore, often depicted as a wise and cunning spider. Ananse stories are used to convey moral lessons, cultural values, and traditional wisdom. The departure of Ananse in the sentence could signify the end of a tale, the completion of a lesson, or a transition within a narrative.
+3. **Translation Clarification:**
+   - The word **"Na"** is commonly used in Akan to mean "and," serving as a conjunction to connect clauses or sentences.
+   - **"De baye"** is a verbal phrase where "de" functions as an auxiliary verb translating to "has," and "baye" translates to "left." Together, they form the present perfect tense "has left."
+   - The translation maintains the proper noun "Ananse" untranslated to preserve the cultural reference and significance associated with the character.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"Then Aso said, 'Take and go to the river.'"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na**: "Then" or "And"
+   - **Aso**: A personal name, "Aso"
+   - **see**: "said"
+   - **Fa**: "Take"
+   - **ko**: "go"
+   - **asuom**: "the river"
+2. **Cultural Context:**
+   - In Akan culture, rivers (asuom) are vital sources of water for drinking, farming, and fishing, and they often hold spiritual significance. Instructions to go to the river may be related to daily activities, rituals, or community responsibilities. The use of direct speech reflects the oral tradition prevalent in Akan storytelling and communication.
+3. **Translation Clarification:**
+   - The word "see" in the original text translates to "said" in this context, indicating reported speech. While "asuom" literally means "the river," its significance can vary based on the narrative, potentially implying more than just a physical location. Thus, the translation prioritizes conveying the intended meaning and cultural nuances over a word-for-word rendering.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"And Ananse used the rope and said, 'It is the rope, it is not the rope; if you pull it, it is the rope.'"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na**: And
+   - **Ananse**: Ananse (a folkloric spider character known for his wisdom and trickery)
+   - **de**: used
+   - **ekoro no**: the rope
+   - **osee**: he said
+   - **"Esene no, ensene no; woboa, esene no."**:
+     - **Esene no**: It is the rope
+     - **ensene no**: it is not the rope
+     - **woboa**: if you pull it
+     - **esene no**: it is the rope
+2. **Cultural Context:**
+   - **Ananse's Role:** In Akan folklore, Ananse the spider is a central figure known for his intelligence, cunning, and ability to solve problems through trickery and wisdom. Stories involving Ananse often convey moral lessons or explain natural phenomena.
+   - **Symbolism of the Rope:** The rope in this context can symbolize complexity, connection, or the intertwining of ideas. Ananse using the rope and making statements about its nature reflects his characteristic way of challenging perceptions and encouraging deeper understanding.
+3. **Translation Clarification:**
+   - **Contradictory Statements:** The phrase "It is the rope, it is not the rope" highlights a paradox or duality, a common theme in Ananse stories where appearances may be deceptive, and understanding requires looking beyond the surface.
+   - **Conditional Action:** The latter part, "if you pull it, it is the rope," suggests that the true nature or purpose of the rope is revealed only when it is engaged with or acted upon. This emphasizes the idea that knowledge or truth may require active effort to uncover.
+   - **Overall Meaning:** The statement encapsulates the essence of Ananse's teachings—challenging listeners to think critically and discern the underlying truths behind apparent contradictions.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse said, "He is the one who sleeps."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ananse see** = *Ananse said*
+   - **"Ono na oda doo no."** = *"He is the one who sleeps."*
+     - **Ono** = *He/She/It (third-person singular pronoun)*
+     - **na** = *is*
+     - **oda** = *to sleep*
+     - **doo** = *completely/deeply*
+     - **no** = *the*
+2. **Cultural Context:**
+   - **Ananse** is a central figure in Akan folklore, often portrayed as a spider character renowned for his wisdom, cunning, and sometimes deceptive nature. Stories featuring Ananse are used to convey moral lessons and cultural values.
+   - The statement "He is the one who sleeps" could reference a moral lesson about diligence, responsibility, or the consequences of inaction, depending on the specific folktale from which it originates.
+3. **Translation Clarification:**
+   - While the literal translation is straightforward, the phrase may carry deeper meanings within Akan culture. It could symbolize laziness, lack of awareness, or vulnerability, especially in the context of Ananse's stories where characters often face challenges due to their traits. Understanding the specific folktale or proverb would provide greater insight into the nuanced implications of the statement.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Onini says, "What?"
+---
+**Footnote:**
+1. **Literal Translation Mapping**
+   - **Onini**: A personal name commonly used in Akan-speaking communities.
+   - **se**: Translates to "says" in English.
+   - **"Aden?"**: A contraction of "adeɛn," meaning "What?"
+2. **Cultural Context**
+   - In Akan culture, names like Onini are often used in dialogues to represent individuals in conversations. The use of "Aden?" is a casual and colloquial way of asking "What?" reflecting everyday speech patterns among Akan speakers.
+3. **Translation Clarification**
+   - The word "se" is interpreted as "says" to convey the act of speaking. Although "see" and "se" may sound similar phonetically, in this context, "se" accurately reflects the intended meaning of verbal expression. Additionally, "Aden?" is understood as a relaxed form of "adeɛn," maintaining the conversational tone of the original text.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse says, "Nye Aso will carry my burden. If this heavy load is greater than your height, then it leads to poverty."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ananse see**: Ananse says
+   - **"Nye Aso na ogye me akyinnyie**: "Nye Aso will carry my burden"
+     - *Nye Aso*: Likely a person's name or a reference to a specific entity
+     - *ogye me akyinnyie*: "will carry my burden" (*ogye* = "will carry," *me* = "my," *akyinnyie* = "burden" or "load")
+   - **se ton-ton yi kyen wo tenten**: "If this heavy load is greater than your height"
+     - *se*: "if"
+     - *ton-ton yi*: "this heavy load" (*ton-ton* implies heaviness or difficulty)
+     - *kyen*: "greater than" or "heavier than"
+     - *wo tenten*: "your height" (*wo* = "your," *tenten* = "tallness" or "height")
+   - **name se oboa**: "then it leads to poverty"
+     - *name*: "then"
+     - *se*: "it is" or "leads to"
+     - *oboa*: "poverty"
+2. **Cultural Context:**
+   Ananse is a central figure in Akan folklore, often depicted as a spider who embodies wisdom, creativity, and sometimes trickery. The mention of "Nye Aso" suggests a trusted individual or entity entrusted with responsibilities. In Akan culture, burdens or challenges (*akyinnyie*) symbolize life's difficulties, while *tenten* (height) can represent a person's strength or capacity to handle such challenges. Poverty (*oboa*) is a significant social concern, indicating the dire consequences of overwhelming burdens without adequate support.
+3. **Translation Clarification:**
+   The proverb conveys a message about the importance of sharing burdens and ensuring that responsibilities are matched to one's capacity. Ananse entrusts Nye Aso with his burdens, implying reliance on others for support. The comparison between the heavy load and one's height underscores the idea that taking on too much beyond one's ability can lead to adverse outcomes like poverty. This emphasizes the value of community support and self-awareness in managing life's challenges.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Onini said, "From abroad, count on me."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Onini see**: "Onini said"  
+     - *"Onini"*: Refers to a mythical serpent in Akan folklore.
+     - *"see"*: Means "said" in this context.
+   - **"Fra bra, be susu me."**: "From abroad, count on me."
+     - *"Fra"* = "From"
+     - *"bra"* = "abroad"
+     - *"be"* = "let" or "allow" (contextually translated as "count on")
+     - *"susu me"* = "count on me"
+2. **Cultural Context:**
+   - **Onini** is a prominent figure in Akan mythology, often depicted as a wise and powerful serpent. Statements attributed to Onini carry significant weight, symbolizing trust and reliability.
+   - The phrase **"Fra bra, be susu me"** underscores a promise of support and dependability, especially relevant in contexts where assistance from afar is emphasized. This reflects the communal and supportive nature inherent in Akan society, where individuals rely on one another, even from distant places.
+3. **Translation Clarification:**
+   - While the literal translation maps directly to "From abroad, count on me," the essence captures a pledge of unwavering support despite physical distance. The term **"be susu me"** is idiomatic, emphasizing trust and reliance, which is culturally significant in Akan interactions. Therefore, the translation conveys not just the words but the underlying assurance of dependability embodied by the mythical Onini.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+"Ode placed the hat on Onini."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ode:** A personal name, serving as the subject of the sentence.
+   - **tonton no:** "The tonton." Here, "tonton" refers to a specific type of hat or headgear, and "no" is the definite article "the."
+   - **too:** Translates to "placed" or "put."
+   - **Onini:** Another personal name, acting as the object receiving the action.
+   - **ho:** Means "on him."
+   *Literal Breakdown:* "Ode the tonton placed on Onini."
+2. **Cultural Context:**
+   - In Akan culture, headgear such as hats often hold significant social and cultural meaning. Placing a hat on someone can symbolize respect, authority, honor, or the bestowal of a particular role or status. The act may occur during ceremonies, rites of passage, or as a gesture of acknowledgment and respect within the community.
+3. **Translation Clarification:**
+   - While the literal translation aligns closely with the original Akan sentence, the cultural nuances are essential for full comprehension. "Tonton" specifically refers to a type of hat that may carry traditional significance, and its placement on "Onini" by "Ode" likely indicates a ceremonial or respectful gesture rather than a mere physical action. Therefore, the English translation captures both the direct action and implies the underlying cultural gesture.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Osee said, "Take care."
+---
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - **Twe** = "tighten" or "pull"
+   - **wo** = "your"
+   - **mu** = "inside" or "self"
+   Combined, "Twe wo mu" directly translates to "tighten your self" or "pull yourself in."
+2. **Cultural Context**:
+   In Akan culture, expressions often use metaphorical language to convey deeper meanings or sentiments. "Twe wo mu" is a common phrase used to express concern, well-wishing, or advice, functioning similarly to how "Take care" is used in English. It reflects a communal emphasis on looking out for one another's well-being.
+3. **Translation Clarification**:
+   While the phrase literally means "tighten your self," the intended meaning is better captured in English as "Take care." This translation conveys the intended message of advising someone to be careful or to look after themselves, aligning with the cultural nuance of the original Akan expression.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"And Onini swept him away, and Ananse placed the net upon him, nwenene! nwenene! nwenene! until he fell asleep."
+---
+**Footnote:**
+*For the Akan line: "Na Onini twe no mu, na Ananse de demere no too no so, nwenene ! nwenene ! nwenene ! na esii tire."*
+1. **Literal Translation Mapping**
+   - **Na** = "And"
+   - **Onini** = "Onini" (a proper noun, likely a character's name)
+   - **twe no mu** = "swept him away" ("twe" = "sweep," "no mu" = "him into it")
+   - **na** = "and"
+   - **Ananse** = "Ananse" (the spider-trickster figure in Akan folklore)
+   - **de** = "with"
+   - **demere no too no so** = "placed the net upon him" ("demere" = "net," "too no so" = "placed it on him")
+   - **nwenene! nwenene! nwenene!** = "nwenene! nwenene! nwenene!" (repeated exclamation; literal meaning unclear)
+   - **na esii tire** = "and then he fell asleep" ("esii" = "fell," "tire" = "asleep")
+2. **Cultural Context**
+   - **Ananse** is a central figure in Akan folklore, representing a cunning and resourceful spider who often uses his wit to overcome challenges or outsmart others. Stories involving Ananse typically emphasize themes of intelligence, trickery, and the consequences of deceit. **Onini** may be a character from a specific folktale, potentially embodying traits that contrast with Ananse's cunning nature. The act of sweeping someone away and ensnaring them with a net aligns with traditional narratives where Ananse traps or manipulates other characters to achieve his goals.
+3. **Translation Clarification**
+   - The term **"nwenene!"** is repeated three times and does not have a direct equivalent in English. It may function as an onomatopoeic expression, a chant, or a culturally specific term that conveys a particular emotion or action within the story. Given its repetition, it likely serves to heighten the dramatic effect of Ananse's entrapment or could be part of a traditional incantation used to immobilize the character. In the absence of a precise translation, the term is preserved to maintain the original's rhythmic and cultural nuances.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse said, "Kwasea, I will use you to obtain Anyankonsem."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ananse**: Refers to the spider, a central character in Akan folklore known for his wit and trickery.
+   - **see**: Translates to "said."
+   - **Kwasea**: A personal name, likely referring to another character in the narrative.
+   - **me de wo ko gye Anyankonsem**:
+     - **me**: "I"
+     - **de wo ko**: "use you"
+     - **gye**: "to obtain" or "to collect"
+     - **Anyankonsem**: A specific term or item within the cultural context.
+2. **Cultural Context:**
+   - **Ananse** is a prominent figure in Akan mythology, often embodying intelligence and cunning. He is frequently involved in stories that teach moral lessons or explain natural phenomena through his adventures.
+   - **Anyankonsem** is a culturally significant term in Akan society. While its direct translation might not have a precise English equivalent, it typically represents an important concept, artifact, or value within the community. It could symbolize something like wisdom, community harmony, or a sacred object, depending on the context of the story.
+3. **Translation Clarification:**
+   - The term **Anyankonsem** is retained in its original form due to its specific cultural significance, which may not have a direct counterpart in English. This preserves the authenticity and nuance of the original message. In narratives where **Anyankonsem** is a central element, additional context from the surrounding text would further clarify its exact meaning and importance.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse took his war to God.
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - *Ananse* – Ananse (a central figure in Akan folklore, often depicted as a spider or a trickster)
+   - *de* – take
+   - *no* – his/it (object marker)
+   - *ko* – war/fight
+   - *maa* – to/give
+   - *Nyame* – God
+   **Word-by-Word Translation:** Ananse takes his war to God.
+2. **Cultural Context:**
+   Ananse is a prominent deity in Akan mythology, embodying characteristics of wisdom, creativity, and cunning. He often engages in complex interactions with other gods, including Nyame, the supreme god. Stories involving Ananse typically explore themes of ingenuity, conflict, and the balance of power between humans and the divine.
+3. **Translation Clarification:**
+   The phrase "Ananse took his war to God" metaphorically represents a conflict or challenge that Ananse brings before the supreme deity, Nyame. In Akan storytelling, such interactions highlight Ananse's role as a mediator between the earthly and divine realms, showcasing his ability to navigate and influence matters beyond human control. The translation maintains the literal elements while conveying the underlying narrative significance of Ananse's actions within the cultural framework.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+"God says, 'My hand is full, there is still more.'[^1]"
+[^1]: 
+1. **Literal Translation Mapping**:
+   - *Nyame*: God
+   - *see*: says
+   - *Me nsa aka*: "My hand has reached" or "My hand is full"
+   - *aka dee aka*: "there is still more" or "something remains"
+2. **Cultural Context**:
+   In Akan culture, the hand often symbolizes one's capacity, effort, and involvement in endeavors. This expression reflects the belief in divine provision and the acknowledgment that while God provides support, there remains a continuous need for human effort and responsibility.
+3. **Translation Clarification**:
+   The phrase "My hand is full, there is still more" captures both the literal meaning and the idiomatic nuance of the original Akan text. It conveys that despite the sufficiency of divine assistance, additional work or resources are necessary, highlighting a partnership between divine help and human action.</t>
+  </si>
+  <si>
+    <t>**Translated Text:**
+Ananse spoke again to his friend, saying, "Aka Mmoboro."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - *Ananse*: Ananse (a prominent figure in Akan folklore, often depicted as a spider or a trickster)
+   - *san*: again
+   - *baye*: spoke/told
+   - *be boo ne*: to his friend
+   - *ye' amanie se*: and said/saying that
+   - *"Aka Mmoboro."*: "Aka Mmoboro."
+2. **Cultural Context:**
+   In Akan folklore, Ananse is a central character known for his wisdom, cunning, and storytelling abilities. The mention of "Mmoboro" refers to the Mooré people, an ethnic group primarily found in Burkina Faso. The phrase "Aka Mmoboro" likely signals a reference or connection to the Mmoboro community, which may hold particular significance within the narrative or cultural exchange being depicted.
+3. **Translation Clarification:**
+   The phrase "Aka Mmoboro" is retained in its original form because it represents a specific cultural or contextual reference that may not have a direct equivalent in English. This ensures the integrity and intended meaning of the original statement are preserved. Depending on the broader context, "Aka Mmoboro" could be a greeting, a code phrase, or a title relevant to the interaction between Ananse and his friend.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+His wife said, "Pull the rope, fetch plenty of water, and go."
+**Footnote:**
+1. **Literal Translation Mapping**
+   - **"Ne yere see"** – "His wife said"
+   - **"Pe towa"** – "Pull the rope"
+   - **"fa nsuo gum'"** – "fetch plenty of water"
+   - **"na fa ko"** – "and go"
+2. **Cultural Context**
+   In Akan communities, fetching water is often a daily responsibility typically assigned to specific family members. The use of a rope ("towa") to draw water from wells or communal water sources is a traditional practice. Ensuring an ample supply of water ("nsuo gum'") reflects the necessity of having sufficient resources for household needs.
+3. **Translation Clarification**
+   The instruction emphasizes not just the act of fetching water but doing so thoroughly ("plenty of water") before departing. This highlights the importance of diligence and responsibility in daily chores within the cultural setting.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+Ananse tried in the bush, saying that Mmoboro was superior, and after taking some water, he poured it over Mmoboro.
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - *Ananse* – The spider, a central figure in Akan folklore known for his cunning and wisdom.
+   - *koo* – Tried or attempted.
+   - *wuram’* – In the bush or forest.
+   - *obefwe se* – He/She says that.
+   - *Mmoboro sen ho* – Mmoboro is superior or above.
+   - *na ofwiee* – And he/She took away or gathered.
+   - *nsuo no bi* – Some of the water.
+   - *na opete guu Mmoboro no so* – And he/She poured it over Mmoboro.
+2. **Cultural Context:**
+   - **Ananse:** In Akan mythology, Ananse the spider is a trickster figure who often engages in clever schemes to achieve his goals. Stories about Ananse are used to convey moral lessons and cultural values.
+   - **Mmoboro:** The term "Mmoboro" may refer to a specific entity, place, or symbolic concept within the Akan culture. It could represent a rival, a challenge, or an obstacle that Ananse is addressing.
+3. **Translation Clarification:**
+   - The sentence portrays Ananse attempting to assert dominance or address a challenge posed by Mmoboro. By gathering and pouring water over Mmoboro, Ananse might be performing a symbolic act, demonstrating superiority, or attempting to overcome an obstacle. The exact interpretation can vary based on the broader narrative or specific cultural references associated with "Mmoboro" in Akan folklore.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+"Ananse finished what was left upon himself and cut a rope to wrap around his head."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ananse** – Refers to the spider character from Akan folklore, renowned for his wisdom and trickery.
+   - **fwiee** – Means "finished" or "completed."
+   - **dee aka** – Translates to "what was left" or "the remaining things."
+   - **guu ono ara so** – Literally "upon himself" or "on his own."
+   - **na otwaa brodee-ahan** – "And he cut the rope."
+   - **de kataa no ti** – "To wrap around his head."
+2. **Cultural Context:**
+   - **Ananse** is a pivotal figure in Akan mythology, symbolizing intelligence, creativity, and resourcefulness. The act of Ananse completing his tasks and tying a rope around his head may reflect common themes in Ananse stories where he prepares for challenges, conceals his identity to execute clever plans, or symbolizes a transformation. Such actions are emblematic of Ananse's role as a mediator between the human and supernatural realms, often using simple tools to achieve complex outcomes.
+3. **Translation Clarification:**
+   - The phrase "de kataa no ti" was carefully translated to "to wrap around his head" to maintain the intended imagery and functionality of the action within the narrative. While "kataa" directly means "cover" or "wrap," in this context, it implies a practical action that Ananse takes, possibly for protection, disguise, or readiness. Ensuring that the translation conveys both the literal action and its potential symbolic significance was essential for preserving the original meaning and cultural nuances of the Akan text.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+"Then he told the Mmoboro, 'With this rain coming, do not burden me here by asking me to carry your load with it, so that you won’t accuse me of using a bowstring to tie myself up.'"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Efei na oka kyeree Mmoboro no se**: "Then he told the Mmoboro that"
+   - **Osuo eba yi**: "this rain is coming"
+   - **ankra mo ha na mo be hyee me toa yim'a**: "do not burden me here by asking me to carry your load with it"
+   - **s'ankra osuo yi emmo mo**: "with this rain"
+   - **mo nfwe se me de brodee ahahan akata me soo?**: "so that you won’t accuse me of using a bowstring to tie myself up?"
+2. **Cultural Context:**
+   - **Mmoboro**: In Akan culture, Mmoboro are traditional spiritual practitioners or diviners who play roles in community decision-making, healing, and guidance. They are often consulted for solutions to personal or communal issues.
+   - **Rain (Osuo)**: Rain in many African cultures, including Akan, symbolizes various things such as fertility, challenges, or the passage of time. It can represent both blessing and adversity depending on the context.
+   - **Bowstring Reference**: The mention of a bowstring metaphorically relates to trust and the binding agreements within the community. Using a bowstring to tie oneself up suggests being bound by obligations or commitments, and the fear of being accused of manipulating these bindings indicates concerns about reputation and integrity.
+3. **Translation Clarification:**
+   - The speaker is addressing the Mmoboro, likely in a context where impending challenges (symbolized by rain) are expected. He is requesting that they not place additional burdens on him during this time, as doing so might lead to misunderstandings or accusations about his intentions or actions.
+   - The phrase about the bowstring emphasizes a desire to maintain trust and avoid any implication that he is exploiting his commitments or relationships for personal gain. This reflects underlying themes of responsibility, trustworthiness, and the importance of clear communication within the community.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"And the Mmoboro say, 'We thank you, Aku, we thank you, Aku.'"
+---
+**Footnote:**
+1. **Literal Translation Mapping**
+   - **Ena**: "And"
+   - **Mmoboro no see**: "the Mmoboro see/say"
+   - **Ye'da**: "We thank"
+   - **w'ase**: "you" (direct address)
+   - **Aku**: "Aku" (a name, potentially referring to a deity or respected individual)
+   - The repetition of "ye'da w'ase Aku" emphasizes the act of giving thanks.
+2. **Cultural Context**
+   - **Mmoboro**: An ethnic subgroup within the Mossi people, primarily residing in parts of Burkina Faso and Northern Ghana. They are known for their rich cultural heritage and traditional practices.
+   - **Aku**: In Akan culture, "Aku" can refer to a deity or a person of high reverence. It embodies notions of gratitude, blessings, and spiritual acknowledgment.
+   - The act of expressing thanks repeatedly is common in ceremonial settings, highlighting the importance of gratitude in Akan traditions.
+3. **Translation Clarification**
+   - While the literal translation is straightforward, the phrase carries deeper cultural significance. It likely occurs within a ritual or communal gathering where expressing gratitude to Aku is a central theme.
+   - The repetition serves to reinforce sincerity and the collective nature of the thanksgiving, indicating that it's a shared sentiment among the Mmoboro people.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"The mmoboro drums never stop beating at night!"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - *Mmoboro no* → "the mmoboro"
+   - *nnyina* → "never"
+   - *tuo* → "stop"
+   - *toa nom'* → "continue to beat"
+   - *fom* → "at night"
+2. **Cultural Context:**
+   - **Mmoboro:** In Akan culture, "mmoboro" refers to a group of traditional drummers or a drumming ensemble. Drumming holds significant importance in Akan ceremonies, celebrations, and storytelling, serving as a means of communication and cultural expression.
+   - **Drumming at Night:** Nighttime drumming can be associated with various cultural activities, including celebrations, rituals, or communal gatherings. The continuous beating of drums signifies ongoing cultural practices and the enduring nature of traditions.
+3. **Translation Clarification:**
+   - The phrase emphasizes the relentless and persistent nature of the drumming, symbolizing unbroken cultural continuity and the vibrant spirit of the community. While a direct translation conveys the literal meaning, the underlying message highlights the importance of tradition and the unceasing rhythm that sustains cultural identity.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"Father Ananse kept silent; Osee said, 'Farmers, I have not recognized you, I will take you to seek Anyankonsem.'"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Agya Ananse:** "Father Ananse"  
+     - *Agya* means "father" or "sir."
+     - *Ananse* refers to the spider deity, a prominent figure in Akan folklore known for his wisdom and trickery.
+   - **tuaa ano:** "kept silent"  
+     - *Tuaa* translates to "closed" or "shut."
+     - *Ano* means "mouth." Together, "tuaa ano" literally means "closed his mouth."
+   - **Osee:** "Osee"  
+     - A proper noun, likely a name of a person or character in the dialogue.
+   - **Nkwaseafuo m'anya mo:** "I have not recognized you, farmers"  
+     - *Nkwaseafuo* breaks down into *nkwase* (possibly "farmers") and *afuo* ("farm" or "field").
+     - *m'anya mo* translates to "I have not recognized you" or "I have not acknowledged you."
+   - **me de mo ko gye Anyankonsem:** "I will take you to seek Anyankonsem."  
+     - *me de mo ko* means "I will take you."
+     - *gye* translates to "seek" or "obtain."
+     - *Anyankonsem* is a reference to a deity or higher power in Akan belief, often synonymous with God.
+2. **Cultural Context:**
+   - **Agya Ananse:** Ananse is a central figure in Akan mythology, embodying traits of intelligence, cunning, and sometimes deceit. He often interacts with other characters in folk tales to convey moral lessons.
+   - **Anyankonsem:** In Akan spirituality, Anyankonsem represents the supreme deity, akin to the concept of God. Seeking Anyankonsem implies appealing to the highest authority or divine intervention.
+   - **Dialogue Dynamics:** The interaction between Ananse and Osee reflects traditional roles and societal relationships. Farmers (*nkwaseafuo*) are essential in Akan society, and their recognition by figures like Osee signifies themes of respect, acknowledgment, and possibly communal harmony.
+3. **Translation Clarification:**
+   - The phrase "tuaa ano" is idiomatic, meaning that Ananse chose not to speak or respond, which sets the stage for Osee's proclamation.
+   - "Nkwaseafuo" directly translates to "farmers," highlighting the group's role and status within the community.
+   - "Anyankonsem" is retained in the translation to preserve the cultural and religious significance, as there isn’t an exact English equivalent that captures its full meaning within Akan belief systems.
+   - The overall translation aims to maintain the narrative's integrity, ensuring that cultural nuances and character relationships are effectively communicated to English-speaking audiences.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+The Mmoboro warrior fights for God.
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ode**: Warrior
+   - **Mmoboro**: Refers to the Mmoboro people, an ethnic group known for their distinctive culture and history.
+   - **ko**: Fights
+   - **maa**: For
+   - **Nyame**: God
+2. **Cultural Context:**
+   The Mmoboro, also known as the Mondé or Méréma, are a subgroup of the larger Bangora people primarily residing in the Sahel region near the Niger River in West Africa. They are traditionally known for their expertise in fishing and their unique cultural practices, including elaborate festivals and warrior traditions. In Akan culture, invoking a warrior from a specific ethnic group highlights the valor and specific cultural attributes associated with that group.
+3. **Translation Clarification:**
+   While "Ode Mmoboro" could be interpreted as "the Mmoboro warrior," it emphasizes the warrior's ethnic identity, linking their bravery and actions directly to their cultural heritage. The phrase underscores a sense of duty and divine purpose, suggesting that the warrior's fight is not merely physical but also has spiritual significance, aligning their actions with their faith in God.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"God says, 'I have not ceased, I certainly have not ceased.'"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - *Nyame* = God
+   - *see* = says
+   - *"Mensa aka, aka dee aka."* = "I have not ceased, I certainly have not ceased."
+   Breaking down the Akan phrase:
+   - *Mensa* = I have not stopped/ceased
+   - *aka* = ceased/stopped
+   - *aka dee aka* = certainly have ceased/stopped
+2. **Cultural Context:**
+   In Akan culture, proverbs are a fundamental aspect of communication, often encapsulating deep wisdom and philosophical insights. This particular proverb emphasizes the unwavering and persistent nature of God. It conveys the message that God's influence and presence are constant and unending, reassuring believers of His continual support and intervention in their lives.
+3. **Translation Clarification:**
+   While the literal translation provides a direct word-for-word interpretation, the essence of the proverb carries a deeper meaning about divine constancy. Therefore, translating it as "I have not ceased, I certainly have not ceased" captures both the literal and intended metaphorical significance, reflecting God's relentless and enduring presence.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse came again and began to deceive his wife by saying, "Aka the Leopard."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ananse:** Refers to Anansi, the spider trickster from Akan folklore.
+   - **baa bio:** "came again" or "returned."
+   - **be ka:** "began to speak" or "started to say."
+   - **kyeree ne yere see:** "deceive his wife thus" or "trick his wife in this manner."
+   - **"Aka Osebo":** Literally translates to "Aka the Leopard."
+2. **Cultural Context:**
+   Ananse is a central character in Akan stories, embodying the traits of cunning, intelligence, and trickery. The leopard (*Osebo*) in Akan culture often symbolizes strength, stealth, and sometimes deceit. By invoking "Aka Osebo," Ananse is likely referencing a well-known tale or proverb involving the leopard, using it as a tool or metaphor in his attempt to deceive his wife.
+3. **Translation Clarification:**
+   The phrase "Aka Osebo" may carry specific connotations or reference particular stories within Akan tradition that are not immediately apparent in English. While a direct translation is provided, the full nuance might involve Ananse using a familiar proverb or saying about the leopard to manipulate or trick his wife. Understanding the depth of this phrase may require familiarity with the specific folklore or proverbs of the Akan people.</t>
+  </si>
+  <si>
+    <t>**Translation:**  
+"Listen, 'Keep your promise.'"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Aso** – *Ear* or *Listen*
+   - **see** – *Say* or *Says*
+   - **Ko** – *Go*
+   - **tu** – *Lift* or *Raise*
+   - **amana** – *Trust*, *Faith*, or *Promise*
+2. **Cultural Context:**  
+   In Akan culture, proverbs and sayings are integral in conveying moral lessons and guiding behavior. The use of body parts like "aso" (ear) often symbolizes the importance of listening and being attentive. Upholding one's promises ("amana") is a highly valued virtue, reflecting integrity and reliability within the community.
+3. **Translation Clarification:**  
+   While the literal translation breaks down the words individually, the intended meaning emphasizes the importance of listening and maintaining one's commitments. Hence, "Listen, 'Keep your promise.'" effectively captures both the directive to pay attention and the moral imperative to honor one's word.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse says, "Stop and let me see."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **"Ananse see"** translates to **"Ananse says."**
+   - **"Gyae"** means **"stop"** or **"cease."**
+   - **"na"** functions as a conjunction meaning **"and"** or **"then."**
+   - **"mahu"** translates to **"let me see"** or **"allow me to understand."**
+2. **Cultural Context:**
+   Ananse is a central figure in Akan folklore, often depicted as a clever spider who embodies wisdom, storytelling, and cunning. Stories featuring Ananse are used to convey moral lessons, cultural values, and practical wisdom within Akan society. The use of Ananse in this phrase suggests a scenario where wisdom or a strategic approach is being employed.
+3. **Translation Clarification:**
+   While the literal translation of "Gyae na mahu" is "Stop and let me see," the phrase is contextually understood as a request for patience or a pause to assess a situation more carefully. This reflects Ananse's characteristic prudence and strategic thinking, emphasizing the importance of observation and contemplation before taking action.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Eventually, Ananse went to collect from Osebo with a long plan, and he persisted, while the woman stayed at home.
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Enie:** Eventually
+   - **Ananse:** Ananse (the spider, a central figure in Akan folklore)
+   - **ko:** went
+   - **pee:** to collect or gather
+   - **Osebo:** Osebo (the lion, often representing strength or authority)
+   - **kyeneno:** with a long plan (derived from "kyene" meaning "long" and "no" denoting possession)
+   - **na:** and
+   - **otu amana tententen:** built a long trust or established a lengthy agreement ("otu" meaning "built," "amana" meaning "trust," and "tententen" meaning "long")
+   - **okataa so:** persisted or continued so
+   - **obaa 'fie:** the woman stayed at home ("obaa" meaning "woman" and "fie" meaning "home")
+2. **Cultural Context:**
+   Ananse is a prominent figure in Akan mythology, often depicted as a clever and resourceful spider who uses his wit to overcome challenges and outsmart other characters. Osebo, representing the lion, symbolizes power and authority. Stories featuring Ananse and Osebo typically explore themes of intelligence triumphing over brute strength. The mention of the woman staying at home may reflect traditional gender roles within the cultural narratives, highlighting the division of responsibilities between characters.
+3. **Translation Clarification:**
+   The original Akan sentence uses idiomatic expressions and cultural references that convey a narrative about strategic planning and perseverance. "Kyeneno" and "otu amana tententen" suggest that Ananse employed a well-thought-out and enduring strategy in his interaction with Osebo. The phrase "na obaa 'fie" indicates that while Ananse was active and persistent in his endeavors, the woman remained in a more passive or supportive role at home. To maintain the essence and cultural significance of the original text, the translation adapts these elements into coherent English phrases while preserving the underlying themes.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+"Early in the morning, Ananse says the horse does not run, and the leopard stays at home."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Adeekyeye anopa:** "Early in the morning"
+   - **Ananse se:** "Ananse says"
+   - **oko:** "horse"
+   - **obekoro:** "does not run"
+   - **Osebo na:** "and the leopard"
+   - **oda amanam':** "stays at home"
+2. **Cultural Context:**
+   - **Ananse:** A prominent figure in Akan folklore, Ananse is often depicted as a clever spider who embodies wisdom, trickery, and moral lessons. Stories featuring Ananse are integral to Ghanaian cultural narratives, teaching values and societal norms.
+   - **Osebo (Leopard):** In Akan culture, the leopard symbolizes strength, stealth, and leadership. It often represents powerful leaders or individuals who exert significant influence within the community.
+   - **Horse:** While not as central as Ananse or Osebo, the horse in Akan symbolism can represent speed, freedom, and nobility.
+3. **Translation Clarification:**
+   - The proverb emphasizes the distinct behaviors and roles of different characters within their natural or societal settings. "Early in the morning" sets the time frame, suggesting the beginning of activities or actions. Ananse's statement about the horse not running highlights a specific trait or situation concerning the horse. Simultaneously, mentioning the leopard's choice to stay at home underscores its nature or strategic behavior. Collectively, the proverb may convey that each being or individual has its appropriate time and place for certain actions, reflecting harmony and order within the community or nature.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+Ananse said, "Agyawa, come! Enawa, come! If I deceive you by saying you cannot drink palm wine, corrupting your honesty so you do not partake, why then have you come to settle among the people? If I refuse to take you, tomorrow you will come to see me; but if I am not here, then you will not be able to reach her."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - *Agyawa 'ba!* — "Agyawa, come!"
+   - *Enawa 'ba!* — "Enawa, come!"
+   - *se maka akyere wo se nnom nsa* — "if I deceive you by saying you cannot drink palm wine"
+   - *sese wo nokwa wako nom abo* — "corrupting your honesty so you do not partake"
+   - *nti na w'abe to amanam'* — "therefore, why have you come to settle among the people?"
+   - *se me kaase me beyi wo a* — "if I refuse to take you"
+   - *addekye wo ko hu me a* — "tomorrow you will come to see me"
+   - *se nso me 'ha biara a, na wo ko kye no* — "but if I am not here, then you will not be able to reach her."
+2. **Cultural Context:**
+   - **Ananse:** A central figure in Akan folklore, Ananse is a spider deity known for his wisdom, creativity, and sometimes deceitful nature. He often represents the complexities of human behavior and social interactions.
+   - **Palm Wine (nnom nsa):** Palm wine is a traditional alcoholic beverage in many West African cultures, including the Akan. It plays a significant role in social gatherings, ceremonies, and as a symbol of community and hospitality.
+   - **Honesty and Deception:** The passage reflects themes of trust, deception, and the importance of honesty within the community. By threatening to deceive others about their ability to partake in communal activities (like drinking palm wine), Ananse highlights the consequences of undermining trust.
+3. **Translation Clarification:**
+   - The phrase "corrupting your honesty so you do not partake" implies a manipulation of someone's integrity to exclude them from social activities.
+   - "Settle among the people" refers to integrating or being accepted within the community.
+   - The conditional statements ("if I refuse... then you will...") emphasize the power dynamics and the potential outcomes based on Ananse's actions, illustrating the delicate balance between inclusion and exclusion in social relationships.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+The leopard says, "Oh! I do not fear."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Osebo**: The leopard
+   - **se**: says
+   - **"ɔ! me ntimi."**:
+     - **ɔ!**: Oh!
+     - **me**: I
+     - **ntimi**: do not fear
+2. **Cultural Context:**
+   - In Akan folklore, the leopard (**Osebo**) is often portrayed as a cunning and fearless animal. It symbolizes strength, bravery, and sometimes deceit. Proverbs and sayings involving the leopard typically convey messages about courage, caution, or the nature of leadership.
+3. **Translation Clarification:**
+   - The phrase "ɔ! me ntimi." is an exclamation expressing a lack of fear. While directly translating to "Oh! I do not fear," it encapsulates a broader sentiment of confidence and bravery attributed to the leopard in Akan culture. This expression may be used metaphorically to encourage fearlessness or to describe someone who exhibits similar traits.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse went to cut down two trees, placed a basket here, and placed a basket there.
+---
+1. **Literal Translation Mapping:**
+   - *Ananse* – Refers to the spider deity Anansi, a central figure in Akan folklore known for his wit and trickery.
+   - *ko* – Went/go.
+   - *twaa* – Cut down.
+   - *nnua* – Trees.
+   - *mmienu* – Two.
+   - *de* – Took/used.
+   - *baka* – Basket.
+   - *too* – Placed/put.
+   - *ha* – Here.
+   - *ha* (repeated) – There.
+   **Literal Translation:** "Ananse went to cut two trees, took a basket here, took a basket there."
+2. **Cultural Context:**
+   Ananse is a pivotal character in West African (particularly Akan) storytelling traditions. He often embarks on quests or tasks that involve cleverness and problem-solving. Cutting down trees and placing baskets could symbolize preparation for a journey, the gathering of resources, or setting up traps—common themes in Ananse tales that emphasize wisdom and adaptability.
+3. **Translation Clarification:**
+   While the literal translation provides a direct word-for-word rendition, the smoother English translation aims to convey the intended meaning and flow. The repetition of "placed a basket here, and placed a basket there" emphasizes Ananse's methodical approach to his task. Additionally, understanding Ananse's role in folklore adds depth to the actions described, suggesting that his endeavors may have underlying motives or clever intentions typical of his character.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+He said, "Take one of your hands and place it here, and take your other hand and stretch it here."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Osee** – He/she said
+   - **Fa** – Take
+   - **wo** – your
+   - **nsa** – hand
+   - **bako** – one
+   - **to** – place/put
+   - **ha** – here
+   - **na** – and
+   - **soso** – stretch/lift
+2. **Cultural Context:**
+   In Akan culture, physical gestures often accompany verbal instructions, especially in teaching moments or during traditional ceremonies. This directive to position the hands may be part of a ritual, exercise, or demonstration aimed at conveying balance, coordination, or a specific cultural practice. Such instructions are integral in maintaining the rhythm and discipline within communal activities.
+3. **Translation Clarification:**
+   The word **"soso"** carries the nuance of stretching or elevating a hand, which is why "stretch" is used in the translation to accurately reflect the intended action. Additionally, **"Osee"** sets the tone as a reported speech, indicating that the statement is being conveyed by someone else. The translation aims to preserve the imperative nature of the original sentence while ensuring clarity in English.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"And the leopard remains silent."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na**: "And"
+   - **Osebo**: "Leopard"
+   - **de**: "is" or "remains"
+   - **totoye**: "silent" or "maintains silence"
+   *Combined literally, the sentence reads: "And the leopard remains silent."*
+2. **Cultural Context:**
+   In Akan culture, the leopard (**Osebo**) is a potent symbol often associated with power, stealth, and authority. It is commonly featured in proverbs and folklore to convey deeper moral or social lessons. Silence, as represented by the leopard in this proverb, emphasizes the value placed on being strategic and prudent. The leopard’s silence can symbolize wisdom, restraint, and the strength found in not always voicing one’s intentions or thoughts.
+3. **Translation Clarification:**
+   While the literal translation is straightforward, understanding the proverb's intended meaning requires cultural insight. "And the leopard remains silent" serves as a metaphor advising that sometimes, restraint and silence are more effective than speaking out. It suggests that holding back can be a form of strength and that not all actions require words. This proverb can be applied in various contexts, such as leadership, negotiations, or personal relationships, where strategic silence can lead to better outcomes.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+"Ose and ofo' have equipped Ananse with the sword, and you have granted him glory, strengthening his resolve!"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ose ofo'**: "Ose and ofo'"
+     - *Ose*: Refers to a person or entity named Ose.
+     - *ofo'*: Translates to "bow," symbolizing weaponry or tools.
+   - **na Ananse ama sekan so**: "have equipped Ananse with the sword"
+     - *na*: "and"
+     - *Ananse*: The spider, a central figure in Akan folklore known for his wisdom and trickery.
+     - *ama*: "have given" or "have provided"
+     - *sekan so*: "with the sword" (*sekan* meaning "sword," *so* indicating possession or association.
+   - **na wa ma n'anyam**: "and you have granted him glory"
+     - *na*: "and"
+     - *wa*: "you" (singular)
+     - *ma*: "give" or "grant"
+     - *n'anyam*: "his glory" (*n’* is a possessive prefix for "his," *nyam* meaning "glory" or "prestige."
+   - **ne tirim' gao**: "strengthening his resolve"
+     - *ne*: "his"
+     - *tirim'*: "mind" or "thoughts" (*tirim* meaning "mind")
+     - *gao*: Likely a contraction or dialectal variation implying "strength" or "firmness."
+2. **Cultural Context:**
+   - **Ananse**: A pivotal character in Akan mythology, Ananse is often depicted as a cunning spider who uses his wit to navigate challenges. Equipping Ananse with a sword symbolizes empowerment, granting him the means to assert himself or defend his position.
+   - **Ose and ofo'**: These may represent supportive figures or deities in the narrative, providing Ananse with the necessary tools (symbolized by the sword and bow) to achieve his goals.
+   - **Granting Glory**: In Akan culture, glory (*nyam*) is highly valued, representing honor, reputation, and social standing. Granting Ananse glory implies elevating his status and recognizing his achievements or cunning.
+3. **Translation Clarification:**
+   - The phrase metaphorically conveys the idea of providing someone with the tools and recognition needed to succeed. In this context, "Ananse" embodies intelligence and resourcefulness, and by equipping him with a sword and granting him glory, he is empowered to overcome obstacles and assert his influence.
+   - The specific terms "Ose" and "ofo'" are maintained to preserve the cultural and contextual nuances, as they likely reference particular entities or symbols within Akan tradition.
+   - "ne tirim' gao" is interpreted as "strengthening his resolve" to capture the essence of enhanced mental fortitude resulting from the bestowed tools and glory.</t>
+  </si>
+  <si>
+    <t>**English Translation:**  
+"The leopard has taken away the meat!"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Osebo:** Leopard
+   - **Gyee:** Took/has taken
+   - **Ama-:** Away
+   - **Nam':** Meat
+   - **Fom!:** Exclamation mark indicating emphasis or surprise
+2. **Cultural Context:**
+   In Akan folklore, the leopard (*Osebo*) is a prominent symbol representing strength, cunning, and sometimes deceit. It often appears in proverbs and stories as a metaphor for powerful adversaries or unexpected challenges. The imagery of a leopard taking meat underscores themes of loss, vigilance, and the ever-present threats that one must navigate in daily life.
+3. **Translation Clarification:**
+   While the literal translation is straightforward, conveying "The leopard has taken away the meat!", the phrase may also carry metaphorical implications. It can symbolize the loss of resources or the cunning ways in which opportunities or possessions can be snatched away by more powerful or opportunistic forces. Understanding this metaphor requires awareness of the leopard's symbolic role in Akan culture as both a formidable predator and a figure of cautionary tales.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"Ananse used a net to trap Osebo."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ananse**: The Spider, a central character in Akan folklore known for his wit and trickery.
+   - **faa**: took
+   - **atwedee**: net
+   - **de sii**: used to set/place
+   - **amanam' ko**: refers to the communal or public arena/conflict
+   - **yii**: to remove or trap
+   - **Osebo**: The Leopard, often symbolizes strength or a formidable opponent
+2. **Cultural Context:**
+   In Akan mythology, Ananse is renowned as a clever trickster who frequently uses his intelligence to overcome challenges and adversaries. Osebo, representing brute strength and danger, often serves as a foil to Ananse's cunning. The act of using a net ("atwedee") reflects traditional methods and symbolizes strategic thinking employed by Ananse to outwit a more powerful opponent within the community setting ("amanam' ko").
+3. **Translation Clarification:**
+   The translated sentence captures the essence of the original Akan text, conveying that Ananse employed a net as a means to trap or defeat Osebo. While "amanam' ko" directly pertains to the communal or conflict setting, in this context, it emphasizes the environment in which Ananse's strategy was executed. The translation maintains the narrative of intelligence triumphing over raw power inherent in Ananse stories.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Oko removed the lion and said, "Offend me and go take your fight to Anyankonsem."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - *Oko* – "Oko" (a name or title)
+   - *yii* – "removed" or "took away"
+   - *Osebo* – "the lion"
+   - *de no baye* – "and said"
+   - *osee* – "he/she said"
+   - *Kwasea me de wo ko gye Anyankonsem* – "Offend me and go take your fight to Anyankonsem."
+2. **Cultural Context:**
+   - In Akan culture, the **Osebo** (lion) symbolizes strength, authority, or a formidable opponent. Removing the lion can signify diminishing one's own power or making oneself vulnerable.
+   - **Oko** is a name that might refer to a respected individual or leader within the community.
+   - **Anyankonsem** is likely a place, entity, or person known within the cultural or narrative context, representing another arena or authority where conflicts can be taken.
+3. **Translation Clarification:**
+   - The phrase "Offend me and go take your fight to Anyankonsem" captures the essence of challenging someone directly and redirecting their conflict elsewhere. This reflects a stance of vulnerability paired with defiance, suggesting that the speaker is open to confrontation but defers the resolution to another party or location.
+   - The translation aims to preserve the metaphorical use of the lion and the authoritative tone of Oko's statement, ensuring that the underlying meaning aligns with potential cultural narratives or proverbs in Akan.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+He offered the leopard to God.
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Omaa**: He offered/gave
+   - **Osebo**: Leopard
+   - **so**: On/top/as an offering
+   - **ko**: To
+   - **maa**: Gave/offered
+   - **Nyame**: God
+2. **Cultural Context:**
+   In Akan culture, the leopard (*Osebo*) is a symbol of strength, royalty, and spiritual significance. Offering a leopard to *Nyame* (God) is a profound act, often associated with seeking divine favor, expressing gratitude, or fulfilling a vow. Such sacrifices are typically conducted during important ceremonies or rites of passage, reflecting the deep-seated beliefs in the interconnectedness between the spiritual and physical realms.
+3. **Translation Clarification:**
+   While a direct translation aligns closely with "He offered the leopard to God," it's essential to understand that this act transcends mere giving. It embodies a ritualistic sacrifice imbued with spiritual intent, symbolizing the individual's devotion and reverence toward the divine. The choice of a leopard underscores the gravity and significance of the offering within the cultural and religious framework of the Akan people.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"God has provided, Mensa has taken, the rest remains good."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Nyame** – God
+   - **see** – provided/provision
+   - **Mensa** – a personal name
+   - **aka** – remains/leftover
+   - **dee** – the rest/the remaining part
+   - **aka** – remains
+2. **Cultural Context:**
+   In Akan culture, expressions often reflect themes of divine providence and communal sharing. This saying emphasizes trust in God's provision, the acknowledgment of individual shares (in this case, Mensa's portion), and the contentment with what remains. It underscores a belief in balance and sufficiency, highlighting that even after personal needs are met, there is still goodness in what is left.
+3. **Translation Clarification:**
+   The phrase conveys a sense of gratitude and acceptance. "God has provided" acknowledges divine support, "Mensa has taken" signifies personal or individual receipt, and "the rest remains good" reflects satisfaction with what is left. The translation aims to maintain the original sentiment of trust and contentment inherent in the Akan expression.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+Ananse gave birth and raised a daughter named Akua Ba. When he faced difficulties, he devised schemes to help Akua Ba; he spun a net and threw it, and he also lifted some and dropped them into Akua Ba's hands. He extended a branch to Akua Ba's side, and it eventually reached beneath the dense forest where the spirits would come to play.
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - *Ananse baye* – Ananse gave birth
+   - *na osenee Akua Ba* – and raised (nurtured) Akua Ba
+   - *na oboo amane de tetaree Akua Ba no ho* – and when he faced hardships, he devised schemes for Akua Ba's benefit
+   - *na ofufuu to* – and he spun a net
+   - *na ode bi hyee Akua Ba no nsam'* – and he threw some into Akua Ba's hands
+   - *na ofufuu bi de guu ayowam'* – and he lifted some and dropped them into the abyss
+   - *ode homa soo Akua Ba asen* – he extended a branch to Akua Ba's side
+   - *na ode no kosii odum ase babi a mmoatia bedi agoro* – and the branch reached beneath the dense forest where the spirits (mmoatia) would play
+2. **Cultural Context:**
+   - **Ananse** is a central figure in Akan folklore, often portrayed as a cunning spider who uses his wit to overcome challenges. **Akua Ba** typically refers to a female child born on Wednesday, following Akan day-naming traditions.
+   - The actions of spinning nets and extending branches symbolize Ananse’s resourcefulness and his efforts to provide and protect his family.
+   - **Mmoatia** are spirits or mythical creatures in Akan belief systems, often associated with the natural world and traditional folklore narratives.
+3. **Translation Clarification:**
+   - The term "**baye**" literally means "gave birth," but in this context, it signifies Ananse raising and nurturing his daughter.
+   - "**Amane de tetaree**" conveys the idea of facing and overcoming difficulties through cleverness or strategic action, which is characteristic of Ananse’s persona.
+   - The phrase "**odes no kosii odum ase babi a mmoatia bedi agoro**" involves metaphorical language indicating reaching into the spiritual or unknown realms, emphasizing the mystical aspects of the story.</t>
+  </si>
+  <si>
+    <t>**English Translation:**  
+"And one ghost has died."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na:** "And"  
+   - **Mmoatia:** "Ghost" or "Spirit"  
+   - **Bako:** "One" or "Single"  
+   - **Baye:** "Has died" or "Died"  
+2. **Cultural Context:**  
+   In Akan culture, "mmoatia" refers to spirits or ghosts, which can be ancestral spirits or supernatural beings. Ghosts are integral to Akan folklore and are often depicted as beings that interact with the living world, sometimes influencing daily life and events. The concept of a ghost dying is intriguing, as it suggests the end or transformation of a spirit, which may relate to specific cultural beliefs about the afterlife or spiritual realms.
+3. **Translation Clarification:**  
+   While the literal translation is straightforward, "And one ghost has died," the phrase may carry deeper metaphorical meanings depending on the context. It could symbolize the end of a particular influence or presence, represent a turning point in a narrative involving the supernatural, or reflect beliefs about the lifecycle of spirits within Akan tradition. Understanding the surrounding context would provide more insight into the intended nuance of the statement.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Osee said, "Akua, don't I have this plan?"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - *Osee* – A personal name.
+   - *Akua* – A female personal name.
+   - *me* – I
+   - *nni* – do not have
+   - *eto* – plan or arrangement
+   - *yi* – this
+   - *bi* – any/a part
+   So, the literal translation is: "Osee, Akua; I do not have this plan any?"
+2. **Cultural Context:**
+   In Akan culture, names often carry significant meanings and can reflect familial or societal roles. Conversations between individuals using names directly indicate a personal or formal dialogue. Discussing plans (*eto*) may relate to community activities, family matters, or personal endeavors, reflecting the collaborative and communal nature of Akan society.
+3. **Translation Clarification:**
+   The phrase "don't I have this plan?" is interpreted as Osee questioning Akua about the existence or possession of a specific plan. The literal structure is adjusted for natural English phrasing, ensuring the meaning remains clear and contextually appropriate in translation.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+"Ananse twists the rope, while Akua’s child only has her head."
+---
+**Footnote:**
+1. **Literal Translation Mapping**
+   - **Na**: "and" or "while"
+   - **Ananse**: Refers to the spider character from Akan folklore, often portrayed as a trickster.
+   - **atwe**: "twists" or "pulls"
+   - **homa no**: "the rope"
+   - **Akua Ba no**: "Akua’s child"
+   - **abo ne tiri nko**: "only has her head"
+2. **Cultural Context**
+   Ananse is a central figure in Akan mythology, symbolizing cleverness and resourcefulness. Stories involving Ananse often convey moral lessons or explain natural phenomena. Akua is a common Akan female name, and "Akua Ba" translates to "Akua’s child." The imagery of twisting a rope can symbolize manipulation or creating complex situations, while the mention of only having her head might imply vulnerability or the aftermath of Ananse's actions.
+3. **Translation Clarification**
+   The sentence illustrates a scenario where Ananse is actively engaging in manipulating or creating a situation ("twists the rope"), resulting in Akua’s child being left in a compromised state ("only has her head"). This could metaphorically represent the consequences of dealing with cunning or deceitful characters, highlighting themes of trust and the impact of one's actions on others within Akan storytelling.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+The spirits tell their sibling Balm, "He says I don't have any."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Mmoatia**: spirits or mischievous beings
+   - **ka**: say/tell
+   - **kyeree**: direct/tell
+   - **onua**: sibling or relative
+   - **Balm**: proper noun (a name)
+   - **se**: that
+   - **"Ose me nni bi."**: "He says I don't have any."
+2. **Cultural Context:**
+   In Akan folklore, **mmoatia** refers to supernatural beings or spirits often portrayed as mischievous or playful entities. They are part of the rich tapestry of Akan mythology and are believed to interact with humans in various ways. The use of **onua** emphasizes familial or close relational ties, even among supernatural beings, reflecting the Akan value of kinship and community.
+3. **Translation Clarification:**
+   The term **Balm** is retained as a proper noun, assuming it to be a name of a character within the context. The phrase **"Ose me nni bi"** is translated to maintain the direct speech, capturing the essence that one spirit is conveying another's statement about not possessing something. This translation preserves the interpersonal dynamics and the implied back-and-forth communication typical in stories involving spirits in Akan culture.</t>
+  </si>
+  <si>
+    <t>**Translation:**  
+"Osee, 'Have some.'"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**  
+   - **Osee:** The name of the individual being addressed.  
+   - **Di:** Translates directly to "eat" or "take."  
+   - **bi:** Means "something" or "some."  
+   - **e:** A pronoun meaning "it."  
+   **Literal Translation:** "Osee, 'Eat some of it.'"
+2. **Cultural Context:**  
+   In Akan culture, offering food or drink is a significant gesture of hospitality and camaraderie. When someone says "Di bi e," it’s an invitation to share in the meal or partake in refreshments, reflecting the communal spirit and the importance of sharing within the community.
+3. **Translation Clarification:**  
+   While the phrase literally translates to "Eat some of it," the English equivalent "Have some" captures the intended friendly and inviting tone more naturally. This ensures the translation conveys both the literal meaning and the cultural warmth associated with the original Akan expression.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+He ate the food and bowed down.[1]
+---
+[1] **Footnote:**
+1. **Literal Translation Mapping:**
+   - *Na* = and/then
+   - *odii* = he ate
+   - *aduane no* = the food
+   - *wieye* = finished/completed
+   - *odaa n'ase* = he bowed down/submitted himself
+2. **Cultural Context:**
+   - In Akan culture, bowing down after a meal is a gesture that signifies respect, humility, or gratitude. This act can demonstrate acknowledgment of those who provided the food or express humility in a communal setting.
+3. **Translation Clarification:**
+   - The phrase "bowed down" accurately captures the essence of "odaa n'ase" by conveying both the physical action and its underlying respectful or humble intent. While a more literal translation might suggest simply bowing, the chosen translation ensures that the cultural significance is appropriately understood in English.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"He is under the ommua."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Oda**: He/she is sitting or lying
+   - **n'ase**: under or beneath
+   - **ommua**: ommua (a specific term retained in translation)
+2. **Cultural Context:**
+   In Akan culture, the term "ommua" refers to a traditional shelter or structure used during significant events such as communal gatherings, rituals, or ceremonies. These structures are often symbolic, representing protection, community, and cultural heritage. The placement or presence beneath an ommua can indicate participation in communal activities or seeking shelter and guidance within the cultural framework.
+3. **Translation Clarification:**
+   The word "ommua" does not have a direct English equivalent, so it is retained in the translation to preserve its cultural significance. The phrase "He is under the ommua" suggests that the individual is situated within or participating in a communal or ceremonial context, highlighting the importance of cultural structures in daily life and social practices among the Akan people.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+"And the spirits told the relative, 'If I give thanks, do not go.'"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na**: And then
+   - **Mmoatia no**: the spirits
+   - **ka**: say/tell
+   - **kyeree**: command/forcefully tell
+   - **onua**: relative/kinsman
+   - **se**: that
+   - **"Meda n'ase a, ommua."**: "If I give thanks, do not go."
+2. **Cultural Context:**
+   - In Akan culture, spirits (**Mmoatia**) often play a role in guiding and communicating with the living, especially within family or clan structures. The instruction from the spirits to the relative emphasizes the importance of gratitude (**meda n'ase**) and the spiritual belief that expressing thanks can influence actions or decisions, such as urging someone not to leave or go away. This reflects the deep intertwining of spirituality and daily life in Akan society, where ancestral spirits are respected and their guidance sought.
+3. **Translation Clarification:**
+   - The phrase **"Meda n'ase a, ommua"** directly translates to "If I give you thanks, do not go," where **"Meda n'ase"** means "I give thanks" and **"ommua"** translates to "do not go." The translation aims to preserve the conditional relationship expressed by **"a"**, meaning "if." Additionally, **"onua"** is best captured as "relative" or "kinsman" to maintain the familial context inherent in Akan terminology. The verb **"kyeree"** implies a forceful or authoritative communication, which is rendered as "told" to convey the commanding nature of the spirits' message in English.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+The dwarf’s sister sternly says, "The calabash is dry."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - *Mmoatia no:* "The dwarf’s"
+   - *nua ka kyeree nose:* "sister sternly says"
+   - *Bo no sum:* "The calabash is dry."
+2. **Cultural Context:**
+   In Akan culture, the calabash is a significant traditional container used for storing food, liquids, and other essentials. It symbolizes sustenance, preparedness, and the importance of resource management. Dwarves (*mmoatia*) often appear in Akan proverbs and folklore, representing wisdom in addressing daily challenges and imparting moral lessons.
+3. **Translation Clarification:**
+   The phrase "The calabash is dry" serves as a metaphorical warning about the scarcity of resources or the neglect of essential preparations. The dwarf’s sister’s stern admonishment emphasizes the need to maintain and manage resources wisely to prevent shortages or hardships.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"But you are good!"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na:** "But"
+   - **wabo:** A contraction of "wo bo," where "wo" means "you" and "bo" means "heart" or "mind." In this context, it conveys "you are" or "your heart/mind is."
+   - **pa:** "Good"
+2. **Cultural Context:**
+   In Akan culture, affirming someone's character or actions is a common and valued practice. Phrases like "Na wabo, pa!" are used to commend individuals, reinforcing social bonds and encouraging positive behavior within the community. This expression reflects the communal emphasis on integrity, kindness, and moral excellence.
+3. **Translation Clarification:**
+   While the literal translation breaks down to "But you are good," the phrase functions as a sincere compliment. It's akin to saying "You're truly good!" or "You are indeed good!" in English, emphasizing the speaker's appreciation or admiration for the person's qualities or actions.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"And his hands remained there."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na** – "And"
+   - **ne** – "his"
+   - **nsa** – "hands"
+   - **aka** – "remained" or "left"
+   - **ho** – "there"
+2. **Cultural Context:**
+   In Akan culture, hands ("nsa") are not only physical appendages but also symbolize action, effort, and responsibility. The phrase emphasizes the continuation of someone's involvement or commitment in a particular situation or place. It can reflect steadfastness, perseverance, or the enduring nature of one's actions and duties within the community or a specific context.
+3. **Translation Clarification:**
+   While the literal translation is "And his hands remained there," the expression carries deeper connotations in Akan. It suggests that the person continued to contribute, work, or maintain their role despite circumstances that might have challenged their involvement. Depending on the surrounding context, it could imply loyalty, unwavering commitment, or sustained effort in a given endeavor.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+He tells his sibling, "My hand has touched it."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - *Oka* – He speaks/tells
+   - *kyeree* – to teach/tell
+   - *onua* – sibling
+   - *se* – that
+   - *Me nsa* – My hand
+   - *aka* – has touched/has reached
+   - *ho* – it/here
+   **Combined Literal Translation:**  
+   "He tells his sibling that, 'My hand has touched it.'"
+2. **Cultural Context:**
+   In Akan culture, the phrase "Me nsa aka ho" (My hand has touched it) is an idiomatic expression used to convey non-involvement or distancing oneself from a situation. It implies that the speaker has no part in the matter being discussed, similar to saying "I have nothing to do with it" in English. This expression underscores the importance of personal responsibility and clarity in interpersonal communications within the Akan community.
+3. **Translation Clarification:**
+   While the literal translation is "My hand has touched it," the phrase functions idiomatically to indicate that the speaker is not involved or responsible for a particular issue or action. Therefore, in English, it is more accurately rendered as "I have nothing to do with it" or "I am not involved," to capture the intended meaning and cultural nuance.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Osee said, "Take what remains and cover it again."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Fa** = "Take"
+   - **bako a aka** = "what remains" or "what is left"
+   - **bo no** = "cover it"
+   - **sum bio** = "again"
+2. **Cultural Context:**
+   In Akan culture, completeness and thoroughness in actions are highly valued. This phrase emphasizes the importance of not leaving tasks unfinished and ensuring that everything is properly attended to. It reflects a broader cultural ethic of responsibility and meticulousness in both personal and communal activities.
+3. **Translation Clarification:**
+   While the direct translation is "Take what remains and cover it again," the underlying message encourages ensuring that nothing is overlooked or left incomplete. It can be interpreted as a reminder to finalize tasks diligently, secure remaining resources, or maintain order after an activity.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+"And the lover's intentions are good! And this also remains."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na** – "And"
+   - **ode** – "lover" or "sweetheart"
+   - **boo** – "intentions" or "affection"
+   - **no pa** – "are good" or "is good"
+   - **na** – "and"
+   - **'yi** – "this"
+   - **no so** – "also remains" or "is still present"
+   - **aka ho** – "about it" or "regarding it"
+2. **Cultural Context:**
+   In Akan culture, expressions about love and the purity of one’s intentions are significant in maintaining harmonious relationships. The affirmation of a lover's good intentions underscores trust and sincerity, which are highly valued. Additionally, stating that "this also remains" emphasizes the enduring nature of these positive qualities or the relationship itself.
+3. **Translation Clarification:**
+   The original Akan sentence emphasizes both the goodness of the lover's intentions and the persistence of these positive traits or the relationship. While a direct translation provides the basic meaning, understanding the cultural emphasis on sincerity and lasting relationships enriches its interpretation in English.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"And the spirits told a relative, 'My two hands are enough.'"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - *Na* – "And" or "Then"
+   - *Mmoatia* – "Spirits" or "Ghosts"
+   - *ka* – "say" or "tell"
+   - *kyeree* – "teach" or "instruct" (contextually meaning "tell")
+   - *onua* – "relative" or "sibling"
+   - *se* – "that" or introduces a quote
+   - *Me nsa mmienu aka ho* – "My two hands are enough"
+2. **Cultural Context:**
+   In Akan culture, spirits (*mmoatia*) are often regarded as intermediaries between the physical world and the spiritual realm. They are believed to possess wisdom and offer guidance or warnings to the living. The phrase "My two hands are enough" may symbolize self-sufficiency or a message about relying on one's own abilities and resources.
+3. **Translation Clarification:**
+   While a direct translation is "And the spirits told a relative, 'My two hands are enough,'" the underlying meaning conveys a message of self-reliance or sufficiency. The phrase emphasizes the importance of using one's own efforts rather than depending on external forces or assistance.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+He said, "Take your poison."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Osee**: "He said."
+   - **Fa**: "Take."
+   - **w'afu sum no**:
+     - **w’**: "your."
+     - **afu sum**: "poison" ("afu" means "poison" and "sum" can mean "evil" or "curse").
+     - **no**: "the."
+   Combined, "Fa w'afu sum no" translates directly to "Take your poison."
+2. **Cultural Context:**
+   - In Akan culture, references to "poison" (**afu sum**) can carry both literal and metaphorical meanings. Literally, it pertains to actual toxins, but metaphorically, it can symbolize betrayal, curses, or harmful intentions. The use of such expressions is often contextual, reflecting underlying social dynamics or moral lessons within the community.
+3. **Translation Clarification:**
+   - While the literal translation is "Take your poison," the phrase may carry idiomatic significance similar to the English expression "Take your poison," which is used to acknowledge and accept a difficult or negative consequence. Depending on the context, it could imply acceptance of a challenging situation, acknowledgment of wrongdoing, or resignation to adverse circumstances within interpersonal relationships.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"The hunter extinguishes the fire, but some embers remain."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ode** = "hunter"
+   - **sum** = "fire"
+   - **no** = definite article "the"
+   - **na** = conjunction "and"
+   - **n'afu** = "he extinguishes it" or "he puts it out"
+   - **aka ho** = "some remains" or "embers left"
+   *Word-for-word:* "The hunter the fire, and he extinguishes some remains."
+2. **Cultural Context:**
+   In Akan culture, proverbs and sayings often utilize elements from nature and daily life to convey deeper philosophical meanings. Fire symbolizes passion, life force, or challenges, while the hunter represents an individual’s efforts to control or overcome these elements. This metaphor reflects the persistent nature of certain aspects of life, suggesting that complete eradication is difficult to achieve.
+3. **Translation Clarification:**
+   The Akan phrase "Ode sum no, na n'afu aka ho" uses the imagery of a hunter dealing with fire to illustrate that even when someone attempts to extinguish or manage a powerful force (like passion or adversity), residual effects or remnants (embers) often persist. Therefore, the translation captures both the literal actions and the underlying metaphor about the enduring nature of certain forces despite attempts to suppress them.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"And Ananse was about to capture him; he said, 'Kwasea, I have you, I will take you to face Anyankonsem.'¹"
+---
+¹ **Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na Ananse baye na obe kyekyeree no; osee,**  
+     "And Ananse was about to capture him; he said,"
+   - **"Kwasea m'anya wo, me de wo ko gye Anyankonsem."**  
+     "'Kwasea, I have you, I will take you to face Anyankonsem.'"
+2. **Cultural Context:**
+   - **Ananse** is a prominent figure in Akan folklore, often depicted as a clever spider who engages in various adventures and schemes. He symbolizes wisdom, creativity, and sometimes deceit.
+   - **Anyankonsem** refers to a deity or spiritual force within Akan belief systems associated with judgment and retribution. Facing Anyankonsem implies being brought before a higher authority for accountability.
+3. **Translation Clarification:**
+   - The phrase captures a moment where Ananse is asserting his control over Kwasea, threatening him with a confrontation involving Anyankonsem. The translation maintains the original intent and nuances, ensuring that the cultural significance of both Ananse and Anyankonsem is preserved for the reader.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"And the lover is fighting at home."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na:** A conjunction that can mean "and" or "but."
+   - **Ode:** Translates to "lover" or "one who loves."
+   - **Koo:** Means "is fighting" or "fights."
+   - **'Fie:** Means "home" or "house."
+2. **Cultural Context:**
+   In Akan culture, phrases often carry deeper meanings related to interpersonal relationships and domestic life. The concept of a "lover" engaging in conflict at home may reflect common themes in Akan narratives about love, partnership, and household dynamics. Understanding such expressions requires awareness of the social structures and values inherent in Akan society, where family and relationships hold significant importance.
+3. **Translation Clarification:**
+   While a direct word-for-word translation is "And the lover is fighting at home," the phrase is adapted to convey the intended meaning clearly in English. The conjunction "Na" is best rendered as "and" to maintain the flow of the sentence, and "fighting" captures the essence of "koo," which implies conflict or struggle. The translation aims to preserve both the literal meaning and the underlying sentiment expressed in the original Akan text.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"Then Ananse told Oni, Ya Nsia, 'Wake up, let's go. I won't take you along with these mice to receive Anyankonsem.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na** – Then
+   - **Ananse ka kyeree oni** – Ananse told Oni
+   - **Ya Nsia se** – Ya Nsia said
+   - **Sore** – Wake up
+   - **ma yen ko** – let's go
+   - **me mfa wo nka** – I won't take you along
+   - **Mmoatia yi ho** – with these mice
+   - **nko gye Anyankonsem** – to receive Anyankonsem
+2. **Cultural Context:**
+   - **Ananse** is a central figure in Akan folklore, often depicted as a clever spider who uses his wit to overcome challenges. He embodies traits like intelligence, trickery, and resourcefulness.
+   - **Oni** and **Ya Nsia** are likely characters within a specific folktale or narrative, representing individuals who interact with Ananse.
+   - **Mmoatia** translates to "mice," which in many African cultures can symbolize the common people or be part of metaphorical storytelling elements.
+   - **Anyankonsem** is a term that can refer to a deity, spiritual force, or a person of great power and influence within the Akan belief system.
+3. **Translation Clarification:**
+   - The sentence portrays a scenario where Ananse is advising or instructing another character, Ya Nsia, to take action without involving Oni with the "mice" in matters concerning "Anyankonsem." This could imply prioritizing a more significant or sacred task over mundane or common affairs.
+   - The translation captures the imperative nature of the advice, emphasizing urgency ("Wake up, let's go") and a decision to exclude Oni from a particular endeavor.
+   - Understanding the roles of the characters and the significance of "Anyankonsem" within the story enhances the depth of the translation, reflecting the interplay between different societal roles and spiritual elements in Akan culture.</t>
+  </si>
+  <si>
+    <t>**English Translation:**  
+"He has blessed us; keep God close."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Omaa:** "He has given" or "He has bestowed"
+   - **yen:** "us"
+   - **so:** "bless" or "blessing"
+   - **koo:** "keep" or "hold"
+   - **Nyame ho:** "God close" or "regarding God"
+2. **Cultural Context:**
+   In Akan culture, expressing gratitude for divine blessings is integral to daily life and spirituality. The phrase underscores the belief that blessings are gifts from God (Nyame) and emphasizes the importance of maintaining a close and respectful relationship with the divine. Upholding God in one's actions and thoughts reflects a community's reliance on and reverence for higher spiritual guidance.
+3. **Translation Clarification:**
+   While a word-for-word translation provides "He has given us; keep God close," the essence captures both the acknowledgment of receiving blessings and the exhortation to remain faithful and devoted to God. Therefore, the natural English translation conveys gratitude and a call to maintain spiritual integrity.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+He said, "God, these are dwarves, this is my old woman whom I scold."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Osee** – "He said"
+   - **Nyame** – "God"
+   - **Mmoatia ni** – "these are dwarves"
+   - **m'aberewa** – "my old woman"
+   - **a me kaye no** – "whom I scold"
+   - **nso ni** – "this is" or "is thus"
+2. **Cultural Context:**
+   In Akan folklore, **mmoatia** (dwarves or spirits) are mythical beings believed to inhabit the earth and possess various supernatural abilities. They are often associated with nature, hidden treasures, or serving as messengers between the spiritual and human realms. Addressing "Nyame" (God) indicates calling upon a higher power, reflecting the speaker's invocation for understanding or intervention regarding the situation with the dwarves and his old woman.
+3. **Translation Clarification:**
+   The speaker is expressing frustration or bewilderment by attributing the behavior or characteristics of his "old woman" (likely a spouse or elder female relative) to the influence of dwarves. This could imply that he perceives her actions as mischievous, unpredictable, or beyond normal understanding, hence likening them to the traits traditionally associated with mmoatia in Akan culture.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"God is above the continent, Akwamu, Adonten, Gyase, Oyoko, Ankobea, and Kyidom."[1]
+---
+[1] **Footnote:**
+1. **Literal Translation Mapping:**
+   - **Nyame**: God
+   - **so**: above
+   - **free**: over
+   - **Ko'ntire**: continent
+   - **ne**: and
+   - **Akwam'**: Akwamu (a historical Akan state)
+   - **Adonten**: Adonten (could refer to a subgroup or lineage)
+   - **Gyase**: Gyase (a dialect or clan within Akan)
+   - **Oyoko**: Oyoko (one of the Akan clans)
+   - **Ankobea**: Ankobea (likely a specific lineage or family group)
+   - **Kyidom**: Kyidom (a dynasty or lineage within Akan society)
+2. **Cultural Context:**
+   The sentence emphasizes the supremacy of God over various regions, dialects, clans, and lineages within Akan society. "Akwamu" refers to a prominent historical state in the Akan region, while "Gyase," "Oyoko," "Ankobea," and "Kyidom" represent different clans or family groups. "Adonten" likely denotes another subgroup or lineage within the Akan community. By listing these diverse groups, the statement underscores the idea that God's authority transcends all human divisions and societal structures inherent in Akan culture.
+3. **Translation Clarification:**
+   The phrase "Nyame so free" is an Akan expression conveying that God reigns supreme or holds ultimate authority. While "so" translates directly to "above" and "free" to "over," in this context, it implies sovereignty rather than just physical elevation. The proper nouns—Akwamu, Adonten, Gyase, Oyoko, Ankobea, and Kyidom—are retained in their original form to preserve their specific cultural and historical significance within the Akan framework.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+Then the hunter said to us, "Chief, every day brings its challenges; we cannot defeat Anyankonsem and Kwaku Ananse, who are crafty. I have accepted Mmoboro; I have accepted Mmoatia; I have accepted Osebo; I have accepted Onini. Ananse himself has arranged things this way; all the animals are surrounding them right now."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na ode too ye'anim se:** "Then the hunter said to us that"
+   - **Ahene akesie akesie aha:** "Chief Akesie brings here repeatedly" or "Chief Akesie often arrives here"
+   - **ye'antimi anto Anyankonsem:** "we cannot defeat Anyankonsem"
+   - **Kwaku Ananse dee watimi ato:** "Kwaku Ananse who is cunning"
+   - **m'agye no Mmoboro; m'agye no Mmoatia; m'agye no Osebo; m'agye no Onini:** "I have accepted Mmoboro; I have accepted Mmoatia; I have accepted Osebo; I have accepted Onini"
+   - **ono ara Ananse de oni ato so:** "Ananse himself has arranged things this way"
+   - **nnooma no nnyina na egu ho yi:** "all the animals are surrounding them right now"
+2. **Cultural Context:**
+   - **Kwaku Ananse:** A central figure in Akan folklore, Ananse is a trickster spider known for his intelligence and cunning. He often features in stories that impart moral lessons or explain natural phenomena.
+   - **Anyankonsem:** Likely referencing Nyankopon, the supreme deity in Akan spirituality, representing the sky and the creator.
+   - **Mmoboro, Mmoatia, Osebo, Onini:** These are names of various animals in Akan culture, each symbolizing different traits. For example, **Osebo** means leopard, symbolizing strength and fierceness, while **Onini** refers to a type of python, representing stealth and power.
+   - **Ahene Akesie:** "Ahene" means chief, indicating a person of authority. "Akesie" could be a personal name or title, suggesting a respected leader within the community.
+3. **Translation Clarification:**
+   - **"m'agye no":** Literally translates to "I have accepted him/her," but in this context, it implies acknowledging or taking responsibility for these animals/figures.
+   - **Structure and Idiomatic Expressions:** The original Akan sentence combines several proverbs and cultural idioms, making a direct word-for-word translation challenging. The translation aims to preserve the intended meaning and cultural significance rather than strictly adhering to literal phrasing.
+   - **Contextual Interpretation:** The passage reflects a dialogue where the hunter acknowledges the challenges posed by both deities and cunning figures like Ananse. By "accepting" these animals, the hunter may be recognizing their roles in the ecosystem or the community's belief system.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+Osee said, "Your iron."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Osee**: A personal name, equivalent to "Hosea" in English.
+   - **Mo**: Translates to "your."
+   - **Mpene**: Means "iron."
+   - **No**: The definite article "the."
+   **Combined Translation:** "Osee, 'Your iron.'"
+2. **Cultural Context:**
+   - In Akan culture, **iron** often symbolizes strength, resilience, and essential tools or implements used in daily life and traditional crafts. It can also represent wealth and the ability to create or repair, reflecting a person's or community's capability and resourcefulness.
+   - The use of names like **Osee** may carry cultural or familial significance, possibly alluding to traits associated with the name bearer, such as leadership or craftsmanship.
+3. **Translation Clarification:**
+   - While the literal translation is straightforward, the phrase may carry metaphorical meanings depending on the context. "Your iron" could refer to someone's personal strength, their tools or equipment, or even their capacity to endure challenges.
+   - Without additional context, it's interpreted as a direct statement acknowledging possession or association with something strong or essential. If used in a proverb or idiomatic expression, the meaning could be deeper, emphasizing endurance or the value of one's resources.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"We see, 'Eee!'"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ye**: Translates directly to **"We"** in English.
+   - **see**: Maintains its English meaning, **"see"**.
+   - **"Eee!"**: An exclamatory expression, similar to **"Eek!"** or **"Oh!"** in English.
+2. **Cultural Context:**
+   In Akan culture, exclamations like **"Eee!"** are commonly used to convey surprise, frustration, or emphasis during conversations. The phrase **"Ye see, 'Eee!'"** reflects a collective emotional response, possibly reacting to an unexpected event or emphasizing a point within a group setting.
+3. **Translation Clarification:**
+   While the literal translation is **"We see, 'Eee!'"**, a more natural rendering in English could be **"We see, oh!"** This captures both the literal meaning and the emotional nuance intended by the original Akan expression.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+Nyankonpon says, "Kwaku Ananse, from all these endeavors, I greet you with the words of Nyankon, kose! kose! kose!"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Nyankonpon see**: "Nyankonpon says"
+   - **Kwaku Ananse**: The name of the famous spider trickster figure in Akan folklore.
+   - **efiri nne ekoro yi**: "from all these endeavors/matters"
+     - **efiri**: "from"
+     - **nne**: "things/matters"
+     - **ekoro yi**: "these endeavors" (assuming "ekoro" refers to efforts or activities)
+   - **me de Anyankonsem me kye wo**: "I greet you with the words of Nyankon"
+     - **me de**: "I use/I bring"
+     - **Anyankonsem**: "the words/speech of Nyankon"
+     - **me kye wo**: "I greet you"
+   - **kose! kose! kose!**: An exclamatory expression, possibly denoting emphasis or a traditional greeting chant.
+2. **Cultural Context:**
+   - **Nyankonpon**: The supreme deity in Akan religion and mythology, representing ultimate authority and creation.
+   - **Kwaku Ananse**: A central figure in Akan folktales known for his wit, intelligence, and trickery. Ananse stories are integral to Akan oral tradition, often conveying moral lessons.
+   - **Anyankonsem**: Refers to the divine or sacred words of Nyankonpon, highlighting the authoritative nature of the message.
+   - **kose! kose! kose!**: Likely part of traditional exclamations or chants used in storytelling or rituals to capture attention and emphasize the message.
+3. **Translation Clarification:**
+   - The phrase **"kose! kose! kose!"** does not have a direct English equivalent and is retained to preserve the original flavor and emphasis present in Akan oral traditions.
+   - **"efiri nne ekoro yi"** is interpreted as "from all these endeavors," capturing the essence of ongoing efforts or activities referenced in the context.
+   - **"Anyankonsem"** specifically pertains to the divine speech of Nyankonpon, underscoring the sacredness and authority behind the greeting being extended to Kwaku Ananse.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+"They call it 'Anyankonsem' again, and we refer to it as 'Anansesem.'"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Yammered no Anyankonsem bio:** "They call it 'Anyankonsem' again."
+     - *Yammered no* translates to "They call it."
+     - *Anyankonsem bio* breaks down to "Anyankonsem again."
+   - **na ye'mfre no Anansesem:** "and we refer to it as 'Anansesem.'"
+     - *na* means "and."
+     - *ye'mfre no* translates to "we refer to it as."
+     - *Anansesem* is a compound of "Ananse" (a folklore figure) and "sem" (speech or story).
+2. **Cultural Context:**
+   - **Anyankonsem:** While not as widely recognized as "Anansesem," "Anyankonsem" can be interpreted as another form of storytelling or discourse within the Akan culture. It may refer to a specific style or type of narrative distinct from traditional Ananse tales.
+   - **Anansesem:** This term is deeply rooted in Akan folklore, referring to the stories of Ananse the spider, a central figure known for his wit, wisdom, and sometimes deceit. These stories often carry moral lessons and are a staple in Ghanaian oral literature.
+3. **Translation Clarification:**
+   - The sentence contrasts two terms for storytelling within the Akan tradition. While "Anyankonsem" is being used again, the speaker emphasizes their preference or identification with "Anansesem." This could imply a distinction in the quality, purpose, or style of the narratives being referred to. Understanding the nuanced differences between these terms requires deeper insight into specific Akan storytelling practices and contemporary usage.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+"The story I'm currently telling, whether it's good or not, take some and leave some."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **M'anansesem a metooye yi:** "My Ananse story that I am telling now"
+   - **se eye de o, se ennye de o:** "whether it is good or not good"
+   - **momfa bi nko, nazzzmomfa bi mmera:** "take some and leave some"
+2. **Cultural Context:**
+   - **Anansesem:** Refers to the tales of Ananse, a central figure in Akan folklore known for his wit and trickery. Ananse stories are traditionally used to convey moral lessons, cultural values, and practical wisdom.
+   - The phrase emphasizes the oral tradition of storytelling in Akan culture, where listeners are encouraged to actively engage with the narrative, extracting meaningful lessons while interpreting or contemplating other aspects independently.
+3. **Translation Clarification:**
+   - The expression "take some and leave some" metaphorically suggests that listeners should extract the beneficial or relevant parts of the story for themselves while leaving behind what may not apply or resonate. This approach aligns with the interactive nature of traditional Akan storytelling, where the audience participates in deriving personal and communal meanings from the tales.</t>
   </si>
 </sst>
 </file>
@@ -4138,4 +9896,2712 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>504</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>587</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>670</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>